--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="131">
   <si>
     <t>Table Name</t>
   </si>
@@ -73,253 +73,265 @@
     <t>NA</t>
   </si>
   <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>label_name</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>label_desc</t>
+  </si>
+  <si>
+    <t>EmployeeLabel</t>
+  </si>
+  <si>
+    <t>EmployeeStatus</t>
+  </si>
+  <si>
+    <t>Used to soft delete rows with a reason name and desc</t>
+  </si>
+  <si>
+    <t>status_name</t>
+  </si>
+  <si>
+    <t>status_desc</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>Soft Delete Bool</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>status_assigned</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>CustomerStatus</t>
+  </si>
+  <si>
+    <t>ProductStatus</t>
+  </si>
+  <si>
+    <t>StoreStatus</t>
+  </si>
+  <si>
+    <t>RewardStatus</t>
+  </si>
+  <si>
+    <t>BanType</t>
+  </si>
+  <si>
+    <t>Describes why a type of product is banned</t>
+  </si>
+  <si>
+    <t>PointReason</t>
+  </si>
+  <si>
+    <t>Describes why points were added or removed</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Blank Description</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>StateProvince</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>country_id</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Represents a complete address for a location</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>state_id</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>employee_status_id</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>create_employee_id</t>
+  </si>
+  <si>
+    <t>customer_status_id</t>
+  </si>
+  <si>
+    <t>tier_id</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>job_name</t>
+  </si>
+  <si>
+    <t>job_desc</t>
+  </si>
+  <si>
+    <t>AssocEmployeeLabel</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>employee_label_id</t>
+  </si>
+  <si>
+    <t>AssocCustomerLabel</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>customer_label_id</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>store_status_id</t>
+  </si>
+  <si>
+    <t>EmployeeJob</t>
+  </si>
+  <si>
+    <t>assign_date</t>
+  </si>
+  <si>
+    <t>store_id</t>
+  </si>
+  <si>
+    <t>job_id</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>payment_type_id</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>product_type_name</t>
+  </si>
+  <si>
+    <t>product_type_desc</t>
+  </si>
+  <si>
+    <t>ban_reason_id</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_desc</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t>product_type_id</t>
+  </si>
+  <si>
+    <t>product_status_id</t>
+  </si>
+  <si>
+    <t>OrderLine</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>label_name</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>label_desc</t>
-  </si>
-  <si>
-    <t>EmployeeLabel</t>
-  </si>
-  <si>
-    <t>EmployeeStatus</t>
-  </si>
-  <si>
-    <t>Used to soft delete rows with a reason name and desc</t>
-  </si>
-  <si>
-    <t>status_name</t>
-  </si>
-  <si>
-    <t>status_desc</t>
-  </si>
-  <si>
-    <t>is_active</t>
-  </si>
-  <si>
-    <t>Soft Delete Bool</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>status_assigned</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>CustomerStatus</t>
-  </si>
-  <si>
-    <t>ProductStatus</t>
-  </si>
-  <si>
-    <t>StoreStatus</t>
-  </si>
-  <si>
-    <t>RewardStatus</t>
-  </si>
-  <si>
-    <t>BanType</t>
-  </si>
-  <si>
-    <t>Describes why a type of product is banned</t>
-  </si>
-  <si>
-    <t>PointReason</t>
-  </si>
-  <si>
-    <t>Describes why points were added or removed</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Blank Description</t>
-  </si>
-  <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>state_name</t>
-  </si>
-  <si>
-    <t>country_id</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Represents a complete address for a location</t>
-  </si>
-  <si>
-    <t>zip_code</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>state_id</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>email_address</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>birthdate</t>
-  </si>
-  <si>
-    <t>created_date</t>
-  </si>
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>employee_status_id</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>create_employee_id</t>
-  </si>
-  <si>
-    <t>customer_status_id</t>
-  </si>
-  <si>
-    <t>tier_id</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>job_name</t>
-  </si>
-  <si>
-    <t>job_desc</t>
-  </si>
-  <si>
-    <t>AssocEmployeeLabel</t>
-  </si>
-  <si>
-    <t>employee_id</t>
-  </si>
-  <si>
-    <t>employee_label_id</t>
-  </si>
-  <si>
-    <t>AssocCustomerLabel</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>customer_label_id</t>
-  </si>
-  <si>
-    <t>PaymentType</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>store_status_id</t>
-  </si>
-  <si>
-    <t>EmployeeJob</t>
-  </si>
-  <si>
-    <t>assign_date</t>
-  </si>
-  <si>
-    <t>store_id</t>
-  </si>
-  <si>
-    <t>job_id</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>order_date</t>
-  </si>
-  <si>
-    <t>payment_type_id</t>
-  </si>
-  <si>
-    <t>ProductType</t>
-  </si>
-  <si>
-    <t>product_type_name</t>
-  </si>
-  <si>
-    <t>product_type_desc</t>
-  </si>
-  <si>
-    <t>ban_reason_id</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>product_desc</t>
-  </si>
-  <si>
-    <t>product_type_id</t>
-  </si>
-  <si>
-    <t>product_status_id</t>
-  </si>
-  <si>
-    <t>OrderLine</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>IntegerField</t>
+    <t>ind_price</t>
   </si>
   <si>
     <t>product_id</t>
@@ -442,8 +454,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N195" totalsRowShown="0">
-  <autoFilter ref="A1:N195"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N199" totalsRowShown="0">
+  <autoFilter ref="A1:N199"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Table Name"/>
     <tableColumn id="2" name="Table Desc"/>
@@ -749,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N193"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -761,7 +773,7 @@
     <col min="4" max="4" width="33.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
@@ -2655,10 +2667,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -2696,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -2737,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3812,16 +3824,16 @@
         <v>1</v>
       </c>
       <c r="J87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
       </c>
       <c r="M87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="s">
         <v>18</v>
@@ -4963,22 +4975,22 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>78</v>
-      </c>
-      <c r="E122" t="s">
-        <v>18</v>
+        <v>89</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
       </c>
       <c r="F122" t="s">
         <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
       </c>
       <c r="I122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
@@ -5004,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E123" t="s">
         <v>18</v>
@@ -5045,104 +5057,104 @@
         <v>20</v>
       </c>
       <c r="C124" t="s">
+        <v>91</v>
+      </c>
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s">
         <v>85</v>
       </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" t="b">
-        <v>0</v>
-      </c>
-      <c r="M124" t="b">
-        <v>0</v>
-      </c>
-      <c r="N124" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" t="s">
-        <v>90</v>
-      </c>
-      <c r="B126" t="s">
-        <v>43</v>
-      </c>
-      <c r="C126" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" t="b">
-        <v>1</v>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="b">
-        <v>1</v>
-      </c>
-      <c r="K126" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" t="b">
-        <v>0</v>
-      </c>
-      <c r="M126" t="b">
-        <v>0</v>
-      </c>
-      <c r="N126" t="s">
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
       </c>
       <c r="E127" t="s">
         <v>18</v>
       </c>
-      <c r="F127">
-        <v>40</v>
+      <c r="F127" t="s">
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
@@ -5171,13 +5183,13 @@
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E128" t="s">
         <v>18</v>
       </c>
       <c r="F128">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
         <v>22</v>
@@ -5212,104 +5224,104 @@
         <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E129" t="s">
         <v>18</v>
       </c>
-      <c r="F129" t="s">
-        <v>18</v>
+      <c r="F129">
+        <v>200</v>
       </c>
       <c r="G129" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
       </c>
       <c r="I129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="b">
         <v>0</v>
       </c>
       <c r="M129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
-      <c r="A131" t="s">
-        <v>94</v>
-      </c>
-      <c r="B131" t="s">
-        <v>43</v>
-      </c>
-      <c r="C131" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
-      <c r="H131" t="b">
-        <v>1</v>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K131" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" t="b">
-        <v>0</v>
-      </c>
-      <c r="M131" t="b">
-        <v>0</v>
-      </c>
-      <c r="N131" t="s">
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="b">
+        <v>0</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="b">
+        <v>1</v>
+      </c>
+      <c r="N130" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>95</v>
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
       </c>
       <c r="E132" t="s">
         <v>18</v>
       </c>
-      <c r="F132">
-        <v>40</v>
+      <c r="F132" t="s">
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
@@ -5338,13 +5350,13 @@
         <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E133" t="s">
         <v>18</v>
       </c>
       <c r="F133">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
         <v>22</v>
@@ -5379,22 +5391,22 @@
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E134" t="s">
         <v>18</v>
       </c>
-      <c r="F134" t="s">
-        <v>18</v>
+      <c r="F134">
+        <v>200</v>
       </c>
       <c r="G134" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H134" t="b">
         <v>0</v>
       </c>
       <c r="I134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="b">
         <v>1</v>
@@ -5420,22 +5432,22 @@
         <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>98</v>
-      </c>
-      <c r="E135" t="s">
-        <v>18</v>
+        <v>99</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
       </c>
       <c r="G135" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="H135" t="b">
         <v>0</v>
       </c>
       <c r="I135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="b">
         <v>1</v>
@@ -5450,21 +5462,59 @@
         <v>0</v>
       </c>
       <c r="N135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" t="s">
+        <v>100</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="E137" t="s">
         <v>18</v>
@@ -5476,10 +5526,10 @@
         <v>19</v>
       </c>
       <c r="H137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="b">
         <v>1</v>
@@ -5494,59 +5544,21 @@
         <v>0</v>
       </c>
       <c r="N137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="A138" t="s">
-        <v>20</v>
-      </c>
-      <c r="B138" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" t="s">
-        <v>100</v>
-      </c>
-      <c r="E138" t="s">
-        <v>18</v>
-      </c>
-      <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>101</v>
-      </c>
-      <c r="H138" t="b">
-        <v>0</v>
-      </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="b">
-        <v>1</v>
-      </c>
-      <c r="K138" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" t="b">
-        <v>0</v>
-      </c>
-      <c r="M138" t="b">
-        <v>0</v>
-      </c>
-      <c r="N138" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>102</v>
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
       </c>
       <c r="E139" t="s">
         <v>18</v>
@@ -5558,10 +5570,10 @@
         <v>19</v>
       </c>
       <c r="H139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
@@ -5589,20 +5601,20 @@
       <c r="C140" t="s">
         <v>103</v>
       </c>
-      <c r="E140" t="s">
-        <v>18</v>
+      <c r="E140">
+        <v>0</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
@@ -5617,33 +5629,71 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" t="s">
+        <v>105</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>90</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="b">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" t="s">
-        <v>18</v>
+        <v>89</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="H142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="b">
         <v>0</v>
@@ -5672,22 +5722,22 @@
         <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E143" t="s">
         <v>18</v>
       </c>
-      <c r="F143">
-        <v>40</v>
+      <c r="F143" t="s">
+        <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H143" t="b">
         <v>0</v>
       </c>
       <c r="I143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
@@ -5713,22 +5763,22 @@
         <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E144" t="s">
         <v>18</v>
       </c>
-      <c r="F144">
-        <v>200</v>
+      <c r="F144" t="s">
+        <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
       </c>
       <c r="I144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="b">
         <v>1</v>
@@ -5743,59 +5793,21 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" t="s">
-        <v>20</v>
-      </c>
-      <c r="C145" t="s">
-        <v>107</v>
-      </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>19</v>
-      </c>
-      <c r="H145" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="b">
-        <v>1</v>
-      </c>
-      <c r="K145" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" t="b">
-        <v>0</v>
-      </c>
-      <c r="M145" t="b">
-        <v>0</v>
-      </c>
-      <c r="N145" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C146" t="s">
-        <v>70</v>
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
       </c>
       <c r="E146" t="s">
         <v>18</v>
@@ -5807,10 +5819,10 @@
         <v>19</v>
       </c>
       <c r="H146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
@@ -5836,16 +5848,16 @@
         <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E147" t="s">
         <v>18</v>
       </c>
-      <c r="F147" t="s">
-        <v>18</v>
+      <c r="F147">
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
@@ -5866,21 +5878,59 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" t="s">
+        <v>110</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148">
+        <v>200</v>
+      </c>
+      <c r="G148" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" t="b">
+        <v>1</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="b">
+        <v>0</v>
+      </c>
+      <c r="N148" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
@@ -5892,10 +5942,10 @@
         <v>19</v>
       </c>
       <c r="H149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="b">
         <v>1</v>
@@ -5921,34 +5971,34 @@
         <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E150" t="s">
         <v>18</v>
       </c>
-      <c r="F150">
-        <v>40</v>
+      <c r="F150" t="s">
+        <v>18</v>
       </c>
       <c r="G150" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H150" t="b">
         <v>0</v>
       </c>
       <c r="I150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="b">
         <v>0</v>
       </c>
       <c r="M150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150" t="s">
         <v>18</v>
@@ -5962,16 +6012,16 @@
         <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E151" t="s">
         <v>18</v>
       </c>
-      <c r="F151">
-        <v>200</v>
+      <c r="F151" t="s">
+        <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H151" t="b">
         <v>0</v>
@@ -5997,7 +6047,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B153" t="s">
         <v>43</v>
@@ -6047,13 +6097,13 @@
         <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E154" t="s">
         <v>18</v>
       </c>
       <c r="F154">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
         <v>22</v>
@@ -6088,22 +6138,22 @@
         <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E155" t="s">
         <v>18</v>
       </c>
-      <c r="F155" t="s">
-        <v>18</v>
+      <c r="F155">
+        <v>200</v>
       </c>
       <c r="G155" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="b">
         <v>1</v>
@@ -6118,59 +6168,21 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156" t="s">
-        <v>20</v>
-      </c>
-      <c r="B156" t="s">
-        <v>20</v>
-      </c>
-      <c r="C156" t="s">
-        <v>114</v>
-      </c>
-      <c r="E156" t="s">
-        <v>18</v>
-      </c>
-      <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>19</v>
-      </c>
-      <c r="H156" t="b">
-        <v>0</v>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="b">
-        <v>1</v>
-      </c>
-      <c r="K156" t="b">
-        <v>0</v>
-      </c>
-      <c r="L156" t="b">
-        <v>0</v>
-      </c>
-      <c r="M156" t="b">
-        <v>0</v>
-      </c>
-      <c r="N156" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C157" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
       </c>
       <c r="E157" t="s">
         <v>18</v>
@@ -6179,10 +6191,10 @@
         <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="b">
         <v>0</v>
@@ -6200,21 +6212,59 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>117</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158">
+        <v>60</v>
+      </c>
+      <c r="G158" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" t="b">
+        <v>1</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" t="b">
+        <v>0</v>
+      </c>
+      <c r="N158" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E159" t="s">
         <v>18</v>
@@ -6226,10 +6276,10 @@
         <v>19</v>
       </c>
       <c r="H159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="b">
         <v>1</v>
@@ -6255,22 +6305,22 @@
         <v>20</v>
       </c>
       <c r="C160" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E160" t="s">
         <v>18</v>
       </c>
-      <c r="F160">
-        <v>60</v>
+      <c r="F160" t="s">
+        <v>18</v>
       </c>
       <c r="G160" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
       </c>
       <c r="I160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="b">
         <v>1</v>
@@ -6296,7 +6346,7 @@
         <v>20</v>
       </c>
       <c r="C161" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E161" t="s">
         <v>18</v>
@@ -6305,13 +6355,13 @@
         <v>18</v>
       </c>
       <c r="G161" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
       </c>
       <c r="I161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="b">
         <v>1</v>
@@ -6326,59 +6376,21 @@
         <v>0</v>
       </c>
       <c r="N161" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
-      <c r="A162" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" t="s">
-        <v>20</v>
-      </c>
-      <c r="C162" t="s">
-        <v>114</v>
-      </c>
-      <c r="E162" t="s">
-        <v>18</v>
-      </c>
-      <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
-      <c r="H162" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="b">
-        <v>1</v>
-      </c>
-      <c r="K162" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" t="b">
-        <v>0</v>
-      </c>
-      <c r="M162" t="b">
-        <v>0</v>
-      </c>
-      <c r="N162" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C163" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>17</v>
       </c>
       <c r="E163" t="s">
         <v>18</v>
@@ -6387,10 +6399,10 @@
         <v>18</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="b">
         <v>0</v>
@@ -6408,21 +6420,59 @@
         <v>0</v>
       </c>
       <c r="N163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>117</v>
+      </c>
+      <c r="E164" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164">
+        <v>60</v>
+      </c>
+      <c r="G164" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="b">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E165" t="s">
         <v>18</v>
@@ -6434,10 +6484,10 @@
         <v>19</v>
       </c>
       <c r="H165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
@@ -6463,22 +6513,22 @@
         <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E166" t="s">
         <v>18</v>
       </c>
-      <c r="F166">
-        <v>60</v>
+      <c r="F166" t="s">
+        <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
       </c>
       <c r="I166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="b">
         <v>1</v>
@@ -6504,7 +6554,7 @@
         <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E167" t="s">
         <v>18</v>
@@ -6513,13 +6563,13 @@
         <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
       </c>
       <c r="I167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="b">
         <v>1</v>
@@ -6534,59 +6584,21 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="A168" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" t="s">
-        <v>20</v>
-      </c>
-      <c r="C168" t="s">
-        <v>78</v>
-      </c>
-      <c r="E168" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
-      <c r="H168" t="b">
-        <v>0</v>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="b">
-        <v>1</v>
-      </c>
-      <c r="K168" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" t="b">
-        <v>0</v>
-      </c>
-      <c r="M168" t="b">
-        <v>0</v>
-      </c>
-      <c r="N168" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
       </c>
       <c r="E169" t="s">
         <v>18</v>
@@ -6595,10 +6607,10 @@
         <v>18</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="b">
         <v>0</v>
@@ -6616,21 +6628,59 @@
         <v>0</v>
       </c>
       <c r="N169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" t="s">
+        <v>117</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170">
+        <v>60</v>
+      </c>
+      <c r="G170" t="s">
+        <v>22</v>
+      </c>
+      <c r="H170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" t="b">
+        <v>1</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" t="b">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E171" t="s">
         <v>18</v>
@@ -6642,10 +6692,10 @@
         <v>19</v>
       </c>
       <c r="H171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="b">
         <v>1</v>
@@ -6671,7 +6721,7 @@
         <v>20</v>
       </c>
       <c r="C172" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E172" t="s">
         <v>18</v>
@@ -6712,7 +6762,7 @@
         <v>20</v>
       </c>
       <c r="C173" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E173" t="s">
         <v>18</v>
@@ -6721,13 +6771,13 @@
         <v>18</v>
       </c>
       <c r="G173" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H173" t="b">
         <v>0</v>
       </c>
       <c r="I173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="b">
         <v>1</v>
@@ -6745,59 +6795,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
-      <c r="A174" t="s">
-        <v>20</v>
-      </c>
-      <c r="B174" t="s">
-        <v>20</v>
-      </c>
-      <c r="C174" t="s">
-        <v>118</v>
-      </c>
-      <c r="E174" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>33</v>
-      </c>
-      <c r="H174" t="b">
-        <v>0</v>
-      </c>
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" t="b">
-        <v>1</v>
-      </c>
-      <c r="K174" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" t="b">
-        <v>0</v>
-      </c>
-      <c r="M174" t="b">
-        <v>0</v>
-      </c>
-      <c r="N174" t="s">
+    <row r="175" spans="1:14">
+      <c r="A175" t="s">
+        <v>121</v>
+      </c>
+      <c r="B175" t="s">
+        <v>43</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>19</v>
+      </c>
+      <c r="H175" t="b">
+        <v>1</v>
+      </c>
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" t="b">
+        <v>1</v>
+      </c>
+      <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" t="b">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E176" t="s">
         <v>18</v>
@@ -6809,10 +6859,10 @@
         <v>19</v>
       </c>
       <c r="H176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
@@ -6838,7 +6888,7 @@
         <v>20</v>
       </c>
       <c r="C177" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E177" t="s">
         <v>18</v>
@@ -6879,7 +6929,7 @@
         <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="E178" t="s">
         <v>18</v>
@@ -6888,13 +6938,13 @@
         <v>18</v>
       </c>
       <c r="G178" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H178" t="b">
         <v>0</v>
       </c>
       <c r="I178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="b">
         <v>1</v>
@@ -6912,59 +6962,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
-      <c r="A179" t="s">
-        <v>20</v>
-      </c>
-      <c r="B179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C179" t="s">
-        <v>121</v>
-      </c>
-      <c r="E179" t="s">
-        <v>18</v>
-      </c>
-      <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>33</v>
-      </c>
-      <c r="H179" t="b">
-        <v>0</v>
-      </c>
-      <c r="I179" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" t="b">
-        <v>1</v>
-      </c>
-      <c r="K179" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" t="b">
-        <v>0</v>
-      </c>
-      <c r="M179" t="b">
-        <v>0</v>
-      </c>
-      <c r="N179" t="s">
+    <row r="180" spans="1:14">
+      <c r="A180" t="s">
+        <v>123</v>
+      </c>
+      <c r="B180" t="s">
+        <v>43</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" t="b">
+        <v>1</v>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="E181" t="s">
         <v>18</v>
@@ -6976,10 +7026,10 @@
         <v>19</v>
       </c>
       <c r="H181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="b">
         <v>1</v>
@@ -7005,7 +7055,7 @@
         <v>20</v>
       </c>
       <c r="C182" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E182" t="s">
         <v>18</v>
@@ -7014,13 +7064,13 @@
         <v>18</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
       </c>
       <c r="I182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
@@ -7046,7 +7096,7 @@
         <v>20</v>
       </c>
       <c r="C183" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E183" t="s">
         <v>18</v>
@@ -7055,13 +7105,13 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
       </c>
       <c r="I183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="b">
         <v>1</v>
@@ -7079,59 +7129,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
-      <c r="A184" t="s">
-        <v>20</v>
-      </c>
-      <c r="B184" t="s">
-        <v>20</v>
-      </c>
-      <c r="C184" t="s">
-        <v>120</v>
-      </c>
-      <c r="E184" t="s">
-        <v>18</v>
-      </c>
-      <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>19</v>
-      </c>
-      <c r="H184" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="b">
-        <v>1</v>
-      </c>
-      <c r="K184" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" t="b">
-        <v>0</v>
-      </c>
-      <c r="M184" t="b">
-        <v>0</v>
-      </c>
-      <c r="N184" t="s">
+    <row r="185" spans="1:14">
+      <c r="A185" t="s">
+        <v>126</v>
+      </c>
+      <c r="B185" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" t="b">
+        <v>0</v>
+      </c>
+      <c r="M185" t="b">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="E186" t="s">
         <v>18</v>
@@ -7140,10 +7190,10 @@
         <v>18</v>
       </c>
       <c r="G186" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="b">
         <v>0</v>
@@ -7172,7 +7222,7 @@
         <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E187" t="s">
         <v>18</v>
@@ -7181,13 +7231,13 @@
         <v>18</v>
       </c>
       <c r="G187" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H187" t="b">
         <v>0</v>
       </c>
       <c r="I187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="b">
         <v>1</v>
@@ -7213,7 +7263,7 @@
         <v>20</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="E188" t="s">
         <v>18</v>
@@ -7222,13 +7272,13 @@
         <v>18</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
       </c>
       <c r="I188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="b">
         <v>1</v>
@@ -7243,59 +7293,21 @@
         <v>0</v>
       </c>
       <c r="N188" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
-      <c r="A189" t="s">
-        <v>20</v>
-      </c>
-      <c r="B189" t="s">
-        <v>20</v>
-      </c>
-      <c r="C189" t="s">
-        <v>75</v>
-      </c>
-      <c r="E189" t="s">
-        <v>18</v>
-      </c>
-      <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>19</v>
-      </c>
-      <c r="H189" t="b">
-        <v>0</v>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="b">
-        <v>1</v>
-      </c>
-      <c r="K189" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" t="b">
-        <v>0</v>
-      </c>
-      <c r="M189" t="b">
-        <v>0</v>
-      </c>
-      <c r="N189" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C190" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>17</v>
       </c>
       <c r="E190" t="s">
         <v>18</v>
@@ -7307,10 +7319,10 @@
         <v>19</v>
       </c>
       <c r="H190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="b">
         <v>1</v>
@@ -7336,22 +7348,22 @@
         <v>20</v>
       </c>
       <c r="C191" t="s">
-        <v>125</v>
-      </c>
-      <c r="E191" t="s">
-        <v>18</v>
+        <v>103</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
       </c>
       <c r="F191" t="s">
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
       </c>
       <c r="I191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="b">
         <v>1</v>
@@ -7377,7 +7389,7 @@
         <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="E192" t="s">
         <v>18</v>
@@ -7386,25 +7398,25 @@
         <v>18</v>
       </c>
       <c r="G192" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
       </c>
       <c r="I192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192" t="b">
         <v>0</v>
       </c>
       <c r="M192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N192" t="s">
         <v>18</v>
@@ -7418,7 +7430,7 @@
         <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="E193" t="s">
         <v>18</v>
@@ -7436,18 +7448,182 @@
         <v>1</v>
       </c>
       <c r="J193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193" t="b">
         <v>0</v>
       </c>
       <c r="M193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" t="s">
+        <v>78</v>
+      </c>
+      <c r="E194" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" t="s">
+        <v>19</v>
+      </c>
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="b">
+        <v>1</v>
+      </c>
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" t="b">
+        <v>0</v>
+      </c>
+      <c r="M194" t="b">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" t="s">
+        <v>20</v>
+      </c>
+      <c r="C195" t="s">
+        <v>129</v>
+      </c>
+      <c r="E195" t="s">
+        <v>18</v>
+      </c>
+      <c r="F195" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" t="s">
+        <v>19</v>
+      </c>
+      <c r="H195" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="b">
+        <v>1</v>
+      </c>
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" t="b">
+        <v>0</v>
+      </c>
+      <c r="M195" t="b">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" t="s">
+        <v>107</v>
+      </c>
+      <c r="E196" t="s">
+        <v>18</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="b">
+        <v>0</v>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="b">
+        <v>0</v>
+      </c>
+      <c r="M196" t="b">
+        <v>1</v>
+      </c>
+      <c r="N196" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" t="s">
+        <v>130</v>
+      </c>
+      <c r="E197" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" t="s">
+        <v>19</v>
+      </c>
+      <c r="H197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="b">
+        <v>0</v>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="b">
+        <v>0</v>
+      </c>
+      <c r="M197" t="b">
+        <v>1</v>
+      </c>
+      <c r="N197" t="s">
         <v>18</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="133">
   <si>
     <t>Table Name</t>
   </si>
@@ -181,6 +181,9 @@
     <t>Tier</t>
   </si>
   <si>
+    <t>EmployeeType</t>
+  </si>
+  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>employee_status_id</t>
   </si>
   <si>
+    <t>employee_type_id</t>
+  </si>
+  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -301,25 +307,25 @@
     <t>product_type_desc</t>
   </si>
   <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_desc</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t>product_type_id</t>
+  </si>
+  <si>
+    <t>product_status_id</t>
+  </si>
+  <si>
     <t>ban_reason_id</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>product_desc</t>
-  </si>
-  <si>
-    <t>product_price</t>
-  </si>
-  <si>
-    <t>product_type_id</t>
-  </si>
-  <si>
-    <t>product_status_id</t>
   </si>
   <si>
     <t>OrderLine</t>
@@ -454,8 +460,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N199" totalsRowShown="0">
-  <autoFilter ref="A1:N199"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N204" totalsRowShown="0">
+  <autoFilter ref="A1:N204"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Table Name"/>
     <tableColumn id="2" name="Table Desc"/>
@@ -761,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:N202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2942,7 @@
         <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -2983,7 +2989,7 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
@@ -3024,13 +3030,13 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
       </c>
       <c r="F67">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G67" t="s">
         <v>22</v>
@@ -3057,68 +3063,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68">
-        <v>254</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="b">
-        <v>1</v>
-      </c>
-      <c r="K68" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68" t="b">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
       </c>
-      <c r="F69">
-        <v>14</v>
+      <c r="F69" t="s">
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -3147,16 +3115,16 @@
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="F70" t="s">
-        <v>18</v>
+      <c r="F70">
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3165,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
@@ -3188,16 +3156,16 @@
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
       </c>
-      <c r="F71" t="s">
-        <v>18</v>
+      <c r="F71">
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3229,16 +3197,16 @@
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
       </c>
-      <c r="F72" t="s">
-        <v>18</v>
+      <c r="F72">
+        <v>254</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -3270,22 +3238,22 @@
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
       </c>
-      <c r="F73" t="s">
-        <v>18</v>
+      <c r="F73">
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
@@ -3311,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
@@ -3320,7 +3288,7 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -3352,7 +3320,7 @@
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
@@ -3361,13 +3329,13 @@
         <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
@@ -3382,21 +3350,59 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
@@ -3408,10 +3414,10 @@
         <v>19</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
@@ -3437,16 +3443,16 @@
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
-      <c r="F78">
-        <v>40</v>
+      <c r="F78" t="s">
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -3455,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -3478,22 +3484,22 @@
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
-      <c r="F79">
-        <v>40</v>
+      <c r="F79" t="s">
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
@@ -3519,22 +3525,22 @@
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
       </c>
-      <c r="F80">
-        <v>254</v>
+      <c r="F80" t="s">
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
@@ -3549,59 +3555,21 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="b">
-        <v>1</v>
-      </c>
-      <c r="K81" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" t="b">
-        <v>0</v>
-      </c>
-      <c r="M81" t="b">
-        <v>0</v>
-      </c>
-      <c r="N81" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
@@ -3610,19 +3578,19 @@
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
       </c>
       <c r="J82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -3642,16 +3610,16 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
       </c>
-      <c r="F83" t="s">
-        <v>18</v>
+      <c r="F83">
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -3683,16 +3651,16 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
       </c>
-      <c r="F84" t="s">
-        <v>18</v>
+      <c r="F84">
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -3724,22 +3692,22 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
       </c>
-      <c r="F85" t="s">
-        <v>18</v>
+      <c r="F85">
+        <v>254</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
@@ -3765,22 +3733,22 @@
         <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E86" t="s">
         <v>18</v>
       </c>
-      <c r="F86" t="s">
-        <v>18</v>
+      <c r="F86">
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
@@ -3806,7 +3774,7 @@
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E87" t="s">
         <v>18</v>
@@ -3815,13 +3783,13 @@
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
@@ -3833,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="s">
         <v>18</v>
@@ -3847,51 +3815,89 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
         <v>64</v>
       </c>
-      <c r="E88" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="b">
-        <v>0</v>
-      </c>
-      <c r="M88" t="b">
-        <v>1</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
@@ -3903,10 +3909,10 @@
         <v>19</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
@@ -3932,22 +3938,22 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E91" t="s">
         <v>18</v>
       </c>
-      <c r="F91">
-        <v>40</v>
+      <c r="F91" t="s">
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
@@ -3973,22 +3979,22 @@
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
       </c>
-      <c r="F92">
-        <v>200</v>
+      <c r="F92" t="s">
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="b">
         <v>0</v>
@@ -4000,77 +4006,77 @@
         <v>0</v>
       </c>
       <c r="M92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
-      <c r="A94" t="s">
-        <v>74</v>
-      </c>
-      <c r="B94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="b">
-        <v>1</v>
-      </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" t="b">
-        <v>0</v>
-      </c>
-      <c r="N94" t="s">
+    <row r="93" spans="1:14">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
       </c>
       <c r="E95" t="s">
         <v>18</v>
       </c>
-      <c r="F95">
-        <v>40</v>
+      <c r="F95" t="s">
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -4099,13 +4105,13 @@
         <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
       </c>
       <c r="F96">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
         <v>22</v>
@@ -4145,23 +4151,23 @@
       <c r="E97" t="s">
         <v>18</v>
       </c>
-      <c r="F97" t="s">
-        <v>18</v>
+      <c r="F97">
+        <v>200</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -4173,71 +4179,71 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
-      <c r="A98" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" t="s">
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
         <v>76</v>
       </c>
-      <c r="E98" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
-      <c r="J98" t="b">
-        <v>1</v>
-      </c>
-      <c r="K98" t="b">
-        <v>0</v>
-      </c>
-      <c r="L98" t="b">
-        <v>0</v>
-      </c>
-      <c r="M98" t="b">
-        <v>0</v>
-      </c>
-      <c r="N98" t="s">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
         <v>18</v>
       </c>
-      <c r="F100" t="s">
-        <v>18</v>
+      <c r="F100">
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -4266,13 +4272,13 @@
         <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E101" t="s">
         <v>18</v>
       </c>
       <c r="F101">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G101" t="s">
         <v>22</v>
@@ -4307,22 +4313,22 @@
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E102" t="s">
         <v>18</v>
       </c>
-      <c r="F102">
-        <v>200</v>
+      <c r="F102" t="s">
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
@@ -4381,71 +4387,71 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
-      <c r="A104" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" t="s">
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
         <v>79</v>
       </c>
-      <c r="E104" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="b">
-        <v>1</v>
-      </c>
-      <c r="K104" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" t="b">
-        <v>0</v>
-      </c>
-      <c r="M104" t="b">
-        <v>0</v>
-      </c>
-      <c r="N104" t="s">
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
         <v>18</v>
       </c>
-      <c r="F106" t="s">
-        <v>18</v>
+      <c r="F106">
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4474,13 +4480,13 @@
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E107" t="s">
         <v>18</v>
       </c>
       <c r="F107">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G107" t="s">
         <v>22</v>
@@ -4515,22 +4521,22 @@
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E108" t="s">
         <v>18</v>
       </c>
-      <c r="F108">
-        <v>200</v>
+      <c r="F108" t="s">
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
       </c>
       <c r="I108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="b">
         <v>1</v>
@@ -4548,59 +4554,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
-      <c r="A110" t="s">
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s">
         <v>81</v>
       </c>
-      <c r="B110" t="s">
-        <v>43</v>
-      </c>
-      <c r="C110" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="b">
-        <v>1</v>
-      </c>
-      <c r="K110" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" t="b">
-        <v>0</v>
-      </c>
-      <c r="M110" t="b">
-        <v>0</v>
-      </c>
-      <c r="N110" t="s">
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
       </c>
       <c r="E111" t="s">
         <v>18</v>
@@ -4612,10 +4618,10 @@
         <v>19</v>
       </c>
       <c r="H111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
@@ -4641,22 +4647,22 @@
         <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
         <v>18</v>
       </c>
-      <c r="F112" t="s">
-        <v>18</v>
+      <c r="F112">
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
       <c r="I112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
@@ -4674,59 +4680,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
-      <c r="A114" t="s">
-        <v>83</v>
-      </c>
-      <c r="B114" t="s">
-        <v>43</v>
-      </c>
-      <c r="C114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" t="b">
-        <v>1</v>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="b">
-        <v>1</v>
-      </c>
-      <c r="K114" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" t="b">
-        <v>0</v>
-      </c>
-      <c r="M114" t="b">
-        <v>0</v>
-      </c>
-      <c r="N114" t="s">
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113">
+        <v>200</v>
+      </c>
+      <c r="G113" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>84</v>
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
       </c>
       <c r="E115" t="s">
         <v>18</v>
@@ -4735,10 +4741,10 @@
         <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -4767,7 +4773,7 @@
         <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E116" t="s">
         <v>18</v>
@@ -4808,92 +4814,92 @@
         <v>20</v>
       </c>
       <c r="C117" t="s">
+        <v>84</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
         <v>85</v>
       </c>
-      <c r="E117" t="s">
-        <v>18</v>
-      </c>
-      <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="b">
-        <v>1</v>
-      </c>
-      <c r="K117" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" t="b">
-        <v>0</v>
-      </c>
-      <c r="M117" t="b">
-        <v>0</v>
-      </c>
-      <c r="N117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" t="s">
-        <v>86</v>
-      </c>
-      <c r="E118" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="b">
-        <v>1</v>
-      </c>
-      <c r="K118" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" t="b">
-        <v>0</v>
-      </c>
-      <c r="M118" t="b">
-        <v>0</v>
-      </c>
-      <c r="N118" t="s">
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E120" t="s">
         <v>18</v>
@@ -4902,10 +4908,10 @@
         <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -4934,7 +4940,7 @@
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E121" t="s">
         <v>18</v>
@@ -4943,13 +4949,13 @@
         <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
       </c>
       <c r="I121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
@@ -4975,22 +4981,22 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>89</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
       </c>
       <c r="F122" t="s">
         <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
       </c>
       <c r="I122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
@@ -5016,7 +5022,7 @@
         <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E123" t="s">
         <v>18</v>
@@ -5046,59 +5052,21 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" t="s">
-        <v>91</v>
-      </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" t="b">
-        <v>0</v>
-      </c>
-      <c r="M124" t="b">
-        <v>0</v>
-      </c>
-      <c r="N124" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>85</v>
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
       </c>
       <c r="E125" t="s">
         <v>18</v>
@@ -5110,10 +5078,10 @@
         <v>19</v>
       </c>
       <c r="H125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
@@ -5128,33 +5096,71 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s">
+        <v>90</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" t="s">
+        <v>91</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s">
         <v>92</v>
       </c>
-      <c r="B127" t="s">
-        <v>43</v>
-      </c>
-      <c r="C127" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
       <c r="H127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
@@ -5183,22 +5189,22 @@
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
         <v>18</v>
       </c>
-      <c r="F128">
-        <v>40</v>
+      <c r="F128" t="s">
+        <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
       </c>
       <c r="I128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
@@ -5224,22 +5230,22 @@
         <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E129" t="s">
         <v>18</v>
       </c>
-      <c r="F129">
-        <v>200</v>
+      <c r="F129" t="s">
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
       </c>
       <c r="I129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="b">
         <v>1</v>
@@ -5265,7 +5271,7 @@
         <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E130" t="s">
         <v>18</v>
@@ -5283,16 +5289,16 @@
         <v>1</v>
       </c>
       <c r="J130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" t="b">
         <v>0</v>
       </c>
       <c r="M130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130" t="s">
         <v>18</v>
@@ -5300,7 +5306,7 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B132" t="s">
         <v>43</v>
@@ -5350,7 +5356,7 @@
         <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E133" t="s">
         <v>18</v>
@@ -5391,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E134" t="s">
         <v>18</v>
@@ -5424,56 +5430,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
-      <c r="A135" t="s">
-        <v>20</v>
-      </c>
-      <c r="B135" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" t="s">
-        <v>99</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>90</v>
-      </c>
-      <c r="H135" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="b">
-        <v>1</v>
-      </c>
-      <c r="K135" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" t="b">
-        <v>0</v>
-      </c>
-      <c r="M135" t="b">
-        <v>0</v>
-      </c>
-      <c r="N135" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
       </c>
       <c r="E136" t="s">
         <v>18</v>
@@ -5485,10 +5453,10 @@
         <v>19</v>
       </c>
       <c r="H136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="b">
         <v>1</v>
@@ -5514,22 +5482,22 @@
         <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E137" t="s">
         <v>18</v>
       </c>
-      <c r="F137" t="s">
-        <v>18</v>
+      <c r="F137">
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H137" t="b">
         <v>0</v>
       </c>
       <c r="I137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="b">
         <v>1</v>
@@ -5544,33 +5512,71 @@
         <v>0</v>
       </c>
       <c r="N137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>99</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>200</v>
+      </c>
+      <c r="G138" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" t="s">
-        <v>18</v>
+        <v>100</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
@@ -5599,22 +5605,22 @@
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>103</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
@@ -5640,22 +5646,22 @@
         <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>105</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
       </c>
       <c r="F141" t="s">
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H141" t="b">
         <v>0</v>
       </c>
       <c r="I141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
@@ -5681,89 +5687,51 @@
         <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>89</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
       </c>
       <c r="I142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
       </c>
       <c r="M142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" t="s">
-        <v>20</v>
-      </c>
-      <c r="C143" t="s">
-        <v>106</v>
-      </c>
-      <c r="E143" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>19</v>
-      </c>
-      <c r="H143" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="b">
-        <v>1</v>
-      </c>
-      <c r="K143" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" t="b">
-        <v>0</v>
-      </c>
-      <c r="M143" t="b">
-        <v>0</v>
-      </c>
-      <c r="N143" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>107</v>
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
       </c>
       <c r="E144" t="s">
         <v>18</v>
@@ -5775,10 +5743,10 @@
         <v>19</v>
       </c>
       <c r="H144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="b">
         <v>1</v>
@@ -5793,33 +5761,71 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" t="s">
+        <v>105</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>106</v>
+      </c>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>1</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="b">
+        <v>0</v>
+      </c>
+      <c r="N145" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" t="s">
-        <v>18</v>
+        <v>107</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
       </c>
       <c r="F146" t="s">
         <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="b">
         <v>0</v>
@@ -5848,16 +5854,16 @@
         <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>109</v>
-      </c>
-      <c r="E147" t="s">
-        <v>18</v>
-      </c>
-      <c r="F147">
-        <v>40</v>
+        <v>91</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>18</v>
       </c>
       <c r="G147" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
@@ -5889,22 +5895,22 @@
         <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E148" t="s">
         <v>18</v>
       </c>
-      <c r="F148">
-        <v>200</v>
+      <c r="F148" t="s">
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
       </c>
       <c r="I148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
@@ -5930,7 +5936,7 @@
         <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
@@ -5960,59 +5966,21 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="A150" t="s">
-        <v>20</v>
-      </c>
-      <c r="B150" t="s">
-        <v>20</v>
-      </c>
-      <c r="C150" t="s">
-        <v>70</v>
-      </c>
-      <c r="E150" t="s">
-        <v>18</v>
-      </c>
-      <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>19</v>
-      </c>
-      <c r="H150" t="b">
-        <v>0</v>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="b">
-        <v>0</v>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="b">
-        <v>0</v>
-      </c>
-      <c r="M150" t="b">
-        <v>1</v>
-      </c>
-      <c r="N150" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
       </c>
       <c r="E151" t="s">
         <v>18</v>
@@ -6021,10 +5989,10 @@
         <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="b">
         <v>0</v>
@@ -6042,33 +6010,71 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" t="s">
+        <v>111</v>
+      </c>
+      <c r="E152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152">
+        <v>40</v>
+      </c>
+      <c r="G152" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" t="b">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="E153" t="s">
         <v>18</v>
       </c>
-      <c r="F153" t="s">
-        <v>18</v>
+      <c r="F153">
+        <v>200</v>
       </c>
       <c r="G153" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
@@ -6097,22 +6103,22 @@
         <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E154" t="s">
         <v>18</v>
       </c>
-      <c r="F154">
-        <v>40</v>
+      <c r="F154" t="s">
+        <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
       </c>
       <c r="I154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="b">
         <v>1</v>
@@ -6138,104 +6144,104 @@
         <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E155" t="s">
         <v>18</v>
       </c>
-      <c r="F155">
-        <v>200</v>
+      <c r="F155" t="s">
+        <v>18</v>
       </c>
       <c r="G155" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155" t="b">
         <v>0</v>
       </c>
       <c r="M155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
-      <c r="A157" t="s">
-        <v>116</v>
-      </c>
-      <c r="B157" t="s">
-        <v>43</v>
-      </c>
-      <c r="C157" t="s">
-        <v>16</v>
-      </c>
-      <c r="D157" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>19</v>
-      </c>
-      <c r="H157" t="b">
-        <v>1</v>
-      </c>
-      <c r="I157" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" t="b">
-        <v>1</v>
-      </c>
-      <c r="K157" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" t="b">
-        <v>0</v>
-      </c>
-      <c r="M157" t="b">
-        <v>0</v>
-      </c>
-      <c r="N157" t="s">
+    <row r="156" spans="1:14">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>114</v>
+      </c>
+      <c r="E156" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>33</v>
+      </c>
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" t="b">
+        <v>1</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" t="b">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C158" t="s">
-        <v>117</v>
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
       </c>
       <c r="E158" t="s">
         <v>18</v>
       </c>
-      <c r="F158">
-        <v>60</v>
+      <c r="F158" t="s">
+        <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
@@ -6264,22 +6270,22 @@
         <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E159" t="s">
         <v>18</v>
       </c>
-      <c r="F159" t="s">
-        <v>18</v>
+      <c r="F159">
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
       </c>
       <c r="I159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="b">
         <v>1</v>
@@ -6305,104 +6311,104 @@
         <v>20</v>
       </c>
       <c r="C160" t="s">
+        <v>117</v>
+      </c>
+      <c r="E160" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160">
+        <v>200</v>
+      </c>
+      <c r="G160" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" t="b">
+        <v>1</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" t="b">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" t="s">
         <v>118</v>
       </c>
-      <c r="E160" t="s">
-        <v>18</v>
-      </c>
-      <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>19</v>
-      </c>
-      <c r="H160" t="b">
-        <v>0</v>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="b">
-        <v>1</v>
-      </c>
-      <c r="K160" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" t="b">
-        <v>0</v>
-      </c>
-      <c r="M160" t="b">
-        <v>0</v>
-      </c>
-      <c r="N160" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
-      <c r="A161" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" t="s">
-        <v>20</v>
-      </c>
-      <c r="C161" t="s">
-        <v>112</v>
-      </c>
-      <c r="E161" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>33</v>
-      </c>
-      <c r="H161" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" t="b">
-        <v>1</v>
-      </c>
-      <c r="K161" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" t="b">
-        <v>0</v>
-      </c>
-      <c r="M161" t="b">
-        <v>0</v>
-      </c>
-      <c r="N161" t="s">
+      <c r="B162" t="s">
+        <v>43</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="b">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
         <v>119</v>
       </c>
-      <c r="B163" t="s">
-        <v>43</v>
-      </c>
-      <c r="C163" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" t="s">
-        <v>17</v>
-      </c>
       <c r="E163" t="s">
         <v>18</v>
       </c>
-      <c r="F163" t="s">
-        <v>18</v>
+      <c r="F163">
+        <v>60</v>
       </c>
       <c r="G163" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="b">
         <v>0</v>
@@ -6431,22 +6437,22 @@
         <v>20</v>
       </c>
       <c r="C164" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="E164" t="s">
         <v>18</v>
       </c>
-      <c r="F164">
-        <v>60</v>
+      <c r="F164" t="s">
+        <v>18</v>
       </c>
       <c r="G164" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H164" t="b">
         <v>0</v>
       </c>
       <c r="I164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="b">
         <v>1</v>
@@ -6472,7 +6478,7 @@
         <v>20</v>
       </c>
       <c r="C165" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E165" t="s">
         <v>18</v>
@@ -6513,7 +6519,7 @@
         <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E166" t="s">
         <v>18</v>
@@ -6522,13 +6528,13 @@
         <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
       </c>
       <c r="I166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="b">
         <v>1</v>
@@ -6546,71 +6552,71 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
-      <c r="A167" t="s">
-        <v>20</v>
-      </c>
-      <c r="B167" t="s">
-        <v>20</v>
-      </c>
-      <c r="C167" t="s">
-        <v>112</v>
-      </c>
-      <c r="E167" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>33</v>
-      </c>
-      <c r="H167" t="b">
-        <v>0</v>
-      </c>
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" t="b">
-        <v>1</v>
-      </c>
-      <c r="K167" t="b">
-        <v>0</v>
-      </c>
-      <c r="L167" t="b">
-        <v>0</v>
-      </c>
-      <c r="M167" t="b">
-        <v>0</v>
-      </c>
-      <c r="N167" t="s">
+    <row r="168" spans="1:14">
+      <c r="A168" t="s">
+        <v>121</v>
+      </c>
+      <c r="B168" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" t="b">
+        <v>1</v>
+      </c>
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" t="b">
+        <v>1</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="E169" t="s">
         <v>18</v>
       </c>
-      <c r="F169" t="s">
-        <v>18</v>
+      <c r="F169">
+        <v>60</v>
       </c>
       <c r="G169" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="b">
         <v>0</v>
@@ -6639,22 +6645,22 @@
         <v>20</v>
       </c>
       <c r="C170" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="E170" t="s">
         <v>18</v>
       </c>
-      <c r="F170">
-        <v>60</v>
+      <c r="F170" t="s">
+        <v>18</v>
       </c>
       <c r="G170" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
       </c>
       <c r="I170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
@@ -6680,7 +6686,7 @@
         <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E171" t="s">
         <v>18</v>
@@ -6721,7 +6727,7 @@
         <v>20</v>
       </c>
       <c r="C172" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E172" t="s">
         <v>18</v>
@@ -6730,13 +6736,13 @@
         <v>18</v>
       </c>
       <c r="G172" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H172" t="b">
         <v>0</v>
       </c>
       <c r="I172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="b">
         <v>1</v>
@@ -6754,71 +6760,71 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
-      <c r="A173" t="s">
-        <v>20</v>
-      </c>
-      <c r="B173" t="s">
-        <v>20</v>
-      </c>
-      <c r="C173" t="s">
-        <v>112</v>
-      </c>
-      <c r="E173" t="s">
-        <v>18</v>
-      </c>
-      <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>33</v>
-      </c>
-      <c r="H173" t="b">
-        <v>0</v>
-      </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" t="b">
-        <v>1</v>
-      </c>
-      <c r="K173" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" t="b">
-        <v>0</v>
-      </c>
-      <c r="M173" t="b">
-        <v>0</v>
-      </c>
-      <c r="N173" t="s">
+    <row r="174" spans="1:14">
+      <c r="A174" t="s">
+        <v>122</v>
+      </c>
+      <c r="B174" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>19</v>
+      </c>
+      <c r="H174" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="E175" t="s">
         <v>18</v>
       </c>
-      <c r="F175" t="s">
-        <v>18</v>
+      <c r="F175">
+        <v>60</v>
       </c>
       <c r="G175" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
@@ -6847,7 +6853,7 @@
         <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E176" t="s">
         <v>18</v>
@@ -6888,7 +6894,7 @@
         <v>20</v>
       </c>
       <c r="C177" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E177" t="s">
         <v>18</v>
@@ -6929,7 +6935,7 @@
         <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E178" t="s">
         <v>18</v>
@@ -7014,7 +7020,7 @@
         <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E181" t="s">
         <v>18</v>
@@ -7055,7 +7061,7 @@
         <v>20</v>
       </c>
       <c r="C182" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E182" t="s">
         <v>18</v>
@@ -7096,7 +7102,7 @@
         <v>20</v>
       </c>
       <c r="C183" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E183" t="s">
         <v>18</v>
@@ -7131,7 +7137,7 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B185" t="s">
         <v>43</v>
@@ -7181,7 +7187,7 @@
         <v>20</v>
       </c>
       <c r="C186" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E186" t="s">
         <v>18</v>
@@ -7190,13 +7196,13 @@
         <v>18</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H186" t="b">
         <v>0</v>
       </c>
       <c r="I186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="b">
         <v>1</v>
@@ -7222,7 +7228,7 @@
         <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E187" t="s">
         <v>18</v>
@@ -7263,7 +7269,7 @@
         <v>20</v>
       </c>
       <c r="C188" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E188" t="s">
         <v>18</v>
@@ -7272,13 +7278,13 @@
         <v>18</v>
       </c>
       <c r="G188" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
       </c>
       <c r="I188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="b">
         <v>1</v>
@@ -7348,16 +7354,16 @@
         <v>20</v>
       </c>
       <c r="C191" t="s">
-        <v>103</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="E191" t="s">
+        <v>18</v>
       </c>
       <c r="F191" t="s">
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
@@ -7389,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E192" t="s">
         <v>18</v>
@@ -7398,13 +7404,13 @@
         <v>18</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
       </c>
       <c r="I192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
@@ -7430,7 +7436,7 @@
         <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E193" t="s">
         <v>18</v>
@@ -7460,59 +7466,21 @@
         <v>0</v>
       </c>
       <c r="N193" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14">
-      <c r="A194" t="s">
-        <v>20</v>
-      </c>
-      <c r="B194" t="s">
-        <v>20</v>
-      </c>
-      <c r="C194" t="s">
-        <v>78</v>
-      </c>
-      <c r="E194" t="s">
-        <v>18</v>
-      </c>
-      <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>19</v>
-      </c>
-      <c r="H194" t="b">
-        <v>0</v>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="b">
-        <v>1</v>
-      </c>
-      <c r="K194" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" t="b">
-        <v>0</v>
-      </c>
-      <c r="M194" t="b">
-        <v>0</v>
-      </c>
-      <c r="N194" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B195" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C195" t="s">
-        <v>129</v>
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>17</v>
       </c>
       <c r="E195" t="s">
         <v>18</v>
@@ -7524,10 +7492,10 @@
         <v>19</v>
       </c>
       <c r="H195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="b">
         <v>1</v>
@@ -7553,34 +7521,34 @@
         <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>107</v>
-      </c>
-      <c r="E196" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
       </c>
       <c r="F196" t="s">
         <v>18</v>
       </c>
       <c r="G196" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
       </c>
       <c r="I196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196" t="b">
         <v>0</v>
       </c>
       <c r="M196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N196" t="s">
         <v>18</v>
@@ -7594,7 +7562,7 @@
         <v>20</v>
       </c>
       <c r="C197" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="E197" t="s">
         <v>18</v>
@@ -7603,27 +7571,232 @@
         <v>18</v>
       </c>
       <c r="G197" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
       </c>
       <c r="I197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197" t="b">
         <v>0</v>
       </c>
       <c r="M197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N197" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" t="s">
+        <v>77</v>
+      </c>
+      <c r="E198" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="b">
+        <v>1</v>
+      </c>
+      <c r="K198" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" t="b">
+        <v>0</v>
+      </c>
+      <c r="M198" t="b">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" t="s">
+        <v>80</v>
+      </c>
+      <c r="E199" t="s">
+        <v>18</v>
+      </c>
+      <c r="F199" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="b">
+        <v>1</v>
+      </c>
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" t="b">
+        <v>0</v>
+      </c>
+      <c r="M199" t="b">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" t="s">
+        <v>131</v>
+      </c>
+      <c r="E200" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" t="s">
+        <v>19</v>
+      </c>
+      <c r="H200" t="b">
+        <v>0</v>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="b">
+        <v>1</v>
+      </c>
+      <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" t="b">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" t="s">
+        <v>109</v>
+      </c>
+      <c r="E201" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" t="s">
+        <v>19</v>
+      </c>
+      <c r="H201" t="b">
+        <v>0</v>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="b">
+        <v>0</v>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="b">
+        <v>0</v>
+      </c>
+      <c r="M201" t="b">
+        <v>1</v>
+      </c>
+      <c r="N201" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" t="s">
+        <v>132</v>
+      </c>
+      <c r="E202" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" t="s">
+        <v>19</v>
+      </c>
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="b">
+        <v>0</v>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="b">
+        <v>0</v>
+      </c>
+      <c r="M202" t="b">
+        <v>1</v>
+      </c>
+      <c r="N202" t="s">
         <v>18</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="140">
   <si>
     <t>Table Name</t>
   </si>
@@ -289,57 +289,66 @@
     <t>order_date</t>
   </si>
   <si>
+    <t>original_total</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>final_total</t>
+  </si>
+  <si>
+    <t>discount_amount</t>
+  </si>
+  <si>
+    <t>payment_type_id</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>product_type_name</t>
+  </si>
+  <si>
+    <t>product_type_desc</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_desc</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t>product_type_id</t>
+  </si>
+  <si>
+    <t>product_status_id</t>
+  </si>
+  <si>
+    <t>ban_reason_id</t>
+  </si>
+  <si>
+    <t>OrderLine</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>ind_price</t>
+  </si>
+  <si>
     <t>total_price</t>
   </si>
   <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>payment_type_id</t>
-  </si>
-  <si>
-    <t>ProductType</t>
-  </si>
-  <si>
-    <t>product_type_name</t>
-  </si>
-  <si>
-    <t>product_type_desc</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>product_desc</t>
-  </si>
-  <si>
-    <t>product_price</t>
-  </si>
-  <si>
-    <t>product_type_id</t>
-  </si>
-  <si>
-    <t>product_status_id</t>
-  </si>
-  <si>
-    <t>ban_reason_id</t>
-  </si>
-  <si>
-    <t>OrderLine</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>ind_price</t>
-  </si>
-  <si>
     <t>product_id</t>
   </si>
   <si>
@@ -349,6 +358,9 @@
     <t>Reward</t>
   </si>
   <si>
+    <t>All benefits that are offered by the business for being an active loyalty customer that can be claimed by converting some of their earned points. “Rewards” can be coupons ($5 off) or birthday reward (does not need point conversion, it’s just a redemption code for a freebie)</t>
+  </si>
+  <si>
     <t>reward_name</t>
   </si>
   <si>
@@ -356,6 +368,15 @@
   </si>
   <si>
     <t>reward_status_id</t>
+  </si>
+  <si>
+    <t>point_cost</t>
+  </si>
+  <si>
+    <t>reset_period</t>
+  </si>
+  <si>
+    <t>free_product_id</t>
   </si>
   <si>
     <t>date_added</t>
@@ -460,8 +481,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N204" totalsRowShown="0">
-  <autoFilter ref="A1:N204"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N210" totalsRowShown="0">
+  <autoFilter ref="A1:N210"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Table Name"/>
     <tableColumn id="2" name="Table Desc"/>
@@ -767,14 +788,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N202"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="343.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
@@ -5189,22 +5210,22 @@
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>80</v>
-      </c>
-      <c r="E128" t="s">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
       </c>
       <c r="I128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
@@ -5230,22 +5251,22 @@
         <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>93</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
       </c>
       <c r="I129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="b">
         <v>1</v>
@@ -5271,7 +5292,7 @@
         <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E130" t="s">
         <v>18</v>
@@ -5304,18 +5325,56 @@
         <v>18</v>
       </c>
     </row>
+    <row r="131" spans="1:14">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E132" t="s">
         <v>18</v>
@@ -5327,10 +5386,10 @@
         <v>19</v>
       </c>
       <c r="H132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="b">
         <v>1</v>
@@ -5345,115 +5404,115 @@
         <v>0</v>
       </c>
       <c r="N132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="A133" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" t="s">
-        <v>95</v>
-      </c>
-      <c r="E133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F133">
-        <v>40</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
-      </c>
-      <c r="H133" t="b">
-        <v>0</v>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" t="b">
-        <v>0</v>
-      </c>
-      <c r="M133" t="b">
-        <v>0</v>
-      </c>
-      <c r="N133" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>96</v>
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
       </c>
       <c r="E134" t="s">
         <v>18</v>
       </c>
-      <c r="F134">
-        <v>200</v>
+      <c r="F134" t="s">
+        <v>18</v>
       </c>
       <c r="G134" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>97</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>40</v>
+      </c>
+      <c r="G135" t="s">
         <v>22</v>
       </c>
-      <c r="H134" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K134" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" t="b">
-        <v>0</v>
-      </c>
-      <c r="M134" t="b">
-        <v>0</v>
-      </c>
-      <c r="N134" t="s">
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E136" t="s">
         <v>18</v>
       </c>
-      <c r="F136" t="s">
-        <v>18</v>
+      <c r="F136">
+        <v>200</v>
       </c>
       <c r="G136" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
@@ -5471,71 +5530,33 @@
         <v>0</v>
       </c>
       <c r="N136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" t="s">
-        <v>20</v>
-      </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" t="s">
-        <v>98</v>
-      </c>
-      <c r="E137" t="s">
-        <v>18</v>
-      </c>
-      <c r="F137">
-        <v>40</v>
-      </c>
-      <c r="G137" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="b">
-        <v>1</v>
-      </c>
-      <c r="K137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137" t="b">
-        <v>0</v>
-      </c>
-      <c r="N137" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>99</v>
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
       </c>
       <c r="E138" t="s">
         <v>18</v>
       </c>
-      <c r="F138">
-        <v>200</v>
+      <c r="F138" t="s">
+        <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="b">
         <v>0</v>
@@ -5566,14 +5587,14 @@
       <c r="C139" t="s">
         <v>100</v>
       </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139" t="s">
-        <v>18</v>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
@@ -5610,17 +5631,17 @@
       <c r="E140" t="s">
         <v>18</v>
       </c>
-      <c r="F140" t="s">
-        <v>18</v>
+      <c r="F140">
+        <v>200</v>
       </c>
       <c r="G140" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
@@ -5648,20 +5669,20 @@
       <c r="C141" t="s">
         <v>102</v>
       </c>
-      <c r="E141" t="s">
-        <v>18</v>
+      <c r="E141">
+        <v>0</v>
       </c>
       <c r="F141" t="s">
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H141" t="b">
         <v>0</v>
       </c>
       <c r="I141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
@@ -5705,33 +5726,71 @@
         <v>1</v>
       </c>
       <c r="J142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
       </c>
       <c r="M142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" t="s">
+        <v>104</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="b">
+        <v>1</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="b">
+        <v>0</v>
+      </c>
+      <c r="N143" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="E144" t="s">
         <v>18</v>
@@ -5743,89 +5802,51 @@
         <v>19</v>
       </c>
       <c r="H144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
       </c>
       <c r="M144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" t="s">
-        <v>20</v>
-      </c>
-      <c r="C145" t="s">
-        <v>105</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>106</v>
-      </c>
-      <c r="H145" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" t="b">
-        <v>1</v>
-      </c>
-      <c r="K145" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" t="b">
-        <v>0</v>
-      </c>
-      <c r="M145" t="b">
-        <v>0</v>
-      </c>
-      <c r="N145" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C146" t="s">
-        <v>107</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
       </c>
       <c r="F146" t="s">
         <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="b">
         <v>0</v>
@@ -5854,7 +5875,7 @@
         <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -5863,7 +5884,7 @@
         <v>18</v>
       </c>
       <c r="G147" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
@@ -5895,22 +5916,22 @@
         <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>108</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
+        <v>109</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
       </c>
       <c r="F148" t="s">
         <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
       </c>
       <c r="I148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
@@ -5936,51 +5957,89 @@
         <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>109</v>
-      </c>
-      <c r="E149" t="s">
-        <v>18</v>
+        <v>110</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
       </c>
       <c r="F149" t="s">
         <v>18</v>
       </c>
       <c r="G149" t="s">
+        <v>92</v>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" t="b">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s">
+        <v>111</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s">
         <v>19</v>
       </c>
-      <c r="H149" t="b">
-        <v>0</v>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K149" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" t="b">
-        <v>0</v>
-      </c>
-      <c r="M149" t="b">
-        <v>0</v>
-      </c>
-      <c r="N149" t="s">
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="b">
+        <v>1</v>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" t="b">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="E151" t="s">
         <v>18</v>
@@ -5992,10 +6051,10 @@
         <v>19</v>
       </c>
       <c r="H151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="b">
         <v>1</v>
@@ -6010,71 +6069,33 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
-      <c r="A152" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" t="s">
-        <v>20</v>
-      </c>
-      <c r="C152" t="s">
-        <v>111</v>
-      </c>
-      <c r="E152" t="s">
-        <v>18</v>
-      </c>
-      <c r="F152">
-        <v>40</v>
-      </c>
-      <c r="G152" t="s">
-        <v>22</v>
-      </c>
-      <c r="H152" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" t="b">
-        <v>1</v>
-      </c>
-      <c r="K152" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" t="b">
-        <v>0</v>
-      </c>
-      <c r="M152" t="b">
-        <v>0</v>
-      </c>
-      <c r="N152" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C153" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
       </c>
       <c r="E153" t="s">
         <v>18</v>
       </c>
-      <c r="F153">
-        <v>200</v>
+      <c r="F153" t="s">
+        <v>18</v>
       </c>
       <c r="G153" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
@@ -6103,22 +6124,22 @@
         <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E154" t="s">
         <v>18</v>
       </c>
-      <c r="F154" t="s">
-        <v>18</v>
+      <c r="F154">
+        <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
       </c>
       <c r="I154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="b">
         <v>1</v>
@@ -6144,34 +6165,34 @@
         <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="E155" t="s">
         <v>18</v>
       </c>
-      <c r="F155" t="s">
-        <v>18</v>
+      <c r="F155">
+        <v>200</v>
       </c>
       <c r="G155" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" t="b">
         <v>0</v>
       </c>
       <c r="M155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" t="s">
         <v>18</v>
@@ -6185,7 +6206,7 @@
         <v>20</v>
       </c>
       <c r="C156" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E156" t="s">
         <v>18</v>
@@ -6194,13 +6215,13 @@
         <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
       </c>
       <c r="I156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="b">
         <v>1</v>
@@ -6215,42 +6236,80 @@
         <v>0</v>
       </c>
       <c r="N156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" t="s">
+        <v>118</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" t="b">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
-      </c>
-      <c r="D158" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158" t="s">
-        <v>18</v>
+        <v>119</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
       </c>
       <c r="F158" t="s">
         <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="H158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
       </c>
       <c r="J158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158" t="b">
         <v>0</v>
@@ -6270,16 +6329,16 @@
         <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>116</v>
-      </c>
-      <c r="E159" t="s">
-        <v>18</v>
-      </c>
-      <c r="F159">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
@@ -6311,51 +6370,89 @@
         <v>20</v>
       </c>
       <c r="C160" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E160" t="s">
         <v>18</v>
       </c>
-      <c r="F160">
-        <v>200</v>
+      <c r="F160" t="s">
+        <v>18</v>
       </c>
       <c r="G160" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
       </c>
       <c r="I160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160" t="b">
         <v>0</v>
       </c>
       <c r="M160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>72</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="b">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" t="b">
+        <v>1</v>
+      </c>
+      <c r="N161" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E162" t="s">
         <v>18</v>
@@ -6364,10 +6461,10 @@
         <v>18</v>
       </c>
       <c r="G162" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="b">
         <v>0</v>
@@ -6385,59 +6482,21 @@
         <v>0</v>
       </c>
       <c r="N162" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
-      <c r="A163" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" t="s">
-        <v>20</v>
-      </c>
-      <c r="C163" t="s">
-        <v>119</v>
-      </c>
-      <c r="E163" t="s">
-        <v>18</v>
-      </c>
-      <c r="F163">
-        <v>60</v>
-      </c>
-      <c r="G163" t="s">
-        <v>22</v>
-      </c>
-      <c r="H163" t="b">
-        <v>0</v>
-      </c>
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" t="b">
-        <v>1</v>
-      </c>
-      <c r="K163" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" t="b">
-        <v>0</v>
-      </c>
-      <c r="M163" t="b">
-        <v>0</v>
-      </c>
-      <c r="N163" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C164" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>17</v>
       </c>
       <c r="E164" t="s">
         <v>18</v>
@@ -6449,10 +6508,10 @@
         <v>19</v>
       </c>
       <c r="H164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="b">
         <v>1</v>
@@ -6478,22 +6537,22 @@
         <v>20</v>
       </c>
       <c r="C165" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E165" t="s">
         <v>18</v>
       </c>
-      <c r="F165" t="s">
-        <v>18</v>
+      <c r="F165">
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H165" t="b">
         <v>0</v>
       </c>
       <c r="I165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
@@ -6519,16 +6578,16 @@
         <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E166" t="s">
         <v>18</v>
       </c>
-      <c r="F166" t="s">
-        <v>18</v>
+      <c r="F166">
+        <v>200</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
@@ -6554,7 +6613,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B168" t="s">
         <v>43</v>
@@ -6604,7 +6663,7 @@
         <v>20</v>
       </c>
       <c r="C169" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E169" t="s">
         <v>18</v>
@@ -6645,7 +6704,7 @@
         <v>20</v>
       </c>
       <c r="C170" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E170" t="s">
         <v>18</v>
@@ -6686,7 +6745,7 @@
         <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E171" t="s">
         <v>18</v>
@@ -6727,7 +6786,7 @@
         <v>20</v>
       </c>
       <c r="C172" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E172" t="s">
         <v>18</v>
@@ -6762,7 +6821,7 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B174" t="s">
         <v>43</v>
@@ -6812,7 +6871,7 @@
         <v>20</v>
       </c>
       <c r="C175" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E175" t="s">
         <v>18</v>
@@ -6853,7 +6912,7 @@
         <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="E176" t="s">
         <v>18</v>
@@ -6894,7 +6953,7 @@
         <v>20</v>
       </c>
       <c r="C177" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="E177" t="s">
         <v>18</v>
@@ -6935,7 +6994,7 @@
         <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E178" t="s">
         <v>18</v>
@@ -6970,7 +7029,7 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B180" t="s">
         <v>43</v>
@@ -7020,22 +7079,22 @@
         <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E181" t="s">
         <v>18</v>
       </c>
-      <c r="F181" t="s">
-        <v>18</v>
+      <c r="F181">
+        <v>60</v>
       </c>
       <c r="G181" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H181" t="b">
         <v>0</v>
       </c>
       <c r="I181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="b">
         <v>1</v>
@@ -7061,7 +7120,7 @@
         <v>20</v>
       </c>
       <c r="C182" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="E182" t="s">
         <v>18</v>
@@ -7102,7 +7161,7 @@
         <v>20</v>
       </c>
       <c r="C183" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E183" t="s">
         <v>18</v>
@@ -7111,83 +7170,83 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="b">
+        <v>1</v>
+      </c>
+      <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" t="b">
+        <v>0</v>
+      </c>
+      <c r="M183" t="b">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" t="s">
+        <v>121</v>
+      </c>
+      <c r="E184" t="s">
+        <v>18</v>
+      </c>
+      <c r="F184" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" t="s">
         <v>33</v>
       </c>
-      <c r="H183" t="b">
-        <v>0</v>
-      </c>
-      <c r="I183" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" t="b">
-        <v>1</v>
-      </c>
-      <c r="K183" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" t="b">
-        <v>0</v>
-      </c>
-      <c r="M183" t="b">
-        <v>0</v>
-      </c>
-      <c r="N183" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
-      <c r="A185" t="s">
-        <v>125</v>
-      </c>
-      <c r="B185" t="s">
-        <v>43</v>
-      </c>
-      <c r="C185" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" t="s">
-        <v>17</v>
-      </c>
-      <c r="E185" t="s">
-        <v>18</v>
-      </c>
-      <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>19</v>
-      </c>
-      <c r="H185" t="b">
-        <v>1</v>
-      </c>
-      <c r="I185" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" t="b">
-        <v>1</v>
-      </c>
-      <c r="K185" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" t="b">
-        <v>0</v>
-      </c>
-      <c r="M185" t="b">
-        <v>0</v>
-      </c>
-      <c r="N185" t="s">
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="b">
+        <v>0</v>
+      </c>
+      <c r="M184" t="b">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C186" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>17</v>
       </c>
       <c r="E186" t="s">
         <v>18</v>
@@ -7199,10 +7258,10 @@
         <v>19</v>
       </c>
       <c r="H186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="b">
         <v>1</v>
@@ -7228,7 +7287,7 @@
         <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E187" t="s">
         <v>18</v>
@@ -7269,7 +7328,7 @@
         <v>20</v>
       </c>
       <c r="C188" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E188" t="s">
         <v>18</v>
@@ -7278,83 +7337,83 @@
         <v>18</v>
       </c>
       <c r="G188" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="b">
+        <v>1</v>
+      </c>
+      <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" t="b">
+        <v>0</v>
+      </c>
+      <c r="M188" t="b">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>131</v>
+      </c>
+      <c r="E189" t="s">
+        <v>18</v>
+      </c>
+      <c r="F189" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" t="s">
         <v>33</v>
       </c>
-      <c r="H188" t="b">
-        <v>0</v>
-      </c>
-      <c r="I188" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" t="b">
-        <v>1</v>
-      </c>
-      <c r="K188" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" t="b">
-        <v>0</v>
-      </c>
-      <c r="M188" t="b">
-        <v>0</v>
-      </c>
-      <c r="N188" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
-      <c r="A190" t="s">
-        <v>128</v>
-      </c>
-      <c r="B190" t="s">
-        <v>43</v>
-      </c>
-      <c r="C190" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" t="s">
-        <v>18</v>
-      </c>
-      <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>19</v>
-      </c>
-      <c r="H190" t="b">
-        <v>1</v>
-      </c>
-      <c r="I190" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" t="b">
-        <v>1</v>
-      </c>
-      <c r="K190" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" t="b">
-        <v>0</v>
-      </c>
-      <c r="M190" t="b">
-        <v>0</v>
-      </c>
-      <c r="N190" t="s">
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" t="b">
+        <v>1</v>
+      </c>
+      <c r="K189" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" t="b">
+        <v>0</v>
+      </c>
+      <c r="M189" t="b">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C191" t="s">
-        <v>129</v>
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>17</v>
       </c>
       <c r="E191" t="s">
         <v>18</v>
@@ -7363,10 +7422,10 @@
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="b">
         <v>0</v>
@@ -7395,7 +7454,7 @@
         <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E192" t="s">
         <v>18</v>
@@ -7436,7 +7495,7 @@
         <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="E193" t="s">
         <v>18</v>
@@ -7469,71 +7528,71 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
-      <c r="A195" t="s">
-        <v>130</v>
-      </c>
-      <c r="B195" t="s">
-        <v>43</v>
-      </c>
-      <c r="C195" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" t="s">
-        <v>18</v>
-      </c>
-      <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>19</v>
-      </c>
-      <c r="H195" t="b">
-        <v>1</v>
-      </c>
-      <c r="I195" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" t="b">
-        <v>1</v>
-      </c>
-      <c r="K195" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" t="b">
-        <v>0</v>
-      </c>
-      <c r="M195" t="b">
-        <v>0</v>
-      </c>
-      <c r="N195" t="s">
+    <row r="194" spans="1:14">
+      <c r="A194" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" t="s">
+        <v>134</v>
+      </c>
+      <c r="E194" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" t="b">
+        <v>1</v>
+      </c>
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" t="b">
+        <v>0</v>
+      </c>
+      <c r="M194" t="b">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B196" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C196" t="s">
-        <v>105</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" t="s">
+        <v>18</v>
       </c>
       <c r="F196" t="s">
         <v>18</v>
       </c>
       <c r="G196" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="H196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="b">
         <v>0</v>
@@ -7562,7 +7621,7 @@
         <v>20</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="E197" t="s">
         <v>18</v>
@@ -7603,7 +7662,7 @@
         <v>20</v>
       </c>
       <c r="C198" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E198" t="s">
         <v>18</v>
@@ -7644,7 +7703,7 @@
         <v>20</v>
       </c>
       <c r="C199" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E199" t="s">
         <v>18</v>
@@ -7677,56 +7736,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
-      <c r="A200" t="s">
-        <v>20</v>
-      </c>
-      <c r="B200" t="s">
-        <v>20</v>
-      </c>
-      <c r="C200" t="s">
-        <v>131</v>
-      </c>
-      <c r="E200" t="s">
-        <v>18</v>
-      </c>
-      <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>19</v>
-      </c>
-      <c r="H200" t="b">
-        <v>0</v>
-      </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="b">
-        <v>1</v>
-      </c>
-      <c r="K200" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" t="b">
-        <v>0</v>
-      </c>
-      <c r="M200" t="b">
-        <v>0</v>
-      </c>
-      <c r="N200" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="201" spans="1:14">
       <c r="A201" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C201" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
       </c>
       <c r="E201" t="s">
         <v>18</v>
@@ -7738,22 +7759,22 @@
         <v>19</v>
       </c>
       <c r="H201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201" t="b">
         <v>0</v>
       </c>
       <c r="M201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N201" t="s">
         <v>18</v>
@@ -7767,36 +7788,282 @@
         <v>20</v>
       </c>
       <c r="C202" t="s">
-        <v>132</v>
-      </c>
-      <c r="E202" t="s">
-        <v>18</v>
+        <v>107</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
       </c>
       <c r="F202" t="s">
         <v>18</v>
       </c>
       <c r="G202" t="s">
+        <v>108</v>
+      </c>
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" t="b">
+        <v>1</v>
+      </c>
+      <c r="K202" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" t="b">
+        <v>0</v>
+      </c>
+      <c r="M202" t="b">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" t="s">
+        <v>33</v>
+      </c>
+      <c r="E203" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" t="s">
+        <v>33</v>
+      </c>
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" t="b">
+        <v>1</v>
+      </c>
+      <c r="K203" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" t="b">
+        <v>0</v>
+      </c>
+      <c r="M203" t="b">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" t="s">
+        <v>77</v>
+      </c>
+      <c r="E204" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" t="s">
         <v>19</v>
       </c>
-      <c r="H202" t="b">
-        <v>0</v>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="b">
-        <v>0</v>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="b">
-        <v>0</v>
-      </c>
-      <c r="M202" t="b">
-        <v>1</v>
-      </c>
-      <c r="N202" t="s">
+      <c r="H204" t="b">
+        <v>0</v>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="b">
+        <v>1</v>
+      </c>
+      <c r="K204" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" t="b">
+        <v>0</v>
+      </c>
+      <c r="M204" t="b">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" t="s">
+        <v>80</v>
+      </c>
+      <c r="E205" t="s">
+        <v>18</v>
+      </c>
+      <c r="F205" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" t="b">
+        <v>0</v>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="b">
+        <v>1</v>
+      </c>
+      <c r="K205" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" t="b">
+        <v>0</v>
+      </c>
+      <c r="M205" t="b">
+        <v>0</v>
+      </c>
+      <c r="N205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" t="s">
+        <v>138</v>
+      </c>
+      <c r="E206" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="b">
+        <v>1</v>
+      </c>
+      <c r="K206" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" t="b">
+        <v>0</v>
+      </c>
+      <c r="N206" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" t="s">
+        <v>112</v>
+      </c>
+      <c r="E207" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="b">
+        <v>0</v>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" t="b">
+        <v>1</v>
+      </c>
+      <c r="N207" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" t="s">
+        <v>139</v>
+      </c>
+      <c r="E208" t="s">
+        <v>18</v>
+      </c>
+      <c r="F208" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" t="s">
+        <v>19</v>
+      </c>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="b">
+        <v>0</v>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" t="b">
+        <v>1</v>
+      </c>
+      <c r="N208" t="s">
         <v>18</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -2542,7 +2542,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>54</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
         <v>39</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
         <v>54</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
         <v>98</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
         <v>39</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
         <v>77</v>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="163" spans="1:16">
       <c r="A163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
         <v>135</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B169" t="s">
         <v>135</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="175" spans="1:16">
       <c r="A175">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
         <v>45</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="181" spans="1:16">
       <c r="A181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
         <v>98</v>
@@ -8154,7 +8154,7 @@
     </row>
     <row r="186" spans="1:16">
       <c r="A186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B186" t="s">
         <v>135</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="191" spans="1:16">
       <c r="A191">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
         <v>77</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="196" spans="1:16">
       <c r="A196">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
         <v>45</v>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="157">
   <si>
     <t>Load Order</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Rebecca Hutchinson</t>
   </si>
   <si>
-    <t>CustomerLabel</t>
+    <t>CustomerCategory</t>
   </si>
   <si>
     <t>id</t>
@@ -100,7 +100,7 @@
     <t>Kyle Dela Pena</t>
   </si>
   <si>
-    <t>EmployeeLabel</t>
+    <t>EmployeeCategory</t>
   </si>
   <si>
     <t>Alanna Gilcrease</t>
@@ -109,7 +109,7 @@
     <t>EmployeeStatus</t>
   </si>
   <si>
-    <t>Used to soft delete rows with a reason name and desc</t>
+    <t>Defines whether an employee is currently active or inactive</t>
   </si>
   <si>
     <t>status_name</t>
@@ -133,28 +133,40 @@
     <t>CustomerStatus</t>
   </si>
   <si>
+    <t>Describes the current relationship between the customer and the business (are they an Active customer? are they an inactive customer?)</t>
+  </si>
+  <si>
     <t>Srijana Shrestha</t>
   </si>
   <si>
     <t>ProductStatus</t>
   </si>
   <si>
+    <t>Refers to whether a product is available or not. Not that it is unavailable but also if it is not offered anymore</t>
+  </si>
+  <si>
     <t>StoreStatus</t>
   </si>
   <si>
+    <t>Soft delete of store.</t>
+  </si>
+  <si>
     <t>RewardStatus</t>
   </si>
   <si>
+    <t>Defines whether a particular reward is active/inactive. Primary attributes: active, inactive</t>
+  </si>
+  <si>
     <t>BanType</t>
   </si>
   <si>
-    <t>Describes why a type of product is banned</t>
+    <t>Describes why a specific product that is banned</t>
   </si>
   <si>
     <t>Jade Nguyen</t>
   </si>
   <si>
-    <t>PointReason</t>
+    <t>PointLogType</t>
   </si>
   <si>
     <t>Describes why points were added or removed</t>
@@ -163,15 +175,18 @@
     <t>Country</t>
   </si>
   <si>
+    <t>The nation that a particular entity (a store, a customer) is located in.</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>StateProvince</t>
+  </si>
+  <si>
     <t>Blank Description</t>
   </si>
   <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>StateProvince</t>
-  </si>
-  <si>
     <t>state_name</t>
   </si>
   <si>
@@ -202,6 +217,9 @@
     <t>Tier</t>
   </si>
   <si>
+    <t>Categories that loyalty customers are a part of based on number of points accummulated over time. Tiers such as bronze, silver, and gold tier for example.</t>
+  </si>
+  <si>
     <t>EmployeeType</t>
   </si>
   <si>
@@ -271,7 +289,7 @@
     <t>job_desc</t>
   </si>
   <si>
-    <t>AssocEmployeeLabel</t>
+    <t>EmployeeEmployeeCategory</t>
   </si>
   <si>
     <t>employee_id</t>
@@ -280,7 +298,7 @@
     <t>employee_label_id</t>
   </si>
   <si>
-    <t>AssocCustomerLabel</t>
+    <t>CustomerCustomerCategory</t>
   </si>
   <si>
     <t>customer_id</t>
@@ -445,7 +463,7 @@
     <t>product_assigned</t>
   </si>
   <si>
-    <t>StoreReward</t>
+    <t>Store Reward</t>
   </si>
   <si>
     <t>reward_id</t>
@@ -831,7 +849,7 @@
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -1426,7 +1444,7 @@
         <v>21</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1578,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1620,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1775,7 +1793,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1814,7 +1832,7 @@
         <v>21</v>
       </c>
       <c r="P25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1969,7 +1987,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -2008,7 +2026,7 @@
         <v>21</v>
       </c>
       <c r="P30" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2163,7 +2181,7 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -2202,7 +2220,7 @@
         <v>21</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2304,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -2346,7 +2364,7 @@
         <v>21</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2451,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -2490,7 +2508,7 @@
         <v>21</v>
       </c>
       <c r="P43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2504,7 +2522,7 @@
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -2548,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -2587,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="P46" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2601,7 +2619,7 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -2648,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
@@ -2689,10 +2707,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2731,7 +2749,7 @@
         <v>21</v>
       </c>
       <c r="P50" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2745,13 +2763,13 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
         <v>25</v>
@@ -2763,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -2792,7 +2810,7 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
@@ -2810,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -2839,7 +2857,7 @@
         <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
@@ -2857,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -2886,7 +2904,7 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -2930,7 +2948,7 @@
         <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -2969,7 +2987,7 @@
         <v>21</v>
       </c>
       <c r="P56" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3074,7 +3092,7 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -3215,10 +3233,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -3257,7 +3275,7 @@
         <v>21</v>
       </c>
       <c r="P64" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3271,7 +3289,7 @@
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -3318,7 +3336,7 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -3365,7 +3383,7 @@
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3412,7 +3430,7 @@
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -3459,7 +3477,7 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
@@ -3468,7 +3486,7 @@
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -3506,7 +3524,7 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
@@ -3515,7 +3533,7 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3553,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -3562,7 +3580,7 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3600,7 +3618,7 @@
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3647,7 +3665,7 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3656,7 +3674,7 @@
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3694,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -3741,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -3782,10 +3800,10 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -3824,7 +3842,7 @@
         <v>21</v>
       </c>
       <c r="P77" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -3838,7 +3856,7 @@
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -3885,7 +3903,7 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -3932,7 +3950,7 @@
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -3979,7 +3997,7 @@
         <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4026,7 +4044,7 @@
         <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -4035,7 +4053,7 @@
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -4073,7 +4091,7 @@
         <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -4082,7 +4100,7 @@
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -4120,7 +4138,7 @@
         <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4129,7 +4147,7 @@
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -4167,7 +4185,7 @@
         <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
@@ -4214,7 +4232,7 @@
         <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -4261,7 +4279,7 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -4308,7 +4326,7 @@
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4349,10 +4367,10 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -4391,7 +4409,7 @@
         <v>21</v>
       </c>
       <c r="P90" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4405,7 +4423,7 @@
         <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
@@ -4452,7 +4470,7 @@
         <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -4496,7 +4514,7 @@
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -4643,7 +4661,7 @@
         <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -4690,7 +4708,7 @@
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
@@ -4734,7 +4752,7 @@
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -4881,7 +4899,7 @@
         <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
@@ -4928,7 +4946,7 @@
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -4972,7 +4990,7 @@
         <v>37</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -5113,10 +5131,10 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -5155,7 +5173,7 @@
         <v>21</v>
       </c>
       <c r="P110" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5169,7 +5187,7 @@
         <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
@@ -5216,7 +5234,7 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -5257,10 +5275,10 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C114" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -5299,7 +5317,7 @@
         <v>21</v>
       </c>
       <c r="P114" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5313,7 +5331,7 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
@@ -5322,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -5360,7 +5378,7 @@
         <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
@@ -5407,7 +5425,7 @@
         <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -5454,7 +5472,7 @@
         <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E118" t="s">
         <v>19</v>
@@ -5495,10 +5513,10 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C120" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D120" t="s">
         <v>18</v>
@@ -5537,7 +5555,7 @@
         <v>21</v>
       </c>
       <c r="P120" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -5551,7 +5569,7 @@
         <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -5560,7 +5578,7 @@
         <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -5598,7 +5616,7 @@
         <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -5607,7 +5625,7 @@
         <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -5645,7 +5663,7 @@
         <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5654,7 +5672,7 @@
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -5692,7 +5710,7 @@
         <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -5701,7 +5719,7 @@
         <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -5739,7 +5757,7 @@
         <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -5786,7 +5804,7 @@
         <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -5833,7 +5851,7 @@
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E127" t="s">
         <v>19</v>
@@ -5874,10 +5892,10 @@
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C129" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D129" t="s">
         <v>18</v>
@@ -5916,7 +5934,7 @@
         <v>21</v>
       </c>
       <c r="P129" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -5930,7 +5948,7 @@
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -5977,7 +5995,7 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
@@ -6018,10 +6036,10 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
@@ -6060,7 +6078,7 @@
         <v>21</v>
       </c>
       <c r="P133" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -6074,7 +6092,7 @@
         <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E134" t="s">
         <v>19</v>
@@ -6121,7 +6139,7 @@
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
@@ -6168,7 +6186,7 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6177,7 +6195,7 @@
         <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -6215,7 +6233,7 @@
         <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
@@ -6262,7 +6280,7 @@
         <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -6309,7 +6327,7 @@
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
@@ -6350,10 +6368,10 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C141" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
@@ -6392,7 +6410,7 @@
         <v>21</v>
       </c>
       <c r="P141" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -6406,7 +6424,7 @@
         <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6415,7 +6433,7 @@
         <v>19</v>
       </c>
       <c r="G142" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
@@ -6453,7 +6471,7 @@
         <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -6462,7 +6480,7 @@
         <v>19</v>
       </c>
       <c r="G143" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H143" t="b">
         <v>0</v>
@@ -6500,7 +6518,7 @@
         <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6509,7 +6527,7 @@
         <v>19</v>
       </c>
       <c r="G144" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
@@ -6547,7 +6565,7 @@
         <v>23</v>
       </c>
       <c r="D145" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E145" t="s">
         <v>19</v>
@@ -6594,7 +6612,7 @@
         <v>23</v>
       </c>
       <c r="D146" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E146" t="s">
         <v>19</v>
@@ -6638,7 +6656,7 @@
         <v>37</v>
       </c>
       <c r="C148" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D148" t="s">
         <v>18</v>
@@ -6677,7 +6695,7 @@
         <v>21</v>
       </c>
       <c r="P148" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -6691,7 +6709,7 @@
         <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
@@ -6738,7 +6756,7 @@
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
@@ -6785,7 +6803,7 @@
         <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
@@ -6832,7 +6850,7 @@
         <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -6841,7 +6859,7 @@
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H152" t="b">
         <v>0</v>
@@ -6879,7 +6897,7 @@
         <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -6888,7 +6906,7 @@
         <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -6926,7 +6944,7 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -6935,7 +6953,7 @@
         <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -6973,7 +6991,7 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E155" t="s">
         <v>19</v>
@@ -7020,7 +7038,7 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E156" t="s">
         <v>19</v>
@@ -7067,7 +7085,7 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E157" t="s">
         <v>19</v>
@@ -7076,7 +7094,7 @@
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -7108,10 +7126,10 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C159" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D159" t="s">
         <v>18</v>
@@ -7150,7 +7168,7 @@
         <v>21</v>
       </c>
       <c r="P159" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -7164,7 +7182,7 @@
         <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
@@ -7211,7 +7229,7 @@
         <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -7252,10 +7270,10 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C163" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D163" t="s">
         <v>18</v>
@@ -7294,7 +7312,7 @@
         <v>21</v>
       </c>
       <c r="P163" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -7308,7 +7326,7 @@
         <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E164" t="s">
         <v>19</v>
@@ -7355,7 +7373,7 @@
         <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
@@ -7402,7 +7420,7 @@
         <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E166" t="s">
         <v>19</v>
@@ -7449,7 +7467,7 @@
         <v>23</v>
       </c>
       <c r="D167" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E167" t="s">
         <v>19</v>
@@ -7458,7 +7476,7 @@
         <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
@@ -7490,10 +7508,10 @@
         <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C169" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D169" t="s">
         <v>18</v>
@@ -7532,7 +7550,7 @@
         <v>21</v>
       </c>
       <c r="P169" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -7546,7 +7564,7 @@
         <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -7593,7 +7611,7 @@
         <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -7640,7 +7658,7 @@
         <v>23</v>
       </c>
       <c r="D172" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E172" t="s">
         <v>19</v>
@@ -7687,7 +7705,7 @@
         <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E173" t="s">
         <v>19</v>
@@ -7696,7 +7714,7 @@
         <v>19</v>
       </c>
       <c r="G173" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H173" t="b">
         <v>0</v>
@@ -7728,10 +7746,10 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C175" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D175" t="s">
         <v>18</v>
@@ -7770,7 +7788,7 @@
         <v>21</v>
       </c>
       <c r="P175" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -7784,7 +7802,7 @@
         <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -7831,7 +7849,7 @@
         <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
@@ -7878,7 +7896,7 @@
         <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E178" t="s">
         <v>19</v>
@@ -7925,7 +7943,7 @@
         <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E179" t="s">
         <v>19</v>
@@ -7934,7 +7952,7 @@
         <v>19</v>
       </c>
       <c r="G179" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H179" t="b">
         <v>0</v>
@@ -7966,10 +7984,10 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C181" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
@@ -8008,7 +8026,7 @@
         <v>21</v>
       </c>
       <c r="P181" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -8022,7 +8040,7 @@
         <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
@@ -8069,7 +8087,7 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -8116,7 +8134,7 @@
         <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E184" t="s">
         <v>19</v>
@@ -8125,7 +8143,7 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -8157,10 +8175,10 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C186" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D186" t="s">
         <v>18</v>
@@ -8199,7 +8217,7 @@
         <v>21</v>
       </c>
       <c r="P186" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -8213,7 +8231,7 @@
         <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
@@ -8260,7 +8278,7 @@
         <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E188" t="s">
         <v>19</v>
@@ -8307,7 +8325,7 @@
         <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E189" t="s">
         <v>19</v>
@@ -8316,7 +8334,7 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -8348,10 +8366,10 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C191" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
@@ -8390,7 +8408,7 @@
         <v>21</v>
       </c>
       <c r="P191" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -8404,7 +8422,7 @@
         <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8413,7 +8431,7 @@
         <v>19</v>
       </c>
       <c r="G192" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -8451,7 +8469,7 @@
         <v>23</v>
       </c>
       <c r="D193" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -8498,7 +8516,7 @@
         <v>23</v>
       </c>
       <c r="D194" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E194" t="s">
         <v>19</v>
@@ -8539,10 +8557,10 @@
         <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C196" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -8581,7 +8599,7 @@
         <v>21</v>
       </c>
       <c r="P196" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -8595,7 +8613,7 @@
         <v>23</v>
       </c>
       <c r="D197" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8604,7 +8622,7 @@
         <v>19</v>
       </c>
       <c r="G197" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
@@ -8642,7 +8660,7 @@
         <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E198" t="s">
         <v>19</v>
@@ -8651,7 +8669,7 @@
         <v>19</v>
       </c>
       <c r="G198" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
@@ -8689,7 +8707,7 @@
         <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E199" t="s">
         <v>19</v>
@@ -8736,7 +8754,7 @@
         <v>23</v>
       </c>
       <c r="D200" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E200" t="s">
         <v>19</v>
@@ -8783,7 +8801,7 @@
         <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E201" t="s">
         <v>19</v>
@@ -8830,7 +8848,7 @@
         <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E202" t="s">
         <v>19</v>
@@ -8877,7 +8895,7 @@
         <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E203" t="s">
         <v>19</v>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -241,7 +241,7 @@
     <t>comments</t>
   </si>
   <si>
-    <t>text</t>
+    <t>max</t>
   </si>
   <si>
     <t>birthdate</t>
@@ -3483,10 +3483,10 @@
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="183">
   <si>
     <t>Load Order</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Standard Auto-Increment PK</t>
   </si>
   <si>
-    <t>Allows for multiple named labels</t>
+    <t>Categorizes customers based on the opinion of the store owner.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -103,6 +103,9 @@
     <t>EmployeeCategory</t>
   </si>
   <si>
+    <t>Categorizes employee based on the opinion of the store owner.</t>
+  </si>
+  <si>
     <t>Alanna Gilcrease</t>
   </si>
   <si>
@@ -184,7 +187,7 @@
     <t>StateProvince</t>
   </si>
   <si>
-    <t>Blank Description</t>
+    <t>The state/province that a particular entity (a store, a customer) is located in.</t>
   </si>
   <si>
     <t>state_name</t>
@@ -205,12 +208,21 @@
     <t>zip_code</t>
   </si>
   <si>
+    <t>77339</t>
+  </si>
+  <si>
     <t>city</t>
   </si>
   <si>
+    <t>Houston</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
+    <t>3242 StreetName</t>
+  </si>
+  <si>
     <t>state_id</t>
   </si>
   <si>
@@ -223,9 +235,15 @@
     <t>EmployeeType</t>
   </si>
   <si>
+    <t xml:space="preserve">The working type of an employee such as part-time or full-time. </t>
+  </si>
+  <si>
     <t>Employee</t>
   </si>
   <si>
+    <t>Person that works at the store and deals with either the store products or maintenance of said store.</t>
+  </si>
+  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -238,6 +256,9 @@
     <t>phone_number</t>
   </si>
   <si>
+    <t>PhoneNumberField</t>
+  </si>
+  <si>
     <t>comments</t>
   </si>
   <si>
@@ -271,6 +292,9 @@
     <t>Customer</t>
   </si>
   <si>
+    <t>Someone who potentially purchases an item/service from our client and whose general information has been collected by our loyalty system database.</t>
+  </si>
+  <si>
     <t>create_employee_id</t>
   </si>
   <si>
@@ -283,6 +307,9 @@
     <t>Job</t>
   </si>
   <si>
+    <t>The type of role that an employee of a store holds such as cashier, manager, etc.</t>
+  </si>
+  <si>
     <t>job_name</t>
   </si>
   <si>
@@ -292,6 +319,9 @@
     <t>EmployeeEmployeeCategory</t>
   </si>
   <si>
+    <t>Allows an employee to have multiple categories</t>
+  </si>
+  <si>
     <t>employee_id</t>
   </si>
   <si>
@@ -301,6 +331,9 @@
     <t>CustomerCustomerCategory</t>
   </si>
   <si>
+    <t>Allows a customer to have multiple categories</t>
+  </si>
+  <si>
     <t>customer_id</t>
   </si>
   <si>
@@ -310,15 +343,24 @@
     <t>PaymentType</t>
   </si>
   <si>
+    <t>The way a customer pays for a service or product such as cash, credit, Google Pay, etc.</t>
+  </si>
+  <si>
     <t>Store</t>
   </si>
   <si>
+    <t>A physical location where customers go to complete transactions.</t>
+  </si>
+  <si>
     <t>store_status_id</t>
   </si>
   <si>
     <t>EmployeeJob</t>
   </si>
   <si>
+    <t>Allows an employee to have multiple jobs at the same or different stores.</t>
+  </si>
+  <si>
     <t>assign_date</t>
   </si>
   <si>
@@ -334,6 +376,9 @@
     <t>Order</t>
   </si>
   <si>
+    <t>The customer’s finalized transaction of products purchased. This order generates customer loyalty points based on the monetary total of the transaction.</t>
+  </si>
+  <si>
     <t>order_date</t>
   </si>
   <si>
@@ -355,6 +400,9 @@
     <t>ProductType</t>
   </si>
   <si>
+    <t xml:space="preserve"> Identifying certain product types that are eligible to be purchased with points, versus products that are not eligible to earn points on; used to distinguish exclusions. </t>
+  </si>
+  <si>
     <t>product_type_name</t>
   </si>
   <si>
@@ -364,6 +412,9 @@
     <t>Product</t>
   </si>
   <si>
+    <t>An item purchased by the customer in a transaction.</t>
+  </si>
+  <si>
     <t>product_name</t>
   </si>
   <si>
@@ -385,6 +436,9 @@
     <t>OrderLine</t>
   </si>
   <si>
+    <t>Represents information located on a singular line found on a receipt/invoice produced after a completed transaction that describes the customer’s transaction and product details (quantity, product type, total price for that order line).</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -433,6 +487,9 @@
     <t>SocialMediaType</t>
   </si>
   <si>
+    <t>The different types of social media that exist for use such as Instagram, Snapchat, etc.</t>
+  </si>
+  <si>
     <t>social_media_name</t>
   </si>
   <si>
@@ -445,6 +502,9 @@
     <t>StoreSocialMedia</t>
   </si>
   <si>
+    <t>Social media of the store.</t>
+  </si>
+  <si>
     <t>social_media_code</t>
   </si>
   <si>
@@ -454,18 +514,30 @@
     <t>EmployeeSocialMedia</t>
   </si>
   <si>
+    <t>Employee social media.</t>
+  </si>
+  <si>
     <t>CustomerSocialMedia</t>
   </si>
   <si>
+    <t>Customer social media.</t>
+  </si>
+  <si>
     <t>StoreProduct</t>
   </si>
   <si>
+    <t>Products that are either associated with or are offered at a specific store location.</t>
+  </si>
+  <si>
     <t>product_assigned</t>
   </si>
   <si>
     <t>Store Reward</t>
   </si>
   <si>
+    <t>Rewards available to loyalty customers based on which specific store points are redeemed at.</t>
+  </si>
+  <si>
     <t>reward_id</t>
   </si>
   <si>
@@ -475,10 +547,16 @@
     <t>CustomerReward</t>
   </si>
   <si>
+    <t>Rewards available to a SINGLE loyalty customer to be redeemed, based on the amount of points they have accumulated to date. Available rewards that they (a single loyalty customer) has earned, based on their personal points. A points bank.</t>
+  </si>
+  <si>
     <t>date_applied</t>
   </si>
   <si>
     <t>PointLog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keeping track of a customers existing loyalty points and used points?</t>
   </si>
   <si>
     <t>reason_id</t>
@@ -851,9 +929,9 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
@@ -1041,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -1106,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1185,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1208,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1250,7 +1328,7 @@
         <v>21</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1264,7 +1342,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1311,7 +1389,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -1329,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1358,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1367,7 +1445,7 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1391,7 +1469,7 @@
         <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P13" t="s">
         <v>23</v>
@@ -1402,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1444,7 +1522,7 @@
         <v>21</v>
       </c>
       <c r="P15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1458,7 +1536,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -1505,7 +1583,7 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -1523,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1552,7 +1630,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1561,7 +1639,7 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1585,7 +1663,7 @@
         <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P18" t="s">
         <v>23</v>
@@ -1596,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1638,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1652,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -1699,7 +1777,7 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -1717,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1746,7 +1824,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1755,7 +1833,7 @@
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1779,7 +1857,7 @@
         <v>19</v>
       </c>
       <c r="O23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" t="s">
         <v>23</v>
@@ -1790,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1832,7 +1910,7 @@
         <v>21</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1846,7 +1924,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -1893,7 +1971,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -1911,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1940,7 +2018,7 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1949,7 +2027,7 @@
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1973,7 +2051,7 @@
         <v>19</v>
       </c>
       <c r="O28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P28" t="s">
         <v>23</v>
@@ -1984,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -2026,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2040,7 +2118,7 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
@@ -2087,7 +2165,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -2105,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2134,7 +2212,7 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -2143,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -2167,7 +2245,7 @@
         <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P33" t="s">
         <v>23</v>
@@ -2178,10 +2256,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -2220,7 +2298,7 @@
         <v>21</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2299,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2322,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -2364,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="P39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2443,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2469,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -2508,7 +2586,7 @@
         <v>21</v>
       </c>
       <c r="P43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2522,7 +2600,7 @@
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -2566,7 +2644,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -2605,7 +2683,7 @@
         <v>21</v>
       </c>
       <c r="P46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2619,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -2666,10 +2744,10 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="E48">
+        <v>233</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -2707,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2749,7 +2827,7 @@
         <v>21</v>
       </c>
       <c r="P50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2763,10 +2841,10 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -2810,10 +2888,10 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F52">
         <v>35</v>
@@ -2857,10 +2935,10 @@
         <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F53">
         <v>100</v>
@@ -2904,10 +2982,10 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" t="s">
-        <v>19</v>
+        <v>69</v>
+      </c>
+      <c r="E54">
+        <v>1407</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -2945,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -2987,7 +3065,7 @@
         <v>21</v>
       </c>
       <c r="P56" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3066,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3092,7 +3170,7 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -3131,7 +3209,7 @@
         <v>21</v>
       </c>
       <c r="P60" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3210,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -3233,10 +3311,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -3275,7 +3353,7 @@
         <v>21</v>
       </c>
       <c r="P64" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3289,7 +3367,7 @@
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -3336,7 +3414,7 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -3383,7 +3461,7 @@
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3430,16 +3508,16 @@
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
       </c>
       <c r="F68">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -3477,13 +3555,13 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
@@ -3524,7 +3602,7 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
@@ -3533,7 +3611,7 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3571,7 +3649,7 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -3580,7 +3658,7 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3618,7 +3696,7 @@
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3665,7 +3743,7 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3674,7 +3752,7 @@
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3712,7 +3790,7 @@
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -3759,7 +3837,7 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -3800,10 +3878,10 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -3842,7 +3920,7 @@
         <v>21</v>
       </c>
       <c r="P77" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -3856,7 +3934,7 @@
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -3903,7 +3981,7 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -3950,7 +4028,7 @@
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -3997,16 +4075,16 @@
         <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
       </c>
       <c r="F81">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -4044,13 +4122,13 @@
         <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G82" t="s">
         <v>25</v>
@@ -4091,7 +4169,7 @@
         <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -4100,7 +4178,7 @@
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -4138,7 +4216,7 @@
         <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4147,7 +4225,7 @@
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -4185,7 +4263,7 @@
         <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
@@ -4232,7 +4310,7 @@
         <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -4279,7 +4357,7 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -4326,7 +4404,7 @@
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4367,10 +4445,10 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -4409,7 +4487,7 @@
         <v>21</v>
       </c>
       <c r="P90" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4423,7 +4501,7 @@
         <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
@@ -4470,7 +4548,7 @@
         <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -4514,7 +4592,7 @@
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -4553,7 +4631,7 @@
         <v>21</v>
       </c>
       <c r="P94" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4632,10 +4710,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -4661,7 +4739,7 @@
         <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -4708,7 +4786,7 @@
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
@@ -4752,7 +4830,7 @@
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -4791,7 +4869,7 @@
         <v>21</v>
       </c>
       <c r="P100" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4870,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="J102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -4899,7 +4977,7 @@
         <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
@@ -4946,7 +5024,7 @@
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -4987,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -5029,7 +5107,7 @@
         <v>21</v>
       </c>
       <c r="P106" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5108,10 +5186,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -5131,10 +5209,10 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -5173,7 +5251,7 @@
         <v>21</v>
       </c>
       <c r="P110" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5187,7 +5265,7 @@
         <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
@@ -5234,7 +5312,7 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -5275,10 +5353,10 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -5317,7 +5395,7 @@
         <v>21</v>
       </c>
       <c r="P114" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5331,7 +5409,7 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
@@ -5340,7 +5418,7 @@
         <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -5378,7 +5456,7 @@
         <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
@@ -5425,7 +5503,7 @@
         <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -5472,7 +5550,7 @@
         <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E118" t="s">
         <v>19</v>
@@ -5513,10 +5591,10 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D120" t="s">
         <v>18</v>
@@ -5555,7 +5633,7 @@
         <v>21</v>
       </c>
       <c r="P120" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -5569,7 +5647,7 @@
         <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -5578,7 +5656,7 @@
         <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -5616,7 +5694,7 @@
         <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -5625,7 +5703,7 @@
         <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -5663,7 +5741,7 @@
         <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5672,7 +5750,7 @@
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -5710,7 +5788,7 @@
         <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -5719,7 +5797,7 @@
         <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -5757,7 +5835,7 @@
         <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -5804,7 +5882,7 @@
         <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -5851,7 +5929,7 @@
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E127" t="s">
         <v>19</v>
@@ -5892,10 +5970,10 @@
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D129" t="s">
         <v>18</v>
@@ -5934,7 +6012,7 @@
         <v>21</v>
       </c>
       <c r="P129" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -5948,7 +6026,7 @@
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -5995,7 +6073,7 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
@@ -6013,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="J131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" t="b">
         <v>0</v>
@@ -6036,10 +6114,10 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
@@ -6078,7 +6156,7 @@
         <v>21</v>
       </c>
       <c r="P133" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -6092,7 +6170,7 @@
         <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E134" t="s">
         <v>19</v>
@@ -6139,7 +6217,7 @@
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
@@ -6157,10 +6235,10 @@
         <v>0</v>
       </c>
       <c r="J135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" t="b">
         <v>0</v>
@@ -6186,7 +6264,7 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6195,7 +6273,7 @@
         <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -6233,7 +6311,7 @@
         <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
@@ -6280,7 +6358,7 @@
         <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -6327,7 +6405,7 @@
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
@@ -6368,10 +6446,10 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C141" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
@@ -6410,7 +6488,7 @@
         <v>21</v>
       </c>
       <c r="P141" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -6424,7 +6502,7 @@
         <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6433,7 +6511,7 @@
         <v>19</v>
       </c>
       <c r="G142" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
@@ -6471,7 +6549,7 @@
         <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -6480,7 +6558,7 @@
         <v>19</v>
       </c>
       <c r="G143" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H143" t="b">
         <v>0</v>
@@ -6518,7 +6596,7 @@
         <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6527,7 +6605,7 @@
         <v>19</v>
       </c>
       <c r="G144" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
@@ -6565,7 +6643,7 @@
         <v>23</v>
       </c>
       <c r="D145" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E145" t="s">
         <v>19</v>
@@ -6612,7 +6690,7 @@
         <v>23</v>
       </c>
       <c r="D146" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E146" t="s">
         <v>19</v>
@@ -6653,10 +6731,10 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C148" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D148" t="s">
         <v>18</v>
@@ -6695,7 +6773,7 @@
         <v>21</v>
       </c>
       <c r="P148" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -6709,7 +6787,7 @@
         <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
@@ -6756,7 +6834,7 @@
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
@@ -6774,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="J150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="b">
         <v>0</v>
@@ -6803,7 +6881,7 @@
         <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
@@ -6850,7 +6928,7 @@
         <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -6859,7 +6937,7 @@
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H152" t="b">
         <v>0</v>
@@ -6897,7 +6975,7 @@
         <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -6906,7 +6984,7 @@
         <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -6944,7 +7022,7 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -6953,7 +7031,7 @@
         <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -6991,7 +7069,7 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E155" t="s">
         <v>19</v>
@@ -7038,7 +7116,7 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E156" t="s">
         <v>19</v>
@@ -7085,7 +7163,7 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E157" t="s">
         <v>19</v>
@@ -7094,7 +7172,7 @@
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -7126,10 +7204,10 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C159" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D159" t="s">
         <v>18</v>
@@ -7168,7 +7246,7 @@
         <v>21</v>
       </c>
       <c r="P159" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -7182,7 +7260,7 @@
         <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
@@ -7229,7 +7307,7 @@
         <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -7247,10 +7325,10 @@
         <v>0</v>
       </c>
       <c r="J161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L161" t="b">
         <v>0</v>
@@ -7270,10 +7348,10 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D163" t="s">
         <v>18</v>
@@ -7312,7 +7390,7 @@
         <v>21</v>
       </c>
       <c r="P163" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -7326,7 +7404,7 @@
         <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E164" t="s">
         <v>19</v>
@@ -7373,7 +7451,7 @@
         <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
@@ -7420,7 +7498,7 @@
         <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E166" t="s">
         <v>19</v>
@@ -7467,7 +7545,7 @@
         <v>23</v>
       </c>
       <c r="D167" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E167" t="s">
         <v>19</v>
@@ -7476,7 +7554,7 @@
         <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
@@ -7508,10 +7586,10 @@
         <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C169" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D169" t="s">
         <v>18</v>
@@ -7550,7 +7628,7 @@
         <v>21</v>
       </c>
       <c r="P169" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -7564,7 +7642,7 @@
         <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -7611,7 +7689,7 @@
         <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -7658,7 +7736,7 @@
         <v>23</v>
       </c>
       <c r="D172" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E172" t="s">
         <v>19</v>
@@ -7705,7 +7783,7 @@
         <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E173" t="s">
         <v>19</v>
@@ -7714,7 +7792,7 @@
         <v>19</v>
       </c>
       <c r="G173" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H173" t="b">
         <v>0</v>
@@ -7746,10 +7824,10 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C175" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D175" t="s">
         <v>18</v>
@@ -7788,7 +7866,7 @@
         <v>21</v>
       </c>
       <c r="P175" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -7802,7 +7880,7 @@
         <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -7849,7 +7927,7 @@
         <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
@@ -7896,7 +7974,7 @@
         <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E178" t="s">
         <v>19</v>
@@ -7943,7 +8021,7 @@
         <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E179" t="s">
         <v>19</v>
@@ -7952,7 +8030,7 @@
         <v>19</v>
       </c>
       <c r="G179" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H179" t="b">
         <v>0</v>
@@ -7984,10 +8062,10 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C181" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
@@ -8026,7 +8104,7 @@
         <v>21</v>
       </c>
       <c r="P181" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -8040,7 +8118,7 @@
         <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
@@ -8087,7 +8165,7 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -8134,7 +8212,7 @@
         <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E184" t="s">
         <v>19</v>
@@ -8143,7 +8221,7 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -8175,10 +8253,10 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C186" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="D186" t="s">
         <v>18</v>
@@ -8217,7 +8295,7 @@
         <v>21</v>
       </c>
       <c r="P186" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -8231,7 +8309,7 @@
         <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
@@ -8278,7 +8356,7 @@
         <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E188" t="s">
         <v>19</v>
@@ -8325,7 +8403,7 @@
         <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E189" t="s">
         <v>19</v>
@@ -8334,7 +8412,7 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -8366,10 +8444,10 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C191" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
@@ -8408,7 +8486,7 @@
         <v>21</v>
       </c>
       <c r="P191" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -8422,7 +8500,7 @@
         <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8431,7 +8509,7 @@
         <v>19</v>
       </c>
       <c r="G192" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -8469,7 +8547,7 @@
         <v>23</v>
       </c>
       <c r="D193" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -8516,7 +8594,7 @@
         <v>23</v>
       </c>
       <c r="D194" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E194" t="s">
         <v>19</v>
@@ -8557,10 +8635,10 @@
         <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C196" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -8599,7 +8677,7 @@
         <v>21</v>
       </c>
       <c r="P196" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -8613,7 +8691,7 @@
         <v>23</v>
       </c>
       <c r="D197" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8622,7 +8700,7 @@
         <v>19</v>
       </c>
       <c r="G197" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
@@ -8660,7 +8738,7 @@
         <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E198" t="s">
         <v>19</v>
@@ -8669,7 +8747,7 @@
         <v>19</v>
       </c>
       <c r="G198" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
@@ -8707,7 +8785,7 @@
         <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E199" t="s">
         <v>19</v>
@@ -8754,7 +8832,7 @@
         <v>23</v>
       </c>
       <c r="D200" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E200" t="s">
         <v>19</v>
@@ -8801,7 +8879,7 @@
         <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E201" t="s">
         <v>19</v>
@@ -8848,7 +8926,7 @@
         <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E202" t="s">
         <v>19</v>
@@ -8895,7 +8973,7 @@
         <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E203" t="s">
         <v>19</v>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="184">
   <si>
     <t>Load Order</t>
   </si>
@@ -76,7 +76,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>bigint</t>
+    <t>int</t>
   </si>
   <si>
     <t>Standard Auto-Increment PK</t>
@@ -256,9 +256,6 @@
     <t>phone_number</t>
   </si>
   <si>
-    <t>PhoneNumberField</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -352,9 +349,15 @@
     <t>A physical location where customers go to complete transactions.</t>
   </si>
   <si>
+    <t>store_name</t>
+  </si>
+  <si>
     <t>store_status_id</t>
   </si>
   <si>
+    <t>start_date</t>
+  </si>
+  <si>
     <t>EmployeeJob</t>
   </si>
   <si>
@@ -388,6 +391,9 @@
     <t>numeric</t>
   </si>
   <si>
+    <t>4 Decimals</t>
+  </si>
+  <si>
     <t>final_total</t>
   </si>
   <si>
@@ -440,9 +446,6 @@
   </si>
   <si>
     <t>quantity</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>ind_price</t>
@@ -610,8 +613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P205" totalsRowShown="0">
-  <autoFilter ref="A1:P205"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P210" totalsRowShown="0">
+  <autoFilter ref="A1:P210"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Load Order"/>
     <tableColumn id="2" name="Owner"/>
@@ -919,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P203"/>
+  <dimension ref="A1:P208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,14 +934,14 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="33.28515625" customWidth="1"/>
     <col min="16" max="16" width="343.28515625" customWidth="1"/>
   </cols>
@@ -3517,7 +3520,7 @@
         <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -3555,13 +3558,13 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
         <v>81</v>
-      </c>
-      <c r="E69" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" t="s">
-        <v>82</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
@@ -3602,16 +3605,16 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
         <v>83</v>
-      </c>
-      <c r="E70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>84</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3649,7 +3652,7 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -3658,7 +3661,7 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3696,7 +3699,7 @@
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3743,7 +3746,7 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3752,7 +3755,7 @@
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3790,7 +3793,7 @@
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -3837,7 +3840,7 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -3878,10 +3881,10 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
         <v>90</v>
-      </c>
-      <c r="C77" t="s">
-        <v>91</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -3920,7 +3923,7 @@
         <v>21</v>
       </c>
       <c r="P77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4084,7 +4087,7 @@
         <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -4122,13 +4125,13 @@
         <v>23</v>
       </c>
       <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
         <v>81</v>
-      </c>
-      <c r="E82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" t="s">
-        <v>82</v>
       </c>
       <c r="G82" t="s">
         <v>25</v>
@@ -4169,16 +4172,16 @@
         <v>23</v>
       </c>
       <c r="D83" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
         <v>83</v>
-      </c>
-      <c r="E83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>84</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -4216,7 +4219,7 @@
         <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4225,7 +4228,7 @@
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -4263,7 +4266,7 @@
         <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
@@ -4310,7 +4313,7 @@
         <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -4357,7 +4360,7 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -4404,7 +4407,7 @@
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4448,7 +4451,7 @@
         <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -4487,7 +4490,7 @@
         <v>21</v>
       </c>
       <c r="P90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4501,7 +4504,7 @@
         <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
@@ -4548,7 +4551,7 @@
         <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -4592,7 +4595,7 @@
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -4631,7 +4634,7 @@
         <v>21</v>
       </c>
       <c r="P94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4739,7 +4742,7 @@
         <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -4786,7 +4789,7 @@
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
@@ -4830,7 +4833,7 @@
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -4869,7 +4872,7 @@
         <v>21</v>
       </c>
       <c r="P100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4977,7 +4980,7 @@
         <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
@@ -5024,7 +5027,7 @@
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -5068,7 +5071,7 @@
         <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -5107,7 +5110,7 @@
         <v>21</v>
       </c>
       <c r="P106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5212,7 +5215,7 @@
         <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -5251,7 +5254,7 @@
         <v>21</v>
       </c>
       <c r="P110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5265,22 +5268,22 @@
         <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
       </c>
-      <c r="F111" t="s">
-        <v>19</v>
+      <c r="F111">
+        <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
       </c>
       <c r="I111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
@@ -5312,22 +5315,22 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
       </c>
-      <c r="F112" t="s">
-        <v>19</v>
+      <c r="F112">
+        <v>254</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
       <c r="I112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
@@ -5348,18 +5351,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="113" spans="1:16">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113">
+        <v>40</v>
+      </c>
+      <c r="G113" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
+        <v>19</v>
+      </c>
+      <c r="P113" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="114" spans="1:16">
-      <c r="A114">
-        <v>5</v>
+      <c r="A114" t="s">
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="E114" t="s">
         <v>19</v>
@@ -5371,10 +5421,10 @@
         <v>20</v>
       </c>
       <c r="H114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
@@ -5391,11 +5441,8 @@
       <c r="N114" t="s">
         <v>19</v>
       </c>
-      <c r="O114" t="s">
-        <v>21</v>
-      </c>
       <c r="P114" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5409,7 +5456,7 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
@@ -5418,13 +5465,13 @@
         <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
       </c>
       <c r="I115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="b">
         <v>1</v>
@@ -5456,7 +5503,7 @@
         <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
@@ -5465,13 +5512,13 @@
         <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
       </c>
       <c r="I116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
@@ -5503,102 +5550,105 @@
         <v>23</v>
       </c>
       <c r="D117" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s">
+        <v>83</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
+        <v>0</v>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>19</v>
+      </c>
+      <c r="P117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
+        <v>19</v>
+      </c>
+      <c r="O119" t="s">
+        <v>21</v>
+      </c>
+      <c r="P119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" t="s">
         <v>116</v>
       </c>
-      <c r="E117" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="b">
-        <v>1</v>
-      </c>
-      <c r="K117" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" t="b">
-        <v>0</v>
-      </c>
-      <c r="M117" t="b">
-        <v>0</v>
-      </c>
-      <c r="N117" t="s">
-        <v>19</v>
-      </c>
-      <c r="P117" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" t="s">
-        <v>117</v>
-      </c>
-      <c r="E118" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="b">
-        <v>1</v>
-      </c>
-      <c r="K118" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" t="b">
-        <v>0</v>
-      </c>
-      <c r="M118" t="b">
-        <v>0</v>
-      </c>
-      <c r="N118" t="s">
-        <v>19</v>
-      </c>
-      <c r="P118" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
-      <c r="A120">
-        <v>6</v>
-      </c>
-      <c r="B120" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" t="s">
-        <v>119</v>
-      </c>
-      <c r="D120" t="s">
-        <v>18</v>
-      </c>
       <c r="E120" t="s">
         <v>19</v>
       </c>
@@ -5606,10 +5656,10 @@
         <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="H120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -5629,11 +5679,8 @@
       <c r="N120" t="s">
         <v>19</v>
       </c>
-      <c r="O120" t="s">
-        <v>21</v>
-      </c>
       <c r="P120" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -5647,7 +5694,7 @@
         <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -5656,13 +5703,13 @@
         <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
       </c>
       <c r="I121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
@@ -5694,22 +5741,22 @@
         <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>122</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
       </c>
       <c r="I122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
@@ -5741,22 +5788,22 @@
         <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>124</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="E123" t="s">
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
       </c>
       <c r="I123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="b">
         <v>1</v>
@@ -5777,65 +5824,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
-      <c r="A124" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" t="s">
-        <v>23</v>
-      </c>
-      <c r="C124" t="s">
-        <v>23</v>
-      </c>
-      <c r="D124" t="s">
-        <v>125</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>123</v>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" t="b">
-        <v>0</v>
-      </c>
-      <c r="M124" t="b">
-        <v>0</v>
-      </c>
-      <c r="N124" t="s">
-        <v>19</v>
-      </c>
-      <c r="P124" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="125" spans="1:16">
-      <c r="A125" t="s">
-        <v>23</v>
+      <c r="A125">
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="D125" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -5847,10 +5847,10 @@
         <v>20</v>
       </c>
       <c r="H125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
@@ -5867,8 +5867,11 @@
       <c r="N125" t="s">
         <v>19</v>
       </c>
+      <c r="O125" t="s">
+        <v>21</v>
+      </c>
       <c r="P125" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -5882,7 +5885,7 @@
         <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -5891,13 +5894,13 @@
         <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
       </c>
       <c r="I126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -5929,22 +5932,22 @@
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>116</v>
-      </c>
-      <c r="E127" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" t="s">
+        <v>123</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
         <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="b">
         <v>1</v>
@@ -5959,36 +5962,83 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="P127" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="128" spans="1:16">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" t="s">
+        <v>126</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>124</v>
+      </c>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="b">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
+        <v>125</v>
+      </c>
+      <c r="P128" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="129" spans="1:16">
-      <c r="A129">
-        <v>1</v>
+      <c r="A129" t="s">
+        <v>23</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" t="s">
         <v>127</v>
       </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="H129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
@@ -6006,13 +6056,10 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>19</v>
-      </c>
-      <c r="O129" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="P129" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -6026,22 +6073,22 @@
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
       </c>
-      <c r="F130">
-        <v>40</v>
+      <c r="F130" t="s">
+        <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
       </c>
       <c r="I130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="b">
         <v>1</v>
@@ -6073,137 +6120,137 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
+        <v>128</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
+        <v>19</v>
+      </c>
+      <c r="P131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" t="s">
+        <v>117</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
+        <v>19</v>
+      </c>
+      <c r="P132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
+        <v>19</v>
+      </c>
+      <c r="O134" t="s">
+        <v>21</v>
+      </c>
+      <c r="P134" t="s">
         <v>130</v>
-      </c>
-      <c r="E131" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131">
-        <v>200</v>
-      </c>
-      <c r="G131" t="s">
-        <v>25</v>
-      </c>
-      <c r="H131" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="b">
-        <v>0</v>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="b">
-        <v>0</v>
-      </c>
-      <c r="M131" t="b">
-        <v>0</v>
-      </c>
-      <c r="N131" t="s">
-        <v>19</v>
-      </c>
-      <c r="P131" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
-      <c r="A133">
-        <v>2</v>
-      </c>
-      <c r="B133" t="s">
-        <v>41</v>
-      </c>
-      <c r="C133" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
-      <c r="H133" t="b">
-        <v>1</v>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" t="b">
-        <v>0</v>
-      </c>
-      <c r="M133" t="b">
-        <v>0</v>
-      </c>
-      <c r="N133" t="s">
-        <v>19</v>
-      </c>
-      <c r="O133" t="s">
-        <v>21</v>
-      </c>
-      <c r="P133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
-      <c r="A134" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" t="s">
-        <v>23</v>
-      </c>
-      <c r="C134" t="s">
-        <v>23</v>
-      </c>
-      <c r="D134" t="s">
-        <v>133</v>
-      </c>
-      <c r="E134" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134">
-        <v>40</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
-      <c r="H134" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K134" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" t="b">
-        <v>0</v>
-      </c>
-      <c r="M134" t="b">
-        <v>0</v>
-      </c>
-      <c r="N134" t="s">
-        <v>19</v>
-      </c>
-      <c r="P134" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -6217,13 +6264,13 @@
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
       </c>
       <c r="F135">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
         <v>25</v>
@@ -6235,10 +6282,10 @@
         <v>0</v>
       </c>
       <c r="J135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" t="b">
         <v>0</v>
@@ -6264,16 +6311,16 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>135</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136" t="s">
-        <v>19</v>
+        <v>132</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136">
+        <v>200</v>
       </c>
       <c r="G136" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -6282,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="J136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" t="b">
         <v>0</v>
@@ -6300,65 +6347,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
-      <c r="A137" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" t="s">
-        <v>23</v>
-      </c>
-      <c r="C137" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" t="s">
-        <v>136</v>
-      </c>
-      <c r="E137" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
-      <c r="H137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="b">
-        <v>1</v>
-      </c>
-      <c r="K137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137" t="b">
-        <v>0</v>
-      </c>
-      <c r="N137" t="s">
-        <v>19</v>
-      </c>
-      <c r="P137" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="138" spans="1:16">
-      <c r="A138" t="s">
-        <v>23</v>
+      <c r="A138">
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="D138" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -6370,10 +6370,10 @@
         <v>20</v>
       </c>
       <c r="H138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
@@ -6390,8 +6390,11 @@
       <c r="N138" t="s">
         <v>19</v>
       </c>
+      <c r="O138" t="s">
+        <v>21</v>
+      </c>
       <c r="P138" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -6405,34 +6408,34 @@
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
       </c>
-      <c r="F139" t="s">
-        <v>19</v>
+      <c r="F139">
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
       </c>
       <c r="I139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139" t="b">
         <v>0</v>
       </c>
       <c r="M139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139" t="s">
         <v>19</v>
@@ -6441,30 +6444,77 @@
         <v>23</v>
       </c>
     </row>
+    <row r="140" spans="1:16">
+      <c r="A140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" t="s">
+        <v>136</v>
+      </c>
+      <c r="E140" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140">
+        <v>200</v>
+      </c>
+      <c r="G140" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="b">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
+        <v>19</v>
+      </c>
+      <c r="P140" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="141" spans="1:16">
-      <c r="A141">
-        <v>7</v>
+      <c r="A141" t="s">
+        <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" t="s">
+        <v>137</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
         <v>19</v>
       </c>
       <c r="G141" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="H141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="b">
         <v>0</v>
@@ -6482,13 +6532,10 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>19</v>
-      </c>
-      <c r="O141" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="P141" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -6502,22 +6549,22 @@
         <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>141</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>19</v>
       </c>
       <c r="G142" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
       </c>
       <c r="I142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="b">
         <v>1</v>
@@ -6549,22 +6596,22 @@
         <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>143</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>19</v>
       </c>
       <c r="G143" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="H143" t="b">
         <v>0</v>
       </c>
       <c r="I143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
@@ -6596,34 +6643,34 @@
         <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>144</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
       </c>
       <c r="G144" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
       </c>
       <c r="I144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
       </c>
       <c r="M144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144" t="s">
         <v>19</v>
@@ -6632,65 +6679,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
-      <c r="A145" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145" t="s">
-        <v>23</v>
-      </c>
-      <c r="D145" t="s">
-        <v>145</v>
-      </c>
-      <c r="E145" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
-      <c r="H145" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="b">
-        <v>1</v>
-      </c>
-      <c r="K145" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" t="b">
-        <v>0</v>
-      </c>
-      <c r="M145" t="b">
-        <v>0</v>
-      </c>
-      <c r="N145" t="s">
-        <v>19</v>
-      </c>
-      <c r="P145" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="146" spans="1:16">
-      <c r="A146" t="s">
-        <v>23</v>
+      <c r="A146">
+        <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="D146" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="E146" t="s">
         <v>19</v>
@@ -6702,10 +6702,10 @@
         <v>20</v>
       </c>
       <c r="H146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
@@ -6722,34 +6722,84 @@
       <c r="N146" t="s">
         <v>19</v>
       </c>
+      <c r="O146" t="s">
+        <v>21</v>
+      </c>
       <c r="P146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" t="s">
+        <v>143</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
+        <v>1</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" t="b">
+        <v>0</v>
+      </c>
+      <c r="N147" t="s">
+        <v>19</v>
+      </c>
+      <c r="P147" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:16">
-      <c r="A148">
-        <v>3</v>
+      <c r="A148" t="s">
+        <v>23</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C148" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" t="s">
+        <v>144</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="H148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="b">
         <v>0</v>
@@ -6767,13 +6817,10 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>19</v>
-      </c>
-      <c r="O148" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="P148" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -6787,16 +6834,16 @@
         <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>149</v>
-      </c>
-      <c r="E149" t="s">
-        <v>19</v>
+        <v>145</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
@@ -6817,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="P149" t="s">
         <v>23</v>
@@ -6834,28 +6881,28 @@
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
       </c>
-      <c r="F150">
-        <v>200</v>
+      <c r="F150" t="s">
+        <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H150" t="b">
         <v>0</v>
       </c>
       <c r="I150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150" t="b">
         <v>0</v>
@@ -6881,7 +6928,7 @@
         <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
@@ -6917,86 +6964,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
-      <c r="A152" t="s">
-        <v>23</v>
-      </c>
-      <c r="B152" t="s">
-        <v>23</v>
-      </c>
-      <c r="C152" t="s">
-        <v>23</v>
-      </c>
-      <c r="D152" t="s">
-        <v>152</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
-        <v>142</v>
-      </c>
-      <c r="H152" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" t="b">
-        <v>1</v>
-      </c>
-      <c r="K152" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" t="b">
-        <v>0</v>
-      </c>
-      <c r="M152" t="b">
-        <v>0</v>
-      </c>
-      <c r="N152" t="s">
-        <v>19</v>
-      </c>
-      <c r="P152" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="153" spans="1:16">
-      <c r="A153" t="s">
-        <v>23</v>
+      <c r="A153">
+        <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="D153" t="s">
-        <v>153</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
       </c>
       <c r="J153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153" t="b">
         <v>0</v>
@@ -7007,8 +7007,11 @@
       <c r="N153" t="s">
         <v>19</v>
       </c>
+      <c r="O153" t="s">
+        <v>21</v>
+      </c>
       <c r="P153" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -7022,16 +7025,16 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>125</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154" t="s">
-        <v>19</v>
+        <v>150</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154">
+        <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -7069,22 +7072,22 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E155" t="s">
         <v>19</v>
       </c>
-      <c r="F155" t="s">
-        <v>19</v>
+      <c r="F155">
+        <v>200</v>
       </c>
       <c r="G155" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="b">
         <v>0</v>
@@ -7096,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" t="s">
         <v>19</v>
@@ -7116,7 +7119,7 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="E156" t="s">
         <v>19</v>
@@ -7134,16 +7137,16 @@
         <v>1</v>
       </c>
       <c r="J156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" t="b">
         <v>0</v>
       </c>
       <c r="M156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156" t="s">
         <v>19</v>
@@ -7163,16 +7166,16 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>155</v>
-      </c>
-      <c r="E157" t="s">
-        <v>19</v>
+        <v>153</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -7199,30 +7202,77 @@
         <v>23</v>
       </c>
     </row>
+    <row r="158" spans="1:16">
+      <c r="A158" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" t="s">
+        <v>154</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s">
+        <v>20</v>
+      </c>
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" t="b">
+        <v>0</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" t="b">
+        <v>0</v>
+      </c>
+      <c r="N158" t="s">
+        <v>19</v>
+      </c>
+      <c r="P158" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="159" spans="1:16">
-      <c r="A159">
-        <v>1</v>
+      <c r="A159" t="s">
+        <v>23</v>
       </c>
       <c r="B159" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" t="s">
+        <v>127</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
         <v>19</v>
       </c>
       <c r="G159" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="H159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="b">
         <v>0</v>
@@ -7240,13 +7290,10 @@
         <v>0</v>
       </c>
       <c r="N159" t="s">
-        <v>19</v>
-      </c>
-      <c r="O159" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="P159" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -7260,34 +7307,34 @@
         <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
       </c>
-      <c r="F160">
-        <v>40</v>
+      <c r="F160" t="s">
+        <v>19</v>
       </c>
       <c r="G160" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
       </c>
       <c r="I160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160" t="b">
         <v>0</v>
       </c>
       <c r="M160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" t="s">
         <v>19</v>
@@ -7307,22 +7354,22 @@
         <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
       </c>
-      <c r="F161">
-        <v>200</v>
+      <c r="F161" t="s">
+        <v>19</v>
       </c>
       <c r="G161" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
       </c>
       <c r="I161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="b">
         <v>0</v>
@@ -7334,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="M161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N161" t="s">
         <v>19</v>
@@ -7343,101 +7390,101 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
-      <c r="A163">
-        <v>5</v>
-      </c>
-      <c r="B163" t="s">
-        <v>160</v>
-      </c>
-      <c r="C163" t="s">
-        <v>161</v>
-      </c>
-      <c r="D163" t="s">
+    <row r="162" spans="1:16">
+      <c r="A162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" t="s">
+        <v>156</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>83</v>
+      </c>
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="b">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
+        <v>19</v>
+      </c>
+      <c r="P162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>50</v>
+      </c>
+      <c r="C164" t="s">
+        <v>157</v>
+      </c>
+      <c r="D164" t="s">
         <v>18</v>
       </c>
-      <c r="E163" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
         <v>20</v>
       </c>
-      <c r="H163" t="b">
-        <v>1</v>
-      </c>
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" t="b">
-        <v>1</v>
-      </c>
-      <c r="K163" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" t="b">
-        <v>0</v>
-      </c>
-      <c r="M163" t="b">
-        <v>0</v>
-      </c>
-      <c r="N163" t="s">
-        <v>19</v>
-      </c>
-      <c r="O163" t="s">
+      <c r="H164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="b">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
+        <v>19</v>
+      </c>
+      <c r="O164" t="s">
         <v>21</v>
       </c>
-      <c r="P163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
-      <c r="A164" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" t="s">
-        <v>23</v>
-      </c>
-      <c r="C164" t="s">
-        <v>23</v>
-      </c>
-      <c r="D164" t="s">
-        <v>163</v>
-      </c>
-      <c r="E164" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164">
-        <v>60</v>
-      </c>
-      <c r="G164" t="s">
-        <v>25</v>
-      </c>
-      <c r="H164" t="b">
-        <v>0</v>
-      </c>
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" t="b">
-        <v>1</v>
-      </c>
-      <c r="K164" t="b">
-        <v>0</v>
-      </c>
-      <c r="L164" t="b">
-        <v>0</v>
-      </c>
-      <c r="M164" t="b">
-        <v>0</v>
-      </c>
-      <c r="N164" t="s">
-        <v>19</v>
-      </c>
       <c r="P164" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -7451,22 +7498,22 @@
         <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
       </c>
-      <c r="F165" t="s">
-        <v>19</v>
+      <c r="F165">
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H165" t="b">
         <v>0</v>
       </c>
       <c r="I165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
@@ -7498,113 +7545,116 @@
         <v>23</v>
       </c>
       <c r="D166" t="s">
+        <v>160</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166">
+        <v>200</v>
+      </c>
+      <c r="G166" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" t="b">
+        <v>0</v>
+      </c>
+      <c r="N166" t="s">
+        <v>19</v>
+      </c>
+      <c r="P166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" t="s">
+        <v>162</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" t="b">
+        <v>1</v>
+      </c>
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" t="b">
+        <v>1</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
+        <v>19</v>
+      </c>
+      <c r="O168" t="s">
+        <v>21</v>
+      </c>
+      <c r="P168" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" t="s">
         <v>164</v>
       </c>
-      <c r="E166" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s">
-        <v>20</v>
-      </c>
-      <c r="H166" t="b">
-        <v>0</v>
-      </c>
-      <c r="I166" t="b">
-        <v>1</v>
-      </c>
-      <c r="J166" t="b">
-        <v>1</v>
-      </c>
-      <c r="K166" t="b">
-        <v>0</v>
-      </c>
-      <c r="L166" t="b">
-        <v>0</v>
-      </c>
-      <c r="M166" t="b">
-        <v>0</v>
-      </c>
-      <c r="N166" t="s">
-        <v>19</v>
-      </c>
-      <c r="P166" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
-      <c r="A167" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" t="s">
-        <v>23</v>
-      </c>
-      <c r="C167" t="s">
-        <v>23</v>
-      </c>
-      <c r="D167" t="s">
-        <v>155</v>
-      </c>
-      <c r="E167" t="s">
-        <v>19</v>
-      </c>
-      <c r="F167" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" t="s">
-        <v>84</v>
-      </c>
-      <c r="H167" t="b">
-        <v>0</v>
-      </c>
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" t="b">
-        <v>1</v>
-      </c>
-      <c r="K167" t="b">
-        <v>0</v>
-      </c>
-      <c r="L167" t="b">
-        <v>0</v>
-      </c>
-      <c r="M167" t="b">
-        <v>0</v>
-      </c>
-      <c r="N167" t="s">
-        <v>19</v>
-      </c>
-      <c r="P167" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
-      <c r="A169">
-        <v>5</v>
-      </c>
-      <c r="B169" t="s">
-        <v>160</v>
-      </c>
-      <c r="C169" t="s">
-        <v>165</v>
-      </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
       <c r="E169" t="s">
         <v>19</v>
       </c>
-      <c r="F169" t="s">
-        <v>19</v>
+      <c r="F169">
+        <v>60</v>
       </c>
       <c r="G169" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="b">
         <v>0</v>
@@ -7624,11 +7674,8 @@
       <c r="N169" t="s">
         <v>19</v>
       </c>
-      <c r="O169" t="s">
-        <v>21</v>
-      </c>
       <c r="P169" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -7642,22 +7689,22 @@
         <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
       </c>
-      <c r="F170">
-        <v>60</v>
+      <c r="F170" t="s">
+        <v>19</v>
       </c>
       <c r="G170" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
       </c>
       <c r="I170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
@@ -7689,7 +7736,7 @@
         <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -7736,113 +7783,116 @@
         <v>23</v>
       </c>
       <c r="D172" t="s">
+        <v>156</v>
+      </c>
+      <c r="E172" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" t="s">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s">
+        <v>83</v>
+      </c>
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" t="b">
+        <v>1</v>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
+        <v>19</v>
+      </c>
+      <c r="P172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>161</v>
+      </c>
+      <c r="C174" t="s">
+        <v>166</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s">
+        <v>20</v>
+      </c>
+      <c r="H174" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
+        <v>19</v>
+      </c>
+      <c r="O174" t="s">
+        <v>21</v>
+      </c>
+      <c r="P174" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
+      <c r="A175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" t="s">
         <v>164</v>
       </c>
-      <c r="E172" t="s">
-        <v>19</v>
-      </c>
-      <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s">
-        <v>20</v>
-      </c>
-      <c r="H172" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="b">
-        <v>1</v>
-      </c>
-      <c r="K172" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" t="b">
-        <v>0</v>
-      </c>
-      <c r="M172" t="b">
-        <v>0</v>
-      </c>
-      <c r="N172" t="s">
-        <v>19</v>
-      </c>
-      <c r="P172" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
-      <c r="A173" t="s">
-        <v>23</v>
-      </c>
-      <c r="B173" t="s">
-        <v>23</v>
-      </c>
-      <c r="C173" t="s">
-        <v>23</v>
-      </c>
-      <c r="D173" t="s">
-        <v>155</v>
-      </c>
-      <c r="E173" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>84</v>
-      </c>
-      <c r="H173" t="b">
-        <v>0</v>
-      </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" t="b">
-        <v>1</v>
-      </c>
-      <c r="K173" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" t="b">
-        <v>0</v>
-      </c>
-      <c r="M173" t="b">
-        <v>0</v>
-      </c>
-      <c r="N173" t="s">
-        <v>19</v>
-      </c>
-      <c r="P173" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16">
-      <c r="A175">
-        <v>6</v>
-      </c>
-      <c r="B175" t="s">
-        <v>50</v>
-      </c>
-      <c r="C175" t="s">
-        <v>167</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
       <c r="E175" t="s">
         <v>19</v>
       </c>
-      <c r="F175" t="s">
-        <v>19</v>
+      <c r="F175">
+        <v>60</v>
       </c>
       <c r="G175" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
@@ -7862,11 +7912,8 @@
       <c r="N175" t="s">
         <v>19</v>
       </c>
-      <c r="O175" t="s">
-        <v>21</v>
-      </c>
       <c r="P175" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -7880,22 +7927,22 @@
         <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
       </c>
-      <c r="F176">
-        <v>60</v>
+      <c r="F176" t="s">
+        <v>19</v>
       </c>
       <c r="G176" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
       </c>
       <c r="I176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
@@ -7927,7 +7974,7 @@
         <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
@@ -7974,7 +8021,7 @@
         <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="E178" t="s">
         <v>19</v>
@@ -7983,104 +8030,107 @@
         <v>19</v>
       </c>
       <c r="G178" t="s">
+        <v>83</v>
+      </c>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" t="b">
+        <v>1</v>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
+        <v>19</v>
+      </c>
+      <c r="P178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>50</v>
+      </c>
+      <c r="C180" t="s">
+        <v>168</v>
+      </c>
+      <c r="D180" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
         <v>20</v>
       </c>
-      <c r="H178" t="b">
-        <v>0</v>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="b">
-        <v>1</v>
-      </c>
-      <c r="K178" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" t="b">
-        <v>0</v>
-      </c>
-      <c r="M178" t="b">
-        <v>0</v>
-      </c>
-      <c r="N178" t="s">
-        <v>19</v>
-      </c>
-      <c r="P178" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16">
-      <c r="A179" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" t="s">
-        <v>23</v>
-      </c>
-      <c r="C179" t="s">
-        <v>23</v>
-      </c>
-      <c r="D179" t="s">
-        <v>155</v>
-      </c>
-      <c r="E179" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>84</v>
-      </c>
-      <c r="H179" t="b">
-        <v>0</v>
-      </c>
-      <c r="I179" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" t="b">
-        <v>1</v>
-      </c>
-      <c r="K179" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" t="b">
-        <v>0</v>
-      </c>
-      <c r="M179" t="b">
-        <v>0</v>
-      </c>
-      <c r="N179" t="s">
-        <v>19</v>
-      </c>
-      <c r="P179" t="s">
-        <v>23</v>
+      <c r="H180" t="b">
+        <v>1</v>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
+        <v>19</v>
+      </c>
+      <c r="O180" t="s">
+        <v>21</v>
+      </c>
+      <c r="P180" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:16">
-      <c r="A181">
-        <v>5</v>
+      <c r="A181" t="s">
+        <v>23</v>
       </c>
       <c r="B181" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="C181" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="E181" t="s">
         <v>19</v>
       </c>
-      <c r="F181" t="s">
-        <v>19</v>
+      <c r="F181">
+        <v>60</v>
       </c>
       <c r="G181" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="b">
         <v>0</v>
@@ -8100,11 +8150,8 @@
       <c r="N181" t="s">
         <v>19</v>
       </c>
-      <c r="O181" t="s">
-        <v>21</v>
-      </c>
       <c r="P181" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -8118,7 +8165,7 @@
         <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
@@ -8165,7 +8212,7 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -8212,7 +8259,7 @@
         <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E184" t="s">
         <v>19</v>
@@ -8221,7 +8268,7 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -8253,10 +8300,10 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C186" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D186" t="s">
         <v>18</v>
@@ -8295,7 +8342,7 @@
         <v>21</v>
       </c>
       <c r="P186" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -8309,7 +8356,7 @@
         <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
@@ -8356,7 +8403,7 @@
         <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E188" t="s">
         <v>19</v>
@@ -8403,7 +8450,7 @@
         <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E189" t="s">
         <v>19</v>
@@ -8412,7 +8459,7 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -8441,13 +8488,13 @@
     </row>
     <row r="191" spans="1:16">
       <c r="A191">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="C191" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
@@ -8486,7 +8533,7 @@
         <v>21</v>
       </c>
       <c r="P191" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -8500,7 +8547,7 @@
         <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8509,13 +8556,13 @@
         <v>19</v>
       </c>
       <c r="G192" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
       </c>
       <c r="I192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
@@ -8547,7 +8594,7 @@
         <v>23</v>
       </c>
       <c r="D193" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -8594,7 +8641,7 @@
         <v>23</v>
       </c>
       <c r="D194" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E194" t="s">
         <v>19</v>
@@ -8603,13 +8650,13 @@
         <v>19</v>
       </c>
       <c r="G194" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
       </c>
       <c r="I194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="b">
         <v>1</v>
@@ -8632,13 +8679,13 @@
     </row>
     <row r="196" spans="1:16">
       <c r="A196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C196" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -8677,7 +8724,7 @@
         <v>21</v>
       </c>
       <c r="P196" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -8691,16 +8738,16 @@
         <v>23</v>
       </c>
       <c r="D197" t="s">
-        <v>141</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="E197" t="s">
+        <v>19</v>
       </c>
       <c r="F197" t="s">
         <v>19</v>
       </c>
       <c r="G197" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
@@ -8738,7 +8785,7 @@
         <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E198" t="s">
         <v>19</v>
@@ -8747,13 +8794,13 @@
         <v>19</v>
       </c>
       <c r="G198" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
       </c>
       <c r="I198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="b">
         <v>1</v>
@@ -8785,7 +8832,7 @@
         <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="E199" t="s">
         <v>19</v>
@@ -8821,65 +8868,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
-      <c r="A200" t="s">
-        <v>23</v>
-      </c>
-      <c r="B200" t="s">
-        <v>23</v>
-      </c>
-      <c r="C200" t="s">
-        <v>23</v>
-      </c>
-      <c r="D200" t="s">
-        <v>106</v>
-      </c>
-      <c r="E200" t="s">
-        <v>19</v>
-      </c>
-      <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" t="s">
-        <v>20</v>
-      </c>
-      <c r="H200" t="b">
-        <v>0</v>
-      </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="b">
-        <v>1</v>
-      </c>
-      <c r="K200" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" t="b">
-        <v>0</v>
-      </c>
-      <c r="M200" t="b">
-        <v>0</v>
-      </c>
-      <c r="N200" t="s">
-        <v>19</v>
-      </c>
-      <c r="P200" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="201" spans="1:16">
-      <c r="A201" t="s">
-        <v>23</v>
+      <c r="A201">
+        <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="D201" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="E201" t="s">
         <v>19</v>
@@ -8891,10 +8891,10 @@
         <v>20</v>
       </c>
       <c r="H201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="b">
         <v>1</v>
@@ -8911,8 +8911,11 @@
       <c r="N201" t="s">
         <v>19</v>
       </c>
+      <c r="O201" t="s">
+        <v>21</v>
+      </c>
       <c r="P201" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -8926,10 +8929,10 @@
         <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>146</v>
-      </c>
-      <c r="E202" t="s">
-        <v>19</v>
+        <v>143</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
       </c>
       <c r="F202" t="s">
         <v>19</v>
@@ -8941,19 +8944,19 @@
         <v>0</v>
       </c>
       <c r="I202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202" t="b">
         <v>0</v>
       </c>
       <c r="M202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202" t="s">
         <v>19</v>
@@ -8973,39 +8976,274 @@
         <v>23</v>
       </c>
       <c r="D203" t="s">
+        <v>83</v>
+      </c>
+      <c r="E203" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" t="s">
+        <v>19</v>
+      </c>
+      <c r="G203" t="s">
+        <v>83</v>
+      </c>
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" t="b">
+        <v>1</v>
+      </c>
+      <c r="K203" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" t="b">
+        <v>0</v>
+      </c>
+      <c r="M203" t="b">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
+        <v>19</v>
+      </c>
+      <c r="P203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" t="s">
+        <v>23</v>
+      </c>
+      <c r="D204" t="s">
+        <v>101</v>
+      </c>
+      <c r="E204" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" t="s">
+        <v>20</v>
+      </c>
+      <c r="H204" t="b">
+        <v>0</v>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="b">
+        <v>1</v>
+      </c>
+      <c r="K204" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" t="b">
+        <v>0</v>
+      </c>
+      <c r="M204" t="b">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
+        <v>19</v>
+      </c>
+      <c r="P204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
+      <c r="A205" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" t="s">
+        <v>23</v>
+      </c>
+      <c r="D205" t="s">
+        <v>105</v>
+      </c>
+      <c r="E205" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G205" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205" t="b">
+        <v>0</v>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="b">
+        <v>1</v>
+      </c>
+      <c r="K205" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" t="b">
+        <v>0</v>
+      </c>
+      <c r="M205" t="b">
+        <v>0</v>
+      </c>
+      <c r="N205" t="s">
+        <v>19</v>
+      </c>
+      <c r="P205" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206" t="s">
         <v>182</v>
       </c>
-      <c r="E203" t="s">
-        <v>19</v>
-      </c>
-      <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
+      <c r="E206" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206" t="s">
+        <v>19</v>
+      </c>
+      <c r="G206" t="s">
         <v>20</v>
       </c>
-      <c r="H203" t="b">
-        <v>0</v>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="b">
-        <v>0</v>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="b">
-        <v>0</v>
-      </c>
-      <c r="M203" t="b">
-        <v>1</v>
-      </c>
-      <c r="N203" t="s">
-        <v>19</v>
-      </c>
-      <c r="P203" t="s">
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="b">
+        <v>1</v>
+      </c>
+      <c r="K206" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" t="b">
+        <v>0</v>
+      </c>
+      <c r="N206" t="s">
+        <v>19</v>
+      </c>
+      <c r="P206" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207" t="s">
+        <v>147</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207" t="s">
+        <v>19</v>
+      </c>
+      <c r="G207" t="s">
+        <v>20</v>
+      </c>
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="b">
+        <v>0</v>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" t="b">
+        <v>1</v>
+      </c>
+      <c r="N207" t="s">
+        <v>19</v>
+      </c>
+      <c r="P207" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" t="s">
+        <v>183</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>20</v>
+      </c>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="b">
+        <v>0</v>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" t="b">
+        <v>1</v>
+      </c>
+      <c r="N208" t="s">
+        <v>19</v>
+      </c>
+      <c r="P208" t="s">
         <v>23</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f5bf0a3b9165377/Documents/GitHub/TechspireProject/TechspireSite/TechspireSite/GeneratedFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_1ECE6239B5B1113C906E3F816C231C623852C1B3" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1B7EBEE9-A946-4C3D-B73F-7F75C799B6ED}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="16230" yWindow="135" windowWidth="14415" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="127">
   <si>
     <t>Table Name</t>
   </si>
@@ -400,8 +406,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,27 +444,35 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N195" totalsRowShown="0">
-  <autoFilter ref="A1:N195"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N195" totalsRowShown="0">
+  <autoFilter ref="A1:N195" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Table Name"/>
-    <tableColumn id="2" name="Table Desc"/>
-    <tableColumn id="3" name="Row Name"/>
-    <tableColumn id="4" name="Row Desc"/>
-    <tableColumn id="5" name="Default"/>
-    <tableColumn id="6" name="Max Length"/>
-    <tableColumn id="7" name="Type"/>
-    <tableColumn id="8" name="PK"/>
-    <tableColumn id="9" name="FK"/>
-    <tableColumn id="10" name="Required"/>
-    <tableColumn id="11" name="Allow NULL"/>
-    <tableColumn id="12" name="C Delete"/>
-    <tableColumn id="13" name="C Update"/>
-    <tableColumn id="14" name="Domain"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Table Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Table Desc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Row Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Row Desc"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Default"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Max Length"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Type"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PK"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FK"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Required"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Allow NULL"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="C Delete"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="C Update"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Domain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -507,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,9 +553,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,6 +605,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -748,30 +798,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="8" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -859,7 +909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -900,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -941,7 +991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -985,7 +1035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1111,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1152,7 +1202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1237,7 +1287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1278,7 +1328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1322,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +1413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1448,7 +1498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1489,7 +1539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1574,7 +1624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1700,7 +1750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1744,7 +1794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1785,7 +1835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1826,7 +1876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1870,7 +1920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1911,7 +1961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1955,7 +2005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1996,7 +2046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2037,7 +2087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2081,7 +2131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2166,7 +2216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2207,7 +2257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -2248,7 +2298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2292,7 +2342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -2374,7 +2424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2418,7 +2468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -2459,7 +2509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2503,7 +2553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2544,7 +2594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2585,7 +2635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2629,7 +2679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -2670,7 +2720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -2711,7 +2761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2752,7 +2802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -2793,7 +2843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -2837,7 +2887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -2878,7 +2928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -2919,7 +2969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -2963,7 +3013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3004,7 +3054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3045,7 +3095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3086,7 +3136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3127,7 +3177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -3168,7 +3218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -3209,7 +3259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -3250,7 +3300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -3291,7 +3341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -3332,7 +3382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -3373,7 +3423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -3417,7 +3467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -3458,7 +3508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -3499,7 +3549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -3540,7 +3590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -3581,7 +3631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3622,7 +3672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3663,7 +3713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3704,7 +3754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -3745,7 +3795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3786,7 +3836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -3827,7 +3877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -3868,7 +3918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -3912,7 +3962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -3953,7 +4003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -3994,7 +4044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>74</v>
       </c>
@@ -4038,7 +4088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -4079,7 +4129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -4120,7 +4170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -4161,7 +4211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4202,7 +4252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -4246,7 +4296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4287,7 +4337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -4328,7 +4378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -4369,7 +4419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -4410,7 +4460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>80</v>
       </c>
@@ -4454,7 +4504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -4495,7 +4545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -4536,7 +4586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -4580,7 +4630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -4621,7 +4671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -4662,7 +4712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -4706,7 +4756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -4747,7 +4797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -4788,7 +4838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -4829,7 +4879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -4870,7 +4920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -4914,7 +4964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -4955,7 +5005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -4996,7 +5046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -5037,7 +5087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -5078,7 +5128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>90</v>
       </c>
@@ -5122,7 +5172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -5163,7 +5213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -5204,7 +5254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -5245,7 +5295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>94</v>
       </c>
@@ -5289,7 +5339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -5330,7 +5380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -5371,7 +5421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -5412,7 +5462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -5453,7 +5503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -5497,7 +5547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -5538,7 +5588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -5579,7 +5629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -5620,7 +5670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>104</v>
       </c>
@@ -5664,7 +5714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -5705,7 +5755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -5746,7 +5796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -5787,7 +5837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -5828,7 +5878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -5869,7 +5919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>109</v>
       </c>
@@ -5913,7 +5963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -5954,7 +6004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -5995,7 +6045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -6039,7 +6089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -6080,7 +6130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -6121,7 +6171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -6162,7 +6212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -6203,7 +6253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>115</v>
       </c>
@@ -6247,7 +6297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -6288,7 +6338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -6329,7 +6379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -6370,7 +6420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -6411,7 +6461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>116</v>
       </c>
@@ -6455,7 +6505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -6496,7 +6546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -6537,7 +6587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -6578,7 +6628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -6619,7 +6669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>117</v>
       </c>
@@ -6663,7 +6713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -6704,7 +6754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -6745,7 +6795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -6786,7 +6836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>119</v>
       </c>
@@ -6830,7 +6880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -6871,7 +6921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -6912,7 +6962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -6953,7 +7003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>122</v>
       </c>
@@ -6997,7 +7047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -7038,7 +7088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -7079,7 +7129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -7120,7 +7170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>124</v>
       </c>
@@ -7164,7 +7214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -7205,7 +7255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -7246,7 +7296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -7287,7 +7337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -7328,7 +7378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>20</v>
       </c>
@@ -7369,7 +7419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -7410,7 +7460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>20</v>
       </c>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="192">
   <si>
     <t>Load Order</t>
   </si>
@@ -88,13 +88,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>label_name</t>
+    <t>category_name</t>
   </si>
   <si>
     <t>nvarchar</t>
   </si>
   <si>
-    <t>label_desc</t>
+    <t>category_desc</t>
   </si>
   <si>
     <t>Kyle Dela Pena</t>
@@ -166,15 +166,27 @@
     <t>Describes why a specific product that is banned</t>
   </si>
   <si>
+    <t>ban_name</t>
+  </si>
+  <si>
+    <t>ban_desc</t>
+  </si>
+  <si>
     <t>Jade Nguyen</t>
   </si>
   <si>
-    <t>PointLogType</t>
+    <t>PointReasonType</t>
   </si>
   <si>
     <t>Describes why points were added or removed</t>
   </si>
   <si>
+    <t>reason_name</t>
+  </si>
+  <si>
+    <t>reason_desc</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -232,10 +244,22 @@
     <t>Categories that loyalty customers are a part of based on number of points accummulated over time. Tiers such as bronze, silver, and gold tier for example.</t>
   </si>
   <si>
+    <t>tier_name</t>
+  </si>
+  <si>
+    <t>tier_desc</t>
+  </si>
+  <si>
     <t>EmployeeType</t>
   </si>
   <si>
     <t xml:space="preserve">The working type of an employee such as part-time or full-time. </t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>type_desc</t>
   </si>
   <si>
     <t>Employee</t>
@@ -613,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P210" totalsRowShown="0">
-  <autoFilter ref="A1:P210"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P206" totalsRowShown="0">
+  <autoFilter ref="A1:P206"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Load Order"/>
     <tableColumn id="2" name="Owner"/>
@@ -922,7 +946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P208"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -998,7 +1022,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1142,7 +1166,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -2315,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -2362,7 +2386,7 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -2400,13 +2424,13 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -2445,7 +2469,7 @@
         <v>21</v>
       </c>
       <c r="P39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2459,7 +2483,7 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -2506,7 +2530,7 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -2550,7 +2574,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -2589,7 +2613,7 @@
         <v>21</v>
       </c>
       <c r="P43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2603,7 +2627,7 @@
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -2647,7 +2671,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -2686,7 +2710,7 @@
         <v>21</v>
       </c>
       <c r="P46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2700,7 +2724,7 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -2747,7 +2771,7 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>233</v>
@@ -2788,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2830,7 +2854,7 @@
         <v>21</v>
       </c>
       <c r="P50" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2844,10 +2868,10 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -2891,10 +2915,10 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F52">
         <v>35</v>
@@ -2938,10 +2962,10 @@
         <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F53">
         <v>100</v>
@@ -2985,7 +3009,7 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E54">
         <v>1407</v>
@@ -3023,13 +3047,13 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -3068,7 +3092,7 @@
         <v>21</v>
       </c>
       <c r="P56" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3082,7 +3106,7 @@
         <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E57" t="s">
         <v>19</v>
@@ -3129,7 +3153,7 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
@@ -3173,7 +3197,7 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -3212,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="P60" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3226,7 +3250,7 @@
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
@@ -3273,7 +3297,7 @@
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
@@ -3314,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -3356,7 +3380,7 @@
         <v>21</v>
       </c>
       <c r="P64" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3370,7 +3394,7 @@
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -3417,7 +3441,7 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -3464,7 +3488,7 @@
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3511,7 +3535,7 @@
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -3558,13 +3582,13 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
@@ -3605,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
@@ -3614,7 +3638,7 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3652,7 +3676,7 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -3661,7 +3685,7 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3699,7 +3723,7 @@
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3746,7 +3770,7 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3755,7 +3779,7 @@
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3793,7 +3817,7 @@
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -3840,7 +3864,7 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -3881,10 +3905,10 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -3923,7 +3947,7 @@
         <v>21</v>
       </c>
       <c r="P77" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -3937,7 +3961,7 @@
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -3984,7 +4008,7 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -4031,7 +4055,7 @@
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4078,7 +4102,7 @@
         <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4125,13 +4149,13 @@
         <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s">
         <v>25</v>
@@ -4172,7 +4196,7 @@
         <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -4181,7 +4205,7 @@
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -4219,7 +4243,7 @@
         <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4228,7 +4252,7 @@
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -4266,7 +4290,7 @@
         <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
@@ -4313,7 +4337,7 @@
         <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -4360,7 +4384,7 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -4407,7 +4431,7 @@
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4448,10 +4472,10 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -4490,7 +4514,7 @@
         <v>21</v>
       </c>
       <c r="P90" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4504,7 +4528,7 @@
         <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
@@ -4551,7 +4575,7 @@
         <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -4589,13 +4613,13 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -4634,7 +4658,7 @@
         <v>21</v>
       </c>
       <c r="P94" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4648,22 +4672,22 @@
         <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
       </c>
-      <c r="F95">
-        <v>40</v>
+      <c r="F95" t="s">
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
@@ -4695,28 +4719,28 @@
         <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
       </c>
-      <c r="F96">
-        <v>200</v>
+      <c r="F96" t="s">
+        <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -4731,65 +4755,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
-      <c r="A97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="b">
-        <v>1</v>
-      </c>
-      <c r="K97" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" t="b">
-        <v>0</v>
-      </c>
-      <c r="M97" t="b">
-        <v>0</v>
-      </c>
-      <c r="N97" t="s">
-        <v>19</v>
-      </c>
-      <c r="P97" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="98" spans="1:16">
-      <c r="A98" t="s">
-        <v>23</v>
+      <c r="A98">
+        <v>-1</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
@@ -4801,10 +4778,10 @@
         <v>20</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="b">
         <v>1</v>
@@ -4821,22 +4798,72 @@
       <c r="N98" t="s">
         <v>19</v>
       </c>
+      <c r="O98" t="s">
+        <v>21</v>
+      </c>
       <c r="P98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>19</v>
+      </c>
+      <c r="P99" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100">
-        <v>1</v>
+      <c r="A100" t="s">
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -4848,10 +4875,10 @@
         <v>20</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
@@ -4868,105 +4895,58 @@
       <c r="N100" t="s">
         <v>19</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
+        <v>19</v>
+      </c>
+      <c r="O102" t="s">
         <v>21</v>
       </c>
-      <c r="P100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
-      <c r="A101" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101">
-        <v>40</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="b">
-        <v>1</v>
-      </c>
-      <c r="K101" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" t="b">
-        <v>0</v>
-      </c>
-      <c r="M101" t="b">
-        <v>0</v>
-      </c>
-      <c r="N101" t="s">
-        <v>19</v>
-      </c>
-      <c r="P101" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
-      <c r="A102" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102">
-        <v>200</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="b">
-        <v>0</v>
-      </c>
-      <c r="M102" t="b">
-        <v>0</v>
-      </c>
-      <c r="N102" t="s">
-        <v>19</v>
-      </c>
       <c r="P102" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -4980,22 +4960,22 @@
         <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
       </c>
-      <c r="F103" t="s">
-        <v>19</v>
+      <c r="F103">
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
@@ -5027,28 +5007,28 @@
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
       </c>
-      <c r="F104" t="s">
-        <v>19</v>
+      <c r="F104">
+        <v>200</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
@@ -5065,13 +5045,13 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -5110,7 +5090,7 @@
         <v>21</v>
       </c>
       <c r="P106" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5124,13 +5104,13 @@
         <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E107" t="s">
         <v>19</v>
       </c>
       <c r="F107">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
         <v>25</v>
@@ -5171,13 +5151,13 @@
         <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
       </c>
       <c r="F108">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="G108" t="s">
         <v>25</v>
@@ -5189,10 +5169,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -5207,18 +5187,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="109" spans="1:16">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109">
+        <v>40</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
+        <v>19</v>
+      </c>
+      <c r="P109" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="110" spans="1:16">
-      <c r="A110">
-        <v>4</v>
+      <c r="A110" t="s">
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E110" t="s">
         <v>19</v>
@@ -5230,10 +5257,10 @@
         <v>20</v>
       </c>
       <c r="H110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
@@ -5250,11 +5277,8 @@
       <c r="N110" t="s">
         <v>19</v>
       </c>
-      <c r="O110" t="s">
-        <v>21</v>
-      </c>
       <c r="P110" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5268,22 +5292,22 @@
         <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
       </c>
-      <c r="F111">
-        <v>15</v>
+      <c r="F111" t="s">
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
       </c>
       <c r="I111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
@@ -5315,16 +5339,16 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
       </c>
-      <c r="F112">
-        <v>254</v>
+      <c r="F112" t="s">
+        <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -5362,16 +5386,16 @@
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E113" t="s">
         <v>19</v>
       </c>
-      <c r="F113">
-        <v>40</v>
+      <c r="F113" t="s">
+        <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -5380,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -5398,65 +5422,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
-      <c r="A114" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" t="s">
-        <v>85</v>
-      </c>
-      <c r="E114" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>20</v>
-      </c>
-      <c r="H114" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="b">
-        <v>1</v>
-      </c>
-      <c r="K114" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" t="b">
-        <v>0</v>
-      </c>
-      <c r="M114" t="b">
-        <v>0</v>
-      </c>
-      <c r="N114" t="s">
-        <v>19</v>
-      </c>
-      <c r="P114" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="115" spans="1:16">
-      <c r="A115" t="s">
-        <v>23</v>
+      <c r="A115">
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="D115" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
@@ -5468,10 +5445,10 @@
         <v>20</v>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="b">
         <v>1</v>
@@ -5488,8 +5465,11 @@
       <c r="N115" t="s">
         <v>19</v>
       </c>
+      <c r="O115" t="s">
+        <v>21</v>
+      </c>
       <c r="P115" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -5503,7 +5483,7 @@
         <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
@@ -5512,7 +5492,7 @@
         <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -5550,7 +5530,7 @@
         <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -5559,19 +5539,19 @@
         <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
       </c>
       <c r="I117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" t="b">
         <v>0</v>
@@ -5586,18 +5566,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="118" spans="1:16">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>19</v>
+      </c>
+      <c r="P118" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="119" spans="1:16">
-      <c r="A119">
-        <v>5</v>
+      <c r="A119" t="s">
+        <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
@@ -5609,10 +5636,10 @@
         <v>20</v>
       </c>
       <c r="H119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="b">
         <v>1</v>
@@ -5629,72 +5656,22 @@
       <c r="N119" t="s">
         <v>19</v>
       </c>
-      <c r="O119" t="s">
-        <v>21</v>
-      </c>
       <c r="P119" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
-      <c r="A120" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" t="s">
-        <v>116</v>
-      </c>
-      <c r="E120" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>83</v>
-      </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="b">
-        <v>1</v>
-      </c>
-      <c r="K120" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" t="b">
-        <v>0</v>
-      </c>
-      <c r="M120" t="b">
-        <v>0</v>
-      </c>
-      <c r="N120" t="s">
-        <v>19</v>
-      </c>
-      <c r="P120" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:16">
-      <c r="A121" t="s">
-        <v>23</v>
+      <c r="A121">
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="D121" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -5706,10 +5683,10 @@
         <v>20</v>
       </c>
       <c r="H121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
@@ -5726,8 +5703,11 @@
       <c r="N121" t="s">
         <v>19</v>
       </c>
+      <c r="O121" t="s">
+        <v>21</v>
+      </c>
       <c r="P121" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -5741,7 +5721,7 @@
         <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E122" t="s">
         <v>19</v>
@@ -5750,13 +5730,13 @@
         <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
       </c>
       <c r="I122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
@@ -5788,22 +5768,22 @@
         <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>118</v>
-      </c>
-      <c r="E123" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" t="s">
+        <v>131</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
       </c>
       <c r="I123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="b">
         <v>1</v>
@@ -5818,36 +5798,83 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="P123" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="124" spans="1:16">
+      <c r="A124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
+        <v>132</v>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
+        <v>133</v>
+      </c>
+      <c r="P124" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="125" spans="1:16">
-      <c r="A125">
-        <v>6</v>
+      <c r="A125" t="s">
+        <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" t="s">
+        <v>135</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
         <v>19</v>
       </c>
       <c r="G125" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="H125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
@@ -5865,13 +5892,10 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>19</v>
-      </c>
-      <c r="O125" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="P125" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -5885,7 +5909,7 @@
         <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -5894,13 +5918,13 @@
         <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
       </c>
       <c r="I126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -5932,22 +5956,22 @@
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>123</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
+        <v>136</v>
+      </c>
+      <c r="E127" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" t="s">
         <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="b">
         <v>1</v>
@@ -5962,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="P127" t="s">
         <v>23</v>
@@ -5979,22 +6003,22 @@
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>126</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
+        <v>125</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
         <v>19</v>
       </c>
       <c r="G128" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
       </c>
       <c r="I128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
@@ -6009,71 +6033,24 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="P128" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
-      <c r="A129" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" t="s">
-        <v>23</v>
-      </c>
-      <c r="D129" t="s">
-        <v>127</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>124</v>
-      </c>
-      <c r="H129" t="b">
-        <v>0</v>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="b">
-        <v>1</v>
-      </c>
-      <c r="K129" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" t="b">
-        <v>0</v>
-      </c>
-      <c r="M129" t="b">
-        <v>0</v>
-      </c>
-      <c r="N129" t="s">
-        <v>125</v>
-      </c>
-      <c r="P129" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="130" spans="1:16">
-      <c r="A130" t="s">
-        <v>23</v>
+      <c r="A130">
+        <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="D130" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -6085,10 +6062,10 @@
         <v>20</v>
       </c>
       <c r="H130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="b">
         <v>1</v>
@@ -6105,8 +6082,11 @@
       <c r="N130" t="s">
         <v>19</v>
       </c>
+      <c r="O130" t="s">
+        <v>21</v>
+      </c>
       <c r="P130" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -6120,22 +6100,22 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
       </c>
-      <c r="F131" t="s">
-        <v>19</v>
+      <c r="F131">
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H131" t="b">
         <v>0</v>
       </c>
       <c r="I131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="b">
         <v>1</v>
@@ -6167,28 +6147,28 @@
         <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E132" t="s">
         <v>19</v>
       </c>
-      <c r="F132" t="s">
-        <v>19</v>
+      <c r="F132">
+        <v>200</v>
       </c>
       <c r="G132" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H132" t="b">
         <v>0</v>
       </c>
       <c r="I132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" t="b">
         <v>0</v>
@@ -6205,13 +6185,13 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D134" t="s">
         <v>18</v>
@@ -6250,7 +6230,7 @@
         <v>21</v>
       </c>
       <c r="P134" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -6264,7 +6244,7 @@
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
@@ -6311,7 +6291,7 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E136" t="s">
         <v>19</v>
@@ -6347,18 +6327,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="137" spans="1:16">
+      <c r="A137" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" t="s">
+        <v>145</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>132</v>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
+        <v>133</v>
+      </c>
+      <c r="P137" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="138" spans="1:16">
-      <c r="A138">
-        <v>2</v>
+      <c r="A138" t="s">
+        <v>23</v>
       </c>
       <c r="B138" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -6370,10 +6397,10 @@
         <v>20</v>
       </c>
       <c r="H138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
@@ -6390,11 +6417,8 @@
       <c r="N138" t="s">
         <v>19</v>
       </c>
-      <c r="O138" t="s">
-        <v>21</v>
-      </c>
       <c r="P138" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -6408,22 +6432,22 @@
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
       </c>
-      <c r="F139">
-        <v>40</v>
+      <c r="F139" t="s">
+        <v>19</v>
       </c>
       <c r="G139" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
       </c>
       <c r="I139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
@@ -6455,22 +6479,22 @@
         <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
       </c>
-      <c r="F140">
-        <v>200</v>
+      <c r="F140" t="s">
+        <v>19</v>
       </c>
       <c r="G140" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="b">
         <v>0</v>
@@ -6482,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140" t="s">
         <v>19</v>
@@ -6491,65 +6515,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
-      <c r="A141" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" t="s">
-        <v>23</v>
-      </c>
-      <c r="C141" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" t="s">
-        <v>137</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>124</v>
-      </c>
-      <c r="H141" t="b">
-        <v>0</v>
-      </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="b">
-        <v>1</v>
-      </c>
-      <c r="K141" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" t="b">
-        <v>0</v>
-      </c>
-      <c r="M141" t="b">
-        <v>0</v>
-      </c>
-      <c r="N141" t="s">
-        <v>125</v>
-      </c>
-      <c r="P141" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="142" spans="1:16">
-      <c r="A142" t="s">
-        <v>23</v>
+      <c r="A142">
+        <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="D142" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
@@ -6561,10 +6538,10 @@
         <v>20</v>
       </c>
       <c r="H142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="b">
         <v>1</v>
@@ -6581,8 +6558,11 @@
       <c r="N142" t="s">
         <v>19</v>
       </c>
+      <c r="O142" t="s">
+        <v>21</v>
+      </c>
       <c r="P142" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -6596,10 +6576,10 @@
         <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>139</v>
-      </c>
-      <c r="E143" t="s">
-        <v>19</v>
+        <v>151</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
       </c>
       <c r="F143" t="s">
         <v>19</v>
@@ -6611,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
@@ -6643,54 +6623,101 @@
         <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>140</v>
-      </c>
-      <c r="E144" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" t="s">
+        <v>152</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
         <v>19</v>
       </c>
       <c r="G144" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
       </c>
       <c r="I144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
       </c>
       <c r="M144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="P144" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="145" spans="1:16">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" t="s">
+        <v>153</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>132</v>
+      </c>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>1</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="b">
+        <v>0</v>
+      </c>
+      <c r="N145" t="s">
+        <v>133</v>
+      </c>
+      <c r="P145" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="146" spans="1:16">
-      <c r="A146">
-        <v>7</v>
+      <c r="A146" t="s">
+        <v>23</v>
       </c>
       <c r="B146" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="E146" t="s">
         <v>19</v>
@@ -6702,10 +6729,10 @@
         <v>20</v>
       </c>
       <c r="H146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
@@ -6722,11 +6749,8 @@
       <c r="N146" t="s">
         <v>19</v>
       </c>
-      <c r="O146" t="s">
-        <v>21</v>
-      </c>
       <c r="P146" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -6740,10 +6764,10 @@
         <v>23</v>
       </c>
       <c r="D147" t="s">
-        <v>143</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
@@ -6755,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
@@ -6776,77 +6800,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
-      <c r="A148" t="s">
-        <v>23</v>
-      </c>
-      <c r="B148" t="s">
-        <v>23</v>
-      </c>
-      <c r="C148" t="s">
-        <v>23</v>
-      </c>
-      <c r="D148" t="s">
-        <v>144</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>124</v>
-      </c>
-      <c r="H148" t="b">
-        <v>0</v>
-      </c>
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" t="b">
-        <v>1</v>
-      </c>
-      <c r="K148" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" t="b">
-        <v>0</v>
-      </c>
-      <c r="M148" t="b">
-        <v>0</v>
-      </c>
-      <c r="N148" t="s">
-        <v>125</v>
-      </c>
-      <c r="P148" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="149" spans="1:16">
-      <c r="A149" t="s">
-        <v>23</v>
+      <c r="A149">
+        <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="D149" t="s">
-        <v>145</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
+        <v>18</v>
+      </c>
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" t="s">
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="H149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
@@ -6864,10 +6841,13 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>125</v>
+        <v>19</v>
+      </c>
+      <c r="O149" t="s">
+        <v>21</v>
       </c>
       <c r="P149" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -6881,22 +6861,22 @@
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
       </c>
-      <c r="F150" t="s">
-        <v>19</v>
+      <c r="F150">
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H150" t="b">
         <v>0</v>
       </c>
       <c r="I150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="b">
         <v>1</v>
@@ -6928,57 +6908,104 @@
         <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
       </c>
-      <c r="F151" t="s">
-        <v>19</v>
+      <c r="F151">
+        <v>200</v>
       </c>
       <c r="G151" t="s">
+        <v>25</v>
+      </c>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" t="b">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" t="b">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
+        <v>19</v>
+      </c>
+      <c r="P151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" t="s">
+        <v>160</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
         <v>20</v>
       </c>
-      <c r="H151" t="b">
-        <v>0</v>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="b">
-        <v>1</v>
-      </c>
-      <c r="K151" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" t="b">
-        <v>0</v>
-      </c>
-      <c r="M151" t="b">
-        <v>0</v>
-      </c>
-      <c r="N151" t="s">
-        <v>19</v>
-      </c>
-      <c r="P151" t="s">
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" t="b">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
+        <v>19</v>
+      </c>
+      <c r="P152" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:16">
-      <c r="A153">
-        <v>3</v>
+      <c r="A153" t="s">
+        <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
-      </c>
-      <c r="E153" t="s">
-        <v>19</v>
+        <v>161</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -6987,7 +7014,7 @@
         <v>20</v>
       </c>
       <c r="H153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
@@ -7007,11 +7034,8 @@
       <c r="N153" t="s">
         <v>19</v>
       </c>
-      <c r="O153" t="s">
-        <v>21</v>
-      </c>
       <c r="P153" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -7025,16 +7049,16 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>150</v>
-      </c>
-      <c r="E154" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154">
-        <v>40</v>
+        <v>162</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -7043,10 +7067,10 @@
         <v>0</v>
       </c>
       <c r="J154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="b">
         <v>0</v>
@@ -7072,16 +7096,16 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>151</v>
-      </c>
-      <c r="E155" t="s">
-        <v>19</v>
+        <v>135</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="G155" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
@@ -7090,10 +7114,10 @@
         <v>0</v>
       </c>
       <c r="J155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" t="b">
         <v>0</v>
@@ -7102,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="P155" t="s">
         <v>23</v>
@@ -7119,7 +7143,7 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E156" t="s">
         <v>19</v>
@@ -7137,16 +7161,16 @@
         <v>1</v>
       </c>
       <c r="J156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156" t="b">
         <v>0</v>
       </c>
       <c r="M156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156" t="s">
         <v>19</v>
@@ -7166,10 +7190,10 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>153</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="E157" t="s">
+        <v>19</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -7181,19 +7205,19 @@
         <v>0</v>
       </c>
       <c r="I157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L157" t="b">
         <v>0</v>
       </c>
       <c r="M157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157" t="s">
         <v>19</v>
@@ -7213,16 +7237,16 @@
         <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>154</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
       </c>
       <c r="F158" t="s">
         <v>19</v>
       </c>
       <c r="G158" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
@@ -7231,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="J158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" t="b">
         <v>0</v>
@@ -7249,65 +7273,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
-      <c r="A159" t="s">
-        <v>23</v>
-      </c>
-      <c r="B159" t="s">
-        <v>23</v>
-      </c>
-      <c r="C159" t="s">
-        <v>23</v>
-      </c>
-      <c r="D159" t="s">
-        <v>127</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>124</v>
-      </c>
-      <c r="H159" t="b">
-        <v>0</v>
-      </c>
-      <c r="I159" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" t="b">
-        <v>1</v>
-      </c>
-      <c r="K159" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" t="b">
-        <v>0</v>
-      </c>
-      <c r="M159" t="b">
-        <v>0</v>
-      </c>
-      <c r="N159" t="s">
-        <v>125</v>
-      </c>
-      <c r="P159" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="160" spans="1:16">
-      <c r="A160" t="s">
-        <v>23</v>
+      <c r="A160">
+        <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="D160" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
@@ -7319,28 +7296,31 @@
         <v>20</v>
       </c>
       <c r="H160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" t="b">
         <v>0</v>
       </c>
       <c r="M160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160" t="s">
         <v>19</v>
       </c>
+      <c r="O160" t="s">
+        <v>21</v>
+      </c>
       <c r="P160" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -7354,34 +7334,34 @@
         <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
       </c>
-      <c r="F161" t="s">
-        <v>19</v>
+      <c r="F161">
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
       </c>
       <c r="I161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L161" t="b">
         <v>0</v>
       </c>
       <c r="M161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N161" t="s">
         <v>19</v>
@@ -7401,16 +7381,16 @@
         <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E162" t="s">
         <v>19</v>
       </c>
-      <c r="F162" t="s">
-        <v>19</v>
+      <c r="F162">
+        <v>200</v>
       </c>
       <c r="G162" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="H162" t="b">
         <v>0</v>
@@ -7419,10 +7399,10 @@
         <v>0</v>
       </c>
       <c r="J162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162" t="b">
         <v>0</v>
@@ -7439,13 +7419,13 @@
     </row>
     <row r="164" spans="1:16">
       <c r="A164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D164" t="s">
         <v>18</v>
@@ -7484,7 +7464,7 @@
         <v>21</v>
       </c>
       <c r="P164" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -7498,13 +7478,13 @@
         <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
       </c>
       <c r="F165">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G165" t="s">
         <v>25</v>
@@ -7545,28 +7525,28 @@
         <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E166" t="s">
         <v>19</v>
       </c>
-      <c r="F166">
-        <v>200</v>
+      <c r="F166" t="s">
+        <v>19</v>
       </c>
       <c r="G166" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
       </c>
       <c r="I166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L166" t="b">
         <v>0</v>
@@ -7581,115 +7561,112 @@
         <v>23</v>
       </c>
     </row>
+    <row r="167" spans="1:16">
+      <c r="A167" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" t="s">
+        <v>173</v>
+      </c>
+      <c r="E167" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167" t="b">
+        <v>1</v>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" t="b">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
+        <v>19</v>
+      </c>
+      <c r="P167" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="168" spans="1:16">
-      <c r="A168">
+      <c r="A168" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>164</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>91</v>
+      </c>
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" t="b">
+        <v>1</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
+        <v>19</v>
+      </c>
+      <c r="P168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170">
         <v>5</v>
       </c>
-      <c r="B168" t="s">
-        <v>161</v>
-      </c>
-      <c r="C168" t="s">
-        <v>162</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="B170" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>174</v>
+      </c>
+      <c r="D170" t="s">
         <v>18</v>
-      </c>
-      <c r="E168" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>20</v>
-      </c>
-      <c r="H168" t="b">
-        <v>1</v>
-      </c>
-      <c r="I168" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" t="b">
-        <v>1</v>
-      </c>
-      <c r="K168" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" t="b">
-        <v>0</v>
-      </c>
-      <c r="M168" t="b">
-        <v>0</v>
-      </c>
-      <c r="N168" t="s">
-        <v>19</v>
-      </c>
-      <c r="O168" t="s">
-        <v>21</v>
-      </c>
-      <c r="P168" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
-      <c r="A169" t="s">
-        <v>23</v>
-      </c>
-      <c r="B169" t="s">
-        <v>23</v>
-      </c>
-      <c r="C169" t="s">
-        <v>23</v>
-      </c>
-      <c r="D169" t="s">
-        <v>164</v>
-      </c>
-      <c r="E169" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169">
-        <v>60</v>
-      </c>
-      <c r="G169" t="s">
-        <v>25</v>
-      </c>
-      <c r="H169" t="b">
-        <v>0</v>
-      </c>
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" t="b">
-        <v>1</v>
-      </c>
-      <c r="K169" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" t="b">
-        <v>0</v>
-      </c>
-      <c r="M169" t="b">
-        <v>0</v>
-      </c>
-      <c r="N169" t="s">
-        <v>19</v>
-      </c>
-      <c r="P169" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
-      <c r="A170" t="s">
-        <v>23</v>
-      </c>
-      <c r="B170" t="s">
-        <v>23</v>
-      </c>
-      <c r="C170" t="s">
-        <v>23</v>
-      </c>
-      <c r="D170" t="s">
-        <v>117</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -7701,10 +7678,10 @@
         <v>20</v>
       </c>
       <c r="H170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
@@ -7721,8 +7698,11 @@
       <c r="N170" t="s">
         <v>19</v>
       </c>
+      <c r="O170" t="s">
+        <v>21</v>
+      </c>
       <c r="P170" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -7736,22 +7716,22 @@
         <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
       </c>
-      <c r="F171" t="s">
-        <v>19</v>
+      <c r="F171">
+        <v>60</v>
       </c>
       <c r="G171" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
       </c>
       <c r="I171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="b">
         <v>1</v>
@@ -7783,7 +7763,7 @@
         <v>23</v>
       </c>
       <c r="D172" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E172" t="s">
         <v>19</v>
@@ -7792,13 +7772,13 @@
         <v>19</v>
       </c>
       <c r="G172" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H172" t="b">
         <v>0</v>
       </c>
       <c r="I172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="b">
         <v>1</v>
@@ -7819,115 +7799,112 @@
         <v>23</v>
       </c>
     </row>
+    <row r="173" spans="1:16">
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" t="s">
+        <v>173</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" t="s">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="b">
+        <v>1</v>
+      </c>
+      <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" t="b">
+        <v>0</v>
+      </c>
+      <c r="N173" t="s">
+        <v>19</v>
+      </c>
+      <c r="P173" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="174" spans="1:16">
-      <c r="A174">
-        <v>5</v>
+      <c r="A174" t="s">
+        <v>23</v>
       </c>
       <c r="B174" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="C174" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="D174" t="s">
+        <v>164</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s">
+        <v>91</v>
+      </c>
+      <c r="H174" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
+        <v>19</v>
+      </c>
+      <c r="P174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176" t="s">
+        <v>176</v>
+      </c>
+      <c r="D176" t="s">
         <v>18</v>
-      </c>
-      <c r="E174" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s">
-        <v>20</v>
-      </c>
-      <c r="H174" t="b">
-        <v>1</v>
-      </c>
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" t="b">
-        <v>1</v>
-      </c>
-      <c r="K174" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" t="b">
-        <v>0</v>
-      </c>
-      <c r="M174" t="b">
-        <v>0</v>
-      </c>
-      <c r="N174" t="s">
-        <v>19</v>
-      </c>
-      <c r="O174" t="s">
-        <v>21</v>
-      </c>
-      <c r="P174" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16">
-      <c r="A175" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175" t="s">
-        <v>23</v>
-      </c>
-      <c r="C175" t="s">
-        <v>23</v>
-      </c>
-      <c r="D175" t="s">
-        <v>164</v>
-      </c>
-      <c r="E175" t="s">
-        <v>19</v>
-      </c>
-      <c r="F175">
-        <v>60</v>
-      </c>
-      <c r="G175" t="s">
-        <v>25</v>
-      </c>
-      <c r="H175" t="b">
-        <v>0</v>
-      </c>
-      <c r="I175" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" t="b">
-        <v>1</v>
-      </c>
-      <c r="K175" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" t="b">
-        <v>0</v>
-      </c>
-      <c r="M175" t="b">
-        <v>0</v>
-      </c>
-      <c r="N175" t="s">
-        <v>19</v>
-      </c>
-      <c r="P175" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16">
-      <c r="A176" t="s">
-        <v>23</v>
-      </c>
-      <c r="B176" t="s">
-        <v>23</v>
-      </c>
-      <c r="C176" t="s">
-        <v>23</v>
-      </c>
-      <c r="D176" t="s">
-        <v>101</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -7939,10 +7916,10 @@
         <v>20</v>
       </c>
       <c r="H176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
@@ -7959,8 +7936,11 @@
       <c r="N176" t="s">
         <v>19</v>
       </c>
+      <c r="O176" t="s">
+        <v>21</v>
+      </c>
       <c r="P176" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -7974,22 +7954,22 @@
         <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
       </c>
-      <c r="F177" t="s">
-        <v>19</v>
+      <c r="F177">
+        <v>60</v>
       </c>
       <c r="G177" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
       </c>
       <c r="I177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="b">
         <v>1</v>
@@ -8021,7 +8001,7 @@
         <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E178" t="s">
         <v>19</v>
@@ -8030,13 +8010,13 @@
         <v>19</v>
       </c>
       <c r="G178" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H178" t="b">
         <v>0</v>
       </c>
       <c r="I178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="b">
         <v>1</v>
@@ -8057,115 +8037,112 @@
         <v>23</v>
       </c>
     </row>
+    <row r="179" spans="1:16">
+      <c r="A179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" t="s">
+        <v>113</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="b">
+        <v>1</v>
+      </c>
+      <c r="K179" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" t="b">
+        <v>0</v>
+      </c>
+      <c r="M179" t="b">
+        <v>0</v>
+      </c>
+      <c r="N179" t="s">
+        <v>19</v>
+      </c>
+      <c r="P179" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="180" spans="1:16">
-      <c r="A180">
-        <v>6</v>
+      <c r="A180" t="s">
+        <v>23</v>
       </c>
       <c r="B180" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C180" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
+        <v>164</v>
+      </c>
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
+        <v>91</v>
+      </c>
+      <c r="H180" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
+        <v>19</v>
+      </c>
+      <c r="P180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="A182">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>127</v>
+      </c>
+      <c r="C182" t="s">
+        <v>178</v>
+      </c>
+      <c r="D182" t="s">
         <v>18</v>
-      </c>
-      <c r="E180" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" t="s">
-        <v>20</v>
-      </c>
-      <c r="H180" t="b">
-        <v>1</v>
-      </c>
-      <c r="I180" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" t="b">
-        <v>1</v>
-      </c>
-      <c r="K180" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" t="b">
-        <v>0</v>
-      </c>
-      <c r="M180" t="b">
-        <v>0</v>
-      </c>
-      <c r="N180" t="s">
-        <v>19</v>
-      </c>
-      <c r="O180" t="s">
-        <v>21</v>
-      </c>
-      <c r="P180" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16">
-      <c r="A181" t="s">
-        <v>23</v>
-      </c>
-      <c r="B181" t="s">
-        <v>23</v>
-      </c>
-      <c r="C181" t="s">
-        <v>23</v>
-      </c>
-      <c r="D181" t="s">
-        <v>164</v>
-      </c>
-      <c r="E181" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181">
-        <v>60</v>
-      </c>
-      <c r="G181" t="s">
-        <v>25</v>
-      </c>
-      <c r="H181" t="b">
-        <v>0</v>
-      </c>
-      <c r="I181" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" t="b">
-        <v>1</v>
-      </c>
-      <c r="K181" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" t="b">
-        <v>0</v>
-      </c>
-      <c r="M181" t="b">
-        <v>0</v>
-      </c>
-      <c r="N181" t="s">
-        <v>19</v>
-      </c>
-      <c r="P181" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16">
-      <c r="A182" t="s">
-        <v>23</v>
-      </c>
-      <c r="B182" t="s">
-        <v>23</v>
-      </c>
-      <c r="C182" t="s">
-        <v>23</v>
-      </c>
-      <c r="D182" t="s">
-        <v>165</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
@@ -8177,10 +8154,10 @@
         <v>20</v>
       </c>
       <c r="H182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
@@ -8197,8 +8174,11 @@
       <c r="N182" t="s">
         <v>19</v>
       </c>
+      <c r="O182" t="s">
+        <v>21</v>
+      </c>
       <c r="P182" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -8212,7 +8192,7 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -8259,7 +8239,7 @@
         <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E184" t="s">
         <v>19</v>
@@ -8268,13 +8248,13 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
       </c>
       <c r="I184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="b">
         <v>1</v>
@@ -8295,68 +8275,65 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
-      <c r="A186">
+    <row r="185" spans="1:16">
+      <c r="A185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" t="s">
+        <v>180</v>
+      </c>
+      <c r="E185" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" t="s">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>91</v>
+      </c>
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" t="b">
+        <v>0</v>
+      </c>
+      <c r="M185" t="b">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
+        <v>19</v>
+      </c>
+      <c r="P185" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187">
         <v>5</v>
       </c>
-      <c r="B186" t="s">
-        <v>119</v>
-      </c>
-      <c r="C186" t="s">
-        <v>170</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="B187" t="s">
+        <v>169</v>
+      </c>
+      <c r="C187" t="s">
+        <v>181</v>
+      </c>
+      <c r="D187" t="s">
         <v>18</v>
-      </c>
-      <c r="E186" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
-      <c r="H186" t="b">
-        <v>1</v>
-      </c>
-      <c r="I186" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" t="b">
-        <v>1</v>
-      </c>
-      <c r="K186" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" t="b">
-        <v>0</v>
-      </c>
-      <c r="M186" t="b">
-        <v>0</v>
-      </c>
-      <c r="N186" t="s">
-        <v>19</v>
-      </c>
-      <c r="O186" t="s">
-        <v>21</v>
-      </c>
-      <c r="P186" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
-      <c r="A187" t="s">
-        <v>23</v>
-      </c>
-      <c r="B187" t="s">
-        <v>23</v>
-      </c>
-      <c r="C187" t="s">
-        <v>23</v>
-      </c>
-      <c r="D187" t="s">
-        <v>146</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
@@ -8368,10 +8345,10 @@
         <v>20</v>
       </c>
       <c r="H187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="b">
         <v>1</v>
@@ -8388,8 +8365,11 @@
       <c r="N187" t="s">
         <v>19</v>
       </c>
+      <c r="O187" t="s">
+        <v>21</v>
+      </c>
       <c r="P187" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -8403,7 +8383,7 @@
         <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="E188" t="s">
         <v>19</v>
@@ -8450,7 +8430,7 @@
         <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="E189" t="s">
         <v>19</v>
@@ -8459,13 +8439,13 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
       </c>
       <c r="I189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="b">
         <v>1</v>
@@ -8486,68 +8466,65 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
-      <c r="A191">
-        <v>5</v>
-      </c>
-      <c r="B191" t="s">
-        <v>161</v>
-      </c>
-      <c r="C191" t="s">
-        <v>173</v>
-      </c>
-      <c r="D191" t="s">
+    <row r="190" spans="1:16">
+      <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190" t="s">
+        <v>184</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" t="s">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>91</v>
+      </c>
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" t="b">
+        <v>1</v>
+      </c>
+      <c r="K190" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" t="b">
+        <v>0</v>
+      </c>
+      <c r="M190" t="b">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
+        <v>19</v>
+      </c>
+      <c r="P190" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>97</v>
+      </c>
+      <c r="C192" t="s">
+        <v>185</v>
+      </c>
+      <c r="D192" t="s">
         <v>18</v>
-      </c>
-      <c r="E191" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>20</v>
-      </c>
-      <c r="H191" t="b">
-        <v>1</v>
-      </c>
-      <c r="I191" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" t="b">
-        <v>1</v>
-      </c>
-      <c r="K191" t="b">
-        <v>0</v>
-      </c>
-      <c r="L191" t="b">
-        <v>0</v>
-      </c>
-      <c r="M191" t="b">
-        <v>0</v>
-      </c>
-      <c r="N191" t="s">
-        <v>19</v>
-      </c>
-      <c r="O191" t="s">
-        <v>21</v>
-      </c>
-      <c r="P191" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16">
-      <c r="A192" t="s">
-        <v>23</v>
-      </c>
-      <c r="B192" t="s">
-        <v>23</v>
-      </c>
-      <c r="C192" t="s">
-        <v>23</v>
-      </c>
-      <c r="D192" t="s">
-        <v>175</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8559,10 +8536,10 @@
         <v>20</v>
       </c>
       <c r="H192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
@@ -8579,8 +8556,11 @@
       <c r="N192" t="s">
         <v>19</v>
       </c>
+      <c r="O192" t="s">
+        <v>21</v>
+      </c>
       <c r="P192" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -8594,7 +8574,7 @@
         <v>23</v>
       </c>
       <c r="D193" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -8603,13 +8583,13 @@
         <v>19</v>
       </c>
       <c r="G193" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
       </c>
       <c r="I193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="b">
         <v>1</v>
@@ -8641,7 +8621,7 @@
         <v>23</v>
       </c>
       <c r="D194" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="E194" t="s">
         <v>19</v>
@@ -8650,13 +8630,13 @@
         <v>19</v>
       </c>
       <c r="G194" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
       </c>
       <c r="I194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="b">
         <v>1</v>
@@ -8677,101 +8657,101 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
-      <c r="A196">
-        <v>6</v>
-      </c>
-      <c r="B196" t="s">
-        <v>89</v>
-      </c>
-      <c r="C196" t="s">
-        <v>177</v>
-      </c>
-      <c r="D196" t="s">
+    <row r="195" spans="1:16">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195" t="s">
+        <v>183</v>
+      </c>
+      <c r="E195" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" t="s">
+        <v>19</v>
+      </c>
+      <c r="G195" t="s">
+        <v>20</v>
+      </c>
+      <c r="H195" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="b">
+        <v>1</v>
+      </c>
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" t="b">
+        <v>0</v>
+      </c>
+      <c r="M195" t="b">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
+        <v>19</v>
+      </c>
+      <c r="P195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="A197">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>52</v>
+      </c>
+      <c r="C197" t="s">
+        <v>188</v>
+      </c>
+      <c r="D197" t="s">
         <v>18</v>
       </c>
-      <c r="E196" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
+      <c r="E197" t="s">
+        <v>19</v>
+      </c>
+      <c r="F197" t="s">
+        <v>19</v>
+      </c>
+      <c r="G197" t="s">
         <v>20</v>
       </c>
-      <c r="H196" t="b">
-        <v>1</v>
-      </c>
-      <c r="I196" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" t="b">
-        <v>1</v>
-      </c>
-      <c r="K196" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" t="b">
-        <v>0</v>
-      </c>
-      <c r="M196" t="b">
-        <v>0</v>
-      </c>
-      <c r="N196" t="s">
-        <v>19</v>
-      </c>
-      <c r="O196" t="s">
+      <c r="H197" t="b">
+        <v>1</v>
+      </c>
+      <c r="I197" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" t="b">
+        <v>1</v>
+      </c>
+      <c r="K197" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" t="b">
+        <v>0</v>
+      </c>
+      <c r="M197" t="b">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
+        <v>19</v>
+      </c>
+      <c r="O197" t="s">
         <v>21</v>
       </c>
-      <c r="P196" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16">
-      <c r="A197" t="s">
-        <v>23</v>
-      </c>
-      <c r="B197" t="s">
-        <v>23</v>
-      </c>
-      <c r="C197" t="s">
-        <v>23</v>
-      </c>
-      <c r="D197" t="s">
-        <v>179</v>
-      </c>
-      <c r="E197" t="s">
-        <v>19</v>
-      </c>
-      <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" t="s">
-        <v>83</v>
-      </c>
-      <c r="H197" t="b">
-        <v>0</v>
-      </c>
-      <c r="I197" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" t="b">
-        <v>1</v>
-      </c>
-      <c r="K197" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" t="b">
-        <v>0</v>
-      </c>
-      <c r="M197" t="b">
-        <v>0</v>
-      </c>
-      <c r="N197" t="s">
-        <v>19</v>
-      </c>
       <c r="P197" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -8785,10 +8765,10 @@
         <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>105</v>
-      </c>
-      <c r="E198" t="s">
-        <v>19</v>
+        <v>151</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
       </c>
       <c r="F198" t="s">
         <v>19</v>
@@ -8800,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="b">
         <v>1</v>
@@ -8832,7 +8812,7 @@
         <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="E199" t="s">
         <v>19</v>
@@ -8841,45 +8821,92 @@
         <v>19</v>
       </c>
       <c r="G199" t="s">
+        <v>91</v>
+      </c>
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" t="b">
+        <v>1</v>
+      </c>
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" t="b">
+        <v>0</v>
+      </c>
+      <c r="M199" t="b">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
+        <v>19</v>
+      </c>
+      <c r="P199" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" t="s">
+        <v>109</v>
+      </c>
+      <c r="E200" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" t="s">
+        <v>19</v>
+      </c>
+      <c r="G200" t="s">
         <v>20</v>
       </c>
-      <c r="H199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="b">
-        <v>1</v>
-      </c>
-      <c r="K199" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" t="b">
-        <v>0</v>
-      </c>
-      <c r="M199" t="b">
-        <v>0</v>
-      </c>
-      <c r="N199" t="s">
-        <v>19</v>
-      </c>
-      <c r="P199" t="s">
+      <c r="H200" t="b">
+        <v>0</v>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="b">
+        <v>1</v>
+      </c>
+      <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" t="b">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
+        <v>19</v>
+      </c>
+      <c r="P200" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:16">
-      <c r="A201">
-        <v>7</v>
+      <c r="A201" t="s">
+        <v>23</v>
       </c>
       <c r="B201" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C201" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="E201" t="s">
         <v>19</v>
@@ -8891,10 +8918,10 @@
         <v>20</v>
       </c>
       <c r="H201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="b">
         <v>1</v>
@@ -8911,11 +8938,8 @@
       <c r="N201" t="s">
         <v>19</v>
       </c>
-      <c r="O201" t="s">
-        <v>21</v>
-      </c>
       <c r="P201" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -8929,10 +8953,10 @@
         <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>143</v>
-      </c>
-      <c r="E202">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="E202" t="s">
+        <v>19</v>
       </c>
       <c r="F202" t="s">
         <v>19</v>
@@ -8944,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="b">
         <v>1</v>
@@ -8976,7 +9000,7 @@
         <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E203" t="s">
         <v>19</v>
@@ -8985,25 +9009,25 @@
         <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
       </c>
       <c r="I203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203" t="b">
         <v>0</v>
       </c>
       <c r="M203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N203" t="s">
         <v>19</v>
@@ -9023,7 +9047,7 @@
         <v>23</v>
       </c>
       <c r="D204" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="E204" t="s">
         <v>19</v>
@@ -9041,209 +9065,21 @@
         <v>1</v>
       </c>
       <c r="J204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204" t="b">
         <v>0</v>
       </c>
       <c r="M204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204" t="s">
         <v>19</v>
       </c>
       <c r="P204" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16">
-      <c r="A205" t="s">
-        <v>23</v>
-      </c>
-      <c r="B205" t="s">
-        <v>23</v>
-      </c>
-      <c r="C205" t="s">
-        <v>23</v>
-      </c>
-      <c r="D205" t="s">
-        <v>105</v>
-      </c>
-      <c r="E205" t="s">
-        <v>19</v>
-      </c>
-      <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>20</v>
-      </c>
-      <c r="H205" t="b">
-        <v>0</v>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="b">
-        <v>1</v>
-      </c>
-      <c r="K205" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" t="b">
-        <v>0</v>
-      </c>
-      <c r="M205" t="b">
-        <v>0</v>
-      </c>
-      <c r="N205" t="s">
-        <v>19</v>
-      </c>
-      <c r="P205" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16">
-      <c r="A206" t="s">
-        <v>23</v>
-      </c>
-      <c r="B206" t="s">
-        <v>23</v>
-      </c>
-      <c r="C206" t="s">
-        <v>23</v>
-      </c>
-      <c r="D206" t="s">
-        <v>182</v>
-      </c>
-      <c r="E206" t="s">
-        <v>19</v>
-      </c>
-      <c r="F206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" t="s">
-        <v>20</v>
-      </c>
-      <c r="H206" t="b">
-        <v>0</v>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="b">
-        <v>1</v>
-      </c>
-      <c r="K206" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" t="b">
-        <v>0</v>
-      </c>
-      <c r="M206" t="b">
-        <v>0</v>
-      </c>
-      <c r="N206" t="s">
-        <v>19</v>
-      </c>
-      <c r="P206" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16">
-      <c r="A207" t="s">
-        <v>23</v>
-      </c>
-      <c r="B207" t="s">
-        <v>23</v>
-      </c>
-      <c r="C207" t="s">
-        <v>23</v>
-      </c>
-      <c r="D207" t="s">
-        <v>147</v>
-      </c>
-      <c r="E207" t="s">
-        <v>19</v>
-      </c>
-      <c r="F207" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s">
-        <v>20</v>
-      </c>
-      <c r="H207" t="b">
-        <v>0</v>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="b">
-        <v>0</v>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="b">
-        <v>0</v>
-      </c>
-      <c r="M207" t="b">
-        <v>1</v>
-      </c>
-      <c r="N207" t="s">
-        <v>19</v>
-      </c>
-      <c r="P207" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16">
-      <c r="A208" t="s">
-        <v>23</v>
-      </c>
-      <c r="B208" t="s">
-        <v>23</v>
-      </c>
-      <c r="C208" t="s">
-        <v>23</v>
-      </c>
-      <c r="D208" t="s">
-        <v>183</v>
-      </c>
-      <c r="E208" t="s">
-        <v>19</v>
-      </c>
-      <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>20</v>
-      </c>
-      <c r="H208" t="b">
-        <v>0</v>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="b">
-        <v>0</v>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="b">
-        <v>0</v>
-      </c>
-      <c r="M208" t="b">
-        <v>1</v>
-      </c>
-      <c r="N208" t="s">
-        <v>19</v>
-      </c>
-      <c r="P208" t="s">
         <v>23</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -346,7 +346,7 @@
     <t>employee_id</t>
   </si>
   <si>
-    <t>employee_label_id</t>
+    <t>employee_category_id</t>
   </si>
   <si>
     <t>CustomerCustomerCategory</t>
@@ -358,7 +358,7 @@
     <t>customer_id</t>
   </si>
   <si>
-    <t>customer_label_id</t>
+    <t>customer_category_id</t>
   </si>
   <si>
     <t>PaymentType</t>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -559,7 +559,7 @@
     <t>product_assigned</t>
   </si>
   <si>
-    <t>Store Reward</t>
+    <t>StoreReward</t>
   </si>
   <si>
     <t>Rewards available to loyalty customers based on which specific store points are redeemed at.</t>
@@ -7278,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C160" t="s">
         <v>165</v>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="197">
   <si>
     <t>Load Order</t>
   </si>
@@ -250,6 +250,9 @@
     <t>tier_desc</t>
   </si>
   <si>
+    <t>min_points</t>
+  </si>
+  <si>
     <t>EmployeeType</t>
   </si>
   <si>
@@ -280,24 +283,24 @@
     <t>phone_number</t>
   </si>
   <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>begin_date</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
     <t>comments</t>
   </si>
   <si>
     <t>max</t>
   </si>
   <si>
-    <t>birthdate</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>created_date</t>
-  </si>
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
     <t>end_date</t>
   </si>
   <si>
@@ -376,6 +379,9 @@
     <t>store_name</t>
   </si>
   <si>
+    <t>website_address</t>
+  </si>
+  <si>
     <t>store_status_id</t>
   </si>
   <si>
@@ -511,6 +517,9 @@
     <t>date_added</t>
   </si>
   <si>
+    <t>date_disabled</t>
+  </si>
+  <si>
     <t>SocialMediaType</t>
   </si>
   <si>
@@ -584,6 +593,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Keeping track of a customers existing loyalty points and used points?</t>
+  </si>
+  <si>
+    <t>points_consumed</t>
+  </si>
+  <si>
+    <t>points_produced</t>
   </si>
   <si>
     <t>reason_id</t>
@@ -637,8 +652,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P206" totalsRowShown="0">
-  <autoFilter ref="A1:P206"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P210" totalsRowShown="0">
+  <autoFilter ref="A1:P210"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Load Order"/>
     <tableColumn id="2" name="Owner"/>
@@ -946,7 +961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3189,101 +3204,101 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="C60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
         <v>18</v>
       </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
         <v>20</v>
       </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="b">
-        <v>1</v>
-      </c>
-      <c r="K60" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" t="s">
-        <v>19</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>19</v>
+      </c>
+      <c r="O61" t="s">
         <v>21</v>
       </c>
-      <c r="P60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="P61" t="s">
         <v>80</v>
-      </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61">
-        <v>40</v>
-      </c>
-      <c r="G61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="b">
-        <v>1</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
-        <v>19</v>
-      </c>
-      <c r="P61" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3303,7 +3318,7 @@
         <v>19</v>
       </c>
       <c r="F62">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>25</v>
@@ -3315,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -3333,101 +3348,101 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
-      <c r="A64">
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63">
+        <v>200</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>19</v>
+      </c>
+      <c r="P63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
         <v>4</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" t="s">
         <v>18</v>
       </c>
-      <c r="E64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
         <v>20</v>
       </c>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="b">
-        <v>1</v>
-      </c>
-      <c r="K64" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64" t="b">
-        <v>0</v>
-      </c>
-      <c r="N64" t="s">
-        <v>19</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>19</v>
+      </c>
+      <c r="O65" t="s">
         <v>21</v>
       </c>
-      <c r="P64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="P65" t="s">
         <v>84</v>
-      </c>
-      <c r="E65" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65">
-        <v>40</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="b">
-        <v>1</v>
-      </c>
-      <c r="K65" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" t="b">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
-        <v>19</v>
-      </c>
-      <c r="P65" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3494,7 +3509,7 @@
         <v>19</v>
       </c>
       <c r="F67">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
         <v>25</v>
@@ -3541,7 +3556,7 @@
         <v>19</v>
       </c>
       <c r="F68">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="G68" t="s">
         <v>25</v>
@@ -3587,8 +3602,8 @@
       <c r="E69" t="s">
         <v>19</v>
       </c>
-      <c r="F69" t="s">
-        <v>89</v>
+      <c r="F69">
+        <v>15</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
@@ -3600,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
@@ -3629,16 +3644,16 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
         <v>90</v>
-      </c>
-      <c r="E70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>91</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3676,7 +3691,7 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -3685,7 +3700,7 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3723,7 +3738,7 @@
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3770,16 +3785,16 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
         <v>94</v>
       </c>
-      <c r="E73" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3826,19 +3841,19 @@
         <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -3900,101 +3915,101 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
-      <c r="A77">
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>19</v>
+      </c>
+      <c r="P76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
         <v>5</v>
       </c>
-      <c r="B77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
         <v>98</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" t="s">
         <v>18</v>
       </c>
-      <c r="E77" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
         <v>20</v>
       </c>
-      <c r="H77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="b">
-        <v>1</v>
-      </c>
-      <c r="K77" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N77" t="s">
-        <v>19</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>19</v>
+      </c>
+      <c r="O78" t="s">
         <v>21</v>
       </c>
-      <c r="P77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78">
-        <v>40</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="b">
-        <v>1</v>
-      </c>
-      <c r="K78" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" t="b">
-        <v>0</v>
-      </c>
-      <c r="M78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>19</v>
-      </c>
       <c r="P78" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4061,7 +4076,7 @@
         <v>19</v>
       </c>
       <c r="F80">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
         <v>25</v>
@@ -4108,7 +4123,7 @@
         <v>19</v>
       </c>
       <c r="F81">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="G81" t="s">
         <v>25</v>
@@ -4154,8 +4169,8 @@
       <c r="E82" t="s">
         <v>19</v>
       </c>
-      <c r="F82" t="s">
-        <v>89</v>
+      <c r="F82">
+        <v>15</v>
       </c>
       <c r="G82" t="s">
         <v>25</v>
@@ -4167,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -4196,16 +4211,16 @@
         <v>23</v>
       </c>
       <c r="D83" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
         <v>90</v>
-      </c>
-      <c r="E83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>91</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -4243,7 +4258,7 @@
         <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4252,7 +4267,7 @@
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -4290,28 +4305,28 @@
         <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -4355,16 +4370,16 @@
         <v>1</v>
       </c>
       <c r="J86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
       </c>
       <c r="M86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="s">
         <v>19</v>
@@ -4402,16 +4417,16 @@
         <v>1</v>
       </c>
       <c r="J87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
       </c>
       <c r="M87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="s">
         <v>19</v>
@@ -4431,7 +4446,7 @@
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4467,101 +4482,101 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>19</v>
+      </c>
+      <c r="P89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
         <v>64</v>
       </c>
-      <c r="C90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
         <v>18</v>
       </c>
-      <c r="E90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
         <v>20</v>
       </c>
-      <c r="H90" t="b">
-        <v>1</v>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="b">
-        <v>1</v>
-      </c>
-      <c r="K90" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" t="b">
-        <v>0</v>
-      </c>
-      <c r="M90" t="b">
-        <v>0</v>
-      </c>
-      <c r="N90" t="s">
-        <v>19</v>
-      </c>
-      <c r="O90" t="s">
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>19</v>
+      </c>
+      <c r="O91" t="s">
         <v>21</v>
       </c>
-      <c r="P90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="P91" t="s">
         <v>105</v>
-      </c>
-      <c r="E91" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91">
-        <v>40</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="b">
-        <v>1</v>
-      </c>
-      <c r="K91" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91" t="b">
-        <v>0</v>
-      </c>
-      <c r="M91" t="b">
-        <v>0</v>
-      </c>
-      <c r="N91" t="s">
-        <v>19</v>
-      </c>
-      <c r="P91" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -4581,7 +4596,7 @@
         <v>19</v>
       </c>
       <c r="F92">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
         <v>25</v>
@@ -4593,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -4611,68 +4626,65 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
-      <c r="A94">
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93">
+        <v>200</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>19</v>
+      </c>
+      <c r="P93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95">
         <v>5</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>27</v>
       </c>
-      <c r="C94" t="s">
-        <v>107</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
         <v>18</v>
-      </c>
-      <c r="E94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
-      <c r="H94" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="b">
-        <v>1</v>
-      </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" t="b">
-        <v>0</v>
-      </c>
-      <c r="N94" t="s">
-        <v>19</v>
-      </c>
-      <c r="O94" t="s">
-        <v>21</v>
-      </c>
-      <c r="P94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="A95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" t="s">
-        <v>109</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
@@ -4684,10 +4696,10 @@
         <v>20</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
@@ -4704,8 +4716,11 @@
       <c r="N95" t="s">
         <v>19</v>
       </c>
+      <c r="O95" t="s">
+        <v>21</v>
+      </c>
       <c r="P95" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4755,68 +4770,65 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
-      <c r="A98">
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>19</v>
+      </c>
+      <c r="P97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99">
         <v>6</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>16</v>
       </c>
-      <c r="C98" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" t="s">
         <v>18</v>
-      </c>
-      <c r="E98" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="b">
-        <v>1</v>
-      </c>
-      <c r="K98" t="b">
-        <v>0</v>
-      </c>
-      <c r="L98" t="b">
-        <v>0</v>
-      </c>
-      <c r="M98" t="b">
-        <v>0</v>
-      </c>
-      <c r="N98" t="s">
-        <v>19</v>
-      </c>
-      <c r="O98" t="s">
-        <v>21</v>
-      </c>
-      <c r="P98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
-      <c r="A99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" t="s">
-        <v>113</v>
       </c>
       <c r="E99" t="s">
         <v>19</v>
@@ -4828,10 +4840,10 @@
         <v>20</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="b">
         <v>1</v>
@@ -4848,8 +4860,11 @@
       <c r="N99" t="s">
         <v>19</v>
       </c>
+      <c r="O99" t="s">
+        <v>21</v>
+      </c>
       <c r="P99" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4899,101 +4914,101 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>19</v>
+      </c>
+      <c r="P101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
         <v>38</v>
       </c>
-      <c r="C102" t="s">
-        <v>115</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
         <v>18</v>
       </c>
-      <c r="E102" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
         <v>20</v>
       </c>
-      <c r="H102" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="b">
-        <v>1</v>
-      </c>
-      <c r="K102" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" t="b">
-        <v>0</v>
-      </c>
-      <c r="M102" t="b">
-        <v>0</v>
-      </c>
-      <c r="N102" t="s">
-        <v>19</v>
-      </c>
-      <c r="O102" t="s">
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
+        <v>19</v>
+      </c>
+      <c r="O103" t="s">
         <v>21</v>
       </c>
-      <c r="P102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="A103" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103" t="s">
-        <v>80</v>
-      </c>
-      <c r="E103" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103">
-        <v>40</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="b">
-        <v>1</v>
-      </c>
-      <c r="K103" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" t="b">
-        <v>0</v>
-      </c>
-      <c r="M103" t="b">
-        <v>0</v>
-      </c>
-      <c r="N103" t="s">
-        <v>19</v>
-      </c>
       <c r="P103" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5013,7 +5028,7 @@
         <v>19</v>
       </c>
       <c r="F104">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>25</v>
@@ -5025,10 +5040,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
@@ -5043,101 +5058,101 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
-      <c r="A106">
+    <row r="105" spans="1:16">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105">
+        <v>200</v>
+      </c>
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
+        <v>19</v>
+      </c>
+      <c r="P105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107">
         <v>4</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>41</v>
       </c>
-      <c r="C106" t="s">
-        <v>117</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C107" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" t="s">
         <v>18</v>
       </c>
-      <c r="E106" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="E107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
         <v>20</v>
       </c>
-      <c r="H106" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="b">
-        <v>1</v>
-      </c>
-      <c r="K106" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" t="b">
-        <v>0</v>
-      </c>
-      <c r="M106" t="b">
-        <v>0</v>
-      </c>
-      <c r="N106" t="s">
-        <v>19</v>
-      </c>
-      <c r="O106" t="s">
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
+        <v>19</v>
+      </c>
+      <c r="O107" t="s">
         <v>21</v>
       </c>
-      <c r="P106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
-      <c r="A107" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107" t="s">
-        <v>87</v>
-      </c>
-      <c r="E107" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="b">
-        <v>1</v>
-      </c>
-      <c r="K107" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" t="b">
-        <v>0</v>
-      </c>
-      <c r="M107" t="b">
-        <v>0</v>
-      </c>
-      <c r="N107" t="s">
-        <v>19</v>
-      </c>
       <c r="P107" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5151,13 +5166,13 @@
         <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
       </c>
       <c r="F108">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
         <v>25</v>
@@ -5198,13 +5213,13 @@
         <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
       </c>
       <c r="F109">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
         <v>25</v>
@@ -5216,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
@@ -5245,28 +5260,28 @@
         <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E110" t="s">
         <v>19</v>
       </c>
-      <c r="F110" t="s">
-        <v>19</v>
+      <c r="F110">
+        <v>254</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" t="b">
         <v>0</v>
@@ -5292,28 +5307,28 @@
         <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
       </c>
-      <c r="F111" t="s">
-        <v>19</v>
+      <c r="F111">
+        <v>300</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
       </c>
       <c r="I111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" t="b">
         <v>0</v>
@@ -5339,7 +5354,7 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -5348,13 +5363,13 @@
         <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
       <c r="I112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
@@ -5386,7 +5401,7 @@
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="E113" t="s">
         <v>19</v>
@@ -5395,19 +5410,19 @@
         <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
       </c>
       <c r="I113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -5422,115 +5437,112 @@
         <v>23</v>
       </c>
     </row>
+    <row r="114" spans="1:16">
+      <c r="A114" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" t="s">
+        <v>123</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>90</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
+        <v>19</v>
+      </c>
+      <c r="P114" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="115" spans="1:16">
-      <c r="A115">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" t="s">
+        <v>95</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>90</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>19</v>
+      </c>
+      <c r="P115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117">
         <v>5</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>64</v>
       </c>
-      <c r="C115" t="s">
-        <v>122</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D117" t="s">
         <v>18</v>
-      </c>
-      <c r="E115" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
-      <c r="H115" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="b">
-        <v>1</v>
-      </c>
-      <c r="K115" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" t="b">
-        <v>0</v>
-      </c>
-      <c r="M115" t="b">
-        <v>0</v>
-      </c>
-      <c r="N115" t="s">
-        <v>19</v>
-      </c>
-      <c r="O115" t="s">
-        <v>21</v>
-      </c>
-      <c r="P115" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
-      <c r="A116" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" t="s">
-        <v>124</v>
-      </c>
-      <c r="E116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>91</v>
-      </c>
-      <c r="H116" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="b">
-        <v>1</v>
-      </c>
-      <c r="K116" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" t="b">
-        <v>0</v>
-      </c>
-      <c r="M116" t="b">
-        <v>0</v>
-      </c>
-      <c r="N116" t="s">
-        <v>19</v>
-      </c>
-      <c r="P116" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
-      <c r="A117" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" t="s">
-        <v>23</v>
-      </c>
-      <c r="D117" t="s">
-        <v>109</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -5542,10 +5554,10 @@
         <v>20</v>
       </c>
       <c r="H117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
@@ -5562,8 +5574,11 @@
       <c r="N117" t="s">
         <v>19</v>
       </c>
+      <c r="O117" t="s">
+        <v>21</v>
+      </c>
       <c r="P117" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -5577,7 +5592,7 @@
         <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E118" t="s">
         <v>19</v>
@@ -5586,13 +5601,13 @@
         <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
       </c>
       <c r="I118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="b">
         <v>1</v>
@@ -5624,7 +5639,7 @@
         <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
@@ -5660,18 +5675,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="120" spans="1:16">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
+        <v>19</v>
+      </c>
+      <c r="P120" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="121" spans="1:16">
-      <c r="A121">
-        <v>6</v>
+      <c r="A121" t="s">
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" t="s">
         <v>128</v>
-      </c>
-      <c r="D121" t="s">
-        <v>18</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -5683,10 +5745,10 @@
         <v>20</v>
       </c>
       <c r="H121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
@@ -5703,105 +5765,58 @@
       <c r="N121" t="s">
         <v>19</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
+        <v>19</v>
+      </c>
+      <c r="O123" t="s">
         <v>21</v>
       </c>
-      <c r="P121" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
-      <c r="A122" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" t="s">
-        <v>130</v>
-      </c>
-      <c r="E122" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>91</v>
-      </c>
-      <c r="H122" t="b">
-        <v>0</v>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="b">
-        <v>1</v>
-      </c>
-      <c r="K122" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" t="b">
-        <v>0</v>
-      </c>
-      <c r="M122" t="b">
-        <v>0</v>
-      </c>
-      <c r="N122" t="s">
-        <v>19</v>
-      </c>
-      <c r="P122" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
-      <c r="A123" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="P123" t="s">
         <v>131</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>132</v>
-      </c>
-      <c r="H123" t="b">
-        <v>0</v>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
-      </c>
-      <c r="K123" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" t="b">
-        <v>0</v>
-      </c>
-      <c r="M123" t="b">
-        <v>0</v>
-      </c>
-      <c r="N123" t="s">
-        <v>133</v>
-      </c>
-      <c r="P123" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -5815,16 +5830,16 @@
         <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>134</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
+        <v>132</v>
+      </c>
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" t="s">
         <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -5845,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="P124" t="s">
         <v>23</v>
@@ -5862,37 +5877,37 @@
         <v>23</v>
       </c>
       <c r="D125" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>134</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
         <v>135</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>132</v>
-      </c>
-      <c r="H125" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="b">
-        <v>1</v>
-      </c>
-      <c r="K125" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" t="b">
-        <v>0</v>
-      </c>
-      <c r="M125" t="b">
-        <v>0</v>
-      </c>
-      <c r="N125" t="s">
-        <v>133</v>
       </c>
       <c r="P125" t="s">
         <v>23</v>
@@ -5909,22 +5924,22 @@
         <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>113</v>
-      </c>
-      <c r="E126" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" t="s">
+        <v>136</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
         <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
       </c>
       <c r="I126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -5939,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="P126" t="s">
         <v>23</v>
@@ -5956,22 +5971,22 @@
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>136</v>
-      </c>
-      <c r="E127" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
         <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="b">
         <v>1</v>
@@ -5986,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="P127" t="s">
         <v>23</v>
@@ -6003,7 +6018,7 @@
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E128" t="s">
         <v>19</v>
@@ -6039,18 +6054,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="129" spans="1:16">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" t="b">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
+        <v>19</v>
+      </c>
+      <c r="P129" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="130" spans="1:16">
-      <c r="A130">
-        <v>1</v>
+      <c r="A130" t="s">
+        <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C130" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -6062,10 +6124,10 @@
         <v>20</v>
       </c>
       <c r="H130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="b">
         <v>1</v>
@@ -6082,249 +6144,202 @@
       <c r="N130" t="s">
         <v>19</v>
       </c>
-      <c r="O130" t="s">
+      <c r="P130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" t="s">
+        <v>139</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
+        <v>19</v>
+      </c>
+      <c r="O132" t="s">
         <v>21</v>
       </c>
-      <c r="P130" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
-      <c r="A131" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131">
+      <c r="P132" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>141</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133">
         <v>40</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G133" t="s">
         <v>25</v>
       </c>
-      <c r="H131" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K131" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" t="b">
-        <v>0</v>
-      </c>
-      <c r="M131" t="b">
-        <v>0</v>
-      </c>
-      <c r="N131" t="s">
-        <v>19</v>
-      </c>
-      <c r="P131" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
-      <c r="A132" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" t="s">
-        <v>23</v>
-      </c>
-      <c r="C132" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" t="s">
-        <v>140</v>
-      </c>
-      <c r="E132" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132">
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
+        <v>19</v>
+      </c>
+      <c r="P133" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" t="s">
+        <v>142</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134">
         <v>200</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G134" t="s">
         <v>25</v>
       </c>
-      <c r="H132" t="b">
-        <v>0</v>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="b">
-        <v>0</v>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="b">
-        <v>0</v>
-      </c>
-      <c r="M132" t="b">
-        <v>0</v>
-      </c>
-      <c r="N132" t="s">
-        <v>19</v>
-      </c>
-      <c r="P132" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
-      <c r="A134">
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
+        <v>19</v>
+      </c>
+      <c r="P134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136">
         <v>2</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>41</v>
       </c>
-      <c r="C134" t="s">
-        <v>141</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C136" t="s">
+        <v>143</v>
+      </c>
+      <c r="D136" t="s">
         <v>18</v>
       </c>
-      <c r="E134" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" t="s">
         <v>20</v>
       </c>
-      <c r="H134" t="b">
-        <v>1</v>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K134" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" t="b">
-        <v>0</v>
-      </c>
-      <c r="M134" t="b">
-        <v>0</v>
-      </c>
-      <c r="N134" t="s">
-        <v>19</v>
-      </c>
-      <c r="O134" t="s">
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
+        <v>19</v>
+      </c>
+      <c r="O136" t="s">
         <v>21</v>
       </c>
-      <c r="P134" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
-      <c r="A135" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" t="s">
-        <v>23</v>
-      </c>
-      <c r="C135" t="s">
-        <v>23</v>
-      </c>
-      <c r="D135" t="s">
-        <v>143</v>
-      </c>
-      <c r="E135" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135">
-        <v>40</v>
-      </c>
-      <c r="G135" t="s">
-        <v>25</v>
-      </c>
-      <c r="H135" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="b">
-        <v>1</v>
-      </c>
-      <c r="K135" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" t="b">
-        <v>0</v>
-      </c>
-      <c r="M135" t="b">
-        <v>0</v>
-      </c>
-      <c r="N135" t="s">
-        <v>19</v>
-      </c>
-      <c r="P135" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
-      <c r="A136" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" t="s">
-        <v>23</v>
-      </c>
-      <c r="C136" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="P136" t="s">
         <v>144</v>
-      </c>
-      <c r="E136" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136">
-        <v>200</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
-      <c r="H136" t="b">
-        <v>0</v>
-      </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="b">
-        <v>0</v>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="b">
-        <v>0</v>
-      </c>
-      <c r="M136" t="b">
-        <v>0</v>
-      </c>
-      <c r="N136" t="s">
-        <v>19</v>
-      </c>
-      <c r="P136" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -6340,14 +6355,14 @@
       <c r="D137" t="s">
         <v>145</v>
       </c>
-      <c r="E137">
-        <v>0</v>
+      <c r="E137" t="s">
+        <v>19</v>
       </c>
       <c r="F137">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G137" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="H137" t="b">
         <v>0</v>
@@ -6368,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="N137" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="P137" t="s">
         <v>23</v>
@@ -6390,23 +6405,23 @@
       <c r="E138" t="s">
         <v>19</v>
       </c>
-      <c r="F138" t="s">
-        <v>19</v>
+      <c r="F138">
+        <v>200</v>
       </c>
       <c r="G138" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H138" t="b">
         <v>0</v>
       </c>
       <c r="I138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" t="b">
         <v>0</v>
@@ -6434,20 +6449,20 @@
       <c r="D139" t="s">
         <v>147</v>
       </c>
-      <c r="E139" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
         <v>19</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
       </c>
       <c r="I139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
@@ -6462,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="P139" t="s">
         <v>23</v>
@@ -6497,16 +6512,16 @@
         <v>1</v>
       </c>
       <c r="J140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
       </c>
       <c r="M140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140" t="s">
         <v>19</v>
@@ -6515,18 +6530,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="141" spans="1:16">
+      <c r="A141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" t="s">
+        <v>149</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="b">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
+        <v>19</v>
+      </c>
+      <c r="P141" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="142" spans="1:16">
-      <c r="A142">
-        <v>7</v>
+      <c r="A142" t="s">
+        <v>23</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
@@ -6538,125 +6600,78 @@
         <v>20</v>
       </c>
       <c r="H142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
       </c>
       <c r="M142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142" t="s">
         <v>19</v>
       </c>
-      <c r="O142" t="s">
+      <c r="P142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" t="s">
+        <v>151</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
+        <v>1</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="b">
+        <v>0</v>
+      </c>
+      <c r="N144" t="s">
+        <v>19</v>
+      </c>
+      <c r="O144" t="s">
         <v>21</v>
       </c>
-      <c r="P142" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" t="s">
-        <v>23</v>
-      </c>
-      <c r="C143" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" t="s">
-        <v>151</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
-      <c r="H143" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" t="b">
-        <v>1</v>
-      </c>
-      <c r="K143" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" t="b">
-        <v>0</v>
-      </c>
-      <c r="M143" t="b">
-        <v>0</v>
-      </c>
-      <c r="N143" t="s">
-        <v>19</v>
-      </c>
-      <c r="P143" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16">
-      <c r="A144" t="s">
-        <v>23</v>
-      </c>
-      <c r="B144" t="s">
-        <v>23</v>
-      </c>
-      <c r="C144" t="s">
-        <v>23</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="P144" t="s">
         <v>152</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>132</v>
-      </c>
-      <c r="H144" t="b">
-        <v>0</v>
-      </c>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" t="b">
-        <v>1</v>
-      </c>
-      <c r="K144" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" t="b">
-        <v>0</v>
-      </c>
-      <c r="M144" t="b">
-        <v>0</v>
-      </c>
-      <c r="N144" t="s">
-        <v>133</v>
-      </c>
-      <c r="P144" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -6675,11 +6690,11 @@
       <c r="E145">
         <v>0</v>
       </c>
-      <c r="F145">
+      <c r="F145" t="s">
         <v>19</v>
       </c>
       <c r="G145" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="H145" t="b">
         <v>0</v>
@@ -6700,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="P145" t="s">
         <v>23</v>
@@ -6719,20 +6734,20 @@
       <c r="D146" t="s">
         <v>154</v>
       </c>
-      <c r="E146" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="H146" t="b">
         <v>0</v>
       </c>
       <c r="I146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
@@ -6747,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="P146" t="s">
         <v>23</v>
@@ -6766,52 +6781,99 @@
       <c r="D147" t="s">
         <v>155</v>
       </c>
-      <c r="E147" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
         <v>19</v>
       </c>
       <c r="G147" t="s">
+        <v>134</v>
+      </c>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
+        <v>1</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" t="b">
+        <v>0</v>
+      </c>
+      <c r="N147" t="s">
+        <v>135</v>
+      </c>
+      <c r="P147" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" t="s">
+        <v>156</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" t="s">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
         <v>20</v>
       </c>
-      <c r="H147" t="b">
-        <v>0</v>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="b">
-        <v>1</v>
-      </c>
-      <c r="K147" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" t="b">
-        <v>0</v>
-      </c>
-      <c r="M147" t="b">
-        <v>0</v>
-      </c>
-      <c r="N147" t="s">
-        <v>19</v>
-      </c>
-      <c r="P147" t="s">
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="b">
+        <v>1</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="b">
+        <v>0</v>
+      </c>
+      <c r="N148" t="s">
+        <v>19</v>
+      </c>
+      <c r="P148" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:16">
-      <c r="A149">
-        <v>3</v>
+      <c r="A149" t="s">
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C149" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
@@ -6823,10 +6885,10 @@
         <v>20</v>
       </c>
       <c r="H149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="b">
         <v>1</v>
@@ -6843,105 +6905,58 @@
       <c r="N149" t="s">
         <v>19</v>
       </c>
-      <c r="O149" t="s">
+      <c r="P149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" t="b">
+        <v>1</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" t="b">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
+        <v>19</v>
+      </c>
+      <c r="O151" t="s">
         <v>21</v>
       </c>
-      <c r="P149" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
-      <c r="A150" t="s">
-        <v>23</v>
-      </c>
-      <c r="B150" t="s">
-        <v>23</v>
-      </c>
-      <c r="C150" t="s">
-        <v>23</v>
-      </c>
-      <c r="D150" t="s">
-        <v>158</v>
-      </c>
-      <c r="E150" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150">
-        <v>40</v>
-      </c>
-      <c r="G150" t="s">
-        <v>25</v>
-      </c>
-      <c r="H150" t="b">
-        <v>0</v>
-      </c>
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" t="b">
-        <v>1</v>
-      </c>
-      <c r="K150" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" t="b">
-        <v>0</v>
-      </c>
-      <c r="M150" t="b">
-        <v>0</v>
-      </c>
-      <c r="N150" t="s">
-        <v>19</v>
-      </c>
-      <c r="P150" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
-      <c r="A151" t="s">
-        <v>23</v>
-      </c>
-      <c r="B151" t="s">
-        <v>23</v>
-      </c>
-      <c r="C151" t="s">
-        <v>23</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="P151" t="s">
         <v>159</v>
-      </c>
-      <c r="E151" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151">
-        <v>200</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
-      <c r="H151" t="b">
-        <v>0</v>
-      </c>
-      <c r="I151" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" t="b">
-        <v>0</v>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="b">
-        <v>0</v>
-      </c>
-      <c r="M151" t="b">
-        <v>0</v>
-      </c>
-      <c r="N151" t="s">
-        <v>19</v>
-      </c>
-      <c r="P151" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -6960,17 +6975,17 @@
       <c r="E152" t="s">
         <v>19</v>
       </c>
-      <c r="F152" t="s">
-        <v>19</v>
+      <c r="F152">
+        <v>80</v>
       </c>
       <c r="G152" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H152" t="b">
         <v>0</v>
       </c>
       <c r="I152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="b">
         <v>1</v>
@@ -7004,14 +7019,14 @@
       <c r="D153" t="s">
         <v>161</v>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153" t="s">
-        <v>19</v>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153">
+        <v>200</v>
       </c>
       <c r="G153" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -7020,10 +7035,10 @@
         <v>0</v>
       </c>
       <c r="J153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" t="b">
         <v>0</v>
@@ -7051,8 +7066,8 @@
       <c r="D154" t="s">
         <v>162</v>
       </c>
-      <c r="E154">
-        <v>0</v>
+      <c r="E154" t="s">
+        <v>19</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -7064,13 +7079,13 @@
         <v>0</v>
       </c>
       <c r="I154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L154" t="b">
         <v>0</v>
@@ -7096,16 +7111,16 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="s">
         <v>19</v>
       </c>
       <c r="G155" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
@@ -7126,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="P155" t="s">
         <v>23</v>
@@ -7143,10 +7158,10 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>163</v>
-      </c>
-      <c r="E156" t="s">
-        <v>19</v>
+        <v>164</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -7158,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="b">
         <v>0</v>
@@ -7170,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="M156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156" t="s">
         <v>19</v>
@@ -7190,37 +7205,37 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>102</v>
-      </c>
-      <c r="E157" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" t="s">
+        <v>137</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
       </c>
       <c r="I157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L157" t="b">
         <v>0</v>
       </c>
       <c r="M157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="P157" t="s">
         <v>23</v>
@@ -7237,7 +7252,7 @@
         <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E158" t="s">
         <v>19</v>
@@ -7246,25 +7261,25 @@
         <v>19</v>
       </c>
       <c r="G158" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
       </c>
       <c r="I158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158" t="b">
         <v>0</v>
       </c>
       <c r="M158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158" t="s">
         <v>19</v>
@@ -7273,18 +7288,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="159" spans="1:16">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" t="s">
+        <v>103</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s">
+        <v>20</v>
+      </c>
+      <c r="H159" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" t="b">
+        <v>1</v>
+      </c>
+      <c r="N159" t="s">
+        <v>19</v>
+      </c>
+      <c r="P159" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="160" spans="1:16">
-      <c r="A160">
-        <v>1</v>
+      <c r="A160" t="s">
+        <v>23</v>
       </c>
       <c r="B160" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
@@ -7293,10 +7355,10 @@
         <v>19</v>
       </c>
       <c r="G160" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="b">
         <v>0</v>
@@ -7316,11 +7378,8 @@
       <c r="N160" t="s">
         <v>19</v>
       </c>
-      <c r="O160" t="s">
-        <v>21</v>
-      </c>
       <c r="P160" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -7339,108 +7398,111 @@
       <c r="E161" t="s">
         <v>19</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s">
+        <v>90</v>
+      </c>
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" t="b">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" t="b">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s">
+        <v>19</v>
+      </c>
+      <c r="P161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>20</v>
+      </c>
+      <c r="H163" t="b">
+        <v>1</v>
+      </c>
+      <c r="I163" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" t="b">
+        <v>1</v>
+      </c>
+      <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" t="b">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
+        <v>19</v>
+      </c>
+      <c r="O163" t="s">
+        <v>21</v>
+      </c>
+      <c r="P163" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" t="s">
+        <v>170</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164">
         <v>40</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G164" t="s">
         <v>25</v>
       </c>
-      <c r="H161" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" t="b">
-        <v>1</v>
-      </c>
-      <c r="K161" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" t="b">
-        <v>0</v>
-      </c>
-      <c r="M161" t="b">
-        <v>0</v>
-      </c>
-      <c r="N161" t="s">
-        <v>19</v>
-      </c>
-      <c r="P161" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16">
-      <c r="A162" t="s">
-        <v>23</v>
-      </c>
-      <c r="B162" t="s">
-        <v>23</v>
-      </c>
-      <c r="C162" t="s">
-        <v>23</v>
-      </c>
-      <c r="D162" t="s">
-        <v>168</v>
-      </c>
-      <c r="E162" t="s">
-        <v>19</v>
-      </c>
-      <c r="F162">
-        <v>200</v>
-      </c>
-      <c r="G162" t="s">
-        <v>25</v>
-      </c>
-      <c r="H162" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" t="b">
-        <v>0</v>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="b">
-        <v>0</v>
-      </c>
-      <c r="M162" t="b">
-        <v>0</v>
-      </c>
-      <c r="N162" t="s">
-        <v>19</v>
-      </c>
-      <c r="P162" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
-      <c r="A164">
-        <v>5</v>
-      </c>
-      <c r="B164" t="s">
-        <v>169</v>
-      </c>
-      <c r="C164" t="s">
-        <v>170</v>
-      </c>
-      <c r="D164" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
-        <v>20</v>
-      </c>
       <c r="H164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -7460,11 +7522,8 @@
       <c r="N164" t="s">
         <v>19</v>
       </c>
-      <c r="O164" t="s">
-        <v>21</v>
-      </c>
       <c r="P164" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -7478,13 +7537,13 @@
         <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
       </c>
       <c r="F165">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G165" t="s">
         <v>25</v>
@@ -7496,10 +7555,10 @@
         <v>0</v>
       </c>
       <c r="J165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L165" t="b">
         <v>0</v>
@@ -7514,65 +7573,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
-      <c r="A166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" t="s">
-        <v>23</v>
-      </c>
-      <c r="C166" t="s">
-        <v>23</v>
-      </c>
-      <c r="D166" t="s">
-        <v>125</v>
-      </c>
-      <c r="E166" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s">
-        <v>20</v>
-      </c>
-      <c r="H166" t="b">
-        <v>0</v>
-      </c>
-      <c r="I166" t="b">
-        <v>1</v>
-      </c>
-      <c r="J166" t="b">
-        <v>1</v>
-      </c>
-      <c r="K166" t="b">
-        <v>0</v>
-      </c>
-      <c r="L166" t="b">
-        <v>0</v>
-      </c>
-      <c r="M166" t="b">
-        <v>0</v>
-      </c>
-      <c r="N166" t="s">
-        <v>19</v>
-      </c>
-      <c r="P166" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="167" spans="1:16">
-      <c r="A167" t="s">
-        <v>23</v>
+      <c r="A167">
+        <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="D167" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="E167" t="s">
         <v>19</v>
@@ -7584,10 +7596,10 @@
         <v>20</v>
       </c>
       <c r="H167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="b">
         <v>1</v>
@@ -7604,8 +7616,11 @@
       <c r="N167" t="s">
         <v>19</v>
       </c>
+      <c r="O167" t="s">
+        <v>21</v>
+      </c>
       <c r="P167" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -7619,16 +7634,16 @@
         <v>23</v>
       </c>
       <c r="D168" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E168" t="s">
         <v>19</v>
       </c>
-      <c r="F168" t="s">
-        <v>19</v>
+      <c r="F168">
+        <v>60</v>
       </c>
       <c r="G168" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="H168" t="b">
         <v>0</v>
@@ -7655,18 +7670,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="169" spans="1:16">
+      <c r="A169" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" t="s">
+        <v>127</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="b">
+        <v>1</v>
+      </c>
+      <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" t="b">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
+        <v>19</v>
+      </c>
+      <c r="P169" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="170" spans="1:16">
-      <c r="A170">
-        <v>5</v>
+      <c r="A170" t="s">
+        <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="C170" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -7678,10 +7740,10 @@
         <v>20</v>
       </c>
       <c r="H170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
@@ -7698,11 +7760,8 @@
       <c r="N170" t="s">
         <v>19</v>
       </c>
-      <c r="O170" t="s">
-        <v>21</v>
-      </c>
       <c r="P170" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -7716,101 +7775,54 @@
         <v>23</v>
       </c>
       <c r="D171" t="s">
+        <v>166</v>
+      </c>
+      <c r="E171" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s">
+        <v>90</v>
+      </c>
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" t="b">
+        <v>1</v>
+      </c>
+      <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
+        <v>19</v>
+      </c>
+      <c r="P171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
         <v>172</v>
       </c>
-      <c r="E171" t="s">
-        <v>19</v>
-      </c>
-      <c r="F171">
-        <v>60</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
-      <c r="H171" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" t="b">
-        <v>1</v>
-      </c>
-      <c r="K171" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" t="b">
-        <v>0</v>
-      </c>
-      <c r="M171" t="b">
-        <v>0</v>
-      </c>
-      <c r="N171" t="s">
-        <v>19</v>
-      </c>
-      <c r="P171" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
-      <c r="A172" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172" t="s">
-        <v>23</v>
-      </c>
-      <c r="C172" t="s">
-        <v>23</v>
-      </c>
-      <c r="D172" t="s">
-        <v>109</v>
-      </c>
-      <c r="E172" t="s">
-        <v>19</v>
-      </c>
-      <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s">
-        <v>20</v>
-      </c>
-      <c r="H172" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="b">
-        <v>1</v>
-      </c>
-      <c r="K172" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" t="b">
-        <v>0</v>
-      </c>
-      <c r="M172" t="b">
-        <v>0</v>
-      </c>
-      <c r="N172" t="s">
-        <v>19</v>
-      </c>
-      <c r="P172" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
-      <c r="A173" t="s">
-        <v>23</v>
-      </c>
-      <c r="B173" t="s">
-        <v>23</v>
-      </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="D173" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="E173" t="s">
         <v>19</v>
@@ -7822,10 +7834,10 @@
         <v>20</v>
       </c>
       <c r="H173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="b">
         <v>1</v>
@@ -7842,8 +7854,11 @@
       <c r="N173" t="s">
         <v>19</v>
       </c>
+      <c r="O173" t="s">
+        <v>21</v>
+      </c>
       <c r="P173" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -7857,16 +7872,16 @@
         <v>23</v>
       </c>
       <c r="D174" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E174" t="s">
         <v>19</v>
       </c>
-      <c r="F174" t="s">
-        <v>19</v>
+      <c r="F174">
+        <v>60</v>
       </c>
       <c r="G174" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="H174" t="b">
         <v>0</v>
@@ -7893,18 +7908,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="175" spans="1:16">
+      <c r="A175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" t="s">
+        <v>110</v>
+      </c>
+      <c r="E175" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="b">
+        <v>1</v>
+      </c>
+      <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" t="b">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
+        <v>19</v>
+      </c>
+      <c r="P175" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="176" spans="1:16">
-      <c r="A176">
-        <v>6</v>
+      <c r="A176" t="s">
+        <v>23</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" t="s">
         <v>176</v>
-      </c>
-      <c r="D176" t="s">
-        <v>18</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -7916,10 +7978,10 @@
         <v>20</v>
       </c>
       <c r="H176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
@@ -7936,11 +7998,8 @@
       <c r="N176" t="s">
         <v>19</v>
       </c>
-      <c r="O176" t="s">
-        <v>21</v>
-      </c>
       <c r="P176" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -7954,16 +8013,16 @@
         <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
       </c>
-      <c r="F177">
-        <v>60</v>
+      <c r="F177" t="s">
+        <v>19</v>
       </c>
       <c r="G177" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -7990,65 +8049,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
-      <c r="A178" t="s">
-        <v>23</v>
-      </c>
-      <c r="B178" t="s">
-        <v>23</v>
-      </c>
-      <c r="C178" t="s">
-        <v>23</v>
-      </c>
-      <c r="D178" t="s">
-        <v>173</v>
-      </c>
-      <c r="E178" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s">
-        <v>20</v>
-      </c>
-      <c r="H178" t="b">
-        <v>0</v>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="b">
-        <v>1</v>
-      </c>
-      <c r="K178" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" t="b">
-        <v>0</v>
-      </c>
-      <c r="M178" t="b">
-        <v>0</v>
-      </c>
-      <c r="N178" t="s">
-        <v>19</v>
-      </c>
-      <c r="P178" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="179" spans="1:16">
-      <c r="A179" t="s">
-        <v>23</v>
+      <c r="A179">
+        <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D179" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="E179" t="s">
         <v>19</v>
@@ -8060,10 +8072,10 @@
         <v>20</v>
       </c>
       <c r="H179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="b">
         <v>1</v>
@@ -8080,8 +8092,11 @@
       <c r="N179" t="s">
         <v>19</v>
       </c>
+      <c r="O179" t="s">
+        <v>21</v>
+      </c>
       <c r="P179" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -8095,16 +8110,16 @@
         <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E180" t="s">
         <v>19</v>
       </c>
-      <c r="F180" t="s">
-        <v>19</v>
+      <c r="F180">
+        <v>60</v>
       </c>
       <c r="G180" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="H180" t="b">
         <v>0</v>
@@ -8131,18 +8146,65 @@
         <v>23</v>
       </c>
     </row>
+    <row r="181" spans="1:16">
+      <c r="A181" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" t="s">
+        <v>176</v>
+      </c>
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" t="s">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" t="b">
+        <v>0</v>
+      </c>
+      <c r="M181" t="b">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
+        <v>19</v>
+      </c>
+      <c r="P181" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="182" spans="1:16">
-      <c r="A182">
-        <v>5</v>
+      <c r="A182" t="s">
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="C182" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
@@ -8154,10 +8216,10 @@
         <v>20</v>
       </c>
       <c r="H182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
@@ -8174,11 +8236,8 @@
       <c r="N182" t="s">
         <v>19</v>
       </c>
-      <c r="O182" t="s">
-        <v>21</v>
-      </c>
       <c r="P182" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -8192,7 +8251,7 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -8201,139 +8260,142 @@
         <v>19</v>
       </c>
       <c r="G183" t="s">
+        <v>90</v>
+      </c>
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" t="b">
+        <v>1</v>
+      </c>
+      <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" t="b">
+        <v>0</v>
+      </c>
+      <c r="M183" t="b">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
+        <v>19</v>
+      </c>
+      <c r="P183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" t="s">
+        <v>181</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" t="s">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
         <v>20</v>
       </c>
-      <c r="H183" t="b">
-        <v>0</v>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="b">
-        <v>1</v>
-      </c>
-      <c r="K183" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" t="b">
-        <v>0</v>
-      </c>
-      <c r="M183" t="b">
-        <v>0</v>
-      </c>
-      <c r="N183" t="s">
-        <v>19</v>
-      </c>
-      <c r="P183" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16">
-      <c r="A184" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" t="s">
-        <v>23</v>
-      </c>
-      <c r="C184" t="s">
-        <v>23</v>
-      </c>
-      <c r="D184" t="s">
-        <v>125</v>
-      </c>
-      <c r="E184" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="H185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" t="b">
+        <v>0</v>
+      </c>
+      <c r="M185" t="b">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
+        <v>19</v>
+      </c>
+      <c r="O185" t="s">
+        <v>21</v>
+      </c>
+      <c r="P185" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
+      <c r="A186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" t="s">
+        <v>156</v>
+      </c>
+      <c r="E186" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
         <v>20</v>
       </c>
-      <c r="H184" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="b">
-        <v>1</v>
-      </c>
-      <c r="K184" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" t="b">
-        <v>0</v>
-      </c>
-      <c r="M184" t="b">
-        <v>0</v>
-      </c>
-      <c r="N184" t="s">
-        <v>19</v>
-      </c>
-      <c r="P184" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16">
-      <c r="A185" t="s">
-        <v>23</v>
-      </c>
-      <c r="B185" t="s">
-        <v>23</v>
-      </c>
-      <c r="C185" t="s">
-        <v>23</v>
-      </c>
-      <c r="D185" t="s">
-        <v>180</v>
-      </c>
-      <c r="E185" t="s">
-        <v>19</v>
-      </c>
-      <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>91</v>
-      </c>
-      <c r="H185" t="b">
-        <v>0</v>
-      </c>
-      <c r="I185" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" t="b">
-        <v>1</v>
-      </c>
-      <c r="K185" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" t="b">
-        <v>0</v>
-      </c>
-      <c r="M185" t="b">
-        <v>0</v>
-      </c>
-      <c r="N185" t="s">
-        <v>19</v>
-      </c>
-      <c r="P185" t="s">
+      <c r="H186" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="b">
+        <v>1</v>
+      </c>
+      <c r="K186" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" t="b">
+        <v>0</v>
+      </c>
+      <c r="M186" t="b">
+        <v>0</v>
+      </c>
+      <c r="N186" t="s">
+        <v>19</v>
+      </c>
+      <c r="P186" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:16">
-      <c r="A187">
-        <v>5</v>
+      <c r="A187" t="s">
+        <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="C187" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
@@ -8345,10 +8407,10 @@
         <v>20</v>
       </c>
       <c r="H187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="b">
         <v>1</v>
@@ -8365,11 +8427,8 @@
       <c r="N187" t="s">
         <v>19</v>
       </c>
-      <c r="O187" t="s">
-        <v>21</v>
-      </c>
       <c r="P187" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -8392,139 +8451,142 @@
         <v>19</v>
       </c>
       <c r="G188" t="s">
+        <v>90</v>
+      </c>
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" t="b">
+        <v>1</v>
+      </c>
+      <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" t="b">
+        <v>0</v>
+      </c>
+      <c r="M188" t="b">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
+        <v>19</v>
+      </c>
+      <c r="P188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="A190">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>172</v>
+      </c>
+      <c r="C190" t="s">
+        <v>184</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" t="s">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
         <v>20</v>
       </c>
-      <c r="H188" t="b">
-        <v>0</v>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="b">
-        <v>1</v>
-      </c>
-      <c r="K188" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" t="b">
-        <v>0</v>
-      </c>
-      <c r="M188" t="b">
-        <v>0</v>
-      </c>
-      <c r="N188" t="s">
-        <v>19</v>
-      </c>
-      <c r="P188" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16">
-      <c r="A189" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189" t="s">
-        <v>23</v>
-      </c>
-      <c r="C189" t="s">
-        <v>23</v>
-      </c>
-      <c r="D189" t="s">
-        <v>125</v>
-      </c>
-      <c r="E189" t="s">
-        <v>19</v>
-      </c>
-      <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="H190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I190" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" t="b">
+        <v>1</v>
+      </c>
+      <c r="K190" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" t="b">
+        <v>0</v>
+      </c>
+      <c r="M190" t="b">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
+        <v>19</v>
+      </c>
+      <c r="O190" t="s">
+        <v>21</v>
+      </c>
+      <c r="P190" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" t="s">
+        <v>186</v>
+      </c>
+      <c r="E191" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" t="s">
+        <v>19</v>
+      </c>
+      <c r="G191" t="s">
         <v>20</v>
       </c>
-      <c r="H189" t="b">
-        <v>0</v>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="b">
-        <v>1</v>
-      </c>
-      <c r="K189" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" t="b">
-        <v>0</v>
-      </c>
-      <c r="M189" t="b">
-        <v>0</v>
-      </c>
-      <c r="N189" t="s">
-        <v>19</v>
-      </c>
-      <c r="P189" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16">
-      <c r="A190" t="s">
-        <v>23</v>
-      </c>
-      <c r="B190" t="s">
-        <v>23</v>
-      </c>
-      <c r="C190" t="s">
-        <v>23</v>
-      </c>
-      <c r="D190" t="s">
-        <v>184</v>
-      </c>
-      <c r="E190" t="s">
-        <v>19</v>
-      </c>
-      <c r="F190" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" t="s">
-        <v>91</v>
-      </c>
-      <c r="H190" t="b">
-        <v>0</v>
-      </c>
-      <c r="I190" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" t="b">
-        <v>1</v>
-      </c>
-      <c r="K190" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" t="b">
-        <v>0</v>
-      </c>
-      <c r="M190" t="b">
-        <v>0</v>
-      </c>
-      <c r="N190" t="s">
-        <v>19</v>
-      </c>
-      <c r="P190" t="s">
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191" t="b">
+        <v>1</v>
+      </c>
+      <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" t="b">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
+        <v>19</v>
+      </c>
+      <c r="P191" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:16">
-      <c r="A192">
-        <v>6</v>
+      <c r="A192" t="s">
+        <v>23</v>
       </c>
       <c r="B192" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C192" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8536,10 +8598,10 @@
         <v>20</v>
       </c>
       <c r="H192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
@@ -8556,11 +8618,8 @@
       <c r="N192" t="s">
         <v>19</v>
       </c>
-      <c r="O192" t="s">
-        <v>21</v>
-      </c>
       <c r="P192" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -8583,7 +8642,7 @@
         <v>19</v>
       </c>
       <c r="G193" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
@@ -8610,65 +8669,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
-      <c r="A194" t="s">
-        <v>23</v>
-      </c>
-      <c r="B194" t="s">
-        <v>23</v>
-      </c>
-      <c r="C194" t="s">
-        <v>23</v>
-      </c>
-      <c r="D194" t="s">
-        <v>113</v>
-      </c>
-      <c r="E194" t="s">
-        <v>19</v>
-      </c>
-      <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>20</v>
-      </c>
-      <c r="H194" t="b">
-        <v>0</v>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="b">
-        <v>1</v>
-      </c>
-      <c r="K194" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" t="b">
-        <v>0</v>
-      </c>
-      <c r="M194" t="b">
-        <v>0</v>
-      </c>
-      <c r="N194" t="s">
-        <v>19</v>
-      </c>
-      <c r="P194" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="195" spans="1:16">
-      <c r="A195" t="s">
-        <v>23</v>
+      <c r="A195">
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D195" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="E195" t="s">
         <v>19</v>
@@ -8680,10 +8692,10 @@
         <v>20</v>
       </c>
       <c r="H195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="b">
         <v>1</v>
@@ -8700,22 +8712,72 @@
       <c r="N195" t="s">
         <v>19</v>
       </c>
+      <c r="O195" t="s">
+        <v>21</v>
+      </c>
       <c r="P195" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="A196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196" t="s">
+        <v>190</v>
+      </c>
+      <c r="E196" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" t="s">
+        <v>19</v>
+      </c>
+      <c r="G196" t="s">
+        <v>90</v>
+      </c>
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" t="b">
+        <v>1</v>
+      </c>
+      <c r="K196" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" t="b">
+        <v>0</v>
+      </c>
+      <c r="M196" t="b">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
+        <v>19</v>
+      </c>
+      <c r="P196" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:16">
-      <c r="A197">
-        <v>7</v>
+      <c r="A197" t="s">
+        <v>23</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C197" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="E197" t="s">
         <v>19</v>
@@ -8727,10 +8789,10 @@
         <v>20</v>
       </c>
       <c r="H197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="b">
         <v>1</v>
@@ -8747,11 +8809,8 @@
       <c r="N197" t="s">
         <v>19</v>
       </c>
-      <c r="O197" t="s">
-        <v>21</v>
-      </c>
       <c r="P197" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -8765,10 +8824,10 @@
         <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>151</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="E198" t="s">
+        <v>19</v>
       </c>
       <c r="F198" t="s">
         <v>19</v>
@@ -8780,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="b">
         <v>1</v>
@@ -8801,65 +8860,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
-      <c r="A199" t="s">
-        <v>23</v>
-      </c>
-      <c r="B199" t="s">
-        <v>23</v>
-      </c>
-      <c r="C199" t="s">
-        <v>23</v>
-      </c>
-      <c r="D199" t="s">
-        <v>91</v>
-      </c>
-      <c r="E199" t="s">
-        <v>19</v>
-      </c>
-      <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s">
-        <v>91</v>
-      </c>
-      <c r="H199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I199" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" t="b">
-        <v>1</v>
-      </c>
-      <c r="K199" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" t="b">
-        <v>0</v>
-      </c>
-      <c r="M199" t="b">
-        <v>0</v>
-      </c>
-      <c r="N199" t="s">
-        <v>19</v>
-      </c>
-      <c r="P199" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="200" spans="1:16">
-      <c r="A200" t="s">
-        <v>23</v>
+      <c r="A200">
+        <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="D200" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="E200" t="s">
         <v>19</v>
@@ -8871,10 +8883,10 @@
         <v>20</v>
       </c>
       <c r="H200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="b">
         <v>1</v>
@@ -8891,8 +8903,11 @@
       <c r="N200" t="s">
         <v>19</v>
       </c>
+      <c r="O200" t="s">
+        <v>21</v>
+      </c>
       <c r="P200" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -8906,10 +8921,10 @@
         <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>113</v>
-      </c>
-      <c r="E201" t="s">
-        <v>19</v>
+        <v>193</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
@@ -8921,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="b">
         <v>1</v>
@@ -8953,10 +8968,10 @@
         <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>190</v>
-      </c>
-      <c r="E202" t="s">
-        <v>19</v>
+        <v>194</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
       </c>
       <c r="F202" t="s">
         <v>19</v>
@@ -8968,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="b">
         <v>1</v>
@@ -9000,7 +9015,7 @@
         <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="E203" t="s">
         <v>19</v>
@@ -9009,25 +9024,25 @@
         <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
       </c>
       <c r="I203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203" t="b">
         <v>0</v>
       </c>
       <c r="M203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N203" t="s">
         <v>19</v>
@@ -9047,7 +9062,7 @@
         <v>23</v>
       </c>
       <c r="D204" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="E204" t="s">
         <v>19</v>
@@ -9065,21 +9080,209 @@
         <v>1</v>
       </c>
       <c r="J204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204" t="b">
         <v>0</v>
       </c>
       <c r="M204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204" t="s">
         <v>19</v>
       </c>
       <c r="P204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
+      <c r="A205" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" t="s">
+        <v>23</v>
+      </c>
+      <c r="D205" t="s">
+        <v>114</v>
+      </c>
+      <c r="E205" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G205" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205" t="b">
+        <v>0</v>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="b">
+        <v>1</v>
+      </c>
+      <c r="K205" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" t="b">
+        <v>0</v>
+      </c>
+      <c r="M205" t="b">
+        <v>0</v>
+      </c>
+      <c r="N205" t="s">
+        <v>19</v>
+      </c>
+      <c r="P205" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206" t="s">
+        <v>195</v>
+      </c>
+      <c r="E206" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206" t="s">
+        <v>19</v>
+      </c>
+      <c r="G206" t="s">
+        <v>20</v>
+      </c>
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="b">
+        <v>1</v>
+      </c>
+      <c r="K206" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" t="b">
+        <v>0</v>
+      </c>
+      <c r="N206" t="s">
+        <v>19</v>
+      </c>
+      <c r="P206" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207" t="s">
+        <v>157</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207" t="s">
+        <v>19</v>
+      </c>
+      <c r="G207" t="s">
+        <v>20</v>
+      </c>
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="b">
+        <v>0</v>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" t="b">
+        <v>1</v>
+      </c>
+      <c r="N207" t="s">
+        <v>19</v>
+      </c>
+      <c r="P207" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" t="s">
+        <v>196</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>20</v>
+      </c>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="b">
+        <v>0</v>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" t="b">
+        <v>1</v>
+      </c>
+      <c r="N208" t="s">
+        <v>19</v>
+      </c>
+      <c r="P208" t="s">
         <v>23</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="197">
   <si>
     <t>Load Order</t>
   </si>
@@ -79,6 +79,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
     <t>Standard Auto-Increment PK</t>
   </si>
   <si>
@@ -580,7 +583,7 @@
     <t>reward_assigned</t>
   </si>
   <si>
-    <t>CustomerReward</t>
+    <t>OrderReward</t>
   </si>
   <si>
     <t>Rewards available to a SINGLE loyalty customer to be redeemed, based on the amount of points they have accumulated to date. Available rewards that they (a single loyalty customer) has earned, based on their personal points. A points bank.</t>
@@ -595,16 +598,13 @@
     <t xml:space="preserve"> Keeping track of a customers existing loyalty points and used points?</t>
   </si>
   <si>
-    <t>points_consumed</t>
-  </si>
-  <si>
-    <t>points_produced</t>
+    <t>points_amount</t>
+  </si>
+  <si>
+    <t>created_date</t>
   </si>
   <si>
     <t>reason_id</t>
-  </si>
-  <si>
-    <t>customer_reward_id</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P210" totalsRowShown="0">
-  <autoFilter ref="A1:P210"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P209" totalsRowShown="0">
+  <autoFilter ref="A1:P209"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Load Order"/>
     <tableColumn id="2" name="Owner"/>
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P208"/>
+  <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1076,27 +1076,27 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1105,7 +1105,7 @@
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1129,21 +1129,21 @@
         <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -1152,7 +1152,7 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1184,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1220,27 +1220,27 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1249,7 +1249,7 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -1273,21 +1273,21 @@
         <v>19</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1296,7 +1296,7 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1328,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1364,27 +1364,27 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1393,7 +1393,7 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1417,21 +1417,21 @@
         <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -1440,7 +1440,7 @@
         <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1464,21 +1464,21 @@
         <v>19</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1522,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1558,27 +1558,27 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -1587,7 +1587,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -1611,21 +1611,21 @@
         <v>19</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -1634,7 +1634,7 @@
         <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1658,21 +1658,21 @@
         <v>19</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1716,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1752,27 +1752,27 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -1781,7 +1781,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1805,21 +1805,21 @@
         <v>19</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -1828,7 +1828,7 @@
         <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1852,21 +1852,21 @@
         <v>19</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>19</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1910,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1946,27 +1946,27 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1999,21 +1999,21 @@
         <v>19</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -2022,7 +2022,7 @@
         <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -2046,21 +2046,21 @@
         <v>19</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>19</v>
       </c>
       <c r="O28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2104,10 +2104,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -2140,27 +2140,27 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
@@ -2169,7 +2169,7 @@
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -2193,21 +2193,21 @@
         <v>19</v>
       </c>
       <c r="P31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -2216,7 +2216,7 @@
         <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -2240,21 +2240,21 @@
         <v>19</v>
       </c>
       <c r="P32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2298,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -2334,27 +2334,27 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -2363,7 +2363,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -2387,21 +2387,21 @@
         <v>19</v>
       </c>
       <c r="P36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -2410,7 +2410,7 @@
         <v>200</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>19</v>
       </c>
       <c r="P37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2442,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -2478,27 +2478,27 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -2507,7 +2507,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -2531,21 +2531,21 @@
         <v>19</v>
       </c>
       <c r="P40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -2554,7 +2554,7 @@
         <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>19</v>
       </c>
       <c r="P41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2589,7 +2589,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -2622,27 +2622,27 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -2651,7 +2651,7 @@
         <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>19</v>
       </c>
       <c r="P44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2686,7 +2686,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -2719,27 +2719,27 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -2748,7 +2748,7 @@
         <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -2772,21 +2772,21 @@
         <v>19</v>
       </c>
       <c r="P47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>233</v>
@@ -2819,7 +2819,7 @@
         <v>19</v>
       </c>
       <c r="P48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2827,10 +2827,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2863,36 +2863,36 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -2916,30 +2916,30 @@
         <v>19</v>
       </c>
       <c r="P51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F52">
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -2963,30 +2963,30 @@
         <v>19</v>
       </c>
       <c r="P52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F53">
         <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -3010,21 +3010,21 @@
         <v>19</v>
       </c>
       <c r="P53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E54">
         <v>1407</v>
@@ -3057,7 +3057,7 @@
         <v>19</v>
       </c>
       <c r="P54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -3101,27 +3101,27 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
         <v>19</v>
@@ -3130,7 +3130,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -3154,21 +3154,21 @@
         <v>19</v>
       </c>
       <c r="P57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
@@ -3177,7 +3177,7 @@
         <v>200</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -3201,21 +3201,21 @@
         <v>19</v>
       </c>
       <c r="P58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>19</v>
       </c>
       <c r="P59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3256,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -3292,27 +3292,27 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
@@ -3321,7 +3321,7 @@
         <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -3345,21 +3345,21 @@
         <v>19</v>
       </c>
       <c r="P62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -3368,7 +3368,7 @@
         <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>19</v>
       </c>
       <c r="P63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3400,10 +3400,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -3436,27 +3436,27 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -3465,7 +3465,7 @@
         <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -3489,21 +3489,21 @@
         <v>19</v>
       </c>
       <c r="P66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3512,7 +3512,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -3536,21 +3536,21 @@
         <v>19</v>
       </c>
       <c r="P67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -3559,7 +3559,7 @@
         <v>254</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -3583,21 +3583,21 @@
         <v>19</v>
       </c>
       <c r="P68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
@@ -3606,7 +3606,7 @@
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -3630,21 +3630,21 @@
         <v>19</v>
       </c>
       <c r="P69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
@@ -3653,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3677,31 +3677,31 @@
         <v>19</v>
       </c>
       <c r="P70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
         <v>91</v>
       </c>
-      <c r="E71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>90</v>
-      </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
@@ -3724,21 +3724,21 @@
         <v>19</v>
       </c>
       <c r="P71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3771,30 +3771,30 @@
         <v>19</v>
       </c>
       <c r="P72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3818,21 +3818,21 @@
         <v>19</v>
       </c>
       <c r="P73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -3841,7 +3841,7 @@
         <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -3865,21 +3865,21 @@
         <v>19</v>
       </c>
       <c r="P74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -3912,21 +3912,21 @@
         <v>19</v>
       </c>
       <c r="P75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -3959,7 +3959,7 @@
         <v>19</v>
       </c>
       <c r="P76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -3967,10 +3967,10 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -4003,27 +4003,27 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -4032,7 +4032,7 @@
         <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -4056,21 +4056,21 @@
         <v>19</v>
       </c>
       <c r="P79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4079,7 +4079,7 @@
         <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -4103,21 +4103,21 @@
         <v>19</v>
       </c>
       <c r="P80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4126,7 +4126,7 @@
         <v>254</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -4150,21 +4150,21 @@
         <v>19</v>
       </c>
       <c r="P81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -4173,7 +4173,7 @@
         <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -4197,21 +4197,21 @@
         <v>19</v>
       </c>
       <c r="P82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -4220,7 +4220,7 @@
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -4244,31 +4244,31 @@
         <v>19</v>
       </c>
       <c r="P83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
         <v>91</v>
       </c>
-      <c r="E84" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>90</v>
-      </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
@@ -4291,30 +4291,30 @@
         <v>19</v>
       </c>
       <c r="P84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -4338,21 +4338,21 @@
         <v>19</v>
       </c>
       <c r="P85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -4385,21 +4385,21 @@
         <v>19</v>
       </c>
       <c r="P86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -4432,21 +4432,21 @@
         <v>19</v>
       </c>
       <c r="P87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4479,21 +4479,21 @@
         <v>19</v>
       </c>
       <c r="P88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
         <v>19</v>
@@ -4526,7 +4526,7 @@
         <v>19</v>
       </c>
       <c r="P89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4534,10 +4534,10 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -4570,27 +4570,27 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -4599,7 +4599,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -4623,21 +4623,21 @@
         <v>19</v>
       </c>
       <c r="P92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>19</v>
@@ -4646,7 +4646,7 @@
         <v>200</v>
       </c>
       <c r="G93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>19</v>
       </c>
       <c r="P93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4678,10 +4678,10 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -4714,27 +4714,27 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
@@ -4767,21 +4767,21 @@
         <v>19</v>
       </c>
       <c r="P96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -4814,7 +4814,7 @@
         <v>19</v>
       </c>
       <c r="P97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -4825,7 +4825,7 @@
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -4858,27 +4858,27 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -4911,21 +4911,21 @@
         <v>19</v>
       </c>
       <c r="P100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
@@ -4958,7 +4958,7 @@
         <v>19</v>
       </c>
       <c r="P101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -4966,10 +4966,10 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -5002,27 +5002,27 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P103" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -5031,7 +5031,7 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -5055,21 +5055,21 @@
         <v>19</v>
       </c>
       <c r="P104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E105" t="s">
         <v>19</v>
@@ -5078,7 +5078,7 @@
         <v>200</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>19</v>
       </c>
       <c r="P105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5110,10 +5110,10 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -5146,27 +5146,27 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
@@ -5175,7 +5175,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -5199,21 +5199,21 @@
         <v>19</v>
       </c>
       <c r="P108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
@@ -5222,7 +5222,7 @@
         <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -5246,21 +5246,21 @@
         <v>19</v>
       </c>
       <c r="P109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E110" t="s">
         <v>19</v>
@@ -5269,7 +5269,7 @@
         <v>254</v>
       </c>
       <c r="G110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -5293,21 +5293,21 @@
         <v>19</v>
       </c>
       <c r="P110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
@@ -5316,7 +5316,7 @@
         <v>300</v>
       </c>
       <c r="G111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -5340,21 +5340,21 @@
         <v>19</v>
       </c>
       <c r="P111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -5387,21 +5387,21 @@
         <v>19</v>
       </c>
       <c r="P112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E113" t="s">
         <v>19</v>
@@ -5434,21 +5434,21 @@
         <v>19</v>
       </c>
       <c r="P113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E114" t="s">
         <v>19</v>
@@ -5457,7 +5457,7 @@
         <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -5481,21 +5481,21 @@
         <v>19</v>
       </c>
       <c r="P114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
@@ -5504,7 +5504,7 @@
         <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>19</v>
       </c>
       <c r="P115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -5536,10 +5536,10 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -5572,27 +5572,27 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P117" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E118" t="s">
         <v>19</v>
@@ -5601,7 +5601,7 @@
         <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -5625,21 +5625,21 @@
         <v>19</v>
       </c>
       <c r="P118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
@@ -5672,21 +5672,21 @@
         <v>19</v>
       </c>
       <c r="P119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -5719,21 +5719,21 @@
         <v>19</v>
       </c>
       <c r="P120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -5766,7 +5766,7 @@
         <v>19</v>
       </c>
       <c r="P121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -5774,10 +5774,10 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -5810,27 +5810,27 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P123" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E124" t="s">
         <v>19</v>
@@ -5839,7 +5839,7 @@
         <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -5863,21 +5863,21 @@
         <v>19</v>
       </c>
       <c r="P124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -5886,7 +5886,7 @@
         <v>19</v>
       </c>
       <c r="G125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
@@ -5907,71 +5907,71 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
+        <v>135</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
         <v>136</v>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>134</v>
-      </c>
-      <c r="H126" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="b">
-        <v>1</v>
-      </c>
-      <c r="K126" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" t="b">
-        <v>0</v>
-      </c>
-      <c r="M126" t="b">
-        <v>0</v>
-      </c>
-      <c r="N126" t="s">
-        <v>135</v>
-      </c>
       <c r="P126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
@@ -6001,24 +6001,24 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E128" t="s">
         <v>19</v>
@@ -6051,21 +6051,21 @@
         <v>19</v>
       </c>
       <c r="P128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E129" t="s">
         <v>19</v>
@@ -6098,21 +6098,21 @@
         <v>19</v>
       </c>
       <c r="P129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -6145,7 +6145,7 @@
         <v>19</v>
       </c>
       <c r="P130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -6153,10 +6153,10 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C132" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D132" t="s">
         <v>18</v>
@@ -6189,27 +6189,27 @@
         <v>0</v>
       </c>
       <c r="N132" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O132" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P132" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E133" t="s">
         <v>19</v>
@@ -6218,7 +6218,7 @@
         <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -6242,21 +6242,21 @@
         <v>19</v>
       </c>
       <c r="P133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E134" t="s">
         <v>19</v>
@@ -6265,7 +6265,7 @@
         <v>200</v>
       </c>
       <c r="G134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H134" t="b">
         <v>0</v>
@@ -6289,7 +6289,7 @@
         <v>19</v>
       </c>
       <c r="P134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -6297,10 +6297,10 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
@@ -6333,27 +6333,27 @@
         <v>0</v>
       </c>
       <c r="N136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O136" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P136" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
@@ -6362,7 +6362,7 @@
         <v>80</v>
       </c>
       <c r="G137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H137" t="b">
         <v>0</v>
@@ -6386,21 +6386,21 @@
         <v>19</v>
       </c>
       <c r="P137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -6409,7 +6409,7 @@
         <v>200</v>
       </c>
       <c r="G138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H138" t="b">
         <v>0</v>
@@ -6433,21 +6433,21 @@
         <v>19</v>
       </c>
       <c r="P138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6456,7 +6456,7 @@
         <v>19</v>
       </c>
       <c r="G139" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
@@ -6477,24 +6477,24 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
@@ -6527,21 +6527,21 @@
         <v>19</v>
       </c>
       <c r="P140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E141" t="s">
         <v>19</v>
@@ -6574,21 +6574,21 @@
         <v>19</v>
       </c>
       <c r="P141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
@@ -6621,7 +6621,7 @@
         <v>19</v>
       </c>
       <c r="P142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -6629,10 +6629,10 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C144" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D144" t="s">
         <v>18</v>
@@ -6665,27 +6665,27 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -6718,21 +6718,21 @@
         <v>19</v>
       </c>
       <c r="P145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H146" t="b">
         <v>0</v>
@@ -6762,24 +6762,24 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -6788,7 +6788,7 @@
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
@@ -6809,24 +6809,24 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E148" t="s">
         <v>19</v>
@@ -6859,21 +6859,21 @@
         <v>19</v>
       </c>
       <c r="P148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
@@ -6906,7 +6906,7 @@
         <v>19</v>
       </c>
       <c r="P149" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D151" t="s">
         <v>18</v>
@@ -6950,27 +6950,27 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P151" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E152" t="s">
         <v>19</v>
@@ -6979,7 +6979,7 @@
         <v>80</v>
       </c>
       <c r="G152" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H152" t="b">
         <v>0</v>
@@ -7003,21 +7003,21 @@
         <v>19</v>
       </c>
       <c r="P152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E153" t="s">
         <v>19</v>
@@ -7026,7 +7026,7 @@
         <v>200</v>
       </c>
       <c r="G153" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -7050,21 +7050,21 @@
         <v>19</v>
       </c>
       <c r="P153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:16">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E154" t="s">
         <v>19</v>
@@ -7097,21 +7097,21 @@
         <v>19</v>
       </c>
       <c r="P154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7144,21 +7144,21 @@
         <v>19</v>
       </c>
       <c r="P155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7191,21 +7191,21 @@
         <v>19</v>
       </c>
       <c r="P156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:16">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -7235,24 +7235,24 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E158" t="s">
         <v>19</v>
@@ -7285,21 +7285,21 @@
         <v>19</v>
       </c>
       <c r="P158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E159" t="s">
         <v>19</v>
@@ -7332,21 +7332,21 @@
         <v>19</v>
       </c>
       <c r="P159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
@@ -7355,7 +7355,7 @@
         <v>19</v>
       </c>
       <c r="G160" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
@@ -7379,21 +7379,21 @@
         <v>19</v>
       </c>
       <c r="P160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -7402,7 +7402,7 @@
         <v>19</v>
       </c>
       <c r="G161" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
@@ -7426,7 +7426,7 @@
         <v>19</v>
       </c>
       <c r="P161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -7434,10 +7434,10 @@
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C163" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D163" t="s">
         <v>18</v>
@@ -7470,27 +7470,27 @@
         <v>0</v>
       </c>
       <c r="N163" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P163" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E164" t="s">
         <v>19</v>
@@ -7499,7 +7499,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H164" t="b">
         <v>0</v>
@@ -7523,21 +7523,21 @@
         <v>19</v>
       </c>
       <c r="P164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
@@ -7546,7 +7546,7 @@
         <v>200</v>
       </c>
       <c r="G165" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H165" t="b">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>19</v>
       </c>
       <c r="P165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -7578,10 +7578,10 @@
         <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C167" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D167" t="s">
         <v>18</v>
@@ -7614,27 +7614,27 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O167" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P167" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E168" t="s">
         <v>19</v>
@@ -7643,7 +7643,7 @@
         <v>60</v>
       </c>
       <c r="G168" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H168" t="b">
         <v>0</v>
@@ -7667,21 +7667,21 @@
         <v>19</v>
       </c>
       <c r="P168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E169" t="s">
         <v>19</v>
@@ -7714,21 +7714,21 @@
         <v>19</v>
       </c>
       <c r="P169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -7761,21 +7761,21 @@
         <v>19</v>
       </c>
       <c r="P170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -7784,7 +7784,7 @@
         <v>19</v>
       </c>
       <c r="G171" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
@@ -7808,7 +7808,7 @@
         <v>19</v>
       </c>
       <c r="P171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -7816,10 +7816,10 @@
         <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
@@ -7852,27 +7852,27 @@
         <v>0</v>
       </c>
       <c r="N173" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O173" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P173" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E174" t="s">
         <v>19</v>
@@ -7881,7 +7881,7 @@
         <v>60</v>
       </c>
       <c r="G174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H174" t="b">
         <v>0</v>
@@ -7905,21 +7905,21 @@
         <v>19</v>
       </c>
       <c r="P174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E175" t="s">
         <v>19</v>
@@ -7952,21 +7952,21 @@
         <v>19</v>
       </c>
       <c r="P175" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -7999,21 +7999,21 @@
         <v>19</v>
       </c>
       <c r="P176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
@@ -8022,7 +8022,7 @@
         <v>19</v>
       </c>
       <c r="G177" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>19</v>
       </c>
       <c r="P177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D179" t="s">
         <v>18</v>
@@ -8090,27 +8090,27 @@
         <v>0</v>
       </c>
       <c r="N179" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O179" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P179" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E180" t="s">
         <v>19</v>
@@ -8119,7 +8119,7 @@
         <v>60</v>
       </c>
       <c r="G180" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H180" t="b">
         <v>0</v>
@@ -8143,21 +8143,21 @@
         <v>19</v>
       </c>
       <c r="P180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B181" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E181" t="s">
         <v>19</v>
@@ -8190,21 +8190,21 @@
         <v>19</v>
       </c>
       <c r="P181" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
@@ -8237,21 +8237,21 @@
         <v>19</v>
       </c>
       <c r="P182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -8260,7 +8260,7 @@
         <v>19</v>
       </c>
       <c r="G183" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
@@ -8284,7 +8284,7 @@
         <v>19</v>
       </c>
       <c r="P183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -8292,10 +8292,10 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C185" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D185" t="s">
         <v>18</v>
@@ -8328,27 +8328,27 @@
         <v>0</v>
       </c>
       <c r="N185" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P185" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E186" t="s">
         <v>19</v>
@@ -8381,21 +8381,21 @@
         <v>19</v>
       </c>
       <c r="P186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
@@ -8428,21 +8428,21 @@
         <v>19</v>
       </c>
       <c r="P187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E188" t="s">
         <v>19</v>
@@ -8451,7 +8451,7 @@
         <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>19</v>
       </c>
       <c r="P188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -8483,10 +8483,10 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C190" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D190" t="s">
         <v>18</v>
@@ -8519,27 +8519,27 @@
         <v>0</v>
       </c>
       <c r="N190" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O190" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P190" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E191" t="s">
         <v>19</v>
@@ -8572,21 +8572,21 @@
         <v>19</v>
       </c>
       <c r="P191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8619,21 +8619,21 @@
         <v>19</v>
       </c>
       <c r="P192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:16">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -8642,7 +8642,7 @@
         <v>19</v>
       </c>
       <c r="G193" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
@@ -8666,7 +8666,7 @@
         <v>19</v>
       </c>
       <c r="P193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -8674,10 +8674,10 @@
         <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C195" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D195" t="s">
         <v>18</v>
@@ -8710,27 +8710,27 @@
         <v>0</v>
       </c>
       <c r="N195" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O195" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P195" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:16">
       <c r="A196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E196" t="s">
         <v>19</v>
@@ -8739,7 +8739,7 @@
         <v>19</v>
       </c>
       <c r="G196" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
@@ -8763,36 +8763,36 @@
         <v>19</v>
       </c>
       <c r="P196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:16">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>114</v>
-      </c>
-      <c r="E197" t="s">
-        <v>19</v>
-      </c>
-      <c r="F197" t="s">
+        <v>138</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
         <v>19</v>
       </c>
       <c r="G197" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
       </c>
       <c r="I197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="b">
         <v>1</v>
@@ -8807,24 +8807,24 @@
         <v>0</v>
       </c>
       <c r="N197" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="P197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:16">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E198" t="s">
         <v>19</v>
@@ -8854,77 +8854,74 @@
         <v>0</v>
       </c>
       <c r="N198" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P198" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16">
-      <c r="A200">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>187</v>
+      </c>
+      <c r="E199" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" t="s">
+        <v>20</v>
+      </c>
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="b">
+        <v>1</v>
+      </c>
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" t="b">
+        <v>0</v>
+      </c>
+      <c r="M199" t="b">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
+        <v>19</v>
+      </c>
+      <c r="P199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201">
         <v>7</v>
       </c>
-      <c r="B200" t="s">
-        <v>52</v>
-      </c>
-      <c r="C200" t="s">
-        <v>191</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="B201" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201" t="s">
+        <v>192</v>
+      </c>
+      <c r="D201" t="s">
         <v>18</v>
       </c>
-      <c r="E200" t="s">
-        <v>19</v>
-      </c>
-      <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" t="s">
-        <v>20</v>
-      </c>
-      <c r="H200" t="b">
-        <v>1</v>
-      </c>
-      <c r="I200" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" t="b">
-        <v>1</v>
-      </c>
-      <c r="K200" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" t="b">
-        <v>0</v>
-      </c>
-      <c r="M200" t="b">
-        <v>0</v>
-      </c>
-      <c r="N200" t="s">
-        <v>19</v>
-      </c>
-      <c r="O200" t="s">
-        <v>21</v>
-      </c>
-      <c r="P200" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16">
-      <c r="A201" t="s">
-        <v>23</v>
-      </c>
-      <c r="B201" t="s">
-        <v>23</v>
-      </c>
-      <c r="C201" t="s">
-        <v>23</v>
-      </c>
-      <c r="D201" t="s">
-        <v>193</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
+      <c r="E201" t="s">
+        <v>19</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
@@ -8933,7 +8930,7 @@
         <v>20</v>
       </c>
       <c r="H201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="b">
         <v>0</v>
@@ -8951,21 +8948,24 @@
         <v>0</v>
       </c>
       <c r="N201" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O201" t="s">
+        <v>22</v>
       </c>
       <c r="P201" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:16">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
         <v>194</v>
@@ -9001,21 +9001,21 @@
         <v>19</v>
       </c>
       <c r="P202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:16">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B203" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="E203" t="s">
         <v>19</v>
@@ -9024,7 +9024,7 @@
         <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
@@ -9048,21 +9048,21 @@
         <v>19</v>
       </c>
       <c r="P203" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:16">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B204" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E204" t="s">
         <v>19</v>
@@ -9095,21 +9095,21 @@
         <v>19</v>
       </c>
       <c r="P204" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:16">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B205" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E205" t="s">
         <v>19</v>
@@ -9142,21 +9142,21 @@
         <v>19</v>
       </c>
       <c r="P205" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:16">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B206" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C206" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E206" t="s">
         <v>19</v>
@@ -9189,21 +9189,21 @@
         <v>19</v>
       </c>
       <c r="P206" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:16">
       <c r="A207" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B207" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E207" t="s">
         <v>19</v>
@@ -9236,54 +9236,7 @@
         <v>19</v>
       </c>
       <c r="P207" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16">
-      <c r="A208" t="s">
-        <v>23</v>
-      </c>
-      <c r="B208" t="s">
-        <v>23</v>
-      </c>
-      <c r="C208" t="s">
-        <v>23</v>
-      </c>
-      <c r="D208" t="s">
-        <v>196</v>
-      </c>
-      <c r="E208" t="s">
-        <v>19</v>
-      </c>
-      <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>20</v>
-      </c>
-      <c r="H208" t="b">
-        <v>0</v>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="b">
-        <v>0</v>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="b">
-        <v>0</v>
-      </c>
-      <c r="M208" t="b">
-        <v>1</v>
-      </c>
-      <c r="N208" t="s">
-        <v>19</v>
-      </c>
-      <c r="P208" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="196">
   <si>
     <t>Load Order</t>
   </si>
@@ -583,13 +583,10 @@
     <t>reward_assigned</t>
   </si>
   <si>
-    <t>OrderReward</t>
+    <t>CustomerReward</t>
   </si>
   <si>
     <t>Rewards available to a SINGLE loyalty customer to be redeemed, based on the amount of points they have accumulated to date. Available rewards that they (a single loyalty customer) has earned, based on their personal points. A points bank.</t>
-  </si>
-  <si>
-    <t>date_applied</t>
   </si>
   <si>
     <t>PointLog</t>
@@ -652,8 +649,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P209" totalsRowShown="0">
-  <autoFilter ref="A1:P209"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P208" totalsRowShown="0">
+  <autoFilter ref="A1:P208"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Load Order"/>
     <tableColumn id="2" name="Owner"/>
@@ -961,7 +958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P207"/>
+  <dimension ref="A1:P206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6148,101 +6145,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
-      <c r="A132">
-        <v>1</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="131" spans="1:16">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" t="s">
+        <v>111</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
+        <v>19</v>
+      </c>
+      <c r="P131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
         <v>42</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>140</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>18</v>
       </c>
-      <c r="E132" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
         <v>20</v>
       </c>
-      <c r="H132" t="b">
-        <v>1</v>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="b">
-        <v>1</v>
-      </c>
-      <c r="K132" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" t="b">
-        <v>0</v>
-      </c>
-      <c r="M132" t="b">
-        <v>0</v>
-      </c>
-      <c r="N132" t="s">
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
         <v>21</v>
       </c>
-      <c r="O132" t="s">
+      <c r="O133" t="s">
         <v>22</v>
       </c>
-      <c r="P132" t="s">
+      <c r="P133" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
-      <c r="A133" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" t="s">
-        <v>24</v>
-      </c>
-      <c r="D133" t="s">
-        <v>142</v>
-      </c>
-      <c r="E133" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133">
-        <v>40</v>
-      </c>
-      <c r="G133" t="s">
-        <v>26</v>
-      </c>
-      <c r="H133" t="b">
-        <v>0</v>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" t="b">
-        <v>0</v>
-      </c>
-      <c r="M133" t="b">
-        <v>0</v>
-      </c>
-      <c r="N133" t="s">
-        <v>19</v>
-      </c>
-      <c r="P133" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -6256,13 +6253,13 @@
         <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E134" t="s">
         <v>19</v>
       </c>
       <c r="F134">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
         <v>26</v>
@@ -6274,10 +6271,10 @@
         <v>0</v>
       </c>
       <c r="J134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134" t="b">
         <v>0</v>
@@ -6292,101 +6289,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
-      <c r="A136">
+    <row r="135" spans="1:16">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135">
+        <v>200</v>
+      </c>
+      <c r="G135" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
+        <v>19</v>
+      </c>
+      <c r="P135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137">
         <v>2</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>42</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>144</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>18</v>
       </c>
-      <c r="E136" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
         <v>20</v>
       </c>
-      <c r="H136" t="b">
-        <v>1</v>
-      </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="b">
-        <v>1</v>
-      </c>
-      <c r="K136" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" t="b">
-        <v>0</v>
-      </c>
-      <c r="M136" t="b">
-        <v>0</v>
-      </c>
-      <c r="N136" t="s">
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
         <v>21</v>
       </c>
-      <c r="O136" t="s">
+      <c r="O137" t="s">
         <v>22</v>
       </c>
-      <c r="P136" t="s">
+      <c r="P137" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16">
-      <c r="A137" t="s">
-        <v>24</v>
-      </c>
-      <c r="B137" t="s">
-        <v>24</v>
-      </c>
-      <c r="C137" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" t="s">
-        <v>146</v>
-      </c>
-      <c r="E137" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137">
-        <v>80</v>
-      </c>
-      <c r="G137" t="s">
-        <v>26</v>
-      </c>
-      <c r="H137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="b">
-        <v>1</v>
-      </c>
-      <c r="K137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137" t="b">
-        <v>0</v>
-      </c>
-      <c r="N137" t="s">
-        <v>19</v>
-      </c>
-      <c r="P137" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -6400,13 +6397,13 @@
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
       </c>
       <c r="F138">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G138" t="s">
         <v>26</v>
@@ -6418,10 +6415,10 @@
         <v>0</v>
       </c>
       <c r="J138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" t="b">
         <v>0</v>
@@ -6447,16 +6444,16 @@
         <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>148</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
       </c>
       <c r="F139">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="G139" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
@@ -6465,10 +6462,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" t="b">
         <v>0</v>
@@ -6477,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="P139" t="s">
         <v>24</v>
@@ -6494,22 +6491,22 @@
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E140" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" t="s">
+        <v>148</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
         <v>19</v>
       </c>
       <c r="G140" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
@@ -6524,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="P140" t="s">
         <v>24</v>
@@ -6541,7 +6538,7 @@
         <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E141" t="s">
         <v>19</v>
@@ -6588,7 +6585,7 @@
         <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
@@ -6606,16 +6603,16 @@
         <v>1</v>
       </c>
       <c r="J142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
       </c>
       <c r="M142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142" t="s">
         <v>19</v>
@@ -6624,71 +6621,68 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
-      <c r="A144">
+    <row r="143" spans="1:16">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="b">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
+        <v>19</v>
+      </c>
+      <c r="P143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145">
         <v>7</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>99</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>152</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D145" t="s">
         <v>18</v>
       </c>
-      <c r="E144" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>20</v>
-      </c>
-      <c r="H144" t="b">
-        <v>1</v>
-      </c>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" t="b">
-        <v>1</v>
-      </c>
-      <c r="K144" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" t="b">
-        <v>0</v>
-      </c>
-      <c r="M144" t="b">
-        <v>0</v>
-      </c>
-      <c r="N144" t="s">
-        <v>21</v>
-      </c>
-      <c r="O144" t="s">
-        <v>22</v>
-      </c>
-      <c r="P144" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
-      <c r="A145" t="s">
-        <v>24</v>
-      </c>
-      <c r="B145" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" t="s">
-        <v>24</v>
-      </c>
-      <c r="D145" t="s">
-        <v>154</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
+      <c r="E145" t="s">
+        <v>19</v>
       </c>
       <c r="F145" t="s">
         <v>19</v>
@@ -6697,7 +6691,7 @@
         <v>20</v>
       </c>
       <c r="H145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="b">
         <v>0</v>
@@ -6715,10 +6709,13 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O145" t="s">
+        <v>22</v>
       </c>
       <c r="P145" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -6732,16 +6729,16 @@
         <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="s">
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H146" t="b">
         <v>0</v>
@@ -6762,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="P146" t="s">
         <v>24</v>
@@ -6779,7 +6776,7 @@
         <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -6826,22 +6823,22 @@
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>157</v>
-      </c>
-      <c r="E148" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" t="s">
+        <v>156</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
       </c>
       <c r="I148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
@@ -6856,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="P148" t="s">
         <v>24</v>
@@ -6873,7 +6870,7 @@
         <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
@@ -6909,101 +6906,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
-      <c r="A151">
+    <row r="150" spans="1:16">
+      <c r="A150" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" t="s">
+        <v>158</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="b">
+        <v>1</v>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" t="b">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
+        <v>19</v>
+      </c>
+      <c r="P150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152">
         <v>3</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>39</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>159</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>18</v>
       </c>
-      <c r="E151" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
         <v>20</v>
       </c>
-      <c r="H151" t="b">
-        <v>1</v>
-      </c>
-      <c r="I151" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" t="b">
-        <v>1</v>
-      </c>
-      <c r="K151" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" t="b">
-        <v>0</v>
-      </c>
-      <c r="M151" t="b">
-        <v>0</v>
-      </c>
-      <c r="N151" t="s">
+      <c r="H152" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" t="b">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
         <v>21</v>
       </c>
-      <c r="O151" t="s">
+      <c r="O152" t="s">
         <v>22</v>
       </c>
-      <c r="P151" t="s">
+      <c r="P152" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16">
-      <c r="A152" t="s">
-        <v>24</v>
-      </c>
-      <c r="B152" t="s">
-        <v>24</v>
-      </c>
-      <c r="C152" t="s">
-        <v>24</v>
-      </c>
-      <c r="D152" t="s">
-        <v>161</v>
-      </c>
-      <c r="E152" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152">
-        <v>80</v>
-      </c>
-      <c r="G152" t="s">
-        <v>26</v>
-      </c>
-      <c r="H152" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" t="b">
-        <v>1</v>
-      </c>
-      <c r="K152" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" t="b">
-        <v>0</v>
-      </c>
-      <c r="M152" t="b">
-        <v>0</v>
-      </c>
-      <c r="N152" t="s">
-        <v>19</v>
-      </c>
-      <c r="P152" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -7017,13 +7014,13 @@
         <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E153" t="s">
         <v>19</v>
       </c>
       <c r="F153">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G153" t="s">
         <v>26</v>
@@ -7035,10 +7032,10 @@
         <v>0</v>
       </c>
       <c r="J153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153" t="b">
         <v>0</v>
@@ -7064,28 +7061,28 @@
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E154" t="s">
         <v>19</v>
       </c>
-      <c r="F154" t="s">
-        <v>19</v>
+      <c r="F154">
+        <v>200</v>
       </c>
       <c r="G154" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
       </c>
       <c r="I154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="b">
         <v>0</v>
@@ -7111,10 +7108,10 @@
         <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>164</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -7126,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="b">
         <v>1</v>
@@ -7158,7 +7155,7 @@
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7176,10 +7173,10 @@
         <v>0</v>
       </c>
       <c r="J156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" t="b">
         <v>0</v>
@@ -7205,16 +7202,16 @@
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
-      <c r="F157">
+      <c r="F157" t="s">
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -7223,10 +7220,10 @@
         <v>0</v>
       </c>
       <c r="J157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L157" t="b">
         <v>0</v>
@@ -7235,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="P157" t="s">
         <v>24</v>
@@ -7252,37 +7249,37 @@
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>166</v>
-      </c>
-      <c r="E158" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" t="s">
+        <v>138</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
         <v>19</v>
       </c>
       <c r="G158" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
       </c>
       <c r="I158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" t="b">
         <v>0</v>
       </c>
       <c r="M158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="P158" t="s">
         <v>24</v>
@@ -7299,7 +7296,7 @@
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="E159" t="s">
         <v>19</v>
@@ -7346,7 +7343,7 @@
         <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
@@ -7355,25 +7352,25 @@
         <v>19</v>
       </c>
       <c r="G160" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
       </c>
       <c r="I160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160" t="b">
         <v>0</v>
       </c>
       <c r="M160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" t="s">
         <v>19</v>
@@ -7393,7 +7390,7 @@
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -7411,10 +7408,10 @@
         <v>0</v>
       </c>
       <c r="J161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L161" t="b">
         <v>0</v>
@@ -7429,101 +7426,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
-      <c r="A163">
-        <v>1</v>
-      </c>
-      <c r="B163" t="s">
+    <row r="162" spans="1:16">
+      <c r="A162" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" t="s">
+        <v>168</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>91</v>
+      </c>
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" t="b">
+        <v>0</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="b">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
+        <v>19</v>
+      </c>
+      <c r="P162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
         <v>130</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>169</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D164" t="s">
         <v>18</v>
       </c>
-      <c r="E163" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
         <v>20</v>
       </c>
-      <c r="H163" t="b">
-        <v>1</v>
-      </c>
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" t="b">
-        <v>1</v>
-      </c>
-      <c r="K163" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" t="b">
-        <v>0</v>
-      </c>
-      <c r="M163" t="b">
-        <v>0</v>
-      </c>
-      <c r="N163" t="s">
+      <c r="H164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="b">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>21</v>
       </c>
-      <c r="O163" t="s">
+      <c r="O164" t="s">
         <v>22</v>
       </c>
-      <c r="P163" t="s">
+      <c r="P164" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
-      <c r="A164" t="s">
-        <v>24</v>
-      </c>
-      <c r="B164" t="s">
-        <v>24</v>
-      </c>
-      <c r="C164" t="s">
-        <v>24</v>
-      </c>
-      <c r="D164" t="s">
-        <v>171</v>
-      </c>
-      <c r="E164" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164">
-        <v>40</v>
-      </c>
-      <c r="G164" t="s">
-        <v>26</v>
-      </c>
-      <c r="H164" t="b">
-        <v>0</v>
-      </c>
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" t="b">
-        <v>1</v>
-      </c>
-      <c r="K164" t="b">
-        <v>0</v>
-      </c>
-      <c r="L164" t="b">
-        <v>0</v>
-      </c>
-      <c r="M164" t="b">
-        <v>0</v>
-      </c>
-      <c r="N164" t="s">
-        <v>19</v>
-      </c>
-      <c r="P164" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -7537,13 +7534,13 @@
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
       </c>
       <c r="F165">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
         <v>26</v>
@@ -7555,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="J165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" t="b">
         <v>0</v>
@@ -7573,101 +7570,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
-      <c r="A167">
+    <row r="166" spans="1:16">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" t="s">
+        <v>172</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166">
+        <v>200</v>
+      </c>
+      <c r="G166" t="s">
+        <v>26</v>
+      </c>
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" t="b">
+        <v>0</v>
+      </c>
+      <c r="N166" t="s">
+        <v>19</v>
+      </c>
+      <c r="P166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168">
         <v>5</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>173</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>174</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
         <v>18</v>
       </c>
-      <c r="E167" t="s">
-        <v>19</v>
-      </c>
-      <c r="F167" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
         <v>20</v>
       </c>
-      <c r="H167" t="b">
-        <v>1</v>
-      </c>
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" t="b">
-        <v>1</v>
-      </c>
-      <c r="K167" t="b">
-        <v>0</v>
-      </c>
-      <c r="L167" t="b">
-        <v>0</v>
-      </c>
-      <c r="M167" t="b">
-        <v>0</v>
-      </c>
-      <c r="N167" t="s">
+      <c r="H168" t="b">
+        <v>1</v>
+      </c>
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" t="b">
+        <v>1</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
         <v>21</v>
       </c>
-      <c r="O167" t="s">
+      <c r="O168" t="s">
         <v>22</v>
       </c>
-      <c r="P167" t="s">
+      <c r="P168" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
-      <c r="A168" t="s">
-        <v>24</v>
-      </c>
-      <c r="B168" t="s">
-        <v>24</v>
-      </c>
-      <c r="C168" t="s">
-        <v>24</v>
-      </c>
-      <c r="D168" t="s">
-        <v>176</v>
-      </c>
-      <c r="E168" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168">
-        <v>60</v>
-      </c>
-      <c r="G168" t="s">
-        <v>26</v>
-      </c>
-      <c r="H168" t="b">
-        <v>0</v>
-      </c>
-      <c r="I168" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" t="b">
-        <v>1</v>
-      </c>
-      <c r="K168" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" t="b">
-        <v>0</v>
-      </c>
-      <c r="M168" t="b">
-        <v>0</v>
-      </c>
-      <c r="N168" t="s">
-        <v>19</v>
-      </c>
-      <c r="P168" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -7681,22 +7678,22 @@
         <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="E169" t="s">
         <v>19</v>
       </c>
-      <c r="F169" t="s">
-        <v>19</v>
+      <c r="F169">
+        <v>60</v>
       </c>
       <c r="G169" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H169" t="b">
         <v>0</v>
       </c>
       <c r="I169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="b">
         <v>1</v>
@@ -7728,7 +7725,7 @@
         <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -7775,137 +7772,137 @@
         <v>24</v>
       </c>
       <c r="D171" t="s">
+        <v>177</v>
+      </c>
+      <c r="E171" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="b">
+        <v>1</v>
+      </c>
+      <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
+        <v>19</v>
+      </c>
+      <c r="P171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="A172" t="s">
+        <v>24</v>
+      </c>
+      <c r="B172" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" t="s">
         <v>167</v>
       </c>
-      <c r="E171" t="s">
-        <v>19</v>
-      </c>
-      <c r="F171" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" t="s">
+      <c r="E172" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" t="s">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s">
         <v>91</v>
       </c>
-      <c r="H171" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" t="b">
-        <v>1</v>
-      </c>
-      <c r="K171" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" t="b">
-        <v>0</v>
-      </c>
-      <c r="M171" t="b">
-        <v>0</v>
-      </c>
-      <c r="N171" t="s">
-        <v>19</v>
-      </c>
-      <c r="P171" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
-      <c r="A173">
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" t="b">
+        <v>1</v>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
+        <v>19</v>
+      </c>
+      <c r="P172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174">
         <v>5</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>173</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>178</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D174" t="s">
         <v>18</v>
       </c>
-      <c r="E173" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s">
         <v>20</v>
       </c>
-      <c r="H173" t="b">
-        <v>1</v>
-      </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" t="b">
-        <v>1</v>
-      </c>
-      <c r="K173" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" t="b">
-        <v>0</v>
-      </c>
-      <c r="M173" t="b">
-        <v>0</v>
-      </c>
-      <c r="N173" t="s">
+      <c r="H174" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
         <v>21</v>
       </c>
-      <c r="O173" t="s">
+      <c r="O174" t="s">
         <v>22</v>
       </c>
-      <c r="P173" t="s">
+      <c r="P174" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
-      <c r="A174" t="s">
-        <v>24</v>
-      </c>
-      <c r="B174" t="s">
-        <v>24</v>
-      </c>
-      <c r="C174" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" t="s">
-        <v>176</v>
-      </c>
-      <c r="E174" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174">
-        <v>60</v>
-      </c>
-      <c r="G174" t="s">
-        <v>26</v>
-      </c>
-      <c r="H174" t="b">
-        <v>0</v>
-      </c>
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" t="b">
-        <v>1</v>
-      </c>
-      <c r="K174" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" t="b">
-        <v>0</v>
-      </c>
-      <c r="M174" t="b">
-        <v>0</v>
-      </c>
-      <c r="N174" t="s">
-        <v>19</v>
-      </c>
-      <c r="P174" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -7919,22 +7916,22 @@
         <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="E175" t="s">
         <v>19</v>
       </c>
-      <c r="F175" t="s">
-        <v>19</v>
+      <c r="F175">
+        <v>60</v>
       </c>
       <c r="G175" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H175" t="b">
         <v>0</v>
       </c>
       <c r="I175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="b">
         <v>1</v>
@@ -7966,7 +7963,7 @@
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -8013,137 +8010,137 @@
         <v>24</v>
       </c>
       <c r="D177" t="s">
+        <v>177</v>
+      </c>
+      <c r="E177" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" t="s">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="b">
+        <v>1</v>
+      </c>
+      <c r="K177" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" t="b">
+        <v>0</v>
+      </c>
+      <c r="M177" t="b">
+        <v>0</v>
+      </c>
+      <c r="N177" t="s">
+        <v>19</v>
+      </c>
+      <c r="P177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="A178" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" t="s">
         <v>167</v>
       </c>
-      <c r="E177" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" t="s">
+        <v>19</v>
+      </c>
+      <c r="G178" t="s">
         <v>91</v>
       </c>
-      <c r="H177" t="b">
-        <v>0</v>
-      </c>
-      <c r="I177" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" t="b">
-        <v>1</v>
-      </c>
-      <c r="K177" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" t="b">
-        <v>0</v>
-      </c>
-      <c r="M177" t="b">
-        <v>0</v>
-      </c>
-      <c r="N177" t="s">
-        <v>19</v>
-      </c>
-      <c r="P177" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16">
-      <c r="A179">
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" t="b">
+        <v>1</v>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
+        <v>19</v>
+      </c>
+      <c r="P178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180">
         <v>6</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>53</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>180</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>18</v>
       </c>
-      <c r="E179" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
         <v>20</v>
       </c>
-      <c r="H179" t="b">
-        <v>1</v>
-      </c>
-      <c r="I179" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" t="b">
-        <v>1</v>
-      </c>
-      <c r="K179" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" t="b">
-        <v>0</v>
-      </c>
-      <c r="M179" t="b">
-        <v>0</v>
-      </c>
-      <c r="N179" t="s">
+      <c r="H180" t="b">
+        <v>1</v>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>21</v>
       </c>
-      <c r="O179" t="s">
+      <c r="O180" t="s">
         <v>22</v>
       </c>
-      <c r="P179" t="s">
+      <c r="P180" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16">
-      <c r="A180" t="s">
-        <v>24</v>
-      </c>
-      <c r="B180" t="s">
-        <v>24</v>
-      </c>
-      <c r="C180" t="s">
-        <v>24</v>
-      </c>
-      <c r="D180" t="s">
-        <v>176</v>
-      </c>
-      <c r="E180" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180">
-        <v>60</v>
-      </c>
-      <c r="G180" t="s">
-        <v>26</v>
-      </c>
-      <c r="H180" t="b">
-        <v>0</v>
-      </c>
-      <c r="I180" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" t="b">
-        <v>1</v>
-      </c>
-      <c r="K180" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" t="b">
-        <v>0</v>
-      </c>
-      <c r="M180" t="b">
-        <v>0</v>
-      </c>
-      <c r="N180" t="s">
-        <v>19</v>
-      </c>
-      <c r="P180" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -8157,22 +8154,22 @@
         <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E181" t="s">
         <v>19</v>
       </c>
-      <c r="F181" t="s">
-        <v>19</v>
+      <c r="F181">
+        <v>60</v>
       </c>
       <c r="G181" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H181" t="b">
         <v>0</v>
       </c>
       <c r="I181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="b">
         <v>1</v>
@@ -8204,7 +8201,7 @@
         <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
@@ -8251,104 +8248,101 @@
         <v>24</v>
       </c>
       <c r="D183" t="s">
+        <v>115</v>
+      </c>
+      <c r="E183" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" t="s">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>20</v>
+      </c>
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="b">
+        <v>1</v>
+      </c>
+      <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" t="b">
+        <v>0</v>
+      </c>
+      <c r="M183" t="b">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
+        <v>19</v>
+      </c>
+      <c r="P183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s">
         <v>167</v>
       </c>
-      <c r="E183" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="E184" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" t="s">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
         <v>91</v>
       </c>
-      <c r="H183" t="b">
-        <v>0</v>
-      </c>
-      <c r="I183" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" t="b">
-        <v>1</v>
-      </c>
-      <c r="K183" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" t="b">
-        <v>0</v>
-      </c>
-      <c r="M183" t="b">
-        <v>0</v>
-      </c>
-      <c r="N183" t="s">
-        <v>19</v>
-      </c>
-      <c r="P183" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16">
-      <c r="A185">
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="b">
+        <v>0</v>
+      </c>
+      <c r="M184" t="b">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
+        <v>19</v>
+      </c>
+      <c r="P184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
+      <c r="A186">
         <v>5</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>130</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>182</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>18</v>
-      </c>
-      <c r="E185" t="s">
-        <v>19</v>
-      </c>
-      <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>20</v>
-      </c>
-      <c r="H185" t="b">
-        <v>1</v>
-      </c>
-      <c r="I185" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" t="b">
-        <v>1</v>
-      </c>
-      <c r="K185" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" t="b">
-        <v>0</v>
-      </c>
-      <c r="M185" t="b">
-        <v>0</v>
-      </c>
-      <c r="N185" t="s">
-        <v>21</v>
-      </c>
-      <c r="O185" t="s">
-        <v>22</v>
-      </c>
-      <c r="P185" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
-      <c r="A186" t="s">
-        <v>24</v>
-      </c>
-      <c r="B186" t="s">
-        <v>24</v>
-      </c>
-      <c r="C186" t="s">
-        <v>24</v>
-      </c>
-      <c r="D186" t="s">
-        <v>157</v>
       </c>
       <c r="E186" t="s">
         <v>19</v>
@@ -8360,10 +8354,10 @@
         <v>20</v>
       </c>
       <c r="H186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="b">
         <v>1</v>
@@ -8378,10 +8372,13 @@
         <v>0</v>
       </c>
       <c r="N186" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O186" t="s">
+        <v>22</v>
       </c>
       <c r="P186" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -8395,7 +8392,7 @@
         <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
@@ -8442,104 +8439,101 @@
         <v>24</v>
       </c>
       <c r="D188" t="s">
+        <v>128</v>
+      </c>
+      <c r="E188" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" t="s">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>20</v>
+      </c>
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="b">
+        <v>1</v>
+      </c>
+      <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" t="b">
+        <v>0</v>
+      </c>
+      <c r="M188" t="b">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
+        <v>19</v>
+      </c>
+      <c r="P188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="A189" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s">
         <v>184</v>
       </c>
-      <c r="E188" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" t="s">
-        <v>19</v>
-      </c>
-      <c r="G188" t="s">
+      <c r="E189" t="s">
+        <v>19</v>
+      </c>
+      <c r="F189" t="s">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
         <v>91</v>
       </c>
-      <c r="H188" t="b">
-        <v>0</v>
-      </c>
-      <c r="I188" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" t="b">
-        <v>1</v>
-      </c>
-      <c r="K188" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" t="b">
-        <v>0</v>
-      </c>
-      <c r="M188" t="b">
-        <v>0</v>
-      </c>
-      <c r="N188" t="s">
-        <v>19</v>
-      </c>
-      <c r="P188" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16">
-      <c r="A190">
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" t="b">
+        <v>1</v>
+      </c>
+      <c r="K189" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" t="b">
+        <v>0</v>
+      </c>
+      <c r="M189" t="b">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
+        <v>19</v>
+      </c>
+      <c r="P189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="A191">
         <v>5</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>173</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>185</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>18</v>
-      </c>
-      <c r="E190" t="s">
-        <v>19</v>
-      </c>
-      <c r="F190" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" t="s">
-        <v>20</v>
-      </c>
-      <c r="H190" t="b">
-        <v>1</v>
-      </c>
-      <c r="I190" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" t="b">
-        <v>1</v>
-      </c>
-      <c r="K190" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" t="b">
-        <v>0</v>
-      </c>
-      <c r="M190" t="b">
-        <v>0</v>
-      </c>
-      <c r="N190" t="s">
-        <v>21</v>
-      </c>
-      <c r="O190" t="s">
-        <v>22</v>
-      </c>
-      <c r="P190" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16">
-      <c r="A191" t="s">
-        <v>24</v>
-      </c>
-      <c r="B191" t="s">
-        <v>24</v>
-      </c>
-      <c r="C191" t="s">
-        <v>24</v>
-      </c>
-      <c r="D191" t="s">
-        <v>187</v>
       </c>
       <c r="E191" t="s">
         <v>19</v>
@@ -8551,10 +8545,10 @@
         <v>20</v>
       </c>
       <c r="H191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="b">
         <v>1</v>
@@ -8569,10 +8563,13 @@
         <v>0</v>
       </c>
       <c r="N191" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O191" t="s">
+        <v>22</v>
       </c>
       <c r="P191" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -8586,7 +8583,7 @@
         <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8633,137 +8630,137 @@
         <v>24</v>
       </c>
       <c r="D193" t="s">
+        <v>128</v>
+      </c>
+      <c r="E193" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" t="s">
+        <v>19</v>
+      </c>
+      <c r="G193" t="s">
+        <v>20</v>
+      </c>
+      <c r="H193" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="b">
+        <v>1</v>
+      </c>
+      <c r="K193" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" t="b">
+        <v>0</v>
+      </c>
+      <c r="M193" t="b">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
+        <v>19</v>
+      </c>
+      <c r="P193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" t="s">
+        <v>24</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" t="s">
         <v>188</v>
       </c>
-      <c r="E193" t="s">
-        <v>19</v>
-      </c>
-      <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s">
+      <c r="E194" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" t="s">
+        <v>19</v>
+      </c>
+      <c r="G194" t="s">
         <v>91</v>
       </c>
-      <c r="H193" t="b">
-        <v>0</v>
-      </c>
-      <c r="I193" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" t="b">
-        <v>1</v>
-      </c>
-      <c r="K193" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" t="b">
-        <v>0</v>
-      </c>
-      <c r="M193" t="b">
-        <v>0</v>
-      </c>
-      <c r="N193" t="s">
-        <v>19</v>
-      </c>
-      <c r="P193" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16">
-      <c r="A195">
-        <v>6</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" t="b">
+        <v>1</v>
+      </c>
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" t="b">
+        <v>0</v>
+      </c>
+      <c r="M194" t="b">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
+        <v>19</v>
+      </c>
+      <c r="P194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="A196">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
         <v>99</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>189</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>18</v>
       </c>
-      <c r="E195" t="s">
-        <v>19</v>
-      </c>
-      <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
+      <c r="E196" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" t="s">
+        <v>19</v>
+      </c>
+      <c r="G196" t="s">
         <v>20</v>
       </c>
-      <c r="H195" t="b">
-        <v>1</v>
-      </c>
-      <c r="I195" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" t="b">
-        <v>1</v>
-      </c>
-      <c r="K195" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" t="b">
-        <v>0</v>
-      </c>
-      <c r="M195" t="b">
-        <v>0</v>
-      </c>
-      <c r="N195" t="s">
+      <c r="H196" t="b">
+        <v>1</v>
+      </c>
+      <c r="I196" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" t="b">
+        <v>1</v>
+      </c>
+      <c r="K196" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" t="b">
+        <v>0</v>
+      </c>
+      <c r="M196" t="b">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
         <v>21</v>
       </c>
-      <c r="O195" t="s">
+      <c r="O196" t="s">
         <v>22</v>
       </c>
-      <c r="P195" t="s">
+      <c r="P196" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16">
-      <c r="A196" t="s">
-        <v>24</v>
-      </c>
-      <c r="B196" t="s">
-        <v>24</v>
-      </c>
-      <c r="C196" t="s">
-        <v>24</v>
-      </c>
-      <c r="D196" t="s">
-        <v>191</v>
-      </c>
-      <c r="E196" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
-        <v>91</v>
-      </c>
-      <c r="H196" t="b">
-        <v>0</v>
-      </c>
-      <c r="I196" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" t="b">
-        <v>1</v>
-      </c>
-      <c r="K196" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" t="b">
-        <v>0</v>
-      </c>
-      <c r="M196" t="b">
-        <v>0</v>
-      </c>
-      <c r="N196" t="s">
-        <v>19</v>
-      </c>
-      <c r="P196" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -8777,22 +8774,22 @@
         <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>138</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197">
+        <v>158</v>
+      </c>
+      <c r="E197" t="s">
+        <v>19</v>
+      </c>
+      <c r="F197" t="s">
         <v>19</v>
       </c>
       <c r="G197" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
       </c>
       <c r="I197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="b">
         <v>1</v>
@@ -8807,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="N197" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="P197" t="s">
         <v>24</v>
@@ -8824,7 +8821,7 @@
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="E198" t="s">
         <v>19</v>
@@ -8854,74 +8851,77 @@
         <v>0</v>
       </c>
       <c r="N198" t="s">
+        <v>19</v>
+      </c>
+      <c r="P198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>53</v>
+      </c>
+      <c r="C200" t="s">
+        <v>191</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" t="s">
+        <v>19</v>
+      </c>
+      <c r="G200" t="s">
+        <v>20</v>
+      </c>
+      <c r="H200" t="b">
+        <v>1</v>
+      </c>
+      <c r="I200" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" t="b">
+        <v>1</v>
+      </c>
+      <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" t="b">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
         <v>21</v>
       </c>
-      <c r="P198" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16">
-      <c r="A199" t="s">
-        <v>24</v>
-      </c>
-      <c r="B199" t="s">
-        <v>24</v>
-      </c>
-      <c r="C199" t="s">
-        <v>24</v>
-      </c>
-      <c r="D199" t="s">
-        <v>187</v>
-      </c>
-      <c r="E199" t="s">
-        <v>19</v>
-      </c>
-      <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s">
-        <v>20</v>
-      </c>
-      <c r="H199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="b">
-        <v>1</v>
-      </c>
-      <c r="K199" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" t="b">
-        <v>0</v>
-      </c>
-      <c r="M199" t="b">
-        <v>0</v>
-      </c>
-      <c r="N199" t="s">
-        <v>19</v>
-      </c>
-      <c r="P199" t="s">
-        <v>24</v>
+      <c r="O200" t="s">
+        <v>22</v>
+      </c>
+      <c r="P200" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:16">
-      <c r="A201">
-        <v>7</v>
+      <c r="A201" t="s">
+        <v>24</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C201" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201" t="s">
-        <v>19</v>
+        <v>193</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
@@ -8930,7 +8930,7 @@
         <v>20</v>
       </c>
       <c r="H201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="b">
         <v>0</v>
@@ -8948,13 +8948,10 @@
         <v>0</v>
       </c>
       <c r="N201" t="s">
-        <v>21</v>
-      </c>
-      <c r="O201" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P201" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -8970,14 +8967,14 @@
       <c r="D202" t="s">
         <v>194</v>
       </c>
-      <c r="E202">
-        <v>0</v>
+      <c r="E202" t="s">
+        <v>19</v>
       </c>
       <c r="F202" t="s">
         <v>19</v>
       </c>
       <c r="G202" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H202" t="b">
         <v>0</v>
@@ -9015,7 +9012,7 @@
         <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="E203" t="s">
         <v>19</v>
@@ -9024,13 +9021,13 @@
         <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
       </c>
       <c r="I203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="b">
         <v>1</v>
@@ -9062,7 +9059,7 @@
         <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E204" t="s">
         <v>19</v>
@@ -9109,7 +9106,7 @@
         <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="E205" t="s">
         <v>19</v>
@@ -9156,7 +9153,7 @@
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="E206" t="s">
         <v>19</v>
@@ -9174,68 +9171,21 @@
         <v>1</v>
       </c>
       <c r="J206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" t="b">
         <v>0</v>
       </c>
       <c r="M206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N206" t="s">
         <v>19</v>
       </c>
       <c r="P206" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16">
-      <c r="A207" t="s">
-        <v>24</v>
-      </c>
-      <c r="B207" t="s">
-        <v>24</v>
-      </c>
-      <c r="C207" t="s">
-        <v>24</v>
-      </c>
-      <c r="D207" t="s">
-        <v>158</v>
-      </c>
-      <c r="E207" t="s">
-        <v>19</v>
-      </c>
-      <c r="F207" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s">
-        <v>20</v>
-      </c>
-      <c r="H207" t="b">
-        <v>0</v>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="b">
-        <v>0</v>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="b">
-        <v>0</v>
-      </c>
-      <c r="M207" t="b">
-        <v>1</v>
-      </c>
-      <c r="N207" t="s">
-        <v>19</v>
-      </c>
-      <c r="P207" t="s">
         <v>24</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="199">
   <si>
     <t>Load Order</t>
   </si>
@@ -391,6 +391,12 @@
     <t>start_date</t>
   </si>
   <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>ManyToManyField</t>
+  </si>
+  <si>
     <t>EmployeeJob</t>
   </si>
   <si>
@@ -421,13 +427,16 @@
     <t>original_total</t>
   </si>
   <si>
+    <t>MoneyField</t>
+  </si>
+  <si>
+    <t>4 Decimals</t>
+  </si>
+  <si>
+    <t>final_total</t>
+  </si>
+  <si>
     <t>numeric</t>
-  </si>
-  <si>
-    <t>4 Decimals</t>
-  </si>
-  <si>
-    <t>final_total</t>
   </si>
   <si>
     <t>discount_amount</t>
@@ -649,8 +658,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P208" totalsRowShown="0">
-  <autoFilter ref="A1:P208"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P212" totalsRowShown="0">
+  <autoFilter ref="A1:P212"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Load Order"/>
     <tableColumn id="2" name="Owner"/>
@@ -958,7 +967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P206"/>
+  <dimension ref="A1:P210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +979,7 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
@@ -5528,101 +5537,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
-      <c r="A117">
+    <row r="116" spans="1:16">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>125</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" t="s">
+        <v>126</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
+        <v>19</v>
+      </c>
+      <c r="P116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118">
         <v>5</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>65</v>
       </c>
-      <c r="C117" t="s">
-        <v>125</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="C118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" t="s">
         <v>18</v>
       </c>
-      <c r="E117" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s">
         <v>20</v>
       </c>
-      <c r="H117" t="b">
-        <v>1</v>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="b">
-        <v>1</v>
-      </c>
-      <c r="K117" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" t="b">
-        <v>0</v>
-      </c>
-      <c r="M117" t="b">
-        <v>0</v>
-      </c>
-      <c r="N117" t="s">
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
         <v>21</v>
       </c>
-      <c r="O117" t="s">
+      <c r="O118" t="s">
         <v>22</v>
       </c>
-      <c r="P117" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>91</v>
-      </c>
-      <c r="H118" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="b">
-        <v>1</v>
-      </c>
-      <c r="K118" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" t="b">
-        <v>0</v>
-      </c>
-      <c r="M118" t="b">
-        <v>0</v>
-      </c>
-      <c r="N118" t="s">
-        <v>19</v>
-      </c>
       <c r="P118" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -5636,7 +5645,7 @@
         <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
@@ -5645,13 +5654,13 @@
         <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
       </c>
       <c r="I119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="b">
         <v>1</v>
@@ -5683,7 +5692,7 @@
         <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -5730,7 +5739,7 @@
         <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -5766,101 +5775,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
-      <c r="A123">
+    <row r="122" spans="1:16">
+      <c r="A122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" t="s">
+        <v>131</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" t="b">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
+        <v>19</v>
+      </c>
+      <c r="P122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124">
         <v>6</v>
       </c>
-      <c r="B123" t="s">
-        <v>130</v>
-      </c>
-      <c r="C123" t="s">
-        <v>131</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="B124" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" t="s">
         <v>18</v>
       </c>
-      <c r="E123" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
         <v>20</v>
       </c>
-      <c r="H123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
-      </c>
-      <c r="K123" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" t="b">
-        <v>0</v>
-      </c>
-      <c r="M123" t="b">
-        <v>0</v>
-      </c>
-      <c r="N123" t="s">
+      <c r="H124" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
         <v>21</v>
       </c>
-      <c r="O123" t="s">
+      <c r="O124" t="s">
         <v>22</v>
       </c>
-      <c r="P123" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
-      <c r="A124" t="s">
-        <v>24</v>
-      </c>
-      <c r="B124" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" t="s">
-        <v>133</v>
-      </c>
-      <c r="E124" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>91</v>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" t="b">
-        <v>0</v>
-      </c>
-      <c r="M124" t="b">
-        <v>0</v>
-      </c>
-      <c r="N124" t="s">
-        <v>19</v>
-      </c>
       <c r="P124" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -5874,16 +5883,16 @@
         <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
+        <v>135</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" t="s">
         <v>19</v>
       </c>
       <c r="G125" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
@@ -5904,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="P125" t="s">
         <v>24</v>
@@ -5921,17 +5930,17 @@
         <v>24</v>
       </c>
       <c r="D126" t="s">
+        <v>136</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
         <v>137</v>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>135</v>
-      </c>
       <c r="H126" t="b">
         <v>0</v>
       </c>
@@ -5951,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P126" t="s">
         <v>24</v>
@@ -5968,37 +5977,37 @@
         <v>24</v>
       </c>
       <c r="D127" t="s">
+        <v>139</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s">
+        <v>140</v>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>138</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>135</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="b">
-        <v>1</v>
-      </c>
-      <c r="K127" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" t="b">
-        <v>0</v>
-      </c>
-      <c r="M127" t="b">
-        <v>0</v>
-      </c>
-      <c r="N127" t="s">
-        <v>136</v>
       </c>
       <c r="P127" t="s">
         <v>24</v>
@@ -6015,22 +6024,22 @@
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>115</v>
-      </c>
-      <c r="E128" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" t="s">
+        <v>141</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
         <v>19</v>
       </c>
       <c r="G128" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
       </c>
       <c r="I128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
@@ -6045,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="P128" t="s">
         <v>24</v>
@@ -6062,7 +6071,7 @@
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E129" t="s">
         <v>19</v>
@@ -6109,7 +6118,7 @@
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -6156,7 +6165,7 @@
         <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
@@ -6192,101 +6201,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="132" spans="1:16">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
+        <v>19</v>
+      </c>
+      <c r="P132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
         <v>42</v>
       </c>
-      <c r="C133" t="s">
-        <v>140</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C134" t="s">
+        <v>143</v>
+      </c>
+      <c r="D134" t="s">
         <v>18</v>
       </c>
-      <c r="E133" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
         <v>20</v>
       </c>
-      <c r="H133" t="b">
-        <v>1</v>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" t="b">
-        <v>0</v>
-      </c>
-      <c r="M133" t="b">
-        <v>0</v>
-      </c>
-      <c r="N133" t="s">
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
         <v>21</v>
       </c>
-      <c r="O133" t="s">
+      <c r="O134" t="s">
         <v>22</v>
       </c>
-      <c r="P133" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
-      <c r="A134" t="s">
-        <v>24</v>
-      </c>
-      <c r="B134" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" t="s">
-        <v>24</v>
-      </c>
-      <c r="D134" t="s">
-        <v>142</v>
-      </c>
-      <c r="E134" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134">
-        <v>40</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
-      <c r="H134" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K134" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" t="b">
-        <v>0</v>
-      </c>
-      <c r="M134" t="b">
-        <v>0</v>
-      </c>
-      <c r="N134" t="s">
-        <v>19</v>
-      </c>
       <c r="P134" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -6300,13 +6309,13 @@
         <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
       </c>
       <c r="F135">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
         <v>26</v>
@@ -6318,10 +6327,10 @@
         <v>0</v>
       </c>
       <c r="J135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" t="b">
         <v>0</v>
@@ -6336,101 +6345,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
-      <c r="A137">
+    <row r="136" spans="1:16">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136">
+        <v>200</v>
+      </c>
+      <c r="G136" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
+        <v>19</v>
+      </c>
+      <c r="P136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138">
         <v>2</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>42</v>
       </c>
-      <c r="C137" t="s">
-        <v>144</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="C138" t="s">
+        <v>147</v>
+      </c>
+      <c r="D138" t="s">
         <v>18</v>
       </c>
-      <c r="E137" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s">
         <v>20</v>
       </c>
-      <c r="H137" t="b">
-        <v>1</v>
-      </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="b">
-        <v>1</v>
-      </c>
-      <c r="K137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137" t="b">
-        <v>0</v>
-      </c>
-      <c r="N137" t="s">
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
         <v>21</v>
       </c>
-      <c r="O137" t="s">
+      <c r="O138" t="s">
         <v>22</v>
       </c>
-      <c r="P137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16">
-      <c r="A138" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138" t="s">
-        <v>146</v>
-      </c>
-      <c r="E138" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138">
-        <v>80</v>
-      </c>
-      <c r="G138" t="s">
-        <v>26</v>
-      </c>
-      <c r="H138" t="b">
-        <v>0</v>
-      </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="b">
-        <v>1</v>
-      </c>
-      <c r="K138" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" t="b">
-        <v>0</v>
-      </c>
-      <c r="M138" t="b">
-        <v>0</v>
-      </c>
-      <c r="N138" t="s">
-        <v>19</v>
-      </c>
       <c r="P138" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -6444,13 +6453,13 @@
         <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
       </c>
       <c r="F139">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G139" t="s">
         <v>26</v>
@@ -6462,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139" t="b">
         <v>0</v>
@@ -6491,16 +6500,16 @@
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>148</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="E140" t="s">
+        <v>19</v>
       </c>
       <c r="F140">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="G140" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
@@ -6509,10 +6518,10 @@
         <v>0</v>
       </c>
       <c r="J140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -6521,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="P140" t="s">
         <v>24</v>
@@ -6538,22 +6547,22 @@
         <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>149</v>
-      </c>
-      <c r="E141" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
         <v>19</v>
       </c>
       <c r="G141" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="H141" t="b">
         <v>0</v>
       </c>
       <c r="I141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
@@ -6568,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="P141" t="s">
         <v>24</v>
@@ -6585,7 +6594,7 @@
         <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
@@ -6632,7 +6641,7 @@
         <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -6650,16 +6659,16 @@
         <v>1</v>
       </c>
       <c r="J143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L143" t="b">
         <v>0</v>
       </c>
       <c r="M143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N143" t="s">
         <v>19</v>
@@ -6668,71 +6677,68 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
-      <c r="A145">
+    <row r="144" spans="1:16">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" t="s">
+        <v>154</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="b">
+        <v>1</v>
+      </c>
+      <c r="N144" t="s">
+        <v>19</v>
+      </c>
+      <c r="P144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146">
         <v>7</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>99</v>
       </c>
-      <c r="C145" t="s">
-        <v>152</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" t="s">
         <v>18</v>
       </c>
-      <c r="E145" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
-      <c r="H145" t="b">
-        <v>1</v>
-      </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" t="b">
-        <v>1</v>
-      </c>
-      <c r="K145" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" t="b">
-        <v>0</v>
-      </c>
-      <c r="M145" t="b">
-        <v>0</v>
-      </c>
-      <c r="N145" t="s">
-        <v>21</v>
-      </c>
-      <c r="O145" t="s">
-        <v>22</v>
-      </c>
-      <c r="P145" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
-      <c r="A146" t="s">
-        <v>24</v>
-      </c>
-      <c r="B146" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146" t="s">
-        <v>24</v>
-      </c>
-      <c r="D146" t="s">
-        <v>154</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
+      <c r="E146" t="s">
+        <v>19</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -6741,7 +6747,7 @@
         <v>20</v>
       </c>
       <c r="H146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="b">
         <v>0</v>
@@ -6759,10 +6765,13 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O146" t="s">
+        <v>22</v>
       </c>
       <c r="P146" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -6776,16 +6785,16 @@
         <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="s">
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
@@ -6806,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="P147" t="s">
         <v>24</v>
@@ -6823,7 +6832,7 @@
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -6832,7 +6841,7 @@
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
@@ -6853,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P148" t="s">
         <v>24</v>
@@ -6870,22 +6879,22 @@
         <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>157</v>
-      </c>
-      <c r="E149" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
       </c>
       <c r="I149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="b">
         <v>1</v>
@@ -6900,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="P149" t="s">
         <v>24</v>
@@ -6917,7 +6926,7 @@
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
@@ -6953,101 +6962,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
-      <c r="A152">
+    <row r="151" spans="1:16">
+      <c r="A151" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" t="s">
+        <v>161</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="b">
+        <v>1</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" t="b">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
+        <v>19</v>
+      </c>
+      <c r="P151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153">
         <v>3</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>39</v>
       </c>
-      <c r="C152" t="s">
-        <v>159</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C153" t="s">
+        <v>162</v>
+      </c>
+      <c r="D153" t="s">
         <v>18</v>
       </c>
-      <c r="E152" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
         <v>20</v>
       </c>
-      <c r="H152" t="b">
-        <v>1</v>
-      </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" t="b">
-        <v>1</v>
-      </c>
-      <c r="K152" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" t="b">
-        <v>0</v>
-      </c>
-      <c r="M152" t="b">
-        <v>0</v>
-      </c>
-      <c r="N152" t="s">
+      <c r="H153" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" t="b">
+        <v>1</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153" t="b">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
         <v>21</v>
       </c>
-      <c r="O152" t="s">
+      <c r="O153" t="s">
         <v>22</v>
       </c>
-      <c r="P152" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
-      <c r="A153" t="s">
-        <v>24</v>
-      </c>
-      <c r="B153" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" t="s">
-        <v>161</v>
-      </c>
-      <c r="E153" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153">
-        <v>80</v>
-      </c>
-      <c r="G153" t="s">
-        <v>26</v>
-      </c>
-      <c r="H153" t="b">
-        <v>0</v>
-      </c>
-      <c r="I153" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" t="b">
-        <v>1</v>
-      </c>
-      <c r="K153" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" t="b">
-        <v>0</v>
-      </c>
-      <c r="M153" t="b">
-        <v>0</v>
-      </c>
-      <c r="N153" t="s">
-        <v>19</v>
-      </c>
       <c r="P153" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -7061,13 +7070,13 @@
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E154" t="s">
         <v>19</v>
       </c>
       <c r="F154">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G154" t="s">
         <v>26</v>
@@ -7079,10 +7088,10 @@
         <v>0</v>
       </c>
       <c r="J154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L154" t="b">
         <v>0</v>
@@ -7108,28 +7117,28 @@
         <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E155" t="s">
         <v>19</v>
       </c>
-      <c r="F155" t="s">
-        <v>19</v>
+      <c r="F155">
+        <v>200</v>
       </c>
       <c r="G155" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155" t="b">
         <v>0</v>
@@ -7155,10 +7164,10 @@
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>164</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="E156" t="s">
+        <v>19</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -7170,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="b">
         <v>1</v>
@@ -7202,7 +7211,7 @@
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7220,10 +7229,10 @@
         <v>0</v>
       </c>
       <c r="J157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L157" t="b">
         <v>0</v>
@@ -7249,16 +7258,16 @@
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
-      <c r="F158">
+      <c r="F158" t="s">
         <v>19</v>
       </c>
       <c r="G158" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
@@ -7267,10 +7276,10 @@
         <v>0</v>
       </c>
       <c r="J158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158" t="b">
         <v>0</v>
@@ -7279,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="P158" t="s">
         <v>24</v>
@@ -7296,37 +7305,37 @@
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>166</v>
-      </c>
-      <c r="E159" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" t="s">
+        <v>141</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
         <v>19</v>
       </c>
       <c r="G159" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
       </c>
       <c r="I159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L159" t="b">
         <v>0</v>
       </c>
       <c r="M159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="P159" t="s">
         <v>24</v>
@@ -7343,7 +7352,7 @@
         <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
@@ -7390,7 +7399,7 @@
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -7399,25 +7408,25 @@
         <v>19</v>
       </c>
       <c r="G161" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
       </c>
       <c r="I161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L161" t="b">
         <v>0</v>
       </c>
       <c r="M161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N161" t="s">
         <v>19</v>
@@ -7437,7 +7446,7 @@
         <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E162" t="s">
         <v>19</v>
@@ -7455,10 +7464,10 @@
         <v>0</v>
       </c>
       <c r="J162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L162" t="b">
         <v>0</v>
@@ -7473,101 +7482,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164" t="s">
-        <v>130</v>
-      </c>
-      <c r="C164" t="s">
-        <v>169</v>
-      </c>
-      <c r="D164" t="s">
+    <row r="163" spans="1:16">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" t="s">
+        <v>171</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>91</v>
+      </c>
+      <c r="H163" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" t="b">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
+        <v>19</v>
+      </c>
+      <c r="P163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" t="s">
+        <v>172</v>
+      </c>
+      <c r="D165" t="s">
         <v>18</v>
       </c>
-      <c r="E164" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="E165" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
         <v>20</v>
       </c>
-      <c r="H164" t="b">
-        <v>1</v>
-      </c>
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" t="b">
-        <v>1</v>
-      </c>
-      <c r="K164" t="b">
-        <v>0</v>
-      </c>
-      <c r="L164" t="b">
-        <v>0</v>
-      </c>
-      <c r="M164" t="b">
-        <v>0</v>
-      </c>
-      <c r="N164" t="s">
+      <c r="H165" t="b">
+        <v>1</v>
+      </c>
+      <c r="I165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" t="b">
+        <v>1</v>
+      </c>
+      <c r="K165" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165" t="b">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
         <v>21</v>
       </c>
-      <c r="O164" t="s">
+      <c r="O165" t="s">
         <v>22</v>
       </c>
-      <c r="P164" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16">
-      <c r="A165" t="s">
-        <v>24</v>
-      </c>
-      <c r="B165" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" t="s">
-        <v>24</v>
-      </c>
-      <c r="D165" t="s">
-        <v>171</v>
-      </c>
-      <c r="E165" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165">
-        <v>40</v>
-      </c>
-      <c r="G165" t="s">
-        <v>26</v>
-      </c>
-      <c r="H165" t="b">
-        <v>0</v>
-      </c>
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" t="b">
-        <v>1</v>
-      </c>
-      <c r="K165" t="b">
-        <v>0</v>
-      </c>
-      <c r="L165" t="b">
-        <v>0</v>
-      </c>
-      <c r="M165" t="b">
-        <v>0</v>
-      </c>
-      <c r="N165" t="s">
-        <v>19</v>
-      </c>
       <c r="P165" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -7581,13 +7590,13 @@
         <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E166" t="s">
         <v>19</v>
       </c>
       <c r="F166">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
         <v>26</v>
@@ -7599,10 +7608,10 @@
         <v>0</v>
       </c>
       <c r="J166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L166" t="b">
         <v>0</v>
@@ -7617,101 +7626,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
-      <c r="A168">
+    <row r="167" spans="1:16">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" t="s">
+        <v>175</v>
+      </c>
+      <c r="E167" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167">
+        <v>200</v>
+      </c>
+      <c r="G167" t="s">
+        <v>26</v>
+      </c>
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" t="b">
+        <v>0</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" t="b">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
+        <v>19</v>
+      </c>
+      <c r="P167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169">
         <v>5</v>
       </c>
-      <c r="B168" t="s">
-        <v>173</v>
-      </c>
-      <c r="C168" t="s">
-        <v>174</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="B169" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" t="s">
         <v>18</v>
       </c>
-      <c r="E168" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
         <v>20</v>
       </c>
-      <c r="H168" t="b">
-        <v>1</v>
-      </c>
-      <c r="I168" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" t="b">
-        <v>1</v>
-      </c>
-      <c r="K168" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" t="b">
-        <v>0</v>
-      </c>
-      <c r="M168" t="b">
-        <v>0</v>
-      </c>
-      <c r="N168" t="s">
+      <c r="H169" t="b">
+        <v>1</v>
+      </c>
+      <c r="I169" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" t="b">
+        <v>1</v>
+      </c>
+      <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" t="b">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
         <v>21</v>
       </c>
-      <c r="O168" t="s">
+      <c r="O169" t="s">
         <v>22</v>
       </c>
-      <c r="P168" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
-      <c r="A169" t="s">
-        <v>24</v>
-      </c>
-      <c r="B169" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" t="s">
-        <v>24</v>
-      </c>
-      <c r="D169" t="s">
-        <v>176</v>
-      </c>
-      <c r="E169" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169">
-        <v>60</v>
-      </c>
-      <c r="G169" t="s">
-        <v>26</v>
-      </c>
-      <c r="H169" t="b">
-        <v>0</v>
-      </c>
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" t="b">
-        <v>1</v>
-      </c>
-      <c r="K169" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" t="b">
-        <v>0</v>
-      </c>
-      <c r="M169" t="b">
-        <v>0</v>
-      </c>
-      <c r="N169" t="s">
-        <v>19</v>
-      </c>
       <c r="P169" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -7725,22 +7734,22 @@
         <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
       </c>
-      <c r="F170" t="s">
-        <v>19</v>
+      <c r="F170">
+        <v>60</v>
       </c>
       <c r="G170" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
       </c>
       <c r="I170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
@@ -7772,7 +7781,7 @@
         <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -7819,7 +7828,7 @@
         <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E172" t="s">
         <v>19</v>
@@ -7828,128 +7837,128 @@
         <v>19</v>
       </c>
       <c r="G172" t="s">
+        <v>20</v>
+      </c>
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="b">
+        <v>1</v>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
+        <v>19</v>
+      </c>
+      <c r="P172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" t="s">
+        <v>170</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" t="s">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s">
         <v>91</v>
       </c>
-      <c r="H172" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" t="b">
-        <v>1</v>
-      </c>
-      <c r="K172" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" t="b">
-        <v>0</v>
-      </c>
-      <c r="M172" t="b">
-        <v>0</v>
-      </c>
-      <c r="N172" t="s">
-        <v>19</v>
-      </c>
-      <c r="P172" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
-      <c r="A174">
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" t="b">
+        <v>1</v>
+      </c>
+      <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" t="b">
+        <v>0</v>
+      </c>
+      <c r="N173" t="s">
+        <v>19</v>
+      </c>
+      <c r="P173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
+      <c r="A175">
         <v>5</v>
       </c>
-      <c r="B174" t="s">
-        <v>173</v>
-      </c>
-      <c r="C174" t="s">
-        <v>178</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="B175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175" t="s">
         <v>18</v>
       </c>
-      <c r="E174" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s">
+      <c r="E175" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s">
         <v>20</v>
       </c>
-      <c r="H174" t="b">
-        <v>1</v>
-      </c>
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" t="b">
-        <v>1</v>
-      </c>
-      <c r="K174" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" t="b">
-        <v>0</v>
-      </c>
-      <c r="M174" t="b">
-        <v>0</v>
-      </c>
-      <c r="N174" t="s">
+      <c r="H175" t="b">
+        <v>1</v>
+      </c>
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" t="b">
+        <v>1</v>
+      </c>
+      <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" t="b">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>21</v>
       </c>
-      <c r="O174" t="s">
+      <c r="O175" t="s">
         <v>22</v>
       </c>
-      <c r="P174" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16">
-      <c r="A175" t="s">
-        <v>24</v>
-      </c>
-      <c r="B175" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" t="s">
-        <v>24</v>
-      </c>
-      <c r="D175" t="s">
-        <v>176</v>
-      </c>
-      <c r="E175" t="s">
-        <v>19</v>
-      </c>
-      <c r="F175">
-        <v>60</v>
-      </c>
-      <c r="G175" t="s">
-        <v>26</v>
-      </c>
-      <c r="H175" t="b">
-        <v>0</v>
-      </c>
-      <c r="I175" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" t="b">
-        <v>1</v>
-      </c>
-      <c r="K175" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" t="b">
-        <v>0</v>
-      </c>
-      <c r="M175" t="b">
-        <v>0</v>
-      </c>
-      <c r="N175" t="s">
-        <v>19</v>
-      </c>
       <c r="P175" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -7963,22 +7972,22 @@
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
       </c>
-      <c r="F176" t="s">
-        <v>19</v>
+      <c r="F176">
+        <v>60</v>
       </c>
       <c r="G176" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
       </c>
       <c r="I176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
@@ -8010,7 +8019,7 @@
         <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
@@ -8057,7 +8066,7 @@
         <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E178" t="s">
         <v>19</v>
@@ -8066,128 +8075,128 @@
         <v>19</v>
       </c>
       <c r="G178" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="b">
+        <v>1</v>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
+        <v>19</v>
+      </c>
+      <c r="P178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="A179" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" t="s">
+        <v>170</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s">
         <v>91</v>
       </c>
-      <c r="H178" t="b">
-        <v>0</v>
-      </c>
-      <c r="I178" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" t="b">
-        <v>1</v>
-      </c>
-      <c r="K178" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" t="b">
-        <v>0</v>
-      </c>
-      <c r="M178" t="b">
-        <v>0</v>
-      </c>
-      <c r="N178" t="s">
-        <v>19</v>
-      </c>
-      <c r="P178" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16">
-      <c r="A180">
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" t="b">
+        <v>1</v>
+      </c>
+      <c r="K179" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" t="b">
+        <v>0</v>
+      </c>
+      <c r="M179" t="b">
+        <v>0</v>
+      </c>
+      <c r="N179" t="s">
+        <v>19</v>
+      </c>
+      <c r="P179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181">
         <v>6</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>53</v>
       </c>
-      <c r="C180" t="s">
-        <v>180</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="C181" t="s">
+        <v>183</v>
+      </c>
+      <c r="D181" t="s">
         <v>18</v>
       </c>
-      <c r="E180" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" t="s">
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" t="s">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
         <v>20</v>
       </c>
-      <c r="H180" t="b">
-        <v>1</v>
-      </c>
-      <c r="I180" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" t="b">
-        <v>1</v>
-      </c>
-      <c r="K180" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" t="b">
-        <v>0</v>
-      </c>
-      <c r="M180" t="b">
-        <v>0</v>
-      </c>
-      <c r="N180" t="s">
+      <c r="H181" t="b">
+        <v>1</v>
+      </c>
+      <c r="I181" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" t="b">
+        <v>0</v>
+      </c>
+      <c r="M181" t="b">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
         <v>21</v>
       </c>
-      <c r="O180" t="s">
+      <c r="O181" t="s">
         <v>22</v>
       </c>
-      <c r="P180" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16">
-      <c r="A181" t="s">
-        <v>24</v>
-      </c>
-      <c r="B181" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" t="s">
-        <v>24</v>
-      </c>
-      <c r="D181" t="s">
-        <v>176</v>
-      </c>
-      <c r="E181" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181">
-        <v>60</v>
-      </c>
-      <c r="G181" t="s">
-        <v>26</v>
-      </c>
-      <c r="H181" t="b">
-        <v>0</v>
-      </c>
-      <c r="I181" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" t="b">
-        <v>1</v>
-      </c>
-      <c r="K181" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" t="b">
-        <v>0</v>
-      </c>
-      <c r="M181" t="b">
-        <v>0</v>
-      </c>
-      <c r="N181" t="s">
-        <v>19</v>
-      </c>
       <c r="P181" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -8201,22 +8210,22 @@
         <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
       </c>
-      <c r="F182" t="s">
-        <v>19</v>
+      <c r="F182">
+        <v>60</v>
       </c>
       <c r="G182" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
       </c>
       <c r="I182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
@@ -8248,7 +8257,7 @@
         <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -8295,7 +8304,7 @@
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="E184" t="s">
         <v>19</v>
@@ -8304,95 +8313,92 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
+        <v>20</v>
+      </c>
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="b">
+        <v>0</v>
+      </c>
+      <c r="M184" t="b">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
+        <v>19</v>
+      </c>
+      <c r="P184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185" t="s">
+        <v>170</v>
+      </c>
+      <c r="E185" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" t="s">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
         <v>91</v>
       </c>
-      <c r="H184" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" t="b">
-        <v>1</v>
-      </c>
-      <c r="K184" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" t="b">
-        <v>0</v>
-      </c>
-      <c r="M184" t="b">
-        <v>0</v>
-      </c>
-      <c r="N184" t="s">
-        <v>19</v>
-      </c>
-      <c r="P184" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
-      <c r="A186">
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" t="b">
+        <v>0</v>
+      </c>
+      <c r="M185" t="b">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
+        <v>19</v>
+      </c>
+      <c r="P185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187">
         <v>5</v>
       </c>
-      <c r="B186" t="s">
-        <v>130</v>
-      </c>
-      <c r="C186" t="s">
-        <v>182</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="B187" t="s">
+        <v>132</v>
+      </c>
+      <c r="C187" t="s">
+        <v>185</v>
+      </c>
+      <c r="D187" t="s">
         <v>18</v>
-      </c>
-      <c r="E186" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
-      <c r="H186" t="b">
-        <v>1</v>
-      </c>
-      <c r="I186" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" t="b">
-        <v>1</v>
-      </c>
-      <c r="K186" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" t="b">
-        <v>0</v>
-      </c>
-      <c r="M186" t="b">
-        <v>0</v>
-      </c>
-      <c r="N186" t="s">
-        <v>21</v>
-      </c>
-      <c r="O186" t="s">
-        <v>22</v>
-      </c>
-      <c r="P186" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
-      <c r="A187" t="s">
-        <v>24</v>
-      </c>
-      <c r="B187" t="s">
-        <v>24</v>
-      </c>
-      <c r="C187" t="s">
-        <v>24</v>
-      </c>
-      <c r="D187" t="s">
-        <v>157</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
@@ -8404,10 +8410,10 @@
         <v>20</v>
       </c>
       <c r="H187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="b">
         <v>1</v>
@@ -8422,10 +8428,13 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O187" t="s">
+        <v>22</v>
       </c>
       <c r="P187" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -8439,7 +8448,7 @@
         <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E188" t="s">
         <v>19</v>
@@ -8486,7 +8495,7 @@
         <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="E189" t="s">
         <v>19</v>
@@ -8495,95 +8504,92 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="b">
+        <v>1</v>
+      </c>
+      <c r="K189" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" t="b">
+        <v>0</v>
+      </c>
+      <c r="M189" t="b">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
+        <v>19</v>
+      </c>
+      <c r="P189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="A190" t="s">
+        <v>24</v>
+      </c>
+      <c r="B190" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" t="s">
+        <v>187</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" t="s">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
         <v>91</v>
       </c>
-      <c r="H189" t="b">
-        <v>0</v>
-      </c>
-      <c r="I189" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" t="b">
-        <v>1</v>
-      </c>
-      <c r="K189" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" t="b">
-        <v>0</v>
-      </c>
-      <c r="M189" t="b">
-        <v>0</v>
-      </c>
-      <c r="N189" t="s">
-        <v>19</v>
-      </c>
-      <c r="P189" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16">
-      <c r="A191">
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" t="b">
+        <v>1</v>
+      </c>
+      <c r="K190" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" t="b">
+        <v>0</v>
+      </c>
+      <c r="M190" t="b">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
+        <v>19</v>
+      </c>
+      <c r="P190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192">
         <v>5</v>
       </c>
-      <c r="B191" t="s">
-        <v>173</v>
-      </c>
-      <c r="C191" t="s">
-        <v>185</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="B192" t="s">
+        <v>176</v>
+      </c>
+      <c r="C192" t="s">
+        <v>188</v>
+      </c>
+      <c r="D192" t="s">
         <v>18</v>
-      </c>
-      <c r="E191" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>20</v>
-      </c>
-      <c r="H191" t="b">
-        <v>1</v>
-      </c>
-      <c r="I191" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" t="b">
-        <v>1</v>
-      </c>
-      <c r="K191" t="b">
-        <v>0</v>
-      </c>
-      <c r="L191" t="b">
-        <v>0</v>
-      </c>
-      <c r="M191" t="b">
-        <v>0</v>
-      </c>
-      <c r="N191" t="s">
-        <v>21</v>
-      </c>
-      <c r="O191" t="s">
-        <v>22</v>
-      </c>
-      <c r="P191" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16">
-      <c r="A192" t="s">
-        <v>24</v>
-      </c>
-      <c r="B192" t="s">
-        <v>24</v>
-      </c>
-      <c r="C192" t="s">
-        <v>24</v>
-      </c>
-      <c r="D192" t="s">
-        <v>187</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8595,10 +8601,10 @@
         <v>20</v>
       </c>
       <c r="H192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
@@ -8613,10 +8619,13 @@
         <v>0</v>
       </c>
       <c r="N192" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O192" t="s">
+        <v>22</v>
       </c>
       <c r="P192" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -8630,7 +8639,7 @@
         <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -8677,7 +8686,7 @@
         <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="E194" t="s">
         <v>19</v>
@@ -8686,95 +8695,92 @@
         <v>19</v>
       </c>
       <c r="G194" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="b">
+        <v>1</v>
+      </c>
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" t="b">
+        <v>0</v>
+      </c>
+      <c r="M194" t="b">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
+        <v>19</v>
+      </c>
+      <c r="P194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+      <c r="B195" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" t="s">
+        <v>191</v>
+      </c>
+      <c r="E195" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" t="s">
+        <v>19</v>
+      </c>
+      <c r="G195" t="s">
         <v>91</v>
       </c>
-      <c r="H194" t="b">
-        <v>0</v>
-      </c>
-      <c r="I194" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" t="b">
-        <v>1</v>
-      </c>
-      <c r="K194" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" t="b">
-        <v>0</v>
-      </c>
-      <c r="M194" t="b">
-        <v>0</v>
-      </c>
-      <c r="N194" t="s">
-        <v>19</v>
-      </c>
-      <c r="P194" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16">
-      <c r="A196">
+      <c r="H195" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" t="b">
+        <v>1</v>
+      </c>
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" t="b">
+        <v>0</v>
+      </c>
+      <c r="M195" t="b">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
+        <v>19</v>
+      </c>
+      <c r="P195" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="A197">
         <v>7</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>99</v>
       </c>
-      <c r="C196" t="s">
-        <v>189</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="C197" t="s">
+        <v>192</v>
+      </c>
+      <c r="D197" t="s">
         <v>18</v>
-      </c>
-      <c r="E196" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
-        <v>20</v>
-      </c>
-      <c r="H196" t="b">
-        <v>1</v>
-      </c>
-      <c r="I196" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" t="b">
-        <v>1</v>
-      </c>
-      <c r="K196" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" t="b">
-        <v>0</v>
-      </c>
-      <c r="M196" t="b">
-        <v>0</v>
-      </c>
-      <c r="N196" t="s">
-        <v>21</v>
-      </c>
-      <c r="O196" t="s">
-        <v>22</v>
-      </c>
-      <c r="P196" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16">
-      <c r="A197" t="s">
-        <v>24</v>
-      </c>
-      <c r="B197" t="s">
-        <v>24</v>
-      </c>
-      <c r="C197" t="s">
-        <v>24</v>
-      </c>
-      <c r="D197" t="s">
-        <v>158</v>
       </c>
       <c r="E197" t="s">
         <v>19</v>
@@ -8786,10 +8792,10 @@
         <v>20</v>
       </c>
       <c r="H197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="b">
         <v>1</v>
@@ -8806,8 +8812,11 @@
       <c r="N197" t="s">
         <v>21</v>
       </c>
+      <c r="O197" t="s">
+        <v>22</v>
+      </c>
       <c r="P197" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -8821,7 +8830,7 @@
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E198" t="s">
         <v>19</v>
@@ -8851,27 +8860,74 @@
         <v>0</v>
       </c>
       <c r="N198" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P198" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="199" spans="1:16">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>190</v>
+      </c>
+      <c r="E199" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" t="s">
+        <v>20</v>
+      </c>
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="b">
+        <v>1</v>
+      </c>
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" t="b">
+        <v>0</v>
+      </c>
+      <c r="M199" t="b">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
+        <v>19</v>
+      </c>
+      <c r="P199" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="200" spans="1:16">
-      <c r="A200">
-        <v>7</v>
+      <c r="A200" t="s">
+        <v>24</v>
       </c>
       <c r="B200" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" t="s">
-        <v>19</v>
+        <v>167</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
       </c>
       <c r="F200" t="s">
         <v>19</v>
@@ -8880,7 +8936,7 @@
         <v>20</v>
       </c>
       <c r="H200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="b">
         <v>0</v>
@@ -8898,13 +8954,10 @@
         <v>0</v>
       </c>
       <c r="N200" t="s">
-        <v>21</v>
-      </c>
-      <c r="O200" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P200" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -8918,16 +8971,16 @@
         <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201">
         <v>19</v>
       </c>
       <c r="G201" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="H201" t="b">
         <v>0</v>
@@ -8948,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="N201" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="P201" t="s">
         <v>24</v>
@@ -8965,101 +9018,54 @@
         <v>24</v>
       </c>
       <c r="D202" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" t="s">
+        <v>19</v>
+      </c>
+      <c r="G202" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="b">
+        <v>0</v>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="b">
+        <v>0</v>
+      </c>
+      <c r="M202" t="b">
+        <v>1</v>
+      </c>
+      <c r="N202" t="s">
+        <v>19</v>
+      </c>
+      <c r="P202" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
+      <c r="A204">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>53</v>
+      </c>
+      <c r="C204" t="s">
         <v>194</v>
       </c>
-      <c r="E202" t="s">
-        <v>19</v>
-      </c>
-      <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" t="s">
-        <v>91</v>
-      </c>
-      <c r="H202" t="b">
-        <v>0</v>
-      </c>
-      <c r="I202" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" t="b">
-        <v>1</v>
-      </c>
-      <c r="K202" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" t="b">
-        <v>0</v>
-      </c>
-      <c r="M202" t="b">
-        <v>0</v>
-      </c>
-      <c r="N202" t="s">
-        <v>19</v>
-      </c>
-      <c r="P202" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16">
-      <c r="A203" t="s">
-        <v>24</v>
-      </c>
-      <c r="B203" t="s">
-        <v>24</v>
-      </c>
-      <c r="C203" t="s">
-        <v>24</v>
-      </c>
-      <c r="D203" t="s">
-        <v>111</v>
-      </c>
-      <c r="E203" t="s">
-        <v>19</v>
-      </c>
-      <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
-        <v>20</v>
-      </c>
-      <c r="H203" t="b">
-        <v>0</v>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="b">
-        <v>1</v>
-      </c>
-      <c r="K203" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" t="b">
-        <v>0</v>
-      </c>
-      <c r="M203" t="b">
-        <v>0</v>
-      </c>
-      <c r="N203" t="s">
-        <v>19</v>
-      </c>
-      <c r="P203" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16">
-      <c r="A204" t="s">
-        <v>24</v>
-      </c>
-      <c r="B204" t="s">
-        <v>24</v>
-      </c>
-      <c r="C204" t="s">
-        <v>24</v>
-      </c>
       <c r="D204" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="E204" t="s">
         <v>19</v>
@@ -9071,10 +9077,10 @@
         <v>20</v>
       </c>
       <c r="H204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="b">
         <v>1</v>
@@ -9089,10 +9095,13 @@
         <v>0</v>
       </c>
       <c r="N204" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O204" t="s">
+        <v>22</v>
       </c>
       <c r="P204" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -9106,10 +9115,10 @@
         <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>195</v>
-      </c>
-      <c r="E205" t="s">
-        <v>19</v>
+        <v>196</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
       </c>
       <c r="F205" t="s">
         <v>19</v>
@@ -9121,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="b">
         <v>1</v>
@@ -9153,7 +9162,7 @@
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="E206" t="s">
         <v>19</v>
@@ -9162,30 +9171,218 @@
         <v>19</v>
       </c>
       <c r="G206" t="s">
+        <v>91</v>
+      </c>
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" t="b">
+        <v>1</v>
+      </c>
+      <c r="K206" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" t="b">
+        <v>0</v>
+      </c>
+      <c r="N206" t="s">
+        <v>19</v>
+      </c>
+      <c r="P206" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" t="s">
+        <v>24</v>
+      </c>
+      <c r="B207" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" t="s">
+        <v>111</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207" t="s">
+        <v>19</v>
+      </c>
+      <c r="G207" t="s">
         <v>20</v>
       </c>
-      <c r="H206" t="b">
-        <v>0</v>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="b">
-        <v>0</v>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="b">
-        <v>0</v>
-      </c>
-      <c r="M206" t="b">
-        <v>1</v>
-      </c>
-      <c r="N206" t="s">
-        <v>19</v>
-      </c>
-      <c r="P206" t="s">
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="b">
+        <v>1</v>
+      </c>
+      <c r="K207" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" t="b">
+        <v>0</v>
+      </c>
+      <c r="N207" t="s">
+        <v>19</v>
+      </c>
+      <c r="P207" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" t="s">
+        <v>24</v>
+      </c>
+      <c r="C208" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" t="s">
+        <v>115</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>20</v>
+      </c>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="b">
+        <v>1</v>
+      </c>
+      <c r="K208" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" t="b">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
+        <v>19</v>
+      </c>
+      <c r="P208" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16">
+      <c r="A209" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" t="s">
+        <v>198</v>
+      </c>
+      <c r="E209" t="s">
+        <v>19</v>
+      </c>
+      <c r="F209" t="s">
+        <v>19</v>
+      </c>
+      <c r="G209" t="s">
+        <v>20</v>
+      </c>
+      <c r="H209" t="b">
+        <v>0</v>
+      </c>
+      <c r="I209" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" t="b">
+        <v>1</v>
+      </c>
+      <c r="K209" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" t="b">
+        <v>0</v>
+      </c>
+      <c r="M209" t="b">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
+        <v>19</v>
+      </c>
+      <c r="P209" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16">
+      <c r="A210" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210" t="s">
+        <v>24</v>
+      </c>
+      <c r="C210" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" t="s">
+        <v>161</v>
+      </c>
+      <c r="E210" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" t="s">
+        <v>19</v>
+      </c>
+      <c r="G210" t="s">
+        <v>20</v>
+      </c>
+      <c r="H210" t="b">
+        <v>0</v>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="b">
+        <v>0</v>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="b">
+        <v>0</v>
+      </c>
+      <c r="M210" t="b">
+        <v>1</v>
+      </c>
+      <c r="N210" t="s">
+        <v>19</v>
+      </c>
+      <c r="P210" t="s">
         <v>24</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="204">
   <si>
     <t>Load Order</t>
   </si>
@@ -295,6 +295,9 @@
     <t>begin_date</t>
   </si>
   <si>
+    <t>CDate</t>
+  </si>
+  <si>
     <t>location_id</t>
   </si>
   <si>
@@ -440,6 +443,18 @@
   </si>
   <si>
     <t>discount_amount</t>
+  </si>
+  <si>
+    <t>eligible_for_points</t>
+  </si>
+  <si>
+    <t>points_consumed</t>
+  </si>
+  <si>
+    <t>points_produced</t>
+  </si>
+  <si>
+    <t>points_total</t>
   </si>
   <si>
     <t>payment_type_id</t>
@@ -658,8 +673,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P212" totalsRowShown="0">
-  <autoFilter ref="A1:P212"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P217" totalsRowShown="0">
+  <autoFilter ref="A1:P217"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Load Order"/>
     <tableColumn id="2" name="Owner"/>
@@ -967,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P210"/>
+  <dimension ref="A1:P215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3066,101 +3081,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55">
+        <v>233</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>75</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>18</v>
       </c>
-      <c r="E56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
         <v>20</v>
       </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="b">
-        <v>1</v>
-      </c>
-      <c r="K56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>21</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O57" t="s">
         <v>22</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P57" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57">
-        <v>40</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="b">
-        <v>1</v>
-      </c>
-      <c r="K57" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
-        <v>19</v>
-      </c>
-      <c r="P57" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3174,13 +3189,13 @@
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
       </c>
       <c r="F58">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
@@ -3192,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3221,137 +3236,137 @@
         <v>24</v>
       </c>
       <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59">
+        <v>200</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
         <v>79</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
         <v>20</v>
       </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="b">
-        <v>1</v>
-      </c>
-      <c r="K59" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
-        <v>19</v>
-      </c>
-      <c r="P59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>19</v>
+      </c>
+      <c r="P60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>28</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>80</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>18</v>
       </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
         <v>20</v>
       </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="b">
-        <v>1</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>21</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O62" t="s">
         <v>22</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P62" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62">
-        <v>40</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="b">
-        <v>1</v>
-      </c>
-      <c r="K62" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
-        <v>19</v>
-      </c>
-      <c r="P62" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3365,13 +3380,13 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
       </c>
       <c r="F63">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
@@ -3383,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3401,101 +3416,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
-      <c r="A65">
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64">
+        <v>200</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>19</v>
+      </c>
+      <c r="P64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
         <v>4</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>65</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>84</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>18</v>
       </c>
-      <c r="E65" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
         <v>20</v>
       </c>
-      <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="b">
-        <v>1</v>
-      </c>
-      <c r="K65" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" t="b">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>21</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O66" t="s">
         <v>22</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P66" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66">
-        <v>40</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="b">
-        <v>1</v>
-      </c>
-      <c r="K66" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66" t="b">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
-        <v>19</v>
-      </c>
-      <c r="P66" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3509,7 +3524,7 @@
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3556,13 +3571,13 @@
         <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
       </c>
       <c r="F68">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
         <v>26</v>
@@ -3603,13 +3618,13 @@
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
       </c>
       <c r="F69">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="G69" t="s">
         <v>26</v>
@@ -3650,16 +3665,16 @@
         <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
       </c>
-      <c r="F70" t="s">
-        <v>19</v>
+      <c r="F70">
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3697,7 +3712,7 @@
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -3744,25 +3759,25 @@
         <v>24</v>
       </c>
       <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" t="s">
         <v>93</v>
       </c>
-      <c r="E72" t="s">
-        <v>19</v>
-      </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -3797,22 +3812,22 @@
         <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -3838,16 +3853,16 @@
         <v>24</v>
       </c>
       <c r="D74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
         <v>96</v>
       </c>
-      <c r="E74" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" t="s">
-        <v>19</v>
-      </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -3894,19 +3909,19 @@
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -3968,101 +3983,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
-      <c r="A78">
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>19</v>
+      </c>
+      <c r="P77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
         <v>5</v>
       </c>
-      <c r="B78" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
         <v>100</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" t="s">
         <v>18</v>
       </c>
-      <c r="E78" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s">
         <v>20</v>
       </c>
-      <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="b">
-        <v>1</v>
-      </c>
-      <c r="K78" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" t="b">
-        <v>0</v>
-      </c>
-      <c r="M78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>21</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O79" t="s">
         <v>22</v>
       </c>
-      <c r="P78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" t="s">
-        <v>86</v>
-      </c>
-      <c r="E79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79">
-        <v>40</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="b">
-        <v>1</v>
-      </c>
-      <c r="K79" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" t="b">
-        <v>0</v>
-      </c>
-      <c r="M79" t="b">
-        <v>0</v>
-      </c>
-      <c r="N79" t="s">
-        <v>19</v>
-      </c>
       <c r="P79" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4076,7 +4091,7 @@
         <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4123,13 +4138,13 @@
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
       </c>
       <c r="F81">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
         <v>26</v>
@@ -4170,13 +4185,13 @@
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
       </c>
       <c r="F82">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="G82" t="s">
         <v>26</v>
@@ -4217,16 +4232,16 @@
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
       </c>
-      <c r="F83" t="s">
-        <v>19</v>
+      <c r="F83">
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -4264,7 +4279,7 @@
         <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4311,16 +4326,16 @@
         <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -4332,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -4358,22 +4373,22 @@
         <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="b">
         <v>0</v>
@@ -4385,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="s">
         <v>19</v>
@@ -4423,16 +4438,16 @@
         <v>1</v>
       </c>
       <c r="J87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
       </c>
       <c r="M87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="s">
         <v>19</v>
@@ -4470,16 +4485,16 @@
         <v>1</v>
       </c>
       <c r="J88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="b">
         <v>0</v>
       </c>
       <c r="M88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="s">
         <v>19</v>
@@ -4499,7 +4514,7 @@
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>19</v>
@@ -4535,101 +4550,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>19</v>
+      </c>
+      <c r="P90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
         <v>65</v>
       </c>
-      <c r="C91" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
         <v>18</v>
       </c>
-      <c r="E91" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
         <v>20</v>
       </c>
-      <c r="H91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="b">
-        <v>1</v>
-      </c>
-      <c r="K91" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91" t="b">
-        <v>0</v>
-      </c>
-      <c r="M91" t="b">
-        <v>0</v>
-      </c>
-      <c r="N91" t="s">
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
         <v>21</v>
       </c>
-      <c r="O91" t="s">
+      <c r="O92" t="s">
         <v>22</v>
       </c>
-      <c r="P91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="P92" t="s">
         <v>107</v>
-      </c>
-      <c r="E92" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92">
-        <v>40</v>
-      </c>
-      <c r="G92" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="b">
-        <v>1</v>
-      </c>
-      <c r="K92" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" t="b">
-        <v>0</v>
-      </c>
-      <c r="M92" t="b">
-        <v>0</v>
-      </c>
-      <c r="N92" t="s">
-        <v>19</v>
-      </c>
-      <c r="P92" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4649,7 +4664,7 @@
         <v>19</v>
       </c>
       <c r="F93">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
         <v>26</v>
@@ -4661,10 +4676,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -4679,68 +4694,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
-      <c r="A95">
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94">
+        <v>200</v>
+      </c>
+      <c r="G94" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>19</v>
+      </c>
+      <c r="P94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96">
         <v>5</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>28</v>
       </c>
-      <c r="C95" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" t="s">
         <v>18</v>
-      </c>
-      <c r="E95" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="b">
-        <v>1</v>
-      </c>
-      <c r="K95" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" t="b">
-        <v>0</v>
-      </c>
-      <c r="M95" t="b">
-        <v>0</v>
-      </c>
-      <c r="N95" t="s">
-        <v>21</v>
-      </c>
-      <c r="O95" t="s">
-        <v>22</v>
-      </c>
-      <c r="P95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" t="s">
-        <v>111</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
@@ -4752,10 +4764,10 @@
         <v>20</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
@@ -4770,10 +4782,13 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O96" t="s">
+        <v>22</v>
       </c>
       <c r="P96" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4823,68 +4838,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
-      <c r="A99">
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>19</v>
+      </c>
+      <c r="P98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100">
         <v>6</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>16</v>
       </c>
-      <c r="C99" t="s">
-        <v>113</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" t="s">
         <v>18</v>
-      </c>
-      <c r="E99" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="b">
-        <v>1</v>
-      </c>
-      <c r="K99" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" t="b">
-        <v>0</v>
-      </c>
-      <c r="M99" t="b">
-        <v>0</v>
-      </c>
-      <c r="N99" t="s">
-        <v>21</v>
-      </c>
-      <c r="O99" t="s">
-        <v>22</v>
-      </c>
-      <c r="P99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
-      <c r="A100" t="s">
-        <v>24</v>
-      </c>
-      <c r="B100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" t="s">
-        <v>115</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -4896,10 +4908,10 @@
         <v>20</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
@@ -4914,10 +4926,13 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O100" t="s">
+        <v>22</v>
       </c>
       <c r="P100" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4967,101 +4982,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="102" spans="1:16">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
+        <v>19</v>
+      </c>
+      <c r="P102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
         <v>39</v>
       </c>
-      <c r="C103" t="s">
-        <v>117</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C104" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" t="s">
         <v>18</v>
       </c>
-      <c r="E103" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="E104" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
         <v>20</v>
       </c>
-      <c r="H103" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="b">
-        <v>1</v>
-      </c>
-      <c r="K103" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" t="b">
-        <v>0</v>
-      </c>
-      <c r="M103" t="b">
-        <v>0</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
         <v>21</v>
       </c>
-      <c r="O103" t="s">
+      <c r="O104" t="s">
         <v>22</v>
       </c>
-      <c r="P103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
-      <c r="A104" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" t="s">
-        <v>24</v>
-      </c>
-      <c r="C104" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" t="s">
-        <v>82</v>
-      </c>
-      <c r="E104" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104">
-        <v>40</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
-      <c r="H104" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="b">
-        <v>1</v>
-      </c>
-      <c r="K104" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" t="b">
-        <v>0</v>
-      </c>
-      <c r="M104" t="b">
-        <v>0</v>
-      </c>
-      <c r="N104" t="s">
-        <v>19</v>
-      </c>
       <c r="P104" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5075,13 +5090,13 @@
         <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E105" t="s">
         <v>19</v>
       </c>
       <c r="F105">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
         <v>26</v>
@@ -5093,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="J105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
@@ -5111,101 +5126,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
-      <c r="A107">
+    <row r="106" spans="1:16">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106">
+        <v>200</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
+        <v>19</v>
+      </c>
+      <c r="P106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108">
         <v>4</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>42</v>
       </c>
-      <c r="C107" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C108" t="s">
+        <v>120</v>
+      </c>
+      <c r="D108" t="s">
         <v>18</v>
       </c>
-      <c r="E107" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
         <v>20</v>
       </c>
-      <c r="H107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="b">
-        <v>1</v>
-      </c>
-      <c r="K107" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" t="b">
-        <v>0</v>
-      </c>
-      <c r="M107" t="b">
-        <v>0</v>
-      </c>
-      <c r="N107" t="s">
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
         <v>21</v>
       </c>
-      <c r="O107" t="s">
+      <c r="O108" t="s">
         <v>22</v>
       </c>
-      <c r="P107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16">
-      <c r="A108" t="s">
-        <v>24</v>
-      </c>
-      <c r="B108" t="s">
-        <v>24</v>
-      </c>
-      <c r="C108" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="P108" t="s">
         <v>121</v>
-      </c>
-      <c r="E108" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108">
-        <v>40</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="b">
-        <v>1</v>
-      </c>
-      <c r="K108" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" t="b">
-        <v>0</v>
-      </c>
-      <c r="M108" t="b">
-        <v>0</v>
-      </c>
-      <c r="N108" t="s">
-        <v>19</v>
-      </c>
-      <c r="P108" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5219,13 +5234,13 @@
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
       </c>
       <c r="F109">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
         <v>26</v>
@@ -5237,10 +5252,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
@@ -5266,13 +5281,13 @@
         <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E110" t="s">
         <v>19</v>
       </c>
       <c r="F110">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
         <v>26</v>
@@ -5313,13 +5328,13 @@
         <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
       </c>
       <c r="F111">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="G111" t="s">
         <v>26</v>
@@ -5360,28 +5375,28 @@
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
       </c>
-      <c r="F112" t="s">
-        <v>19</v>
+      <c r="F112">
+        <v>300</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
       <c r="I112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" t="b">
         <v>0</v>
@@ -5407,7 +5422,7 @@
         <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E113" t="s">
         <v>19</v>
@@ -5463,13 +5478,13 @@
         <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
       </c>
       <c r="I114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
@@ -5501,7 +5516,7 @@
         <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
@@ -5519,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" t="b">
         <v>0</v>
@@ -5548,7 +5563,7 @@
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
@@ -5557,128 +5572,128 @@
         <v>19</v>
       </c>
       <c r="G116" t="s">
+        <v>91</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
+        <v>19</v>
+      </c>
+      <c r="P116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
         <v>126</v>
       </c>
-      <c r="H116" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="b">
-        <v>1</v>
-      </c>
-      <c r="K116" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" t="b">
-        <v>0</v>
-      </c>
-      <c r="M116" t="b">
-        <v>0</v>
-      </c>
-      <c r="N116" t="s">
-        <v>19</v>
-      </c>
-      <c r="P116" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118">
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s">
+        <v>127</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>19</v>
+      </c>
+      <c r="P117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119">
         <v>5</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>65</v>
       </c>
-      <c r="C118" t="s">
-        <v>127</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" t="s">
         <v>18</v>
       </c>
-      <c r="E118" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" t="s">
         <v>20</v>
       </c>
-      <c r="H118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="b">
-        <v>1</v>
-      </c>
-      <c r="K118" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" t="b">
-        <v>0</v>
-      </c>
-      <c r="M118" t="b">
-        <v>0</v>
-      </c>
-      <c r="N118" t="s">
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>21</v>
       </c>
-      <c r="O118" t="s">
+      <c r="O119" t="s">
         <v>22</v>
       </c>
-      <c r="P118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
-      <c r="A119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B119" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="P119" t="s">
         <v>129</v>
-      </c>
-      <c r="E119" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>91</v>
-      </c>
-      <c r="H119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="b">
-        <v>1</v>
-      </c>
-      <c r="K119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" t="b">
-        <v>0</v>
-      </c>
-      <c r="M119" t="b">
-        <v>0</v>
-      </c>
-      <c r="N119" t="s">
-        <v>19</v>
-      </c>
-      <c r="P119" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -5692,25 +5707,25 @@
         <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E120" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
       </c>
       <c r="I120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
@@ -5739,7 +5754,7 @@
         <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -5822,101 +5837,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
-      <c r="A124">
+    <row r="123" spans="1:16">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
+        <v>132</v>
+      </c>
+      <c r="E123" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
+        <v>19</v>
+      </c>
+      <c r="P123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125">
         <v>6</v>
       </c>
-      <c r="B124" t="s">
-        <v>132</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
         <v>133</v>
       </c>
-      <c r="D124" t="s">
+      <c r="C125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" t="s">
         <v>18</v>
       </c>
-      <c r="E124" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
         <v>20</v>
       </c>
-      <c r="H124" t="b">
-        <v>1</v>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" t="b">
-        <v>0</v>
-      </c>
-      <c r="M124" t="b">
-        <v>0</v>
-      </c>
-      <c r="N124" t="s">
+      <c r="H125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
         <v>21</v>
       </c>
-      <c r="O124" t="s">
+      <c r="O125" t="s">
         <v>22</v>
       </c>
-      <c r="P124" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
-      <c r="A125" t="s">
-        <v>24</v>
-      </c>
-      <c r="B125" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="P125" t="s">
         <v>135</v>
-      </c>
-      <c r="E125" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>91</v>
-      </c>
-      <c r="H125" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="b">
-        <v>1</v>
-      </c>
-      <c r="K125" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" t="b">
-        <v>0</v>
-      </c>
-      <c r="M125" t="b">
-        <v>0</v>
-      </c>
-      <c r="N125" t="s">
-        <v>19</v>
-      </c>
-      <c r="P125" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -5932,14 +5947,14 @@
       <c r="D126" t="s">
         <v>136</v>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
+      <c r="E126" t="s">
+        <v>93</v>
+      </c>
+      <c r="F126" t="s">
         <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
@@ -5948,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -5960,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="P126" t="s">
         <v>24</v>
@@ -5977,37 +5992,37 @@
         <v>24</v>
       </c>
       <c r="D127" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s">
+        <v>138</v>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>139</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>140</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="b">
-        <v>1</v>
-      </c>
-      <c r="K127" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" t="b">
-        <v>0</v>
-      </c>
-      <c r="M127" t="b">
-        <v>0</v>
-      </c>
-      <c r="N127" t="s">
-        <v>138</v>
       </c>
       <c r="P127" t="s">
         <v>24</v>
@@ -6024,17 +6039,17 @@
         <v>24</v>
       </c>
       <c r="D128" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
         <v>141</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>140</v>
-      </c>
       <c r="H128" t="b">
         <v>0</v>
       </c>
@@ -6054,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P128" t="s">
         <v>24</v>
@@ -6071,22 +6086,22 @@
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>115</v>
-      </c>
-      <c r="E129" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" t="s">
+        <v>142</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
       </c>
       <c r="I129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="b">
         <v>1</v>
@@ -6101,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="P129" t="s">
         <v>24</v>
@@ -6118,22 +6133,22 @@
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>142</v>
-      </c>
-      <c r="E130" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" t="s">
+        <v>143</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
         <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
       </c>
       <c r="I130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="b">
         <v>1</v>
@@ -6148,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="P130" t="s">
         <v>24</v>
@@ -6165,10 +6180,10 @@
         <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>130</v>
-      </c>
-      <c r="E131" t="s">
-        <v>19</v>
+        <v>144</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
@@ -6180,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="b">
         <v>1</v>
@@ -6212,10 +6227,10 @@
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>111</v>
-      </c>
-      <c r="E132" t="s">
-        <v>19</v>
+        <v>145</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
@@ -6227,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="b">
         <v>1</v>
@@ -6248,18 +6263,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="133" spans="1:16">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
+        <v>19</v>
+      </c>
+      <c r="P133" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="134" spans="1:16">
-      <c r="A134">
-        <v>1</v>
+      <c r="A134" t="s">
+        <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E134" t="s">
         <v>19</v>
@@ -6271,10 +6333,10 @@
         <v>20</v>
       </c>
       <c r="H134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="b">
         <v>1</v>
@@ -6289,13 +6351,10 @@
         <v>0</v>
       </c>
       <c r="N134" t="s">
-        <v>21</v>
-      </c>
-      <c r="O134" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P134" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -6309,22 +6368,22 @@
         <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
       </c>
-      <c r="F135">
-        <v>40</v>
+      <c r="F135" t="s">
+        <v>19</v>
       </c>
       <c r="G135" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H135" t="b">
         <v>0</v>
       </c>
       <c r="I135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="b">
         <v>1</v>
@@ -6356,28 +6415,28 @@
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E136" t="s">
         <v>19</v>
       </c>
-      <c r="F136">
-        <v>200</v>
+      <c r="F136" t="s">
+        <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
       </c>
       <c r="I136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" t="b">
         <v>0</v>
@@ -6392,101 +6451,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
-      <c r="A138">
-        <v>2</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="137" spans="1:16">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>112</v>
+      </c>
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
+        <v>19</v>
+      </c>
+      <c r="P137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
         <v>42</v>
       </c>
-      <c r="C138" t="s">
-        <v>147</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C139" t="s">
+        <v>148</v>
+      </c>
+      <c r="D139" t="s">
         <v>18</v>
       </c>
-      <c r="E138" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" t="s">
         <v>20</v>
       </c>
-      <c r="H138" t="b">
-        <v>1</v>
-      </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="b">
-        <v>1</v>
-      </c>
-      <c r="K138" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" t="b">
-        <v>0</v>
-      </c>
-      <c r="M138" t="b">
-        <v>0</v>
-      </c>
-      <c r="N138" t="s">
+      <c r="H139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+      <c r="N139" t="s">
         <v>21</v>
       </c>
-      <c r="O138" t="s">
+      <c r="O139" t="s">
         <v>22</v>
       </c>
-      <c r="P138" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
-      <c r="A139" t="s">
-        <v>24</v>
-      </c>
-      <c r="B139" t="s">
-        <v>24</v>
-      </c>
-      <c r="C139" t="s">
-        <v>24</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="P139" t="s">
         <v>149</v>
-      </c>
-      <c r="E139" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139">
-        <v>80</v>
-      </c>
-      <c r="G139" t="s">
-        <v>26</v>
-      </c>
-      <c r="H139" t="b">
-        <v>0</v>
-      </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" t="b">
-        <v>1</v>
-      </c>
-      <c r="K139" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" t="b">
-        <v>0</v>
-      </c>
-      <c r="M139" t="b">
-        <v>0</v>
-      </c>
-      <c r="N139" t="s">
-        <v>19</v>
-      </c>
-      <c r="P139" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -6506,7 +6565,7 @@
         <v>19</v>
       </c>
       <c r="F140">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
         <v>26</v>
@@ -6518,10 +6577,10 @@
         <v>0</v>
       </c>
       <c r="J140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -6549,14 +6608,14 @@
       <c r="D141" t="s">
         <v>151</v>
       </c>
-      <c r="E141">
-        <v>0</v>
+      <c r="E141" t="s">
+        <v>19</v>
       </c>
       <c r="F141">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="G141" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="H141" t="b">
         <v>0</v>
@@ -6565,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="J141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="b">
         <v>0</v>
@@ -6577,71 +6636,24 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="P141" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
-      <c r="A142" t="s">
-        <v>24</v>
-      </c>
-      <c r="B142" t="s">
-        <v>24</v>
-      </c>
-      <c r="C142" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" t="s">
+    <row r="143" spans="1:16">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" t="s">
         <v>152</v>
       </c>
-      <c r="E142" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s">
-        <v>20</v>
-      </c>
-      <c r="H142" t="b">
-        <v>0</v>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="b">
-        <v>1</v>
-      </c>
-      <c r="K142" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" t="b">
-        <v>0</v>
-      </c>
-      <c r="M142" t="b">
-        <v>0</v>
-      </c>
-      <c r="N142" t="s">
-        <v>19</v>
-      </c>
-      <c r="P142" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" t="s">
-        <v>24</v>
-      </c>
       <c r="D143" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -6653,10 +6665,10 @@
         <v>20</v>
       </c>
       <c r="H143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
@@ -6671,10 +6683,13 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O143" t="s">
+        <v>22</v>
       </c>
       <c r="P143" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -6693,29 +6708,29 @@
       <c r="E144" t="s">
         <v>19</v>
       </c>
-      <c r="F144" t="s">
-        <v>19</v>
+      <c r="F144">
+        <v>80</v>
       </c>
       <c r="G144" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
       </c>
       <c r="I144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
       </c>
       <c r="M144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144" t="s">
         <v>19</v>
@@ -6724,30 +6739,77 @@
         <v>24</v>
       </c>
     </row>
+    <row r="145" spans="1:16">
+      <c r="A145" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145">
+        <v>200</v>
+      </c>
+      <c r="G145" t="s">
+        <v>26</v>
+      </c>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="b">
+        <v>0</v>
+      </c>
+      <c r="N145" t="s">
+        <v>19</v>
+      </c>
+      <c r="P145" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="146" spans="1:16">
-      <c r="A146">
-        <v>7</v>
+      <c r="A146" t="s">
+        <v>24</v>
       </c>
       <c r="B146" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
-      </c>
-      <c r="E146" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" t="s">
+        <v>156</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="H146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="b">
         <v>0</v>
@@ -6765,13 +6827,10 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>21</v>
-      </c>
-      <c r="O146" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="P146" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -6787,8 +6846,8 @@
       <c r="D147" t="s">
         <v>157</v>
       </c>
-      <c r="E147">
-        <v>0</v>
+      <c r="E147" t="s">
+        <v>19</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
@@ -6800,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
@@ -6834,20 +6893,20 @@
       <c r="D148" t="s">
         <v>158</v>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" t="s">
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
       </c>
       <c r="I148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
@@ -6862,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="P148" t="s">
         <v>24</v>
@@ -6881,99 +6940,52 @@
       <c r="D149" t="s">
         <v>159</v>
       </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" t="s">
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
       </c>
       <c r="I149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="b">
         <v>0</v>
       </c>
       <c r="M149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="P149" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
-      <c r="A150" t="s">
-        <v>24</v>
-      </c>
-      <c r="B150" t="s">
-        <v>24</v>
-      </c>
-      <c r="C150" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" t="s">
+    <row r="151" spans="1:16">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>100</v>
+      </c>
+      <c r="C151" t="s">
         <v>160</v>
       </c>
-      <c r="E150" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" t="b">
-        <v>0</v>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="b">
-        <v>1</v>
-      </c>
-      <c r="K150" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" t="b">
-        <v>0</v>
-      </c>
-      <c r="M150" t="b">
-        <v>0</v>
-      </c>
-      <c r="N150" t="s">
-        <v>19</v>
-      </c>
-      <c r="P150" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
-      <c r="A151" t="s">
-        <v>24</v>
-      </c>
-      <c r="B151" t="s">
-        <v>24</v>
-      </c>
-      <c r="C151" t="s">
-        <v>24</v>
-      </c>
       <c r="D151" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
@@ -6985,10 +6997,10 @@
         <v>20</v>
       </c>
       <c r="H151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="b">
         <v>1</v>
@@ -7003,36 +7015,86 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O151" t="s">
+        <v>22</v>
       </c>
       <c r="P151" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" t="s">
+        <v>162</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>20</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" t="b">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
+        <v>19</v>
+      </c>
+      <c r="P152" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:16">
-      <c r="A153">
-        <v>3</v>
+      <c r="A153" t="s">
+        <v>24</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C153" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
-      </c>
-      <c r="E153" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" t="s">
+        <v>163</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
         <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="H153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
@@ -7050,13 +7112,10 @@
         <v>0</v>
       </c>
       <c r="N153" t="s">
-        <v>21</v>
-      </c>
-      <c r="O153" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="P153" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -7072,14 +7131,14 @@
       <c r="D154" t="s">
         <v>164</v>
       </c>
-      <c r="E154" t="s">
-        <v>19</v>
+      <c r="E154">
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -7100,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="P154" t="s">
         <v>24</v>
@@ -7122,23 +7181,23 @@
       <c r="E155" t="s">
         <v>19</v>
       </c>
-      <c r="F155">
-        <v>200</v>
+      <c r="F155" t="s">
+        <v>19</v>
       </c>
       <c r="G155" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" t="b">
         <v>0</v>
@@ -7200,68 +7259,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
-      <c r="A157" t="s">
-        <v>24</v>
-      </c>
-      <c r="B157" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157" t="s">
+    <row r="158" spans="1:16">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" t="s">
         <v>167</v>
       </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>20</v>
-      </c>
-      <c r="H157" t="b">
-        <v>0</v>
-      </c>
-      <c r="I157" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" t="b">
-        <v>1</v>
-      </c>
-      <c r="K157" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" t="b">
-        <v>0</v>
-      </c>
-      <c r="M157" t="b">
-        <v>0</v>
-      </c>
-      <c r="N157" t="s">
-        <v>19</v>
-      </c>
-      <c r="P157" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
-      <c r="A158" t="s">
-        <v>24</v>
-      </c>
-      <c r="B158" t="s">
-        <v>24</v>
-      </c>
-      <c r="C158" t="s">
-        <v>24</v>
-      </c>
       <c r="D158" t="s">
-        <v>168</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
       </c>
       <c r="F158" t="s">
         <v>19</v>
@@ -7270,16 +7282,16 @@
         <v>20</v>
       </c>
       <c r="H158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
       </c>
       <c r="J158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" t="b">
         <v>0</v>
@@ -7288,10 +7300,13 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O158" t="s">
+        <v>22</v>
       </c>
       <c r="P158" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -7305,16 +7320,16 @@
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>141</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
       </c>
       <c r="F159">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G159" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
@@ -7335,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="P159" t="s">
         <v>24</v>
@@ -7352,22 +7367,22 @@
         <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
       </c>
-      <c r="F160" t="s">
-        <v>19</v>
+      <c r="F160">
+        <v>200</v>
       </c>
       <c r="G160" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
       </c>
       <c r="I160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="b">
         <v>0</v>
@@ -7379,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160" t="s">
         <v>19</v>
@@ -7399,7 +7414,7 @@
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -7417,16 +7432,16 @@
         <v>1</v>
       </c>
       <c r="J161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L161" t="b">
         <v>0</v>
       </c>
       <c r="M161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N161" t="s">
         <v>19</v>
@@ -7446,16 +7461,16 @@
         <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>170</v>
-      </c>
-      <c r="E162" t="s">
-        <v>19</v>
+        <v>172</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
       </c>
       <c r="G162" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H162" t="b">
         <v>0</v>
@@ -7493,16 +7508,16 @@
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>171</v>
-      </c>
-      <c r="E163" t="s">
-        <v>19</v>
+        <v>173</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
       </c>
       <c r="F163" t="s">
         <v>19</v>
       </c>
       <c r="G163" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H163" t="b">
         <v>0</v>
@@ -7529,18 +7544,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="164" spans="1:16">
+      <c r="A164" t="s">
+        <v>24</v>
+      </c>
+      <c r="B164" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" t="s">
+        <v>142</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>141</v>
+      </c>
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="b">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
+        <v>139</v>
+      </c>
+      <c r="P164" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="165" spans="1:16">
-      <c r="A165">
-        <v>1</v>
+      <c r="A165" t="s">
+        <v>24</v>
       </c>
       <c r="B165" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C165" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
@@ -7552,31 +7614,28 @@
         <v>20</v>
       </c>
       <c r="H165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L165" t="b">
         <v>0</v>
       </c>
       <c r="M165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N165" t="s">
-        <v>21</v>
-      </c>
-      <c r="O165" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P165" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -7590,34 +7649,34 @@
         <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="E166" t="s">
         <v>19</v>
       </c>
-      <c r="F166">
-        <v>40</v>
+      <c r="F166" t="s">
+        <v>19</v>
       </c>
       <c r="G166" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
       </c>
       <c r="I166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166" t="b">
         <v>0</v>
       </c>
       <c r="M166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166" t="s">
         <v>19</v>
@@ -7640,13 +7699,13 @@
         <v>175</v>
       </c>
       <c r="E167" t="s">
-        <v>19</v>
-      </c>
-      <c r="F167">
-        <v>200</v>
+        <v>93</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
@@ -7658,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L167" t="b">
         <v>0</v>
@@ -7673,101 +7732,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
-      <c r="A169">
-        <v>5</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="168" spans="1:16">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" t="s">
         <v>176</v>
       </c>
-      <c r="C169" t="s">
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>91</v>
+      </c>
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" t="b">
+        <v>0</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
+        <v>19</v>
+      </c>
+      <c r="P168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>133</v>
+      </c>
+      <c r="C170" t="s">
         <v>177</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D170" t="s">
         <v>18</v>
       </c>
-      <c r="E169" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="E170" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s">
         <v>20</v>
       </c>
-      <c r="H169" t="b">
-        <v>1</v>
-      </c>
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" t="b">
-        <v>1</v>
-      </c>
-      <c r="K169" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" t="b">
-        <v>0</v>
-      </c>
-      <c r="M169" t="b">
-        <v>0</v>
-      </c>
-      <c r="N169" t="s">
+      <c r="H170" t="b">
+        <v>1</v>
+      </c>
+      <c r="I170" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" t="b">
+        <v>1</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" t="b">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
         <v>21</v>
       </c>
-      <c r="O169" t="s">
+      <c r="O170" t="s">
         <v>22</v>
       </c>
-      <c r="P169" t="s">
+      <c r="P170" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
-      <c r="A170" t="s">
-        <v>24</v>
-      </c>
-      <c r="B170" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" t="s">
-        <v>24</v>
-      </c>
-      <c r="D170" t="s">
-        <v>179</v>
-      </c>
-      <c r="E170" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170">
-        <v>60</v>
-      </c>
-      <c r="G170" t="s">
-        <v>26</v>
-      </c>
-      <c r="H170" t="b">
-        <v>0</v>
-      </c>
-      <c r="I170" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" t="b">
-        <v>1</v>
-      </c>
-      <c r="K170" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" t="b">
-        <v>0</v>
-      </c>
-      <c r="M170" t="b">
-        <v>0</v>
-      </c>
-      <c r="N170" t="s">
-        <v>19</v>
-      </c>
-      <c r="P170" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -7781,22 +7840,22 @@
         <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
       </c>
-      <c r="F171" t="s">
-        <v>19</v>
+      <c r="F171">
+        <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
       </c>
       <c r="I171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="b">
         <v>1</v>
@@ -7833,108 +7892,111 @@
       <c r="E172" t="s">
         <v>19</v>
       </c>
-      <c r="F172" t="s">
-        <v>19</v>
+      <c r="F172">
+        <v>200</v>
       </c>
       <c r="G172" t="s">
+        <v>26</v>
+      </c>
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
+        <v>19</v>
+      </c>
+      <c r="P172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" t="s">
+        <v>182</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s">
         <v>20</v>
       </c>
-      <c r="H172" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="b">
-        <v>1</v>
-      </c>
-      <c r="K172" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" t="b">
-        <v>0</v>
-      </c>
-      <c r="M172" t="b">
-        <v>0</v>
-      </c>
-      <c r="N172" t="s">
-        <v>19</v>
-      </c>
-      <c r="P172" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
-      <c r="A173" t="s">
-        <v>24</v>
-      </c>
-      <c r="B173" t="s">
-        <v>24</v>
-      </c>
-      <c r="C173" t="s">
-        <v>24</v>
-      </c>
-      <c r="D173" t="s">
-        <v>170</v>
-      </c>
-      <c r="E173" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>91</v>
-      </c>
-      <c r="H173" t="b">
-        <v>0</v>
-      </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" t="b">
-        <v>1</v>
-      </c>
-      <c r="K173" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" t="b">
-        <v>0</v>
-      </c>
-      <c r="M173" t="b">
-        <v>0</v>
-      </c>
-      <c r="N173" t="s">
-        <v>19</v>
-      </c>
-      <c r="P173" t="s">
-        <v>24</v>
+      <c r="H174" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
+        <v>21</v>
+      </c>
+      <c r="O174" t="s">
+        <v>22</v>
+      </c>
+      <c r="P174" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:16">
-      <c r="A175">
-        <v>5</v>
+      <c r="A175" t="s">
+        <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="E175" t="s">
         <v>19</v>
       </c>
-      <c r="F175" t="s">
-        <v>19</v>
+      <c r="F175">
+        <v>60</v>
       </c>
       <c r="G175" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
@@ -7952,13 +8014,10 @@
         <v>0</v>
       </c>
       <c r="N175" t="s">
-        <v>21</v>
-      </c>
-      <c r="O175" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P175" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -7972,22 +8031,22 @@
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
       </c>
-      <c r="F176">
-        <v>60</v>
+      <c r="F176" t="s">
+        <v>19</v>
       </c>
       <c r="G176" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
       </c>
       <c r="I176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
@@ -8019,7 +8078,7 @@
         <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
@@ -8066,113 +8125,116 @@
         <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E178" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F178" t="s">
         <v>19</v>
       </c>
       <c r="G178" t="s">
+        <v>91</v>
+      </c>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" t="b">
+        <v>0</v>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
+        <v>19</v>
+      </c>
+      <c r="P178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" t="s">
+        <v>186</v>
+      </c>
+      <c r="D180" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
         <v>20</v>
       </c>
-      <c r="H178" t="b">
-        <v>0</v>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="b">
-        <v>1</v>
-      </c>
-      <c r="K178" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" t="b">
-        <v>0</v>
-      </c>
-      <c r="M178" t="b">
-        <v>0</v>
-      </c>
-      <c r="N178" t="s">
-        <v>19</v>
-      </c>
-      <c r="P178" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16">
-      <c r="A179" t="s">
-        <v>24</v>
-      </c>
-      <c r="B179" t="s">
-        <v>24</v>
-      </c>
-      <c r="C179" t="s">
-        <v>24</v>
-      </c>
-      <c r="D179" t="s">
-        <v>170</v>
-      </c>
-      <c r="E179" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>91</v>
-      </c>
-      <c r="H179" t="b">
-        <v>0</v>
-      </c>
-      <c r="I179" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" t="b">
-        <v>1</v>
-      </c>
-      <c r="K179" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" t="b">
-        <v>0</v>
-      </c>
-      <c r="M179" t="b">
-        <v>0</v>
-      </c>
-      <c r="N179" t="s">
-        <v>19</v>
-      </c>
-      <c r="P179" t="s">
-        <v>24</v>
+      <c r="H180" t="b">
+        <v>1</v>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
+        <v>21</v>
+      </c>
+      <c r="O180" t="s">
+        <v>22</v>
+      </c>
+      <c r="P180" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="181" spans="1:16">
-      <c r="A181">
-        <v>6</v>
+      <c r="A181" t="s">
+        <v>24</v>
       </c>
       <c r="B181" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C181" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="E181" t="s">
         <v>19</v>
       </c>
-      <c r="F181" t="s">
-        <v>19</v>
+      <c r="F181">
+        <v>60</v>
       </c>
       <c r="G181" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="b">
         <v>0</v>
@@ -8190,13 +8252,10 @@
         <v>0</v>
       </c>
       <c r="N181" t="s">
-        <v>21</v>
-      </c>
-      <c r="O181" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P181" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -8210,22 +8269,22 @@
         <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
       </c>
-      <c r="F182">
-        <v>60</v>
+      <c r="F182" t="s">
+        <v>19</v>
       </c>
       <c r="G182" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
       </c>
       <c r="I182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
@@ -8257,7 +8316,7 @@
         <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -8304,113 +8363,116 @@
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E184" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F184" t="s">
         <v>19</v>
       </c>
       <c r="G184" t="s">
+        <v>91</v>
+      </c>
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="b">
+        <v>0</v>
+      </c>
+      <c r="M184" t="b">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
+        <v>19</v>
+      </c>
+      <c r="P184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>53</v>
+      </c>
+      <c r="C186" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
         <v>20</v>
       </c>
-      <c r="H184" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="b">
-        <v>1</v>
-      </c>
-      <c r="K184" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" t="b">
-        <v>0</v>
-      </c>
-      <c r="M184" t="b">
-        <v>0</v>
-      </c>
-      <c r="N184" t="s">
-        <v>19</v>
-      </c>
-      <c r="P184" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16">
-      <c r="A185" t="s">
-        <v>24</v>
-      </c>
-      <c r="B185" t="s">
-        <v>24</v>
-      </c>
-      <c r="C185" t="s">
-        <v>24</v>
-      </c>
-      <c r="D185" t="s">
-        <v>170</v>
-      </c>
-      <c r="E185" t="s">
-        <v>19</v>
-      </c>
-      <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>91</v>
-      </c>
-      <c r="H185" t="b">
-        <v>0</v>
-      </c>
-      <c r="I185" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" t="b">
-        <v>1</v>
-      </c>
-      <c r="K185" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" t="b">
-        <v>0</v>
-      </c>
-      <c r="M185" t="b">
-        <v>0</v>
-      </c>
-      <c r="N185" t="s">
-        <v>19</v>
-      </c>
-      <c r="P185" t="s">
-        <v>24</v>
+      <c r="H186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I186" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" t="b">
+        <v>1</v>
+      </c>
+      <c r="K186" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" t="b">
+        <v>0</v>
+      </c>
+      <c r="M186" t="b">
+        <v>0</v>
+      </c>
+      <c r="N186" t="s">
+        <v>21</v>
+      </c>
+      <c r="O186" t="s">
+        <v>22</v>
+      </c>
+      <c r="P186" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:16">
-      <c r="A187">
-        <v>5</v>
+      <c r="A187" t="s">
+        <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
       </c>
-      <c r="F187" t="s">
-        <v>19</v>
+      <c r="F187">
+        <v>60</v>
       </c>
       <c r="G187" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="b">
         <v>0</v>
@@ -8428,13 +8490,10 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>21</v>
-      </c>
-      <c r="O187" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P187" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -8448,7 +8507,7 @@
         <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="E188" t="s">
         <v>19</v>
@@ -8495,7 +8554,7 @@
         <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E189" t="s">
         <v>19</v>
@@ -8542,10 +8601,10 @@
         <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E190" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F190" t="s">
         <v>19</v>
@@ -8560,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" t="b">
         <v>0</v>
@@ -8583,10 +8642,10 @@
         <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C192" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D192" t="s">
         <v>18</v>
@@ -8625,7 +8684,7 @@
         <v>22</v>
       </c>
       <c r="P192" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -8639,7 +8698,7 @@
         <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -8686,7 +8745,7 @@
         <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E194" t="s">
         <v>19</v>
@@ -8733,10 +8792,10 @@
         <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E195" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F195" t="s">
         <v>19</v>
@@ -8751,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
@@ -8771,13 +8830,13 @@
     </row>
     <row r="197" spans="1:16">
       <c r="A197">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="C197" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D197" t="s">
         <v>18</v>
@@ -8816,7 +8875,7 @@
         <v>22</v>
       </c>
       <c r="P197" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -8830,7 +8889,7 @@
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="E198" t="s">
         <v>19</v>
@@ -8860,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="N198" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P198" t="s">
         <v>24</v>
@@ -8877,7 +8936,7 @@
         <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="E199" t="s">
         <v>19</v>
@@ -8924,16 +8983,16 @@
         <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>167</v>
-      </c>
-      <c r="E200">
-        <v>0</v>
+        <v>196</v>
+      </c>
+      <c r="E200" t="s">
+        <v>93</v>
       </c>
       <c r="F200" t="s">
         <v>19</v>
       </c>
       <c r="G200" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H200" t="b">
         <v>0</v>
@@ -8942,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="b">
         <v>0</v>
@@ -8960,65 +9019,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
-      <c r="A201" t="s">
-        <v>24</v>
-      </c>
-      <c r="B201" t="s">
-        <v>24</v>
-      </c>
-      <c r="C201" t="s">
-        <v>24</v>
-      </c>
-      <c r="D201" t="s">
-        <v>141</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201">
-        <v>19</v>
-      </c>
-      <c r="G201" t="s">
-        <v>140</v>
-      </c>
-      <c r="H201" t="b">
-        <v>0</v>
-      </c>
-      <c r="I201" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" t="b">
-        <v>1</v>
-      </c>
-      <c r="K201" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" t="b">
-        <v>0</v>
-      </c>
-      <c r="M201" t="b">
-        <v>0</v>
-      </c>
-      <c r="N201" t="s">
-        <v>138</v>
-      </c>
-      <c r="P201" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="202" spans="1:16">
-      <c r="A202" t="s">
-        <v>24</v>
+      <c r="A202">
+        <v>7</v>
       </c>
       <c r="B202" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="D202" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="E202" t="s">
         <v>19</v>
@@ -9030,42 +9042,92 @@
         <v>20</v>
       </c>
       <c r="H202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202" t="b">
         <v>0</v>
       </c>
       <c r="M202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O202" t="s">
+        <v>22</v>
       </c>
       <c r="P202" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" t="s">
+        <v>24</v>
+      </c>
+      <c r="B203" t="s">
+        <v>24</v>
+      </c>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" t="s">
+        <v>166</v>
+      </c>
+      <c r="E203" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" t="s">
+        <v>19</v>
+      </c>
+      <c r="G203" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="b">
+        <v>1</v>
+      </c>
+      <c r="K203" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" t="b">
+        <v>0</v>
+      </c>
+      <c r="M203" t="b">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
+        <v>21</v>
+      </c>
+      <c r="P203" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:16">
-      <c r="A204">
-        <v>7</v>
+      <c r="A204" t="s">
+        <v>24</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C204" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="E204" t="s">
         <v>19</v>
@@ -9077,10 +9139,10 @@
         <v>20</v>
       </c>
       <c r="H204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="b">
         <v>1</v>
@@ -9095,13 +9157,10 @@
         <v>0</v>
       </c>
       <c r="N204" t="s">
-        <v>21</v>
-      </c>
-      <c r="O204" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P204" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -9115,7 +9174,7 @@
         <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -9162,16 +9221,16 @@
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>197</v>
-      </c>
-      <c r="E206" t="s">
-        <v>19</v>
-      </c>
-      <c r="F206" t="s">
+        <v>142</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
         <v>19</v>
       </c>
       <c r="G206" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="H206" t="b">
         <v>0</v>
@@ -9192,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="N206" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="P206" t="s">
         <v>24</v>
@@ -9209,7 +9268,7 @@
         <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="E207" t="s">
         <v>19</v>
@@ -9227,16 +9286,16 @@
         <v>1</v>
       </c>
       <c r="J207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" t="b">
         <v>0</v>
       </c>
       <c r="M207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N207" t="s">
         <v>19</v>
@@ -9245,65 +9304,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
-      <c r="A208" t="s">
-        <v>24</v>
-      </c>
-      <c r="B208" t="s">
-        <v>24</v>
-      </c>
-      <c r="C208" t="s">
-        <v>24</v>
-      </c>
-      <c r="D208" t="s">
-        <v>115</v>
-      </c>
-      <c r="E208" t="s">
-        <v>19</v>
-      </c>
-      <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>20</v>
-      </c>
-      <c r="H208" t="b">
-        <v>0</v>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="b">
-        <v>1</v>
-      </c>
-      <c r="K208" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" t="b">
-        <v>0</v>
-      </c>
-      <c r="M208" t="b">
-        <v>0</v>
-      </c>
-      <c r="N208" t="s">
-        <v>19</v>
-      </c>
-      <c r="P208" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="209" spans="1:16">
-      <c r="A209" t="s">
-        <v>24</v>
+      <c r="A209">
+        <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="D209" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="E209" t="s">
         <v>19</v>
@@ -9315,10 +9327,10 @@
         <v>20</v>
       </c>
       <c r="H209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="b">
         <v>1</v>
@@ -9333,10 +9345,13 @@
         <v>0</v>
       </c>
       <c r="N209" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O209" t="s">
+        <v>22</v>
       </c>
       <c r="P209" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -9350,10 +9365,10 @@
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>161</v>
-      </c>
-      <c r="E210" t="s">
-        <v>19</v>
+        <v>201</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
       </c>
       <c r="F210" t="s">
         <v>19</v>
@@ -9365,24 +9380,259 @@
         <v>0</v>
       </c>
       <c r="I210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L210" t="b">
         <v>0</v>
       </c>
       <c r="M210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N210" t="s">
         <v>19</v>
       </c>
       <c r="P210" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16">
+      <c r="A211" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" t="s">
+        <v>24</v>
+      </c>
+      <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211" t="s">
+        <v>202</v>
+      </c>
+      <c r="E211" t="s">
+        <v>93</v>
+      </c>
+      <c r="F211" t="s">
+        <v>19</v>
+      </c>
+      <c r="G211" t="s">
+        <v>91</v>
+      </c>
+      <c r="H211" t="b">
+        <v>0</v>
+      </c>
+      <c r="I211" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" t="b">
+        <v>0</v>
+      </c>
+      <c r="K211" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" t="b">
+        <v>0</v>
+      </c>
+      <c r="M211" t="b">
+        <v>0</v>
+      </c>
+      <c r="N211" t="s">
+        <v>19</v>
+      </c>
+      <c r="P211" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16">
+      <c r="A212" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" t="s">
+        <v>112</v>
+      </c>
+      <c r="E212" t="s">
+        <v>19</v>
+      </c>
+      <c r="F212" t="s">
+        <v>19</v>
+      </c>
+      <c r="G212" t="s">
+        <v>20</v>
+      </c>
+      <c r="H212" t="b">
+        <v>0</v>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="b">
+        <v>1</v>
+      </c>
+      <c r="K212" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" t="b">
+        <v>0</v>
+      </c>
+      <c r="M212" t="b">
+        <v>0</v>
+      </c>
+      <c r="N212" t="s">
+        <v>19</v>
+      </c>
+      <c r="P212" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16">
+      <c r="A213" t="s">
+        <v>24</v>
+      </c>
+      <c r="B213" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" t="s">
+        <v>116</v>
+      </c>
+      <c r="E213" t="s">
+        <v>19</v>
+      </c>
+      <c r="F213" t="s">
+        <v>19</v>
+      </c>
+      <c r="G213" t="s">
+        <v>20</v>
+      </c>
+      <c r="H213" t="b">
+        <v>0</v>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="b">
+        <v>1</v>
+      </c>
+      <c r="K213" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" t="b">
+        <v>0</v>
+      </c>
+      <c r="M213" t="b">
+        <v>0</v>
+      </c>
+      <c r="N213" t="s">
+        <v>19</v>
+      </c>
+      <c r="P213" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16">
+      <c r="A214" t="s">
+        <v>24</v>
+      </c>
+      <c r="B214" t="s">
+        <v>24</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s">
+        <v>203</v>
+      </c>
+      <c r="E214" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214" t="s">
+        <v>19</v>
+      </c>
+      <c r="G214" t="s">
+        <v>20</v>
+      </c>
+      <c r="H214" t="b">
+        <v>0</v>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="b">
+        <v>1</v>
+      </c>
+      <c r="K214" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" t="b">
+        <v>0</v>
+      </c>
+      <c r="M214" t="b">
+        <v>0</v>
+      </c>
+      <c r="N214" t="s">
+        <v>19</v>
+      </c>
+      <c r="P214" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16">
+      <c r="A215" t="s">
+        <v>24</v>
+      </c>
+      <c r="B215" t="s">
+        <v>24</v>
+      </c>
+      <c r="C215" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" t="s">
+        <v>166</v>
+      </c>
+      <c r="E215" t="s">
+        <v>19</v>
+      </c>
+      <c r="F215" t="s">
+        <v>19</v>
+      </c>
+      <c r="G215" t="s">
+        <v>20</v>
+      </c>
+      <c r="H215" t="b">
+        <v>0</v>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="b">
+        <v>0</v>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="b">
+        <v>0</v>
+      </c>
+      <c r="M215" t="b">
+        <v>1</v>
+      </c>
+      <c r="N215" t="s">
+        <v>19</v>
+      </c>
+      <c r="P215" t="s">
         <v>24</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="207">
   <si>
     <t>Load Order</t>
   </si>
@@ -244,7 +244,7 @@
     <t>Tier</t>
   </si>
   <si>
-    <t>Categories that loyalty customers are a part of based on number of points accummulated over time. Tiers such as bronze, silver, and gold tier for example.</t>
+    <t>Categories that loyalty customers are a part of based on number of points accumulated over time. Tiers such as bronze, silver, and gold tier for example.</t>
   </si>
   <si>
     <t>tier_name</t>
@@ -331,6 +331,15 @@
     <t>customer_status_id</t>
   </si>
   <si>
+    <t>points_earned</t>
+  </si>
+  <si>
+    <t>points_spent</t>
+  </si>
+  <si>
+    <t>point_total</t>
+  </si>
+  <si>
     <t>tier_id</t>
   </si>
   <si>
@@ -463,7 +472,7 @@
     <t>ProductType</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifying certain product types that are eligible to be purchased with points, versus products that are not eligible to earn points on; used to distinguish exclusions. </t>
+    <t xml:space="preserve">Identifying certain product types that are eligible to be purchased with points, versus products that are not eligible to earn points on; used to distinguish exclusions. </t>
   </si>
   <si>
     <t>product_type_name</t>
@@ -610,13 +619,13 @@
     <t>CustomerReward</t>
   </si>
   <si>
-    <t>Rewards available to a SINGLE loyalty customer to be redeemed, based on the amount of points they have accumulated to date. Available rewards that they (a single loyalty customer) has earned, based on their personal points. A points bank.</t>
+    <t>Effectively the reward equivalent to OrderLine for transactions.</t>
   </si>
   <si>
     <t>PointLog</t>
   </si>
   <si>
-    <t xml:space="preserve"> Keeping track of a customers existing loyalty points and used points?</t>
+    <t>Describes all point transactions for a customer in a single table.</t>
   </si>
   <si>
     <t>points_amount</t>
@@ -673,8 +682,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P217" totalsRowShown="0">
-  <autoFilter ref="A1:P217"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P220" totalsRowShown="0">
+  <autoFilter ref="A1:P220"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Load Order"/>
     <tableColumn id="2" name="Owner"/>
@@ -982,7 +991,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P215"/>
+  <dimension ref="A1:P218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4516,8 +4525,8 @@
       <c r="D89" t="s">
         <v>105</v>
       </c>
-      <c r="E89" t="s">
-        <v>19</v>
+      <c r="E89">
+        <v>0</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -4529,19 +4538,19 @@
         <v>0</v>
       </c>
       <c r="I89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
       </c>
       <c r="M89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="s">
         <v>19</v>
@@ -4561,10 +4570,10 @@
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" t="s">
-        <v>19</v>
+        <v>106</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -4576,19 +4585,19 @@
         <v>0</v>
       </c>
       <c r="I90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
       </c>
       <c r="M90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="s">
         <v>19</v>
@@ -4597,18 +4606,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="92" spans="1:16">
-      <c r="A92">
-        <v>1</v>
+      <c r="A92" t="s">
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -4620,31 +4676,28 @@
         <v>20</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
       </c>
       <c r="M92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>21</v>
-      </c>
-      <c r="O92" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P92" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4658,113 +4711,116 @@
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E93" t="s">
         <v>19</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>19</v>
+      </c>
+      <c r="P93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>21</v>
+      </c>
+      <c r="O95" t="s">
+        <v>22</v>
+      </c>
+      <c r="P95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96">
         <v>40</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G96" t="s">
         <v>26</v>
       </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="b">
-        <v>1</v>
-      </c>
-      <c r="K93" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" t="b">
-        <v>0</v>
-      </c>
-      <c r="M93" t="b">
-        <v>0</v>
-      </c>
-      <c r="N93" t="s">
-        <v>19</v>
-      </c>
-      <c r="P93" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" t="s">
-        <v>109</v>
-      </c>
-      <c r="E94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94">
-        <v>200</v>
-      </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" t="b">
-        <v>0</v>
-      </c>
-      <c r="N94" t="s">
-        <v>19</v>
-      </c>
-      <c r="P94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -4782,13 +4838,10 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>21</v>
-      </c>
-      <c r="O96" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P96" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4807,96 +4860,99 @@
       <c r="E97" t="s">
         <v>19</v>
       </c>
-      <c r="F97" t="s">
-        <v>19</v>
+      <c r="F97">
+        <v>200</v>
       </c>
       <c r="G97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>19</v>
+      </c>
+      <c r="P97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
         <v>20</v>
       </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="b">
-        <v>1</v>
-      </c>
-      <c r="K97" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" t="b">
-        <v>0</v>
-      </c>
-      <c r="M97" t="b">
-        <v>0</v>
-      </c>
-      <c r="N97" t="s">
-        <v>19</v>
-      </c>
-      <c r="P97" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
-      <c r="A98" t="s">
-        <v>24</v>
-      </c>
-      <c r="B98" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98" t="s">
-        <v>113</v>
-      </c>
-      <c r="E98" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
-      <c r="J98" t="b">
-        <v>1</v>
-      </c>
-      <c r="K98" t="b">
-        <v>0</v>
-      </c>
-      <c r="L98" t="b">
-        <v>0</v>
-      </c>
-      <c r="M98" t="b">
-        <v>0</v>
-      </c>
-      <c r="N98" t="s">
-        <v>19</v>
-      </c>
-      <c r="P98" t="s">
-        <v>24</v>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>21</v>
+      </c>
+      <c r="O99" t="s">
+        <v>22</v>
+      </c>
+      <c r="P99" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100">
-        <v>6</v>
+      <c r="A100" t="s">
+        <v>24</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -4908,10 +4964,10 @@
         <v>20</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
@@ -4926,13 +4982,10 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>21</v>
-      </c>
-      <c r="O100" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P100" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4982,65 +5035,68 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
-      <c r="A102" t="s">
-        <v>24</v>
-      </c>
-      <c r="B102" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" t="s">
-        <v>24</v>
-      </c>
-      <c r="D102" t="s">
+    <row r="103" spans="1:16">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
         <v>117</v>
       </c>
-      <c r="E102" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
         <v>20</v>
       </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="b">
-        <v>1</v>
-      </c>
-      <c r="K102" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" t="b">
-        <v>0</v>
-      </c>
-      <c r="M102" t="b">
-        <v>0</v>
-      </c>
-      <c r="N102" t="s">
-        <v>19</v>
-      </c>
-      <c r="P102" t="s">
-        <v>24</v>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
+        <v>21</v>
+      </c>
+      <c r="O103" t="s">
+        <v>22</v>
+      </c>
+      <c r="P103" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104">
-        <v>1</v>
+      <c r="A104" t="s">
+        <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -5052,10 +5108,10 @@
         <v>20</v>
       </c>
       <c r="H104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
@@ -5070,13 +5126,10 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>21</v>
-      </c>
-      <c r="O104" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P104" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5090,113 +5143,116 @@
         <v>24</v>
       </c>
       <c r="D105" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
+        <v>19</v>
+      </c>
+      <c r="P105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
+        <v>21</v>
+      </c>
+      <c r="O107" t="s">
+        <v>22</v>
+      </c>
+      <c r="P107" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" t="s">
         <v>82</v>
       </c>
-      <c r="E105" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105">
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108">
         <v>40</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G108" t="s">
         <v>26</v>
       </c>
-      <c r="H105" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="b">
-        <v>1</v>
-      </c>
-      <c r="K105" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" t="b">
-        <v>0</v>
-      </c>
-      <c r="M105" t="b">
-        <v>0</v>
-      </c>
-      <c r="N105" t="s">
-        <v>19</v>
-      </c>
-      <c r="P105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
-      <c r="A106" t="s">
-        <v>24</v>
-      </c>
-      <c r="B106" t="s">
-        <v>24</v>
-      </c>
-      <c r="C106" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106" t="s">
-        <v>83</v>
-      </c>
-      <c r="E106" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106">
-        <v>200</v>
-      </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="b">
-        <v>0</v>
-      </c>
-      <c r="M106" t="b">
-        <v>0</v>
-      </c>
-      <c r="N106" t="s">
-        <v>19</v>
-      </c>
-      <c r="P106" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16">
-      <c r="A108">
-        <v>4</v>
-      </c>
-      <c r="B108" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108" t="s">
-        <v>120</v>
-      </c>
-      <c r="D108" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
       <c r="H108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -5214,13 +5270,10 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>21</v>
-      </c>
-      <c r="O108" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P108" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5234,13 +5287,13 @@
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
       </c>
       <c r="F109">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G109" t="s">
         <v>26</v>
@@ -5252,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
@@ -5270,86 +5323,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
-      <c r="A110" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110" t="s">
-        <v>89</v>
-      </c>
-      <c r="E110" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" t="b">
-        <v>0</v>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="b">
-        <v>0</v>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="b">
-        <v>0</v>
-      </c>
-      <c r="M110" t="b">
-        <v>0</v>
-      </c>
-      <c r="N110" t="s">
-        <v>19</v>
-      </c>
-      <c r="P110" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="111" spans="1:16">
-      <c r="A111" t="s">
-        <v>24</v>
+      <c r="A111">
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
       </c>
-      <c r="F111">
-        <v>254</v>
+      <c r="F111" t="s">
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
       </c>
       <c r="J111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" t="b">
         <v>0</v>
@@ -5358,10 +5364,13 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O111" t="s">
+        <v>22</v>
       </c>
       <c r="P111" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5375,13 +5384,13 @@
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
       </c>
       <c r="F112">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
         <v>26</v>
@@ -5393,10 +5402,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" t="b">
         <v>0</v>
@@ -5422,28 +5431,28 @@
         <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E113" t="s">
         <v>19</v>
       </c>
-      <c r="F113" t="s">
-        <v>19</v>
+      <c r="F113">
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
       </c>
       <c r="I113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -5469,28 +5478,28 @@
         <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E114" t="s">
         <v>19</v>
       </c>
-      <c r="F114" t="s">
-        <v>19</v>
+      <c r="F114">
+        <v>254</v>
       </c>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
       </c>
       <c r="I114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" t="b">
         <v>0</v>
@@ -5516,16 +5525,16 @@
         <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
       </c>
-      <c r="F115" t="s">
-        <v>19</v>
+      <c r="F115">
+        <v>300</v>
       </c>
       <c r="G115" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -5534,10 +5543,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="b">
         <v>0</v>
@@ -5563,7 +5572,7 @@
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
@@ -5572,19 +5581,19 @@
         <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
       </c>
       <c r="I116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" t="b">
         <v>0</v>
@@ -5610,7 +5619,7 @@
         <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -5619,13 +5628,13 @@
         <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
       </c>
       <c r="I117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
@@ -5646,18 +5655,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="118" spans="1:16">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>19</v>
+      </c>
+      <c r="P118" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="119" spans="1:16">
-      <c r="A119">
-        <v>5</v>
+      <c r="A119" t="s">
+        <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
@@ -5666,19 +5722,19 @@
         <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
       </c>
       <c r="J119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="b">
         <v>0</v>
@@ -5687,13 +5743,10 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>21</v>
-      </c>
-      <c r="O119" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P119" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -5707,17 +5760,17 @@
         <v>24</v>
       </c>
       <c r="D120" t="s">
+        <v>129</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s">
         <v>130</v>
       </c>
-      <c r="E120" t="s">
-        <v>93</v>
-      </c>
-      <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>91</v>
-      </c>
       <c r="H120" t="b">
         <v>0</v>
       </c>
@@ -5725,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
@@ -5743,65 +5796,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
-      <c r="A121" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" t="s">
-        <v>24</v>
-      </c>
-      <c r="D121" t="s">
-        <v>112</v>
-      </c>
-      <c r="E121" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
-      <c r="H121" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K121" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" t="b">
-        <v>0</v>
-      </c>
-      <c r="M121" t="b">
-        <v>0</v>
-      </c>
-      <c r="N121" t="s">
-        <v>19</v>
-      </c>
-      <c r="P121" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="122" spans="1:16">
-      <c r="A122" t="s">
-        <v>24</v>
+      <c r="A122">
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="E122" t="s">
         <v>19</v>
@@ -5813,10 +5819,10 @@
         <v>20</v>
       </c>
       <c r="H122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
@@ -5831,10 +5837,13 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O122" t="s">
+        <v>22</v>
       </c>
       <c r="P122" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -5848,54 +5857,101 @@
         <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E123" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" t="s">
+        <v>91</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
+        <v>19</v>
+      </c>
+      <c r="P123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
+        <v>115</v>
+      </c>
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
         <v>20</v>
       </c>
-      <c r="H123" t="b">
-        <v>0</v>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
-      </c>
-      <c r="K123" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" t="b">
-        <v>0</v>
-      </c>
-      <c r="M123" t="b">
-        <v>0</v>
-      </c>
-      <c r="N123" t="s">
-        <v>19</v>
-      </c>
-      <c r="P123" t="s">
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
+        <v>19</v>
+      </c>
+      <c r="P124" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:16">
-      <c r="A125">
-        <v>6</v>
+      <c r="A125" t="s">
+        <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
         <v>134</v>
-      </c>
-      <c r="D125" t="s">
-        <v>18</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -5907,10 +5963,10 @@
         <v>20</v>
       </c>
       <c r="H125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
@@ -5925,13 +5981,10 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>21</v>
-      </c>
-      <c r="O125" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P125" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -5945,134 +5998,90 @@
         <v>24</v>
       </c>
       <c r="D126" t="s">
+        <v>135</v>
+      </c>
+      <c r="E126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
+        <v>19</v>
+      </c>
+      <c r="P126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
         <v>136</v>
       </c>
-      <c r="E126" t="s">
-        <v>93</v>
-      </c>
-      <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>91</v>
-      </c>
-      <c r="H126" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="b">
-        <v>0</v>
-      </c>
-      <c r="K126" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" t="b">
-        <v>0</v>
-      </c>
-      <c r="M126" t="b">
-        <v>0</v>
-      </c>
-      <c r="N126" t="s">
-        <v>19</v>
-      </c>
-      <c r="P126" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127" t="s">
-        <v>24</v>
-      </c>
-      <c r="B127" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" t="s">
-        <v>24</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C128" t="s">
         <v>137</v>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="b">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
+        <v>21</v>
+      </c>
+      <c r="O128" t="s">
+        <v>22</v>
+      </c>
+      <c r="P128" t="s">
         <v>138</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="b">
-        <v>1</v>
-      </c>
-      <c r="K127" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" t="b">
-        <v>0</v>
-      </c>
-      <c r="M127" t="b">
-        <v>0</v>
-      </c>
-      <c r="N127" t="s">
-        <v>139</v>
-      </c>
-      <c r="P127" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" t="s">
-        <v>24</v>
-      </c>
-      <c r="B128" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" t="s">
-        <v>24</v>
-      </c>
-      <c r="D128" t="s">
-        <v>140</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>141</v>
-      </c>
-      <c r="H128" t="b">
-        <v>0</v>
-      </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" t="b">
-        <v>1</v>
-      </c>
-      <c r="K128" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" t="b">
-        <v>0</v>
-      </c>
-      <c r="M128" t="b">
-        <v>0</v>
-      </c>
-      <c r="N128" t="s">
-        <v>139</v>
-      </c>
-      <c r="P128" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -6086,16 +6095,16 @@
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>142</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
+        <v>139</v>
+      </c>
+      <c r="E129" t="s">
+        <v>93</v>
+      </c>
+      <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -6104,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
@@ -6116,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="P129" t="s">
         <v>24</v>
@@ -6133,7 +6142,7 @@
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6163,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P130" t="s">
         <v>24</v>
@@ -6180,17 +6189,17 @@
         <v>24</v>
       </c>
       <c r="D131" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
         <v>144</v>
       </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
       <c r="H131" t="b">
         <v>0</v>
       </c>
@@ -6210,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="N131" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="P131" t="s">
         <v>24</v>
@@ -6232,11 +6241,11 @@
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132">
         <v>19</v>
       </c>
       <c r="G132" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H132" t="b">
         <v>0</v>
@@ -6257,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="N132" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="P132" t="s">
         <v>24</v>
@@ -6279,11 +6288,11 @@
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133">
         <v>19</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -6304,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="P133" t="s">
         <v>24</v>
@@ -6321,10 +6330,10 @@
         <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>116</v>
-      </c>
-      <c r="E134" t="s">
-        <v>19</v>
+        <v>147</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
@@ -6336,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="b">
         <v>1</v>
@@ -6368,10 +6377,10 @@
         <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>147</v>
-      </c>
-      <c r="E135" t="s">
-        <v>19</v>
+        <v>148</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
@@ -6383,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="b">
         <v>1</v>
@@ -6415,10 +6424,10 @@
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>131</v>
-      </c>
-      <c r="E136" t="s">
-        <v>19</v>
+        <v>149</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
@@ -6430,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="b">
         <v>1</v>
@@ -6462,7 +6471,7 @@
         <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
@@ -6498,18 +6507,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="138" spans="1:16">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" t="s">
+        <v>150</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
+        <v>19</v>
+      </c>
+      <c r="P138" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="139" spans="1:16">
-      <c r="A139">
-        <v>1</v>
+      <c r="A139" t="s">
+        <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
@@ -6521,10 +6577,10 @@
         <v>20</v>
       </c>
       <c r="H139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
@@ -6539,13 +6595,10 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>21</v>
-      </c>
-      <c r="O139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P139" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -6559,113 +6612,116 @@
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="b">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
+        <v>19</v>
+      </c>
+      <c r="P140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" t="s">
+        <v>151</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
+        <v>1</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="b">
+        <v>0</v>
+      </c>
+      <c r="N142" t="s">
+        <v>21</v>
+      </c>
+      <c r="O142" t="s">
+        <v>22</v>
+      </c>
+      <c r="P142" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143">
         <v>40</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G143" t="s">
         <v>26</v>
       </c>
-      <c r="H140" t="b">
-        <v>0</v>
-      </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" t="b">
-        <v>1</v>
-      </c>
-      <c r="K140" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" t="b">
-        <v>0</v>
-      </c>
-      <c r="M140" t="b">
-        <v>0</v>
-      </c>
-      <c r="N140" t="s">
-        <v>19</v>
-      </c>
-      <c r="P140" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
-      <c r="A141" t="s">
-        <v>24</v>
-      </c>
-      <c r="B141" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" t="s">
-        <v>24</v>
-      </c>
-      <c r="D141" t="s">
-        <v>151</v>
-      </c>
-      <c r="E141" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141">
-        <v>200</v>
-      </c>
-      <c r="G141" t="s">
-        <v>26</v>
-      </c>
-      <c r="H141" t="b">
-        <v>0</v>
-      </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="b">
-        <v>0</v>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="b">
-        <v>0</v>
-      </c>
-      <c r="M141" t="b">
-        <v>0</v>
-      </c>
-      <c r="N141" t="s">
-        <v>19</v>
-      </c>
-      <c r="P141" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143">
-        <v>2</v>
-      </c>
-      <c r="B143" t="s">
-        <v>42</v>
-      </c>
-      <c r="C143" t="s">
-        <v>152</v>
-      </c>
-      <c r="D143" t="s">
-        <v>18</v>
-      </c>
-      <c r="E143" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
       <c r="H143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="b">
         <v>0</v>
@@ -6683,13 +6739,10 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>21</v>
-      </c>
-      <c r="O143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P143" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -6709,7 +6762,7 @@
         <v>19</v>
       </c>
       <c r="F144">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G144" t="s">
         <v>26</v>
@@ -6721,10 +6774,10 @@
         <v>0</v>
       </c>
       <c r="J144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
@@ -6739,98 +6792,54 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
-      <c r="A145" t="s">
-        <v>24</v>
-      </c>
-      <c r="B145" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" t="s">
-        <v>24</v>
-      </c>
-      <c r="D145" t="s">
+    <row r="146" spans="1:16">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C146" t="s">
         <v>155</v>
       </c>
-      <c r="E145" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145">
-        <v>200</v>
-      </c>
-      <c r="G145" t="s">
-        <v>26</v>
-      </c>
-      <c r="H145" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" t="b">
-        <v>0</v>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="b">
-        <v>0</v>
-      </c>
-      <c r="M145" t="b">
-        <v>0</v>
-      </c>
-      <c r="N145" t="s">
-        <v>19</v>
-      </c>
-      <c r="P145" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
-      <c r="A146" t="s">
-        <v>24</v>
-      </c>
-      <c r="B146" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146" t="s">
-        <v>24</v>
-      </c>
       <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" t="b">
+        <v>1</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" t="b">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
+        <v>21</v>
+      </c>
+      <c r="O146" t="s">
+        <v>22</v>
+      </c>
+      <c r="P146" t="s">
         <v>156</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s">
-        <v>141</v>
-      </c>
-      <c r="H146" t="b">
-        <v>0</v>
-      </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" t="b">
-        <v>1</v>
-      </c>
-      <c r="K146" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" t="b">
-        <v>0</v>
-      </c>
-      <c r="M146" t="b">
-        <v>0</v>
-      </c>
-      <c r="N146" t="s">
-        <v>139</v>
-      </c>
-      <c r="P146" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -6849,17 +6858,17 @@
       <c r="E147" t="s">
         <v>19</v>
       </c>
-      <c r="F147" t="s">
-        <v>19</v>
+      <c r="F147">
+        <v>80</v>
       </c>
       <c r="G147" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
       </c>
       <c r="I147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
@@ -6896,23 +6905,23 @@
       <c r="E148" t="s">
         <v>19</v>
       </c>
-      <c r="F148" t="s">
-        <v>19</v>
+      <c r="F148">
+        <v>200</v>
       </c>
       <c r="G148" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
       </c>
       <c r="I148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" t="b">
         <v>0</v>
@@ -6940,52 +6949,99 @@
       <c r="D149" t="s">
         <v>159</v>
       </c>
-      <c r="E149" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
         <v>19</v>
       </c>
       <c r="G149" t="s">
+        <v>144</v>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" t="b">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
+        <v>142</v>
+      </c>
+      <c r="P149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" t="s">
+        <v>160</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
         <v>20</v>
       </c>
-      <c r="H149" t="b">
-        <v>0</v>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="b">
-        <v>0</v>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="b">
-        <v>0</v>
-      </c>
-      <c r="M149" t="b">
-        <v>1</v>
-      </c>
-      <c r="N149" t="s">
-        <v>19</v>
-      </c>
-      <c r="P149" t="s">
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="b">
+        <v>1</v>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" t="b">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
+        <v>19</v>
+      </c>
+      <c r="P150" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:16">
-      <c r="A151">
-        <v>7</v>
+      <c r="A151" t="s">
+        <v>24</v>
       </c>
       <c r="B151" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C151" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
@@ -6997,10 +7053,10 @@
         <v>20</v>
       </c>
       <c r="H151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="b">
         <v>1</v>
@@ -7015,13 +7071,10 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>21</v>
-      </c>
-      <c r="O151" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P151" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -7037,8 +7090,8 @@
       <c r="D152" t="s">
         <v>162</v>
       </c>
-      <c r="E152">
-        <v>0</v>
+      <c r="E152" t="s">
+        <v>19</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -7050,19 +7103,19 @@
         <v>0</v>
       </c>
       <c r="I152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" t="b">
         <v>0</v>
       </c>
       <c r="M152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" t="s">
         <v>19</v>
@@ -7071,98 +7124,54 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
-      <c r="A153" t="s">
-        <v>24</v>
-      </c>
-      <c r="B153" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" t="s">
+    <row r="154" spans="1:16">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>100</v>
+      </c>
+      <c r="C154" t="s">
         <v>163</v>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s">
-        <v>141</v>
-      </c>
-      <c r="H153" t="b">
-        <v>0</v>
-      </c>
-      <c r="I153" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" t="b">
-        <v>1</v>
-      </c>
-      <c r="K153" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" t="b">
-        <v>0</v>
-      </c>
-      <c r="M153" t="b">
-        <v>0</v>
-      </c>
-      <c r="N153" t="s">
-        <v>139</v>
-      </c>
-      <c r="P153" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
-      <c r="A154" t="s">
-        <v>24</v>
-      </c>
-      <c r="B154" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" t="s">
-        <v>24</v>
-      </c>
       <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" t="s">
+        <v>20</v>
+      </c>
+      <c r="H154" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" t="b">
+        <v>1</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154" t="b">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
+        <v>21</v>
+      </c>
+      <c r="O154" t="s">
+        <v>22</v>
+      </c>
+      <c r="P154" t="s">
         <v>164</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s">
-        <v>141</v>
-      </c>
-      <c r="H154" t="b">
-        <v>0</v>
-      </c>
-      <c r="I154" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" t="b">
-        <v>1</v>
-      </c>
-      <c r="K154" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" t="b">
-        <v>0</v>
-      </c>
-      <c r="M154" t="b">
-        <v>0</v>
-      </c>
-      <c r="N154" t="s">
-        <v>139</v>
-      </c>
-      <c r="P154" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -7178,8 +7187,8 @@
       <c r="D155" t="s">
         <v>165</v>
       </c>
-      <c r="E155" t="s">
-        <v>19</v>
+      <c r="E155">
+        <v>0</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -7191,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="b">
         <v>1</v>
@@ -7225,20 +7234,20 @@
       <c r="D156" t="s">
         <v>166</v>
       </c>
-      <c r="E156" t="s">
-        <v>19</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
         <v>19</v>
       </c>
       <c r="G156" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
       </c>
       <c r="I156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="b">
         <v>1</v>
@@ -7253,24 +7262,71 @@
         <v>0</v>
       </c>
       <c r="N156" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="P156" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="157" spans="1:16">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>167</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s">
+        <v>144</v>
+      </c>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" t="b">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
+        <v>142</v>
+      </c>
+      <c r="P157" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="158" spans="1:16">
-      <c r="A158">
-        <v>3</v>
+      <c r="A158" t="s">
+        <v>24</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C158" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="E158" t="s">
         <v>19</v>
@@ -7282,10 +7338,10 @@
         <v>20</v>
       </c>
       <c r="H158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="b">
         <v>1</v>
@@ -7300,13 +7356,10 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>21</v>
-      </c>
-      <c r="O158" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P158" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -7325,17 +7378,17 @@
       <c r="E159" t="s">
         <v>19</v>
       </c>
-      <c r="F159">
-        <v>80</v>
+      <c r="F159" t="s">
+        <v>19</v>
       </c>
       <c r="G159" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
       </c>
       <c r="I159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="b">
         <v>1</v>
@@ -7356,65 +7409,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
-      <c r="A160" t="s">
-        <v>24</v>
-      </c>
-      <c r="B160" t="s">
-        <v>24</v>
-      </c>
-      <c r="C160" t="s">
-        <v>24</v>
-      </c>
-      <c r="D160" t="s">
+    <row r="161" spans="1:16">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>39</v>
+      </c>
+      <c r="C161" t="s">
         <v>170</v>
       </c>
-      <c r="E160" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160">
-        <v>200</v>
-      </c>
-      <c r="G160" t="s">
-        <v>26</v>
-      </c>
-      <c r="H160" t="b">
-        <v>0</v>
-      </c>
-      <c r="I160" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" t="b">
-        <v>0</v>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="b">
-        <v>0</v>
-      </c>
-      <c r="M160" t="b">
-        <v>0</v>
-      </c>
-      <c r="N160" t="s">
-        <v>19</v>
-      </c>
-      <c r="P160" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16">
-      <c r="A161" t="s">
-        <v>24</v>
-      </c>
-      <c r="B161" t="s">
-        <v>24</v>
-      </c>
-      <c r="C161" t="s">
-        <v>24</v>
-      </c>
       <c r="D161" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="E161" t="s">
         <v>19</v>
@@ -7426,10 +7432,10 @@
         <v>20</v>
       </c>
       <c r="H161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="b">
         <v>1</v>
@@ -7444,10 +7450,13 @@
         <v>0</v>
       </c>
       <c r="N161" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O161" t="s">
+        <v>22</v>
       </c>
       <c r="P161" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -7463,14 +7472,14 @@
       <c r="D162" t="s">
         <v>172</v>
       </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162" t="s">
-        <v>19</v>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162">
+        <v>80</v>
       </c>
       <c r="G162" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H162" t="b">
         <v>0</v>
@@ -7510,14 +7519,14 @@
       <c r="D163" t="s">
         <v>173</v>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163" t="s">
-        <v>19</v>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163">
+        <v>200</v>
       </c>
       <c r="G163" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H163" t="b">
         <v>0</v>
@@ -7555,22 +7564,22 @@
         <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>142</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
+        <v>174</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" t="s">
         <v>19</v>
       </c>
       <c r="G164" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="H164" t="b">
         <v>0</v>
       </c>
       <c r="I164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="b">
         <v>1</v>
@@ -7585,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="P164" t="s">
         <v>24</v>
@@ -7602,10 +7611,10 @@
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>174</v>
-      </c>
-      <c r="E165" t="s">
-        <v>19</v>
+        <v>175</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
       </c>
       <c r="F165" t="s">
         <v>19</v>
@@ -7617,19 +7626,19 @@
         <v>0</v>
       </c>
       <c r="I165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" t="b">
         <v>0</v>
       </c>
       <c r="M165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N165" t="s">
         <v>19</v>
@@ -7649,10 +7658,10 @@
         <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>105</v>
-      </c>
-      <c r="E166" t="s">
-        <v>19</v>
+        <v>176</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
       </c>
       <c r="F166" t="s">
         <v>19</v>
@@ -7664,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="b">
         <v>0</v>
@@ -7676,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="M166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N166" t="s">
         <v>19</v>
@@ -7696,16 +7705,16 @@
         <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>175</v>
-      </c>
-      <c r="E167" t="s">
-        <v>93</v>
-      </c>
-      <c r="F167" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
         <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
@@ -7714,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" t="b">
         <v>0</v>
@@ -7726,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="P167" t="s">
         <v>24</v>
@@ -7743,7 +7752,7 @@
         <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E168" t="s">
         <v>19</v>
@@ -7752,63 +7761,110 @@
         <v>19</v>
       </c>
       <c r="G168" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="b">
+        <v>0</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
+        <v>1</v>
+      </c>
+      <c r="N168" t="s">
+        <v>19</v>
+      </c>
+      <c r="P168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="b">
+        <v>0</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" t="b">
+        <v>1</v>
+      </c>
+      <c r="N169" t="s">
+        <v>19</v>
+      </c>
+      <c r="P169" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>178</v>
+      </c>
+      <c r="E170" t="s">
+        <v>93</v>
+      </c>
+      <c r="F170" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s">
         <v>91</v>
       </c>
-      <c r="H168" t="b">
-        <v>0</v>
-      </c>
-      <c r="I168" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" t="b">
-        <v>0</v>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="b">
-        <v>0</v>
-      </c>
-      <c r="M168" t="b">
-        <v>0</v>
-      </c>
-      <c r="N168" t="s">
-        <v>19</v>
-      </c>
-      <c r="P168" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
-      <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="B170" t="s">
-        <v>133</v>
-      </c>
-      <c r="C170" t="s">
-        <v>177</v>
-      </c>
-      <c r="D170" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s">
-        <v>20</v>
-      </c>
       <c r="H170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="b">
         <v>0</v>
       </c>
       <c r="J170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" t="b">
         <v>0</v>
@@ -7820,13 +7876,10 @@
         <v>0</v>
       </c>
       <c r="N170" t="s">
-        <v>21</v>
-      </c>
-      <c r="O170" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P170" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -7845,108 +7898,111 @@
       <c r="E171" t="s">
         <v>19</v>
       </c>
-      <c r="F171">
+      <c r="F171" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s">
+        <v>91</v>
+      </c>
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" t="b">
+        <v>0</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
+        <v>19</v>
+      </c>
+      <c r="P171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>136</v>
+      </c>
+      <c r="C173" t="s">
+        <v>180</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" t="s">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" t="b">
+        <v>1</v>
+      </c>
+      <c r="I173" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" t="b">
+        <v>1</v>
+      </c>
+      <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" t="b">
+        <v>0</v>
+      </c>
+      <c r="N173" t="s">
+        <v>21</v>
+      </c>
+      <c r="O173" t="s">
+        <v>22</v>
+      </c>
+      <c r="P173" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" t="s">
+        <v>182</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174">
         <v>40</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G174" t="s">
         <v>26</v>
       </c>
-      <c r="H171" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" t="b">
-        <v>1</v>
-      </c>
-      <c r="K171" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" t="b">
-        <v>0</v>
-      </c>
-      <c r="M171" t="b">
-        <v>0</v>
-      </c>
-      <c r="N171" t="s">
-        <v>19</v>
-      </c>
-      <c r="P171" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
-      <c r="A172" t="s">
-        <v>24</v>
-      </c>
-      <c r="B172" t="s">
-        <v>24</v>
-      </c>
-      <c r="C172" t="s">
-        <v>24</v>
-      </c>
-      <c r="D172" t="s">
-        <v>180</v>
-      </c>
-      <c r="E172" t="s">
-        <v>19</v>
-      </c>
-      <c r="F172">
-        <v>200</v>
-      </c>
-      <c r="G172" t="s">
-        <v>26</v>
-      </c>
-      <c r="H172" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" t="b">
-        <v>0</v>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="b">
-        <v>0</v>
-      </c>
-      <c r="M172" t="b">
-        <v>0</v>
-      </c>
-      <c r="N172" t="s">
-        <v>19</v>
-      </c>
-      <c r="P172" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
-      <c r="A174">
-        <v>5</v>
-      </c>
-      <c r="B174" t="s">
-        <v>181</v>
-      </c>
-      <c r="C174" t="s">
-        <v>182</v>
-      </c>
-      <c r="D174" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s">
-        <v>20</v>
-      </c>
       <c r="H174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
@@ -7964,13 +8020,10 @@
         <v>0</v>
       </c>
       <c r="N174" t="s">
-        <v>21</v>
-      </c>
-      <c r="O174" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P174" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -7984,13 +8037,13 @@
         <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E175" t="s">
         <v>19</v>
       </c>
       <c r="F175">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G175" t="s">
         <v>26</v>
@@ -8002,10 +8055,10 @@
         <v>0</v>
       </c>
       <c r="J175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" t="b">
         <v>0</v>
@@ -8020,65 +8073,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
-      <c r="A176" t="s">
-        <v>24</v>
-      </c>
-      <c r="B176" t="s">
-        <v>24</v>
-      </c>
-      <c r="C176" t="s">
-        <v>24</v>
-      </c>
-      <c r="D176" t="s">
-        <v>131</v>
-      </c>
-      <c r="E176" t="s">
-        <v>19</v>
-      </c>
-      <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s">
-        <v>20</v>
-      </c>
-      <c r="H176" t="b">
-        <v>0</v>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="b">
-        <v>1</v>
-      </c>
-      <c r="K176" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" t="b">
-        <v>0</v>
-      </c>
-      <c r="M176" t="b">
-        <v>0</v>
-      </c>
-      <c r="N176" t="s">
-        <v>19</v>
-      </c>
-      <c r="P176" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="177" spans="1:16">
-      <c r="A177" t="s">
-        <v>24</v>
+      <c r="A177">
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="D177" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
@@ -8090,10 +8096,10 @@
         <v>20</v>
       </c>
       <c r="H177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="b">
         <v>1</v>
@@ -8108,10 +8114,13 @@
         <v>0</v>
       </c>
       <c r="N177" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O177" t="s">
+        <v>22</v>
       </c>
       <c r="P177" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -8125,16 +8134,16 @@
         <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E178" t="s">
-        <v>93</v>
-      </c>
-      <c r="F178" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F178">
+        <v>60</v>
       </c>
       <c r="G178" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H178" t="b">
         <v>0</v>
@@ -8143,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178" t="b">
         <v>0</v>
@@ -8161,18 +8170,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="179" spans="1:16">
+      <c r="A179" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" t="s">
+        <v>134</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="b">
+        <v>1</v>
+      </c>
+      <c r="K179" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" t="b">
+        <v>0</v>
+      </c>
+      <c r="M179" t="b">
+        <v>0</v>
+      </c>
+      <c r="N179" t="s">
+        <v>19</v>
+      </c>
+      <c r="P179" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="180" spans="1:16">
-      <c r="A180">
-        <v>5</v>
+      <c r="A180" t="s">
+        <v>24</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="E180" t="s">
         <v>19</v>
@@ -8184,10 +8240,10 @@
         <v>20</v>
       </c>
       <c r="H180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="b">
         <v>1</v>
@@ -8202,13 +8258,10 @@
         <v>0</v>
       </c>
       <c r="N180" t="s">
-        <v>21</v>
-      </c>
-      <c r="O180" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P180" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -8222,101 +8275,54 @@
         <v>24</v>
       </c>
       <c r="D181" t="s">
+        <v>178</v>
+      </c>
+      <c r="E181" t="s">
+        <v>93</v>
+      </c>
+      <c r="F181" t="s">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>91</v>
+      </c>
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" t="b">
+        <v>0</v>
+      </c>
+      <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" t="b">
+        <v>0</v>
+      </c>
+      <c r="M181" t="b">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
+        <v>19</v>
+      </c>
+      <c r="P181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="A183">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
         <v>184</v>
       </c>
-      <c r="E181" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181">
-        <v>60</v>
-      </c>
-      <c r="G181" t="s">
-        <v>26</v>
-      </c>
-      <c r="H181" t="b">
-        <v>0</v>
-      </c>
-      <c r="I181" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" t="b">
-        <v>1</v>
-      </c>
-      <c r="K181" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" t="b">
-        <v>0</v>
-      </c>
-      <c r="M181" t="b">
-        <v>0</v>
-      </c>
-      <c r="N181" t="s">
-        <v>19</v>
-      </c>
-      <c r="P181" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16">
-      <c r="A182" t="s">
-        <v>24</v>
-      </c>
-      <c r="B182" t="s">
-        <v>24</v>
-      </c>
-      <c r="C182" t="s">
-        <v>24</v>
-      </c>
-      <c r="D182" t="s">
-        <v>112</v>
-      </c>
-      <c r="E182" t="s">
-        <v>19</v>
-      </c>
-      <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s">
-        <v>20</v>
-      </c>
-      <c r="H182" t="b">
-        <v>0</v>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="b">
-        <v>1</v>
-      </c>
-      <c r="K182" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" t="b">
-        <v>0</v>
-      </c>
-      <c r="M182" t="b">
-        <v>0</v>
-      </c>
-      <c r="N182" t="s">
-        <v>19</v>
-      </c>
-      <c r="P182" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16">
-      <c r="A183" t="s">
-        <v>24</v>
-      </c>
-      <c r="B183" t="s">
-        <v>24</v>
-      </c>
       <c r="C183" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="D183" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -8328,10 +8334,10 @@
         <v>20</v>
       </c>
       <c r="H183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="b">
         <v>1</v>
@@ -8346,10 +8352,13 @@
         <v>0</v>
       </c>
       <c r="N183" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O183" t="s">
+        <v>22</v>
       </c>
       <c r="P183" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -8363,16 +8372,16 @@
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>93</v>
-      </c>
-      <c r="F184" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F184">
+        <v>60</v>
       </c>
       <c r="G184" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -8381,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" t="b">
         <v>0</v>
@@ -8399,18 +8408,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="185" spans="1:16">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185" t="s">
+        <v>115</v>
+      </c>
+      <c r="E185" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" t="s">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" t="b">
+        <v>0</v>
+      </c>
+      <c r="M185" t="b">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
+        <v>19</v>
+      </c>
+      <c r="P185" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="186" spans="1:16">
-      <c r="A186">
-        <v>6</v>
+      <c r="A186" t="s">
+        <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C186" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" t="s">
         <v>188</v>
-      </c>
-      <c r="D186" t="s">
-        <v>18</v>
       </c>
       <c r="E186" t="s">
         <v>19</v>
@@ -8422,10 +8478,10 @@
         <v>20</v>
       </c>
       <c r="H186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="b">
         <v>1</v>
@@ -8440,13 +8496,10 @@
         <v>0</v>
       </c>
       <c r="N186" t="s">
-        <v>21</v>
-      </c>
-      <c r="O186" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P186" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -8460,16 +8513,16 @@
         <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E187" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187">
-        <v>60</v>
+        <v>93</v>
+      </c>
+      <c r="F187" t="s">
+        <v>19</v>
       </c>
       <c r="G187" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H187" t="b">
         <v>0</v>
@@ -8478,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" t="b">
         <v>0</v>
@@ -8496,65 +8549,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
-      <c r="A188" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188" t="s">
-        <v>24</v>
-      </c>
-      <c r="C188" t="s">
-        <v>24</v>
-      </c>
-      <c r="D188" t="s">
-        <v>185</v>
-      </c>
-      <c r="E188" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" t="s">
-        <v>19</v>
-      </c>
-      <c r="G188" t="s">
-        <v>20</v>
-      </c>
-      <c r="H188" t="b">
-        <v>0</v>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="b">
-        <v>1</v>
-      </c>
-      <c r="K188" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" t="b">
-        <v>0</v>
-      </c>
-      <c r="M188" t="b">
-        <v>0</v>
-      </c>
-      <c r="N188" t="s">
-        <v>19</v>
-      </c>
-      <c r="P188" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="189" spans="1:16">
-      <c r="A189" t="s">
-        <v>24</v>
+      <c r="A189">
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="D189" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="E189" t="s">
         <v>19</v>
@@ -8566,10 +8572,10 @@
         <v>20</v>
       </c>
       <c r="H189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="b">
         <v>1</v>
@@ -8584,10 +8590,13 @@
         <v>0</v>
       </c>
       <c r="N189" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O189" t="s">
+        <v>22</v>
       </c>
       <c r="P189" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -8601,16 +8610,16 @@
         <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E190" t="s">
-        <v>93</v>
-      </c>
-      <c r="F190" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="F190">
+        <v>60</v>
       </c>
       <c r="G190" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H190" t="b">
         <v>0</v>
@@ -8619,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190" t="b">
         <v>0</v>
@@ -8637,18 +8646,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="191" spans="1:16">
+      <c r="A191" t="s">
+        <v>24</v>
+      </c>
+      <c r="B191" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" t="s">
+        <v>188</v>
+      </c>
+      <c r="E191" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" t="s">
+        <v>19</v>
+      </c>
+      <c r="G191" t="s">
+        <v>20</v>
+      </c>
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191" t="b">
+        <v>1</v>
+      </c>
+      <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" t="b">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
+        <v>19</v>
+      </c>
+      <c r="P191" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="192" spans="1:16">
-      <c r="A192">
-        <v>5</v>
+      <c r="A192" t="s">
+        <v>24</v>
       </c>
       <c r="B192" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="C192" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8660,10 +8716,10 @@
         <v>20</v>
       </c>
       <c r="H192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
@@ -8678,13 +8734,10 @@
         <v>0</v>
       </c>
       <c r="N192" t="s">
-        <v>21</v>
-      </c>
-      <c r="O192" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P192" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -8698,148 +8751,151 @@
         <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="E193" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F193" t="s">
         <v>19</v>
       </c>
       <c r="G193" t="s">
+        <v>91</v>
+      </c>
+      <c r="H193" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" t="b">
+        <v>0</v>
+      </c>
+      <c r="K193" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" t="b">
+        <v>0</v>
+      </c>
+      <c r="M193" t="b">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
+        <v>19</v>
+      </c>
+      <c r="P193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>136</v>
+      </c>
+      <c r="C195" t="s">
+        <v>193</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" t="s">
+        <v>19</v>
+      </c>
+      <c r="G195" t="s">
         <v>20</v>
       </c>
-      <c r="H193" t="b">
-        <v>0</v>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="b">
-        <v>1</v>
-      </c>
-      <c r="K193" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" t="b">
-        <v>0</v>
-      </c>
-      <c r="M193" t="b">
-        <v>0</v>
-      </c>
-      <c r="N193" t="s">
-        <v>19</v>
-      </c>
-      <c r="P193" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16">
-      <c r="A194" t="s">
-        <v>24</v>
-      </c>
-      <c r="B194" t="s">
-        <v>24</v>
-      </c>
-      <c r="C194" t="s">
-        <v>24</v>
-      </c>
-      <c r="D194" t="s">
-        <v>131</v>
-      </c>
-      <c r="E194" t="s">
-        <v>19</v>
-      </c>
-      <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="H195" t="b">
+        <v>1</v>
+      </c>
+      <c r="I195" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" t="b">
+        <v>1</v>
+      </c>
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" t="b">
+        <v>0</v>
+      </c>
+      <c r="M195" t="b">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
+        <v>21</v>
+      </c>
+      <c r="O195" t="s">
+        <v>22</v>
+      </c>
+      <c r="P195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="A196" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" t="s">
+        <v>24</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s">
+        <v>168</v>
+      </c>
+      <c r="E196" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" t="s">
+        <v>19</v>
+      </c>
+      <c r="G196" t="s">
         <v>20</v>
       </c>
-      <c r="H194" t="b">
-        <v>0</v>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="b">
-        <v>1</v>
-      </c>
-      <c r="K194" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" t="b">
-        <v>0</v>
-      </c>
-      <c r="M194" t="b">
-        <v>0</v>
-      </c>
-      <c r="N194" t="s">
-        <v>19</v>
-      </c>
-      <c r="P194" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16">
-      <c r="A195" t="s">
-        <v>24</v>
-      </c>
-      <c r="B195" t="s">
-        <v>24</v>
-      </c>
-      <c r="C195" t="s">
-        <v>24</v>
-      </c>
-      <c r="D195" t="s">
-        <v>192</v>
-      </c>
-      <c r="E195" t="s">
-        <v>93</v>
-      </c>
-      <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
-        <v>91</v>
-      </c>
-      <c r="H195" t="b">
-        <v>0</v>
-      </c>
-      <c r="I195" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" t="b">
-        <v>0</v>
-      </c>
-      <c r="K195" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" t="b">
-        <v>0</v>
-      </c>
-      <c r="M195" t="b">
-        <v>0</v>
-      </c>
-      <c r="N195" t="s">
-        <v>19</v>
-      </c>
-      <c r="P195" t="s">
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="b">
+        <v>1</v>
+      </c>
+      <c r="K196" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" t="b">
+        <v>0</v>
+      </c>
+      <c r="M196" t="b">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
+        <v>19</v>
+      </c>
+      <c r="P196" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:16">
-      <c r="A197">
-        <v>5</v>
+      <c r="A197" t="s">
+        <v>24</v>
       </c>
       <c r="B197" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="C197" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E197" t="s">
         <v>19</v>
@@ -8851,10 +8907,10 @@
         <v>20</v>
       </c>
       <c r="H197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="b">
         <v>1</v>
@@ -8869,13 +8925,10 @@
         <v>0</v>
       </c>
       <c r="N197" t="s">
-        <v>21</v>
-      </c>
-      <c r="O197" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P197" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -8892,145 +8945,148 @@
         <v>195</v>
       </c>
       <c r="E198" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F198" t="s">
         <v>19</v>
       </c>
       <c r="G198" t="s">
+        <v>91</v>
+      </c>
+      <c r="H198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I198" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" t="b">
+        <v>0</v>
+      </c>
+      <c r="K198" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" t="b">
+        <v>0</v>
+      </c>
+      <c r="M198" t="b">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
+        <v>19</v>
+      </c>
+      <c r="P198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>184</v>
+      </c>
+      <c r="C200" t="s">
+        <v>196</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" t="s">
+        <v>19</v>
+      </c>
+      <c r="G200" t="s">
         <v>20</v>
       </c>
-      <c r="H198" t="b">
-        <v>0</v>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="b">
-        <v>1</v>
-      </c>
-      <c r="K198" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" t="b">
-        <v>0</v>
-      </c>
-      <c r="M198" t="b">
-        <v>0</v>
-      </c>
-      <c r="N198" t="s">
-        <v>19</v>
-      </c>
-      <c r="P198" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16">
-      <c r="A199" t="s">
-        <v>24</v>
-      </c>
-      <c r="B199" t="s">
-        <v>24</v>
-      </c>
-      <c r="C199" t="s">
-        <v>24</v>
-      </c>
-      <c r="D199" t="s">
-        <v>131</v>
-      </c>
-      <c r="E199" t="s">
-        <v>19</v>
-      </c>
-      <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s">
+      <c r="H200" t="b">
+        <v>1</v>
+      </c>
+      <c r="I200" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" t="b">
+        <v>1</v>
+      </c>
+      <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" t="b">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
+        <v>21</v>
+      </c>
+      <c r="O200" t="s">
+        <v>22</v>
+      </c>
+      <c r="P200" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" t="s">
+        <v>198</v>
+      </c>
+      <c r="E201" t="s">
+        <v>19</v>
+      </c>
+      <c r="F201" t="s">
+        <v>19</v>
+      </c>
+      <c r="G201" t="s">
         <v>20</v>
       </c>
-      <c r="H199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="b">
-        <v>1</v>
-      </c>
-      <c r="K199" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" t="b">
-        <v>0</v>
-      </c>
-      <c r="M199" t="b">
-        <v>0</v>
-      </c>
-      <c r="N199" t="s">
-        <v>19</v>
-      </c>
-      <c r="P199" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16">
-      <c r="A200" t="s">
-        <v>24</v>
-      </c>
-      <c r="B200" t="s">
-        <v>24</v>
-      </c>
-      <c r="C200" t="s">
-        <v>24</v>
-      </c>
-      <c r="D200" t="s">
-        <v>196</v>
-      </c>
-      <c r="E200" t="s">
-        <v>93</v>
-      </c>
-      <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" t="s">
-        <v>91</v>
-      </c>
-      <c r="H200" t="b">
-        <v>0</v>
-      </c>
-      <c r="I200" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" t="b">
-        <v>0</v>
-      </c>
-      <c r="K200" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" t="b">
-        <v>0</v>
-      </c>
-      <c r="M200" t="b">
-        <v>0</v>
-      </c>
-      <c r="N200" t="s">
-        <v>19</v>
-      </c>
-      <c r="P200" t="s">
+      <c r="H201" t="b">
+        <v>0</v>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="b">
+        <v>1</v>
+      </c>
+      <c r="K201" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" t="b">
+        <v>0</v>
+      </c>
+      <c r="M201" t="b">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
+        <v>19</v>
+      </c>
+      <c r="P201" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:16">
-      <c r="A202">
-        <v>7</v>
+      <c r="A202" t="s">
+        <v>24</v>
       </c>
       <c r="B202" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C202" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E202" t="s">
         <v>19</v>
@@ -9042,10 +9098,10 @@
         <v>20</v>
       </c>
       <c r="H202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="b">
         <v>1</v>
@@ -9060,13 +9116,10 @@
         <v>0</v>
       </c>
       <c r="N202" t="s">
-        <v>21</v>
-      </c>
-      <c r="O202" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P202" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -9080,25 +9133,25 @@
         <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="E203" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F203" t="s">
         <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
       </c>
       <c r="I203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -9110,74 +9163,27 @@
         <v>0</v>
       </c>
       <c r="N203" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P203" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
-      <c r="A204" t="s">
-        <v>24</v>
-      </c>
-      <c r="B204" t="s">
-        <v>24</v>
-      </c>
-      <c r="C204" t="s">
-        <v>24</v>
-      </c>
-      <c r="D204" t="s">
-        <v>195</v>
-      </c>
-      <c r="E204" t="s">
-        <v>19</v>
-      </c>
-      <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" t="s">
-        <v>20</v>
-      </c>
-      <c r="H204" t="b">
-        <v>0</v>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="b">
-        <v>1</v>
-      </c>
-      <c r="K204" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" t="b">
-        <v>0</v>
-      </c>
-      <c r="M204" t="b">
-        <v>0</v>
-      </c>
-      <c r="N204" t="s">
-        <v>19</v>
-      </c>
-      <c r="P204" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="205" spans="1:16">
-      <c r="A205" t="s">
-        <v>24</v>
+      <c r="A205">
+        <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="D205" t="s">
-        <v>172</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E205" t="s">
+        <v>19</v>
       </c>
       <c r="F205" t="s">
         <v>19</v>
@@ -9186,7 +9192,7 @@
         <v>20</v>
       </c>
       <c r="H205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="b">
         <v>0</v>
@@ -9204,10 +9210,13 @@
         <v>0</v>
       </c>
       <c r="N205" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O205" t="s">
+        <v>22</v>
       </c>
       <c r="P205" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -9221,22 +9230,22 @@
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>142</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206">
+        <v>169</v>
+      </c>
+      <c r="E206" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206" t="s">
         <v>19</v>
       </c>
       <c r="G206" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="H206" t="b">
         <v>0</v>
       </c>
       <c r="I206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="b">
         <v>1</v>
@@ -9251,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="N206" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="P206" t="s">
         <v>24</v>
@@ -9268,7 +9277,7 @@
         <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E207" t="s">
         <v>19</v>
@@ -9286,16 +9295,16 @@
         <v>1</v>
       </c>
       <c r="J207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L207" t="b">
         <v>0</v>
       </c>
       <c r="M207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N207" t="s">
         <v>19</v>
@@ -9304,30 +9313,77 @@
         <v>24</v>
       </c>
     </row>
+    <row r="208" spans="1:16">
+      <c r="A208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" t="s">
+        <v>24</v>
+      </c>
+      <c r="C208" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" t="s">
+        <v>175</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>20</v>
+      </c>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" t="b">
+        <v>1</v>
+      </c>
+      <c r="K208" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" t="b">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
+        <v>19</v>
+      </c>
+      <c r="P208" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="209" spans="1:16">
-      <c r="A209">
-        <v>7</v>
+      <c r="A209" t="s">
+        <v>24</v>
       </c>
       <c r="B209" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C209" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>18</v>
-      </c>
-      <c r="E209" t="s">
-        <v>19</v>
-      </c>
-      <c r="F209" t="s">
+        <v>145</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
         <v>19</v>
       </c>
       <c r="G209" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="b">
         <v>0</v>
@@ -9345,13 +9401,10 @@
         <v>0</v>
       </c>
       <c r="N209" t="s">
-        <v>21</v>
-      </c>
-      <c r="O209" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="P209" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -9365,10 +9418,10 @@
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>201</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="E210" t="s">
+        <v>19</v>
       </c>
       <c r="F210" t="s">
         <v>19</v>
@@ -9380,19 +9433,19 @@
         <v>0</v>
       </c>
       <c r="I210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L210" t="b">
         <v>0</v>
       </c>
       <c r="M210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N210" t="s">
         <v>19</v>
@@ -9401,65 +9454,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
-      <c r="A211" t="s">
-        <v>24</v>
-      </c>
-      <c r="B211" t="s">
-        <v>24</v>
-      </c>
-      <c r="C211" t="s">
-        <v>24</v>
-      </c>
-      <c r="D211" t="s">
+    <row r="212" spans="1:16">
+      <c r="A212">
+        <v>7</v>
+      </c>
+      <c r="B212" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212" t="s">
         <v>202</v>
       </c>
-      <c r="E211" t="s">
-        <v>93</v>
-      </c>
-      <c r="F211" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" t="s">
-        <v>91</v>
-      </c>
-      <c r="H211" t="b">
-        <v>0</v>
-      </c>
-      <c r="I211" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" t="b">
-        <v>0</v>
-      </c>
-      <c r="K211" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" t="b">
-        <v>0</v>
-      </c>
-      <c r="M211" t="b">
-        <v>0</v>
-      </c>
-      <c r="N211" t="s">
-        <v>19</v>
-      </c>
-      <c r="P211" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16">
-      <c r="A212" t="s">
-        <v>24</v>
-      </c>
-      <c r="B212" t="s">
-        <v>24</v>
-      </c>
-      <c r="C212" t="s">
-        <v>24</v>
-      </c>
       <c r="D212" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="E212" t="s">
         <v>19</v>
@@ -9471,10 +9477,10 @@
         <v>20</v>
       </c>
       <c r="H212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="b">
         <v>1</v>
@@ -9489,10 +9495,13 @@
         <v>0</v>
       </c>
       <c r="N212" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O212" t="s">
+        <v>22</v>
       </c>
       <c r="P212" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -9506,10 +9515,10 @@
         <v>24</v>
       </c>
       <c r="D213" t="s">
-        <v>116</v>
-      </c>
-      <c r="E213" t="s">
-        <v>19</v>
+        <v>204</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
       </c>
       <c r="F213" t="s">
         <v>19</v>
@@ -9521,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="b">
         <v>1</v>
@@ -9553,25 +9562,25 @@
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E214" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F214" t="s">
         <v>19</v>
       </c>
       <c r="G214" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="H214" t="b">
         <v>0</v>
       </c>
       <c r="I214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -9600,7 +9609,7 @@
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="E215" t="s">
         <v>19</v>
@@ -9618,21 +9627,162 @@
         <v>1</v>
       </c>
       <c r="J215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215" t="b">
         <v>0</v>
       </c>
       <c r="M215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N215" t="s">
         <v>19</v>
       </c>
       <c r="P215" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16">
+      <c r="A216" t="s">
+        <v>24</v>
+      </c>
+      <c r="B216" t="s">
+        <v>24</v>
+      </c>
+      <c r="C216" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" t="s">
+        <v>119</v>
+      </c>
+      <c r="E216" t="s">
+        <v>19</v>
+      </c>
+      <c r="F216" t="s">
+        <v>19</v>
+      </c>
+      <c r="G216" t="s">
+        <v>20</v>
+      </c>
+      <c r="H216" t="b">
+        <v>0</v>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="b">
+        <v>1</v>
+      </c>
+      <c r="K216" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" t="b">
+        <v>0</v>
+      </c>
+      <c r="M216" t="b">
+        <v>0</v>
+      </c>
+      <c r="N216" t="s">
+        <v>19</v>
+      </c>
+      <c r="P216" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16">
+      <c r="A217" t="s">
+        <v>24</v>
+      </c>
+      <c r="B217" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>206</v>
+      </c>
+      <c r="E217" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217" t="s">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>20</v>
+      </c>
+      <c r="H217" t="b">
+        <v>0</v>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="b">
+        <v>1</v>
+      </c>
+      <c r="K217" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" t="b">
+        <v>0</v>
+      </c>
+      <c r="M217" t="b">
+        <v>0</v>
+      </c>
+      <c r="N217" t="s">
+        <v>19</v>
+      </c>
+      <c r="P217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16">
+      <c r="A218" t="s">
+        <v>24</v>
+      </c>
+      <c r="B218" t="s">
+        <v>24</v>
+      </c>
+      <c r="C218" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" t="s">
+        <v>169</v>
+      </c>
+      <c r="E218" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218" t="s">
+        <v>19</v>
+      </c>
+      <c r="G218" t="s">
+        <v>20</v>
+      </c>
+      <c r="H218" t="b">
+        <v>0</v>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="b">
+        <v>0</v>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="b">
+        <v>0</v>
+      </c>
+      <c r="M218" t="b">
+        <v>1</v>
+      </c>
+      <c r="N218" t="s">
+        <v>19</v>
+      </c>
+      <c r="P218" t="s">
         <v>24</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="210">
   <si>
     <t>Load Order</t>
   </si>
@@ -130,9 +130,6 @@
     <t>bit</t>
   </si>
   <si>
-    <t>Soft Delete Bool</t>
-  </si>
-  <si>
     <t>Umair Shamsuddin</t>
   </si>
   <si>
@@ -160,7 +157,7 @@
     <t>RewardStatus</t>
   </si>
   <si>
-    <t>Defines whether a particular reward is active/inactive. Primary attributes: active, inactive</t>
+    <t>Defines whether a particular reward is active/inactive. Core attributes: active, inactive</t>
   </si>
   <si>
     <t>BanType</t>
@@ -286,6 +283,12 @@
     <t>phone_number</t>
   </si>
   <si>
+    <t>+19043335252</t>
+  </si>
+  <si>
+    <t>xxx-xxx-xxxx</t>
+  </si>
+  <si>
     <t>birthdate</t>
   </si>
   <si>
@@ -298,6 +301,9 @@
     <t>CDate</t>
   </si>
   <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
     <t>location_id</t>
   </si>
   <si>
@@ -524,6 +530,9 @@
   </si>
   <si>
     <t>order_id</t>
+  </si>
+  <si>
+    <t>points_eligible</t>
   </si>
   <si>
     <t>Reward</t>
@@ -682,8 +691,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P220" totalsRowShown="0">
-  <autoFilter ref="A1:P220"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P221" totalsRowShown="0">
+  <autoFilter ref="A1:P221"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Load Order"/>
     <tableColumn id="2" name="Owner"/>
@@ -991,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P218"/>
+  <dimension ref="A1:P219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,9 +1549,6 @@
       <c r="N13" t="s">
         <v>19</v>
       </c>
-      <c r="O13" t="s">
-        <v>38</v>
-      </c>
       <c r="P13" t="s">
         <v>24</v>
       </c>
@@ -1552,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1594,7 +1600,7 @@
         <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1734,9 +1740,6 @@
       <c r="N18" t="s">
         <v>19</v>
       </c>
-      <c r="O18" t="s">
-        <v>38</v>
-      </c>
       <c r="P18" t="s">
         <v>24</v>
       </c>
@@ -1746,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1788,7 +1791,7 @@
         <v>22</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1928,9 +1931,6 @@
       <c r="N23" t="s">
         <v>19</v>
       </c>
-      <c r="O23" t="s">
-        <v>38</v>
-      </c>
       <c r="P23" t="s">
         <v>24</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1982,7 +1982,7 @@
         <v>22</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2122,9 +2122,6 @@
       <c r="N28" t="s">
         <v>19</v>
       </c>
-      <c r="O28" t="s">
-        <v>38</v>
-      </c>
       <c r="P28" t="s">
         <v>24</v>
       </c>
@@ -2137,7 +2134,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -2176,7 +2173,7 @@
         <v>22</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2316,9 +2313,6 @@
       <c r="N33" t="s">
         <v>19</v>
       </c>
-      <c r="O33" t="s">
-        <v>38</v>
-      </c>
       <c r="P33" t="s">
         <v>24</v>
       </c>
@@ -2331,7 +2325,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -2370,7 +2364,7 @@
         <v>22</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2384,7 +2378,7 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -2431,7 +2425,7 @@
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -2472,10 +2466,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
         <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -2514,7 +2508,7 @@
         <v>22</v>
       </c>
       <c r="P39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2528,7 +2522,7 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -2575,7 +2569,7 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -2619,7 +2613,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -2658,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="P43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2672,7 +2666,7 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -2716,7 +2710,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -2755,7 +2749,7 @@
         <v>22</v>
       </c>
       <c r="P46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2769,7 +2763,7 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -2816,7 +2810,7 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>233</v>
@@ -2857,10 +2851,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
         <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2899,7 +2893,7 @@
         <v>22</v>
       </c>
       <c r="P50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2913,10 +2907,10 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" t="s">
         <v>68</v>
-      </c>
-      <c r="E51" t="s">
-        <v>69</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -2960,10 +2954,10 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" t="s">
         <v>70</v>
-      </c>
-      <c r="E52" t="s">
-        <v>71</v>
       </c>
       <c r="F52">
         <v>35</v>
@@ -3007,10 +3001,10 @@
         <v>24</v>
       </c>
       <c r="D53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" t="s">
         <v>72</v>
-      </c>
-      <c r="E53" t="s">
-        <v>73</v>
       </c>
       <c r="F53">
         <v>100</v>
@@ -3054,7 +3048,7 @@
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54">
         <v>1407</v>
@@ -3101,7 +3095,7 @@
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55">
         <v>233</v>
@@ -3142,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -3184,7 +3178,7 @@
         <v>22</v>
       </c>
       <c r="P57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3198,7 +3192,7 @@
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
@@ -3245,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -3292,7 +3286,7 @@
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3336,7 +3330,7 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -3375,7 +3369,7 @@
         <v>22</v>
       </c>
       <c r="P62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3389,7 +3383,7 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -3436,7 +3430,7 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -3477,10 +3471,10 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -3519,7 +3513,7 @@
         <v>22</v>
       </c>
       <c r="P66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3533,7 +3527,7 @@
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3580,7 +3574,7 @@
         <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -3627,7 +3621,7 @@
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
@@ -3674,10 +3668,10 @@
         <v>24</v>
       </c>
       <c r="D70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" t="s">
         <v>89</v>
-      </c>
-      <c r="E70" t="s">
-        <v>19</v>
       </c>
       <c r="F70">
         <v>15</v>
@@ -3706,6 +3700,9 @@
       <c r="N70" t="s">
         <v>19</v>
       </c>
+      <c r="O70" t="s">
+        <v>90</v>
+      </c>
       <c r="P70" t="s">
         <v>24</v>
       </c>
@@ -3721,7 +3718,7 @@
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -3730,7 +3727,7 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3768,17 +3765,17 @@
         <v>24</v>
       </c>
       <c r="D72" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
         <v>92</v>
       </c>
-      <c r="E72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>91</v>
-      </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
@@ -3799,6 +3796,9 @@
       </c>
       <c r="N72" t="s">
         <v>19</v>
+      </c>
+      <c r="O72" t="s">
+        <v>95</v>
       </c>
       <c r="P72" t="s">
         <v>24</v>
@@ -3815,7 +3815,7 @@
         <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3862,13 +3862,13 @@
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
@@ -3909,7 +3909,7 @@
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -3918,7 +3918,7 @@
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -4003,7 +4003,7 @@
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -4044,10 +4044,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -4086,7 +4086,7 @@
         <v>22</v>
       </c>
       <c r="P79" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4100,7 +4100,7 @@
         <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4147,7 +4147,7 @@
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4194,7 +4194,7 @@
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -4241,10 +4241,10 @@
         <v>24</v>
       </c>
       <c r="D83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" t="s">
         <v>89</v>
-      </c>
-      <c r="E83" t="s">
-        <v>19</v>
       </c>
       <c r="F83">
         <v>15</v>
@@ -4273,6 +4273,9 @@
       <c r="N83" t="s">
         <v>19</v>
       </c>
+      <c r="O83" t="s">
+        <v>90</v>
+      </c>
       <c r="P83" t="s">
         <v>24</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4297,7 +4300,7 @@
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -4335,17 +4338,17 @@
         <v>24</v>
       </c>
       <c r="D85" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
         <v>92</v>
       </c>
-      <c r="E85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>91</v>
-      </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
@@ -4366,6 +4369,9 @@
       </c>
       <c r="N85" t="s">
         <v>19</v>
+      </c>
+      <c r="O85" t="s">
+        <v>95</v>
       </c>
       <c r="P85" t="s">
         <v>24</v>
@@ -4382,13 +4388,13 @@
         <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G86" t="s">
         <v>26</v>
@@ -4429,7 +4435,7 @@
         <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -4476,7 +4482,7 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4523,7 +4529,7 @@
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4570,7 +4576,7 @@
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4617,7 +4623,7 @@
         <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4664,10 +4670,10 @@
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" t="s">
-        <v>19</v>
+        <v>110</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -4682,16 +4688,16 @@
         <v>1</v>
       </c>
       <c r="J92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
       </c>
       <c r="M92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="s">
         <v>19</v>
@@ -4711,7 +4717,7 @@
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
         <v>19</v>
@@ -4752,10 +4758,10 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -4794,7 +4800,7 @@
         <v>22</v>
       </c>
       <c r="P95" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4808,7 +4814,7 @@
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
@@ -4855,7 +4861,7 @@
         <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -4899,7 +4905,7 @@
         <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -4938,7 +4944,7 @@
         <v>22</v>
       </c>
       <c r="P99" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4952,7 +4958,7 @@
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -4999,7 +5005,7 @@
         <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
@@ -5043,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -5082,7 +5088,7 @@
         <v>22</v>
       </c>
       <c r="P103" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5096,7 +5102,7 @@
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -5143,7 +5149,7 @@
         <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E105" t="s">
         <v>19</v>
@@ -5184,10 +5190,10 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -5226,7 +5232,7 @@
         <v>22</v>
       </c>
       <c r="P107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5240,7 +5246,7 @@
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
@@ -5287,7 +5293,7 @@
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
@@ -5328,10 +5334,10 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -5370,7 +5376,7 @@
         <v>22</v>
       </c>
       <c r="P111" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5384,7 +5390,7 @@
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -5431,10 +5437,10 @@
         <v>24</v>
       </c>
       <c r="D113" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" t="s">
         <v>89</v>
-      </c>
-      <c r="E113" t="s">
-        <v>19</v>
       </c>
       <c r="F113">
         <v>15</v>
@@ -5463,6 +5469,9 @@
       <c r="N113" t="s">
         <v>19</v>
       </c>
+      <c r="O113" t="s">
+        <v>90</v>
+      </c>
       <c r="P113" t="s">
         <v>24</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E114" t="s">
         <v>19</v>
@@ -5525,7 +5534,7 @@
         <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
@@ -5572,7 +5581,7 @@
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
@@ -5619,7 +5628,7 @@
         <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -5666,7 +5675,7 @@
         <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E118" t="s">
         <v>19</v>
@@ -5675,7 +5684,7 @@
         <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -5713,7 +5722,7 @@
         <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
@@ -5722,7 +5731,7 @@
         <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -5760,7 +5769,7 @@
         <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -5769,7 +5778,7 @@
         <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -5801,10 +5810,10 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D122" t="s">
         <v>18</v>
@@ -5843,7 +5852,7 @@
         <v>22</v>
       </c>
       <c r="P122" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -5857,16 +5866,16 @@
         <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E123" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -5904,7 +5913,7 @@
         <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" t="s">
         <v>19</v>
@@ -5951,7 +5960,7 @@
         <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -5998,7 +6007,7 @@
         <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -6039,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
@@ -6081,7 +6090,7 @@
         <v>22</v>
       </c>
       <c r="P128" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -6095,16 +6104,16 @@
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -6142,7 +6151,7 @@
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6151,7 +6160,7 @@
         <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
@@ -6172,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P130" t="s">
         <v>24</v>
@@ -6189,7 +6198,7 @@
         <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6198,28 +6207,28 @@
         <v>19</v>
       </c>
       <c r="G131" t="s">
+        <v>146</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
         <v>144</v>
-      </c>
-      <c r="H131" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K131" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" t="b">
-        <v>0</v>
-      </c>
-      <c r="M131" t="b">
-        <v>0</v>
-      </c>
-      <c r="N131" t="s">
-        <v>142</v>
       </c>
       <c r="P131" t="s">
         <v>24</v>
@@ -6236,7 +6245,7 @@
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6245,28 +6254,28 @@
         <v>19</v>
       </c>
       <c r="G132" t="s">
+        <v>146</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
         <v>144</v>
-      </c>
-      <c r="H132" t="b">
-        <v>0</v>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="b">
-        <v>1</v>
-      </c>
-      <c r="K132" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" t="b">
-        <v>0</v>
-      </c>
-      <c r="M132" t="b">
-        <v>0</v>
-      </c>
-      <c r="N132" t="s">
-        <v>142</v>
       </c>
       <c r="P132" t="s">
         <v>24</v>
@@ -6283,37 +6292,37 @@
         <v>24</v>
       </c>
       <c r="D133" t="s">
+        <v>148</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
         <v>146</v>
       </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
         <v>144</v>
-      </c>
-      <c r="H133" t="b">
-        <v>0</v>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" t="b">
-        <v>0</v>
-      </c>
-      <c r="M133" t="b">
-        <v>0</v>
-      </c>
-      <c r="N133" t="s">
-        <v>142</v>
       </c>
       <c r="P133" t="s">
         <v>24</v>
@@ -6330,7 +6339,7 @@
         <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6377,7 +6386,7 @@
         <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -6424,7 +6433,7 @@
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6471,7 +6480,7 @@
         <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
@@ -6518,7 +6527,7 @@
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -6565,7 +6574,7 @@
         <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
@@ -6612,7 +6621,7 @@
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
@@ -6653,10 +6662,10 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
@@ -6695,7 +6704,7 @@
         <v>22</v>
       </c>
       <c r="P142" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -6709,7 +6718,7 @@
         <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -6756,7 +6765,7 @@
         <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E144" t="s">
         <v>19</v>
@@ -6797,10 +6806,10 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C146" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D146" t="s">
         <v>18</v>
@@ -6839,7 +6848,7 @@
         <v>22</v>
       </c>
       <c r="P146" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -6853,7 +6862,7 @@
         <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E147" t="s">
         <v>19</v>
@@ -6900,7 +6909,7 @@
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E148" t="s">
         <v>19</v>
@@ -6947,7 +6956,7 @@
         <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -6956,28 +6965,28 @@
         <v>19</v>
       </c>
       <c r="G149" t="s">
+        <v>146</v>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" t="b">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
         <v>144</v>
-      </c>
-      <c r="H149" t="b">
-        <v>0</v>
-      </c>
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K149" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" t="b">
-        <v>0</v>
-      </c>
-      <c r="M149" t="b">
-        <v>0</v>
-      </c>
-      <c r="N149" t="s">
-        <v>142</v>
       </c>
       <c r="P149" t="s">
         <v>24</v>
@@ -6994,7 +7003,7 @@
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
@@ -7041,7 +7050,7 @@
         <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
@@ -7088,7 +7097,7 @@
         <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E152" t="s">
         <v>19</v>
@@ -7129,10 +7138,10 @@
         <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C154" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
@@ -7171,7 +7180,7 @@
         <v>22</v>
       </c>
       <c r="P154" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -7185,7 +7194,7 @@
         <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7232,7 +7241,7 @@
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7241,28 +7250,28 @@
         <v>19</v>
       </c>
       <c r="G156" t="s">
+        <v>146</v>
+      </c>
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" t="b">
+        <v>1</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" t="b">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
         <v>144</v>
-      </c>
-      <c r="H156" t="b">
-        <v>0</v>
-      </c>
-      <c r="I156" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" t="b">
-        <v>1</v>
-      </c>
-      <c r="K156" t="b">
-        <v>0</v>
-      </c>
-      <c r="L156" t="b">
-        <v>0</v>
-      </c>
-      <c r="M156" t="b">
-        <v>0</v>
-      </c>
-      <c r="N156" t="s">
-        <v>142</v>
       </c>
       <c r="P156" t="s">
         <v>24</v>
@@ -7279,7 +7288,7 @@
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7288,28 +7297,28 @@
         <v>19</v>
       </c>
       <c r="G157" t="s">
+        <v>146</v>
+      </c>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" t="b">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
         <v>144</v>
-      </c>
-      <c r="H157" t="b">
-        <v>0</v>
-      </c>
-      <c r="I157" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" t="b">
-        <v>1</v>
-      </c>
-      <c r="K157" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" t="b">
-        <v>0</v>
-      </c>
-      <c r="M157" t="b">
-        <v>0</v>
-      </c>
-      <c r="N157" t="s">
-        <v>142</v>
       </c>
       <c r="P157" t="s">
         <v>24</v>
@@ -7326,7 +7335,7 @@
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E158" t="s">
         <v>19</v>
@@ -7373,7 +7382,7 @@
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E159" t="s">
         <v>19</v>
@@ -7409,101 +7418,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
-      <c r="A161">
+    <row r="160" spans="1:16">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" t="s">
+        <v>172</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s">
+        <v>37</v>
+      </c>
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" t="b">
+        <v>1</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" t="b">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
+        <v>19</v>
+      </c>
+      <c r="P160" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162">
         <v>3</v>
       </c>
-      <c r="B161" t="s">
-        <v>39</v>
-      </c>
-      <c r="C161" t="s">
-        <v>170</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="B162" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" t="s">
+        <v>173</v>
+      </c>
+      <c r="D162" t="s">
         <v>18</v>
       </c>
-      <c r="E161" t="s">
-        <v>19</v>
-      </c>
-      <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
         <v>20</v>
       </c>
-      <c r="H161" t="b">
-        <v>1</v>
-      </c>
-      <c r="I161" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" t="b">
-        <v>1</v>
-      </c>
-      <c r="K161" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" t="b">
-        <v>0</v>
-      </c>
-      <c r="M161" t="b">
-        <v>0</v>
-      </c>
-      <c r="N161" t="s">
+      <c r="H162" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="b">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
         <v>21</v>
       </c>
-      <c r="O161" t="s">
+      <c r="O162" t="s">
         <v>22</v>
       </c>
-      <c r="P161" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16">
-      <c r="A162" t="s">
-        <v>24</v>
-      </c>
-      <c r="B162" t="s">
-        <v>24</v>
-      </c>
-      <c r="C162" t="s">
-        <v>24</v>
-      </c>
-      <c r="D162" t="s">
-        <v>172</v>
-      </c>
-      <c r="E162" t="s">
-        <v>19</v>
-      </c>
-      <c r="F162">
-        <v>80</v>
-      </c>
-      <c r="G162" t="s">
-        <v>26</v>
-      </c>
-      <c r="H162" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" t="b">
-        <v>1</v>
-      </c>
-      <c r="K162" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" t="b">
-        <v>0</v>
-      </c>
-      <c r="M162" t="b">
-        <v>0</v>
-      </c>
-      <c r="N162" t="s">
-        <v>19</v>
-      </c>
       <c r="P162" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -7517,13 +7526,13 @@
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E163" t="s">
         <v>19</v>
       </c>
       <c r="F163">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G163" t="s">
         <v>26</v>
@@ -7535,10 +7544,10 @@
         <v>0</v>
       </c>
       <c r="J163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L163" t="b">
         <v>0</v>
@@ -7564,28 +7573,28 @@
         <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E164" t="s">
         <v>19</v>
       </c>
-      <c r="F164" t="s">
-        <v>19</v>
+      <c r="F164">
+        <v>200</v>
       </c>
       <c r="G164" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H164" t="b">
         <v>0</v>
       </c>
       <c r="I164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164" t="b">
         <v>0</v>
@@ -7611,10 +7620,10 @@
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>175</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="E165" t="s">
+        <v>19</v>
       </c>
       <c r="F165" t="s">
         <v>19</v>
@@ -7626,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
@@ -7658,7 +7667,7 @@
         <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7676,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="J166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L166" t="b">
         <v>0</v>
@@ -7705,16 +7714,16 @@
         <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="s">
         <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
@@ -7723,10 +7732,10 @@
         <v>0</v>
       </c>
       <c r="J167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167" t="b">
         <v>0</v>
@@ -7735,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="P167" t="s">
         <v>24</v>
@@ -7752,37 +7761,37 @@
         <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>177</v>
-      </c>
-      <c r="E168" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" t="s">
+        <v>147</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
         <v>19</v>
       </c>
       <c r="G168" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="H168" t="b">
         <v>0</v>
       </c>
       <c r="I168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L168" t="b">
         <v>0</v>
       </c>
       <c r="M168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N168" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="P168" t="s">
         <v>24</v>
@@ -7799,7 +7808,7 @@
         <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="E169" t="s">
         <v>19</v>
@@ -7846,34 +7855,34 @@
         <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="E170" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="F170" t="s">
         <v>19</v>
       </c>
       <c r="G170" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
       </c>
       <c r="I170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="b">
         <v>0</v>
       </c>
       <c r="K170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" t="b">
         <v>0</v>
       </c>
       <c r="M170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N170" t="s">
         <v>19</v>
@@ -7893,16 +7902,16 @@
         <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E171" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F171" t="s">
         <v>19</v>
       </c>
       <c r="G171" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
@@ -7914,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L171" t="b">
         <v>0</v>
@@ -7929,101 +7938,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
-      <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173" t="s">
-        <v>136</v>
-      </c>
-      <c r="C173" t="s">
-        <v>180</v>
-      </c>
-      <c r="D173" t="s">
+    <row r="172" spans="1:16">
+      <c r="A172" t="s">
+        <v>24</v>
+      </c>
+      <c r="B172" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" t="s">
+        <v>182</v>
+      </c>
+      <c r="E172" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" t="s">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s">
+        <v>92</v>
+      </c>
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
+        <v>19</v>
+      </c>
+      <c r="P172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>138</v>
+      </c>
+      <c r="C174" t="s">
+        <v>183</v>
+      </c>
+      <c r="D174" t="s">
         <v>18</v>
       </c>
-      <c r="E173" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s">
         <v>20</v>
       </c>
-      <c r="H173" t="b">
-        <v>1</v>
-      </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" t="b">
-        <v>1</v>
-      </c>
-      <c r="K173" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" t="b">
-        <v>0</v>
-      </c>
-      <c r="M173" t="b">
-        <v>0</v>
-      </c>
-      <c r="N173" t="s">
+      <c r="H174" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
         <v>21</v>
       </c>
-      <c r="O173" t="s">
+      <c r="O174" t="s">
         <v>22</v>
       </c>
-      <c r="P173" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
-      <c r="A174" t="s">
-        <v>24</v>
-      </c>
-      <c r="B174" t="s">
-        <v>24</v>
-      </c>
-      <c r="C174" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" t="s">
-        <v>182</v>
-      </c>
-      <c r="E174" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174">
-        <v>40</v>
-      </c>
-      <c r="G174" t="s">
-        <v>26</v>
-      </c>
-      <c r="H174" t="b">
-        <v>0</v>
-      </c>
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" t="b">
-        <v>1</v>
-      </c>
-      <c r="K174" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" t="b">
-        <v>0</v>
-      </c>
-      <c r="M174" t="b">
-        <v>0</v>
-      </c>
-      <c r="N174" t="s">
-        <v>19</v>
-      </c>
       <c r="P174" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -8037,13 +8046,13 @@
         <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E175" t="s">
         <v>19</v>
       </c>
       <c r="F175">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
         <v>26</v>
@@ -8055,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="J175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L175" t="b">
         <v>0</v>
@@ -8073,101 +8082,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
-      <c r="A177">
+    <row r="176" spans="1:16">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" t="s">
+        <v>186</v>
+      </c>
+      <c r="E176" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176">
+        <v>200</v>
+      </c>
+      <c r="G176" t="s">
+        <v>26</v>
+      </c>
+      <c r="H176" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" t="b">
+        <v>0</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="b">
+        <v>0</v>
+      </c>
+      <c r="M176" t="b">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
+        <v>19</v>
+      </c>
+      <c r="P176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="A178">
         <v>5</v>
       </c>
-      <c r="B177" t="s">
-        <v>184</v>
-      </c>
-      <c r="C177" t="s">
-        <v>185</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="B178" t="s">
+        <v>187</v>
+      </c>
+      <c r="C178" t="s">
+        <v>188</v>
+      </c>
+      <c r="D178" t="s">
         <v>18</v>
       </c>
-      <c r="E177" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" t="s">
+        <v>19</v>
+      </c>
+      <c r="G178" t="s">
         <v>20</v>
       </c>
-      <c r="H177" t="b">
-        <v>1</v>
-      </c>
-      <c r="I177" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" t="b">
-        <v>1</v>
-      </c>
-      <c r="K177" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" t="b">
-        <v>0</v>
-      </c>
-      <c r="M177" t="b">
-        <v>0</v>
-      </c>
-      <c r="N177" t="s">
+      <c r="H178" t="b">
+        <v>1</v>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" t="b">
+        <v>1</v>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
         <v>21</v>
       </c>
-      <c r="O177" t="s">
+      <c r="O178" t="s">
         <v>22</v>
       </c>
-      <c r="P177" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16">
-      <c r="A178" t="s">
-        <v>24</v>
-      </c>
-      <c r="B178" t="s">
-        <v>24</v>
-      </c>
-      <c r="C178" t="s">
-        <v>24</v>
-      </c>
-      <c r="D178" t="s">
-        <v>187</v>
-      </c>
-      <c r="E178" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178">
-        <v>60</v>
-      </c>
-      <c r="G178" t="s">
-        <v>26</v>
-      </c>
-      <c r="H178" t="b">
-        <v>0</v>
-      </c>
-      <c r="I178" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" t="b">
-        <v>1</v>
-      </c>
-      <c r="K178" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" t="b">
-        <v>0</v>
-      </c>
-      <c r="M178" t="b">
-        <v>0</v>
-      </c>
-      <c r="N178" t="s">
-        <v>19</v>
-      </c>
       <c r="P178" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -8181,22 +8190,22 @@
         <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="E179" t="s">
         <v>19</v>
       </c>
-      <c r="F179" t="s">
-        <v>19</v>
+      <c r="F179">
+        <v>60</v>
       </c>
       <c r="G179" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H179" t="b">
         <v>0</v>
       </c>
       <c r="I179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="b">
         <v>1</v>
@@ -8228,7 +8237,7 @@
         <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="E180" t="s">
         <v>19</v>
@@ -8275,25 +8284,25 @@
         <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E181" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="F181" t="s">
         <v>19</v>
       </c>
       <c r="G181" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H181" t="b">
         <v>0</v>
       </c>
       <c r="I181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" t="b">
         <v>0</v>
@@ -8311,101 +8320,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
-      <c r="A183">
+    <row r="182" spans="1:16">
+      <c r="A182" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" t="s">
+        <v>181</v>
+      </c>
+      <c r="E182" t="s">
+        <v>94</v>
+      </c>
+      <c r="F182" t="s">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>92</v>
+      </c>
+      <c r="H182" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" t="b">
+        <v>0</v>
+      </c>
+      <c r="M182" t="b">
+        <v>0</v>
+      </c>
+      <c r="N182" t="s">
+        <v>19</v>
+      </c>
+      <c r="P182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184">
         <v>5</v>
       </c>
-      <c r="B183" t="s">
-        <v>184</v>
-      </c>
-      <c r="C183" t="s">
-        <v>189</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184" t="s">
+        <v>192</v>
+      </c>
+      <c r="D184" t="s">
         <v>18</v>
       </c>
-      <c r="E183" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="E184" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" t="s">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
         <v>20</v>
       </c>
-      <c r="H183" t="b">
-        <v>1</v>
-      </c>
-      <c r="I183" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" t="b">
-        <v>1</v>
-      </c>
-      <c r="K183" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" t="b">
-        <v>0</v>
-      </c>
-      <c r="M183" t="b">
-        <v>0</v>
-      </c>
-      <c r="N183" t="s">
+      <c r="H184" t="b">
+        <v>1</v>
+      </c>
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="b">
+        <v>0</v>
+      </c>
+      <c r="M184" t="b">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>21</v>
       </c>
-      <c r="O183" t="s">
+      <c r="O184" t="s">
         <v>22</v>
       </c>
-      <c r="P183" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16">
-      <c r="A184" t="s">
-        <v>24</v>
-      </c>
-      <c r="B184" t="s">
-        <v>24</v>
-      </c>
-      <c r="C184" t="s">
-        <v>24</v>
-      </c>
-      <c r="D184" t="s">
-        <v>187</v>
-      </c>
-      <c r="E184" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184">
-        <v>60</v>
-      </c>
-      <c r="G184" t="s">
-        <v>26</v>
-      </c>
-      <c r="H184" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" t="b">
-        <v>1</v>
-      </c>
-      <c r="K184" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" t="b">
-        <v>0</v>
-      </c>
-      <c r="M184" t="b">
-        <v>0</v>
-      </c>
-      <c r="N184" t="s">
-        <v>19</v>
-      </c>
       <c r="P184" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -8419,22 +8428,22 @@
         <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="E185" t="s">
         <v>19</v>
       </c>
-      <c r="F185" t="s">
-        <v>19</v>
+      <c r="F185">
+        <v>60</v>
       </c>
       <c r="G185" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H185" t="b">
         <v>0</v>
       </c>
       <c r="I185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="b">
         <v>1</v>
@@ -8466,7 +8475,7 @@
         <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="E186" t="s">
         <v>19</v>
@@ -8513,25 +8522,25 @@
         <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E187" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="F187" t="s">
         <v>19</v>
       </c>
       <c r="G187" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H187" t="b">
         <v>0</v>
       </c>
       <c r="I187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187" t="b">
         <v>0</v>
@@ -8549,101 +8558,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
-      <c r="A189">
+    <row r="188" spans="1:16">
+      <c r="A188" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188" t="s">
+        <v>181</v>
+      </c>
+      <c r="E188" t="s">
+        <v>94</v>
+      </c>
+      <c r="F188" t="s">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>92</v>
+      </c>
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" t="b">
+        <v>0</v>
+      </c>
+      <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" t="b">
+        <v>0</v>
+      </c>
+      <c r="M188" t="b">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
+        <v>19</v>
+      </c>
+      <c r="P188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="A190">
         <v>6</v>
       </c>
-      <c r="B189" t="s">
-        <v>53</v>
-      </c>
-      <c r="C189" t="s">
-        <v>191</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="B190" t="s">
+        <v>52</v>
+      </c>
+      <c r="C190" t="s">
+        <v>194</v>
+      </c>
+      <c r="D190" t="s">
         <v>18</v>
       </c>
-      <c r="E189" t="s">
-        <v>19</v>
-      </c>
-      <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" t="s">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
         <v>20</v>
       </c>
-      <c r="H189" t="b">
-        <v>1</v>
-      </c>
-      <c r="I189" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" t="b">
-        <v>1</v>
-      </c>
-      <c r="K189" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" t="b">
-        <v>0</v>
-      </c>
-      <c r="M189" t="b">
-        <v>0</v>
-      </c>
-      <c r="N189" t="s">
+      <c r="H190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I190" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" t="b">
+        <v>1</v>
+      </c>
+      <c r="K190" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" t="b">
+        <v>0</v>
+      </c>
+      <c r="M190" t="b">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
         <v>21</v>
       </c>
-      <c r="O189" t="s">
+      <c r="O190" t="s">
         <v>22</v>
       </c>
-      <c r="P189" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16">
-      <c r="A190" t="s">
-        <v>24</v>
-      </c>
-      <c r="B190" t="s">
-        <v>24</v>
-      </c>
-      <c r="C190" t="s">
-        <v>24</v>
-      </c>
-      <c r="D190" t="s">
-        <v>187</v>
-      </c>
-      <c r="E190" t="s">
-        <v>19</v>
-      </c>
-      <c r="F190">
-        <v>60</v>
-      </c>
-      <c r="G190" t="s">
-        <v>26</v>
-      </c>
-      <c r="H190" t="b">
-        <v>0</v>
-      </c>
-      <c r="I190" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" t="b">
-        <v>1</v>
-      </c>
-      <c r="K190" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" t="b">
-        <v>0</v>
-      </c>
-      <c r="M190" t="b">
-        <v>0</v>
-      </c>
-      <c r="N190" t="s">
-        <v>19</v>
-      </c>
       <c r="P190" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -8657,22 +8666,22 @@
         <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E191" t="s">
         <v>19</v>
       </c>
-      <c r="F191" t="s">
-        <v>19</v>
+      <c r="F191">
+        <v>60</v>
       </c>
       <c r="G191" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
       </c>
       <c r="I191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="b">
         <v>1</v>
@@ -8704,7 +8713,7 @@
         <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8751,25 +8760,25 @@
         <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="E193" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="F193" t="s">
         <v>19</v>
       </c>
       <c r="G193" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
       </c>
       <c r="I193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
@@ -8787,68 +8796,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
-      <c r="A195">
+    <row r="194" spans="1:16">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" t="s">
+        <v>24</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" t="s">
+        <v>181</v>
+      </c>
+      <c r="E194" t="s">
+        <v>94</v>
+      </c>
+      <c r="F194" t="s">
+        <v>19</v>
+      </c>
+      <c r="G194" t="s">
+        <v>92</v>
+      </c>
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" t="b">
+        <v>0</v>
+      </c>
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" t="b">
+        <v>0</v>
+      </c>
+      <c r="M194" t="b">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
+        <v>19</v>
+      </c>
+      <c r="P194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="A196">
         <v>5</v>
       </c>
-      <c r="B195" t="s">
-        <v>136</v>
-      </c>
-      <c r="C195" t="s">
-        <v>193</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="B196" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" t="s">
+        <v>196</v>
+      </c>
+      <c r="D196" t="s">
         <v>18</v>
-      </c>
-      <c r="E195" t="s">
-        <v>19</v>
-      </c>
-      <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
-        <v>20</v>
-      </c>
-      <c r="H195" t="b">
-        <v>1</v>
-      </c>
-      <c r="I195" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" t="b">
-        <v>1</v>
-      </c>
-      <c r="K195" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" t="b">
-        <v>0</v>
-      </c>
-      <c r="M195" t="b">
-        <v>0</v>
-      </c>
-      <c r="N195" t="s">
-        <v>21</v>
-      </c>
-      <c r="O195" t="s">
-        <v>22</v>
-      </c>
-      <c r="P195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16">
-      <c r="A196" t="s">
-        <v>24</v>
-      </c>
-      <c r="B196" t="s">
-        <v>24</v>
-      </c>
-      <c r="C196" t="s">
-        <v>24</v>
-      </c>
-      <c r="D196" t="s">
-        <v>168</v>
       </c>
       <c r="E196" t="s">
         <v>19</v>
@@ -8860,10 +8866,10 @@
         <v>20</v>
       </c>
       <c r="H196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="b">
         <v>1</v>
@@ -8878,10 +8884,13 @@
         <v>0</v>
       </c>
       <c r="N196" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O196" t="s">
+        <v>22</v>
       </c>
       <c r="P196" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -8895,7 +8904,7 @@
         <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E197" t="s">
         <v>19</v>
@@ -8942,25 +8951,25 @@
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="E198" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="F198" t="s">
         <v>19</v>
       </c>
       <c r="G198" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
       </c>
       <c r="I198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198" t="b">
         <v>0</v>
@@ -8978,68 +8987,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
-      <c r="A200">
+    <row r="199" spans="1:16">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>198</v>
+      </c>
+      <c r="E199" t="s">
+        <v>94</v>
+      </c>
+      <c r="F199" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" t="s">
+        <v>92</v>
+      </c>
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" t="b">
+        <v>0</v>
+      </c>
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" t="b">
+        <v>0</v>
+      </c>
+      <c r="M199" t="b">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
+        <v>19</v>
+      </c>
+      <c r="P199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201">
         <v>5</v>
       </c>
-      <c r="B200" t="s">
-        <v>184</v>
-      </c>
-      <c r="C200" t="s">
-        <v>196</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="B201" t="s">
+        <v>187</v>
+      </c>
+      <c r="C201" t="s">
+        <v>199</v>
+      </c>
+      <c r="D201" t="s">
         <v>18</v>
-      </c>
-      <c r="E200" t="s">
-        <v>19</v>
-      </c>
-      <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" t="s">
-        <v>20</v>
-      </c>
-      <c r="H200" t="b">
-        <v>1</v>
-      </c>
-      <c r="I200" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" t="b">
-        <v>1</v>
-      </c>
-      <c r="K200" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" t="b">
-        <v>0</v>
-      </c>
-      <c r="M200" t="b">
-        <v>0</v>
-      </c>
-      <c r="N200" t="s">
-        <v>21</v>
-      </c>
-      <c r="O200" t="s">
-        <v>22</v>
-      </c>
-      <c r="P200" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16">
-      <c r="A201" t="s">
-        <v>24</v>
-      </c>
-      <c r="B201" t="s">
-        <v>24</v>
-      </c>
-      <c r="C201" t="s">
-        <v>24</v>
-      </c>
-      <c r="D201" t="s">
-        <v>198</v>
       </c>
       <c r="E201" t="s">
         <v>19</v>
@@ -9051,10 +9057,10 @@
         <v>20</v>
       </c>
       <c r="H201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="b">
         <v>1</v>
@@ -9069,10 +9075,13 @@
         <v>0</v>
       </c>
       <c r="N201" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O201" t="s">
+        <v>22</v>
       </c>
       <c r="P201" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -9086,7 +9095,7 @@
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="E202" t="s">
         <v>19</v>
@@ -9133,25 +9142,25 @@
         <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="E203" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="F203" t="s">
         <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
       </c>
       <c r="I203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -9169,68 +9178,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
-      <c r="A205">
+    <row r="204" spans="1:16">
+      <c r="A204" t="s">
+        <v>24</v>
+      </c>
+      <c r="B204" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" t="s">
+        <v>202</v>
+      </c>
+      <c r="E204" t="s">
+        <v>94</v>
+      </c>
+      <c r="F204" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" t="s">
+        <v>92</v>
+      </c>
+      <c r="H204" t="b">
+        <v>0</v>
+      </c>
+      <c r="I204" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" t="b">
+        <v>0</v>
+      </c>
+      <c r="K204" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" t="b">
+        <v>0</v>
+      </c>
+      <c r="M204" t="b">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
+        <v>19</v>
+      </c>
+      <c r="P204" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206">
         <v>7</v>
       </c>
-      <c r="B205" t="s">
-        <v>100</v>
-      </c>
-      <c r="C205" t="s">
-        <v>200</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="B206" t="s">
+        <v>102</v>
+      </c>
+      <c r="C206" t="s">
+        <v>203</v>
+      </c>
+      <c r="D206" t="s">
         <v>18</v>
-      </c>
-      <c r="E205" t="s">
-        <v>19</v>
-      </c>
-      <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>20</v>
-      </c>
-      <c r="H205" t="b">
-        <v>1</v>
-      </c>
-      <c r="I205" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" t="b">
-        <v>1</v>
-      </c>
-      <c r="K205" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" t="b">
-        <v>0</v>
-      </c>
-      <c r="M205" t="b">
-        <v>0</v>
-      </c>
-      <c r="N205" t="s">
-        <v>21</v>
-      </c>
-      <c r="O205" t="s">
-        <v>22</v>
-      </c>
-      <c r="P205" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16">
-      <c r="A206" t="s">
-        <v>24</v>
-      </c>
-      <c r="B206" t="s">
-        <v>24</v>
-      </c>
-      <c r="C206" t="s">
-        <v>24</v>
-      </c>
-      <c r="D206" t="s">
-        <v>169</v>
       </c>
       <c r="E206" t="s">
         <v>19</v>
@@ -9242,10 +9248,10 @@
         <v>20</v>
       </c>
       <c r="H206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="b">
         <v>1</v>
@@ -9262,8 +9268,11 @@
       <c r="N206" t="s">
         <v>21</v>
       </c>
+      <c r="O206" t="s">
+        <v>22</v>
+      </c>
       <c r="P206" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -9277,7 +9286,7 @@
         <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E207" t="s">
         <v>19</v>
@@ -9307,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="N207" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P207" t="s">
         <v>24</v>
@@ -9324,10 +9333,10 @@
         <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>175</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
       </c>
       <c r="F208" t="s">
         <v>19</v>
@@ -9339,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="b">
         <v>1</v>
@@ -9371,16 +9380,16 @@
         <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
-      <c r="F209">
+      <c r="F209" t="s">
         <v>19</v>
       </c>
       <c r="G209" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="H209" t="b">
         <v>0</v>
@@ -9401,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N209" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="P209" t="s">
         <v>24</v>
@@ -9418,107 +9427,104 @@
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>177</v>
-      </c>
-      <c r="E210" t="s">
-        <v>19</v>
-      </c>
-      <c r="F210" t="s">
+        <v>147</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
         <v>19</v>
       </c>
       <c r="G210" t="s">
+        <v>146</v>
+      </c>
+      <c r="H210" t="b">
+        <v>0</v>
+      </c>
+      <c r="I210" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" t="b">
+        <v>1</v>
+      </c>
+      <c r="K210" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" t="b">
+        <v>0</v>
+      </c>
+      <c r="M210" t="b">
+        <v>0</v>
+      </c>
+      <c r="N210" t="s">
+        <v>144</v>
+      </c>
+      <c r="P210" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16">
+      <c r="A211" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" t="s">
+        <v>24</v>
+      </c>
+      <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211" t="s">
+        <v>180</v>
+      </c>
+      <c r="E211" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" t="s">
+        <v>19</v>
+      </c>
+      <c r="G211" t="s">
         <v>20</v>
       </c>
-      <c r="H210" t="b">
-        <v>0</v>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="b">
-        <v>0</v>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="b">
-        <v>0</v>
-      </c>
-      <c r="M210" t="b">
-        <v>1</v>
-      </c>
-      <c r="N210" t="s">
-        <v>19</v>
-      </c>
-      <c r="P210" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16">
-      <c r="A212">
+      <c r="H211" t="b">
+        <v>0</v>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="b">
+        <v>0</v>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="b">
+        <v>0</v>
+      </c>
+      <c r="M211" t="b">
+        <v>1</v>
+      </c>
+      <c r="N211" t="s">
+        <v>19</v>
+      </c>
+      <c r="P211" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16">
+      <c r="A213">
         <v>7</v>
       </c>
-      <c r="B212" t="s">
-        <v>53</v>
-      </c>
-      <c r="C212" t="s">
-        <v>202</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="B213" t="s">
+        <v>52</v>
+      </c>
+      <c r="C213" t="s">
+        <v>205</v>
+      </c>
+      <c r="D213" t="s">
         <v>18</v>
       </c>
-      <c r="E212" t="s">
-        <v>19</v>
-      </c>
-      <c r="F212" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" t="s">
-        <v>20</v>
-      </c>
-      <c r="H212" t="b">
-        <v>1</v>
-      </c>
-      <c r="I212" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" t="b">
-        <v>1</v>
-      </c>
-      <c r="K212" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" t="b">
-        <v>0</v>
-      </c>
-      <c r="M212" t="b">
-        <v>0</v>
-      </c>
-      <c r="N212" t="s">
-        <v>21</v>
-      </c>
-      <c r="O212" t="s">
-        <v>22</v>
-      </c>
-      <c r="P212" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16">
-      <c r="A213" t="s">
-        <v>24</v>
-      </c>
-      <c r="B213" t="s">
-        <v>24</v>
-      </c>
-      <c r="C213" t="s">
-        <v>24</v>
-      </c>
-      <c r="D213" t="s">
-        <v>204</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
+      <c r="E213" t="s">
+        <v>19</v>
       </c>
       <c r="F213" t="s">
         <v>19</v>
@@ -9527,7 +9533,7 @@
         <v>20</v>
       </c>
       <c r="H213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="b">
         <v>0</v>
@@ -9545,10 +9551,13 @@
         <v>0</v>
       </c>
       <c r="N213" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O213" t="s">
+        <v>22</v>
       </c>
       <c r="P213" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -9562,16 +9571,16 @@
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>205</v>
-      </c>
-      <c r="E214" t="s">
-        <v>93</v>
+        <v>207</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
       </c>
       <c r="F214" t="s">
         <v>19</v>
       </c>
       <c r="G214" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H214" t="b">
         <v>0</v>
@@ -9580,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -9609,25 +9618,25 @@
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="E215" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F215" t="s">
         <v>19</v>
       </c>
       <c r="G215" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="H215" t="b">
         <v>0</v>
       </c>
       <c r="I215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
@@ -9656,7 +9665,7 @@
         <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E216" t="s">
         <v>19</v>
@@ -9703,7 +9712,7 @@
         <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="E217" t="s">
         <v>19</v>
@@ -9750,7 +9759,7 @@
         <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E218" t="s">
         <v>19</v>
@@ -9768,21 +9777,68 @@
         <v>1</v>
       </c>
       <c r="J218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L218" t="b">
         <v>0</v>
       </c>
       <c r="M218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N218" t="s">
         <v>19</v>
       </c>
       <c r="P218" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16">
+      <c r="A219" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" t="s">
+        <v>171</v>
+      </c>
+      <c r="E219" t="s">
+        <v>19</v>
+      </c>
+      <c r="F219" t="s">
+        <v>19</v>
+      </c>
+      <c r="G219" t="s">
+        <v>20</v>
+      </c>
+      <c r="H219" t="b">
+        <v>0</v>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="b">
+        <v>0</v>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="b">
+        <v>0</v>
+      </c>
+      <c r="M219" t="b">
+        <v>1</v>
+      </c>
+      <c r="N219" t="s">
+        <v>19</v>
+      </c>
+      <c r="P219" t="s">
         <v>24</v>
       </c>
     </row>

--- a/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
+++ b/TechspireSite/TechspireSite/GeneratedFiles/DataDict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="209">
   <si>
     <t>Load Order</t>
   </si>
@@ -220,9 +220,6 @@
     <t>zip_code</t>
   </si>
   <si>
-    <t>77339</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -625,7 +622,7 @@
     <t>reward_assigned</t>
   </si>
   <si>
-    <t>CustomerReward</t>
+    <t>OrderReward</t>
   </si>
   <si>
     <t>Effectively the reward equivalent to OrderLine for transactions.</t>
@@ -2910,7 +2907,7 @@
         <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -2954,10 +2951,10 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
         <v>69</v>
-      </c>
-      <c r="E52" t="s">
-        <v>70</v>
       </c>
       <c r="F52">
         <v>35</v>
@@ -3001,10 +2998,10 @@
         <v>24</v>
       </c>
       <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" t="s">
         <v>71</v>
-      </c>
-      <c r="E53" t="s">
-        <v>72</v>
       </c>
       <c r="F53">
         <v>100</v>
@@ -3048,7 +3045,7 @@
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54">
         <v>1407</v>
@@ -3139,7 +3136,7 @@
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -3178,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="P57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3192,7 +3189,7 @@
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
@@ -3239,7 +3236,7 @@
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -3286,7 +3283,7 @@
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3330,7 +3327,7 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -3369,7 +3366,7 @@
         <v>22</v>
       </c>
       <c r="P62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3383,7 +3380,7 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -3430,7 +3427,7 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -3474,7 +3471,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -3513,7 +3510,7 @@
         <v>22</v>
       </c>
       <c r="P66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3527,7 +3524,7 @@
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3574,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -3621,7 +3618,7 @@
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
@@ -3668,10 +3665,10 @@
         <v>24</v>
       </c>
       <c r="D70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" t="s">
         <v>88</v>
-      </c>
-      <c r="E70" t="s">
-        <v>89</v>
       </c>
       <c r="F70">
         <v>15</v>
@@ -3701,7 +3698,7 @@
         <v>19</v>
       </c>
       <c r="O70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P70" t="s">
         <v>24</v>
@@ -3718,16 +3715,16 @@
         <v>24</v>
       </c>
       <c r="D71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
         <v>91</v>
-      </c>
-      <c r="E71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>92</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3765,40 +3762,40 @@
         <v>24</v>
       </c>
       <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" t="s">
         <v>93</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>19</v>
+      </c>
+      <c r="O72" t="s">
         <v>94</v>
-      </c>
-      <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>92</v>
-      </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72" t="b">
-        <v>0</v>
-      </c>
-      <c r="N72" t="s">
-        <v>19</v>
-      </c>
-      <c r="O72" t="s">
-        <v>95</v>
       </c>
       <c r="P72" t="s">
         <v>24</v>
@@ -3815,7 +3812,7 @@
         <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3862,13 +3859,13 @@
         <v>24</v>
       </c>
       <c r="D74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
         <v>97</v>
-      </c>
-      <c r="E74" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" t="s">
-        <v>98</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
@@ -3909,7 +3906,7 @@
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -3918,7 +3915,7 @@
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -3956,7 +3953,7 @@
         <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -4003,7 +4000,7 @@
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -4044,10 +4041,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" t="s">
         <v>102</v>
-      </c>
-      <c r="C79" t="s">
-        <v>103</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -4086,7 +4083,7 @@
         <v>22</v>
       </c>
       <c r="P79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4100,7 +4097,7 @@
         <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4147,7 +4144,7 @@
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4194,7 +4191,7 @@
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -4241,10 +4238,10 @@
         <v>24</v>
       </c>
       <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
         <v>88</v>
-      </c>
-      <c r="E83" t="s">
-        <v>89</v>
       </c>
       <c r="F83">
         <v>15</v>
@@ -4274,7 +4271,7 @@
         <v>19</v>
       </c>
       <c r="O83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P83" t="s">
         <v>24</v>
@@ -4291,16 +4288,16 @@
         <v>24</v>
       </c>
       <c r="D84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
         <v>91</v>
-      </c>
-      <c r="E84" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>92</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -4338,40 +4335,40 @@
         <v>24</v>
       </c>
       <c r="D85" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" t="s">
         <v>93</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>19</v>
+      </c>
+      <c r="O85" t="s">
         <v>94</v>
-      </c>
-      <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>92</v>
-      </c>
-      <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" t="b">
-        <v>0</v>
-      </c>
-      <c r="M85" t="b">
-        <v>0</v>
-      </c>
-      <c r="N85" t="s">
-        <v>19</v>
-      </c>
-      <c r="O85" t="s">
-        <v>95</v>
       </c>
       <c r="P85" t="s">
         <v>24</v>
@@ -4388,13 +4385,13 @@
         <v>24</v>
       </c>
       <c r="D86" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
         <v>97</v>
-      </c>
-      <c r="E86" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" t="s">
-        <v>98</v>
       </c>
       <c r="G86" t="s">
         <v>26</v>
@@ -4435,7 +4432,7 @@
         <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -4482,7 +4479,7 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4529,7 +4526,7 @@
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4576,7 +4573,7 @@
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4623,7 +4620,7 @@
         <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4670,7 +4667,7 @@
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4717,7 +4714,7 @@
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E93" t="s">
         <v>19</v>
@@ -4761,7 +4758,7 @@
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -4800,7 +4797,7 @@
         <v>22</v>
       </c>
       <c r="P95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4814,7 +4811,7 @@
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
@@ -4861,7 +4858,7 @@
         <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -4905,7 +4902,7 @@
         <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -4944,7 +4941,7 @@
         <v>22</v>
       </c>
       <c r="P99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4958,7 +4955,7 @@
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -5005,7 +5002,7 @@
         <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
@@ -5049,7 +5046,7 @@
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -5088,7 +5085,7 @@
         <v>22</v>
       </c>
       <c r="P103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5102,7 +5099,7 @@
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -5149,7 +5146,7 @@
         <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E105" t="s">
         <v>19</v>
@@ -5193,7 +5190,7 @@
         <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -5232,7 +5229,7 @@
         <v>22</v>
       </c>
       <c r="P107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5246,7 +5243,7 @@
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
@@ -5293,7 +5290,7 @@
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
@@ -5337,7 +5334,7 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -5376,7 +5373,7 @@
         <v>22</v>
       </c>
       <c r="P111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5390,7 +5387,7 @@
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -5437,10 +5434,10 @@
         <v>24</v>
       </c>
       <c r="D113" t="s">
+        <v>87</v>
+      </c>
+      <c r="E113" t="s">
         <v>88</v>
-      </c>
-      <c r="E113" t="s">
-        <v>89</v>
       </c>
       <c r="F113">
         <v>15</v>
@@ -5470,7 +5467,7 @@
         <v>19</v>
       </c>
       <c r="O113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P113" t="s">
         <v>24</v>
@@ -5487,7 +5484,7 @@
         <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E114" t="s">
         <v>19</v>
@@ -5534,7 +5531,7 @@
         <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
@@ -5581,7 +5578,7 @@
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
@@ -5628,7 +5625,7 @@
         <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -5675,7 +5672,7 @@
         <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E118" t="s">
         <v>19</v>
@@ -5684,7 +5681,7 @@
         <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -5722,7 +5719,7 @@
         <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
@@ -5731,7 +5728,7 @@
         <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -5769,16 +5766,16 @@
         <v>24</v>
       </c>
       <c r="D120" t="s">
+        <v>130</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s">
         <v>131</v>
-      </c>
-      <c r="E120" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>132</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -5813,7 +5810,7 @@
         <v>64</v>
       </c>
       <c r="C122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D122" t="s">
         <v>18</v>
@@ -5852,7 +5849,7 @@
         <v>22</v>
       </c>
       <c r="P122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -5866,16 +5863,16 @@
         <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E123" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -5913,7 +5910,7 @@
         <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E124" t="s">
         <v>19</v>
@@ -5960,7 +5957,7 @@
         <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -6007,7 +6004,7 @@
         <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -6048,10 +6045,10 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
         <v>138</v>
-      </c>
-      <c r="C128" t="s">
-        <v>139</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
@@ -6090,7 +6087,7 @@
         <v>22</v>
       </c>
       <c r="P128" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -6104,16 +6101,16 @@
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -6151,37 +6148,37 @@
         <v>24</v>
       </c>
       <c r="D130" t="s">
+        <v>141</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
         <v>142</v>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="b">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
         <v>143</v>
-      </c>
-      <c r="H130" t="b">
-        <v>0</v>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" t="b">
-        <v>1</v>
-      </c>
-      <c r="K130" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" t="b">
-        <v>0</v>
-      </c>
-      <c r="M130" t="b">
-        <v>0</v>
-      </c>
-      <c r="N130" t="s">
-        <v>144</v>
       </c>
       <c r="P130" t="s">
         <v>24</v>
@@ -6198,17 +6195,17 @@
         <v>24</v>
       </c>
       <c r="D131" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
         <v>145</v>
       </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>146</v>
-      </c>
       <c r="H131" t="b">
         <v>0</v>
       </c>
@@ -6228,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="N131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P131" t="s">
         <v>24</v>
@@ -6245,7 +6242,7 @@
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6254,7 +6251,7 @@
         <v>19</v>
       </c>
       <c r="G132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H132" t="b">
         <v>0</v>
@@ -6275,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="N132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P132" t="s">
         <v>24</v>
@@ -6292,7 +6289,7 @@
         <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -6301,7 +6298,7 @@
         <v>19</v>
       </c>
       <c r="G133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -6322,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P133" t="s">
         <v>24</v>
@@ -6339,7 +6336,7 @@
         <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6386,7 +6383,7 @@
         <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -6433,7 +6430,7 @@
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6480,7 +6477,7 @@
         <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
@@ -6527,7 +6524,7 @@
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -6574,7 +6571,7 @@
         <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
@@ -6621,7 +6618,7 @@
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
@@ -6665,7 +6662,7 @@
         <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
@@ -6704,7 +6701,7 @@
         <v>22</v>
       </c>
       <c r="P142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -6718,7 +6715,7 @@
         <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -6765,7 +6762,7 @@
         <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E144" t="s">
         <v>19</v>
@@ -6809,7 +6806,7 @@
         <v>41</v>
       </c>
       <c r="C146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
         <v>18</v>
@@ -6848,7 +6845,7 @@
         <v>22</v>
       </c>
       <c r="P146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -6862,7 +6859,7 @@
         <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E147" t="s">
         <v>19</v>
@@ -6909,7 +6906,7 @@
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E148" t="s">
         <v>19</v>
@@ -6956,7 +6953,7 @@
         <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -6965,7 +6962,7 @@
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
@@ -6986,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P149" t="s">
         <v>24</v>
@@ -7003,7 +7000,7 @@
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
@@ -7050,7 +7047,7 @@
         <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
@@ -7097,7 +7094,7 @@
         <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E152" t="s">
         <v>19</v>
@@ -7138,10 +7135,10 @@
         <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C154" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
@@ -7180,7 +7177,7 @@
         <v>22</v>
       </c>
       <c r="P154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -7194,7 +7191,7 @@
         <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7241,7 +7238,7 @@
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7250,7 +7247,7 @@
         <v>19</v>
       </c>
       <c r="G156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
@@ -7271,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P156" t="s">
         <v>24</v>
@@ -7288,7 +7285,7 @@
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7297,7 +7294,7 @@
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -7318,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P157" t="s">
         <v>24</v>
@@ -7335,7 +7332,7 @@
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E158" t="s">
         <v>19</v>
@@ -7382,7 +7379,7 @@
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E159" t="s">
         <v>19</v>
@@ -7429,7 +7426,7 @@
         <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E160" t="b">
         <v>1</v>
@@ -7473,7 +7470,7 @@
         <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D162" t="s">
         <v>18</v>
@@ -7512,7 +7509,7 @@
         <v>22</v>
       </c>
       <c r="P162" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -7526,7 +7523,7 @@
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E163" t="s">
         <v>19</v>
@@ -7573,7 +7570,7 @@
         <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E164" t="s">
         <v>19</v>
@@ -7620,7 +7617,7 @@
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
@@ -7667,7 +7664,7 @@
         <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7714,7 +7711,7 @@
         <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7761,7 +7758,7 @@
         <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7770,7 +7767,7 @@
         <v>19</v>
       </c>
       <c r="G168" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H168" t="b">
         <v>0</v>
@@ -7791,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="N168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P168" t="s">
         <v>24</v>
@@ -7808,7 +7805,7 @@
         <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E169" t="s">
         <v>19</v>
@@ -7855,7 +7852,7 @@
         <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -7902,16 +7899,16 @@
         <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E171" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F171" t="s">
         <v>19</v>
       </c>
       <c r="G171" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
@@ -7949,7 +7946,7 @@
         <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E172" t="s">
         <v>19</v>
@@ -7958,7 +7955,7 @@
         <v>19</v>
       </c>
       <c r="G172" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H172" t="b">
         <v>0</v>
@@ -7990,10 +7987,10 @@
         <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D174" t="s">
         <v>18</v>
@@ -8032,7 +8029,7 @@
         <v>22</v>
       </c>
       <c r="P174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -8046,7 +8043,7 @@
         <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E175" t="s">
         <v>19</v>
@@ -8093,7 +8090,7 @@
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -8134,10 +8131,10 @@
         <v>5</v>
       </c>
       <c r="B178" t="s">
+        <v>186</v>
+      </c>
+      <c r="C178" t="s">
         <v>187</v>
-      </c>
-      <c r="C178" t="s">
-        <v>188</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
@@ -8176,7 +8173,7 @@
         <v>22</v>
       </c>
       <c r="P178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -8190,7 +8187,7 @@
         <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E179" t="s">
         <v>19</v>
@@ -8237,7 +8234,7 @@
         <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E180" t="s">
         <v>19</v>
@@ -8284,7 +8281,7 @@
         <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E181" t="s">
         <v>19</v>
@@ -8331,16 +8328,16 @@
         <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F182" t="s">
         <v>19</v>
       </c>
       <c r="G182" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -8372,10 +8369,10 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D184" t="s">
         <v>18</v>
@@ -8414,7 +8411,7 @@
         <v>22</v>
       </c>
       <c r="P184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -8428,7 +8425,7 @@
         <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E185" t="s">
         <v>19</v>
@@ -8475,7 +8472,7 @@
         <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E186" t="s">
         <v>19</v>
@@ -8522,7 +8519,7 @@
         <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E187" t="s">
         <v>19</v>
@@ -8569,16 +8566,16 @@
         <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E188" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F188" t="s">
         <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
@@ -8613,7 +8610,7 @@
         <v>52</v>
       </c>
       <c r="C190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D190" t="s">
         <v>18</v>
@@ -8652,7 +8649,7 @@
         <v>22</v>
       </c>
       <c r="P190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -8666,7 +8663,7 @@
         <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E191" t="s">
         <v>19</v>
@@ -8713,7 +8710,7 @@
         <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -8760,7 +8757,7 @@
         <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -8807,16 +8804,16 @@
         <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F194" t="s">
         <v>19</v>
       </c>
       <c r="G194" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
@@ -8848,10 +8845,10 @@
         <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -8890,7 +8887,7 @@
         <v>22</v>
       </c>
       <c r="P196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -8904,7 +8901,7 @@
         <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E197" t="s">
         <v>19</v>
@@ -8951,7 +8948,7 @@
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E198" t="s">
         <v>19</v>
@@ -8998,16 +8995,16 @@
         <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E199" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F199" t="s">
         <v>19</v>
       </c>
       <c r="G199" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H199" t="b">
         <v>0</v>
@@ -9039,10 +9036,10 @@
         <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
@@ -9081,7 +9078,7 @@
         <v>22</v>
       </c>
       <c r="P201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -9095,7 +9092,7 @@
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E202" t="s">
         <v>19</v>
@@ -9142,7 +9139,7 @@
         <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E203" t="s">
         <v>19</v>
@@ -9189,16 +9186,16 @@
         <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E204" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F204" t="s">
         <v>19</v>
       </c>
       <c r="G204" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H204" t="b">
         <v>0</v>
@@ -9230,10 +9227,10 @@
         <v>7</v>
       </c>
       <c r="B206" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D206" t="s">
         <v>18</v>
@@ -9272,7 +9269,7 @@
         <v>22</v>
       </c>
       <c r="P206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -9286,7 +9283,7 @@
         <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E207" t="s">
         <v>19</v>
@@ -9333,7 +9330,7 @@
         <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E208" t="s">
         <v>19</v>
@@ -9380,7 +9377,7 @@
         <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -9427,7 +9424,7 @@
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -9436,7 +9433,7 @@
         <v>19</v>
       </c>
       <c r="G210" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H210" t="b">
         <v>0</v>
@@ -9457,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="N210" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P210" t="s">
         <v>24</v>
@@ -9474,7 +9471,7 @@
         <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E211" t="s">
         <v>19</v>
@@ -9518,7 +9515,7 @@
         <v>52</v>
       </c>
       <c r="C213" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D213" t="s">
         <v>18</v>
@@ -9557,7 +9554,7 @@
         <v>22</v>
       </c>
       <c r="P213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -9571,7 +9568,7 @@
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -9618,16 +9615,16 @@
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E215" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F215" t="s">
         <v>19</v>
       </c>
       <c r="G215" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H215" t="b">
         <v>0</v>
@@ -9665,7 +9662,7 @@
         <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E216" t="s">
         <v>19</v>
@@ -9712,7 +9709,7 @@
         <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E217" t="s">
         <v>19</v>
@@ -9759,7 +9756,7 @@
         <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E218" t="s">
         <v>19</v>
@@ -9806,7 +9803,7 @@
         <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E219" t="s">
         <v>19</v>
